--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C41CC1-F73A-4288-B426-F5CB569AF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620B1A6-D85A-4BD8-BBB7-340B00B21AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,19 +256,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우구슬</t>
+    <t>일류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초절정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생사경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초상비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수상비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애환인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검객</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5급 등반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4급 등반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3급 등반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2급 등반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1급 등반가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연홍길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호꺽정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬픈 동자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소상공인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -648,9 +732,10 @@
     <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,8 +772,11 @@
       <c r="L1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -705,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10000</v>
+        <v>10000000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -723,10 +811,13 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -743,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20000</v>
+        <v>10000000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -761,10 +852,13 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -781,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>30000</v>
+        <v>10000000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -801,8 +895,11 @@
       <c r="L4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -819,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>40000</v>
+        <v>15000000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -837,10 +934,13 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -857,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>50000</v>
+        <v>15000000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -875,10 +975,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -895,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>60000</v>
+        <v>15000000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -913,10 +1016,13 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -933,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>70000</v>
+        <v>20000000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -951,10 +1057,13 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -971,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>80000</v>
+        <v>20000000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -989,10 +1098,13 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1009,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>90000</v>
+        <v>20000000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1027,10 +1139,13 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1047,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>100000</v>
+        <v>25000000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1065,10 +1180,13 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1085,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>110000</v>
+        <v>25000000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1103,10 +1221,13 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1120,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>120000</v>
+        <v>500000</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1141,10 +1262,13 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1158,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>130000</v>
+        <v>600000</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1179,10 +1303,13 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1196,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>140000</v>
+        <v>700000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1217,10 +1344,13 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1234,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>150000</v>
+        <v>800000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1255,10 +1385,13 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1272,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>160000</v>
+        <v>900000</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1293,10 +1426,13 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1310,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>170000</v>
+        <v>1000000</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1331,10 +1467,13 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1348,10 +1487,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>180000</v>
+        <v>1100000</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1369,10 +1508,13 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1386,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>190000</v>
+        <v>50000000</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1407,10 +1549,13 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1424,10 +1569,10 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>200000</v>
+        <v>80000000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1445,10 +1590,13 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1462,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>210000</v>
+        <v>50000000</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1483,10 +1631,13 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1500,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>220000</v>
+        <v>80000000</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1521,10 +1672,13 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1538,10 +1692,10 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>230000</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1559,10 +1713,13 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1576,10 +1733,10 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>240000</v>
+        <v>30</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1597,7 +1754,10 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>70</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620B1A6-D85A-4BD8-BBB7-340B00B21AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC13F63-B062-49E5-AAC6-817A3721DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2550" windowWidth="26565" windowHeight="9915" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>20000000</v>
+        <v>25000000</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>25000000</v>
+        <v>30000000</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>25000000</v>
+        <v>30000000</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>0</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC13F63-B062-49E5-AAC6-817A3721DA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C4471-756C-4CE5-984C-AE4D98C3326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -719,23 +719,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1776,12 +1776,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C4471-756C-4CE5-984C-AE4D98C3326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD8BE5-087F-436A-9DA9-45C4F12718D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,74 @@
   </si>
   <si>
     <t>소상공인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title24</t>
+  </si>
+  <si>
+    <t>title25</t>
+  </si>
+  <si>
+    <t>title26</t>
+  </si>
+  <si>
+    <t>title27</t>
+  </si>
+  <si>
+    <t>영혼 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼 베기 LV100(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제물 계약(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계 돌파 LV1000(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심장 베기 LV1000(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 450 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등반왕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +428,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,13 +444,52 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,17 +501,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -717,25 +845,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,745 +905,745 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>15000000</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G2" s="1">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>15000000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="G3" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>15000000</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="G4" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15000</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>20000000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="G5" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>20000000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>10</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
         <v>20000000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="G7" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>25000000</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="G8" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>25000000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="G9" s="1">
+        <v>11</v>
+      </c>
+      <c r="H9" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>25000000</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="G10" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" s="1">
+        <v>60000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>30000000</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="G11" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1">
+        <v>90000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>30000000</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>110000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>500000</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
         <v>5</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>600000</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>10</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="G14" s="2">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>700000</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>10</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="G15" s="2">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>5</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>800000</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="G16" s="2">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>900000</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>10</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="G17" s="2">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>5</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>1000000</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="G18" s="2">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1100000</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>10</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="G19" s="2">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>10</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1534,10 +1663,10 @@
         <v>50000000</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1555,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1575,10 +1704,10 @@
         <v>100000000</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -1596,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1616,10 +1745,10 @@
         <v>50000000</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -1637,7 +1766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1657,10 +1786,10 @@
         <v>100000000</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -1678,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1698,10 +1827,10 @@
         <v>35</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>10</v>
@@ -1719,7 +1848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1739,10 +1868,10 @@
         <v>35</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -1758,6 +1887,252 @@
       </c>
       <c r="M25">
         <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
+        <v>35</v>
+      </c>
+      <c r="G26" s="3">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3">
+        <v>150</v>
+      </c>
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
+        <v>35</v>
+      </c>
+      <c r="G27" s="3">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="3">
+        <v>35</v>
+      </c>
+      <c r="G28" s="3">
+        <v>18</v>
+      </c>
+      <c r="H28" s="3">
+        <v>150</v>
+      </c>
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3">
+        <v>35</v>
+      </c>
+      <c r="G29" s="3">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1300000</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M31" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1776,12 +2151,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -1789,7 +2164,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1802,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1815,7 +2190,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1828,7 +2203,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1841,7 +2216,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1854,7 +2229,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1867,7 +2242,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1880,7 +2255,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1893,7 +2268,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1906,7 +2281,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1919,7 +2294,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1932,7 +2307,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1945,7 +2320,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1958,7 +2333,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1971,7 +2346,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1984,7 +2359,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1997,7 +2372,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2010,7 +2385,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2023,7 +2398,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2036,7 +2411,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2049,7 +2424,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2062,7 +2437,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2075,7 +2450,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2088,7 +2463,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2101,7 +2476,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2114,7 +2489,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2127,7 +2502,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2140,7 +2515,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2153,7 +2528,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2166,7 +2541,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2179,7 +2554,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2192,7 +2567,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2205,7 +2580,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2218,7 +2593,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2231,7 +2606,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2244,7 +2619,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2257,7 +2632,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2270,7 +2645,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2283,7 +2658,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2296,7 +2671,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2309,7 +2684,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2322,7 +2697,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2335,7 +2710,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2348,7 +2723,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2361,7 +2736,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2374,7 +2749,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2387,7 +2762,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2400,7 +2775,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2413,7 +2788,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2426,7 +2801,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2439,7 +2814,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2452,7 +2827,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2465,7 +2840,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2478,7 +2853,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2491,7 +2866,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2504,7 +2879,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2517,7 +2892,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2530,7 +2905,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2543,7 +2918,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2556,7 +2931,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2569,7 +2944,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2582,7 +2957,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2595,7 +2970,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2608,7 +2983,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2621,7 +2996,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2634,7 +3009,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2647,7 +3022,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2660,7 +3035,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2673,7 +3048,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2686,7 +3061,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2699,7 +3074,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2712,7 +3087,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2725,7 +3100,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2738,7 +3113,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2751,7 +3126,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2764,7 +3139,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2777,7 +3152,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2790,7 +3165,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2803,7 +3178,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2816,7 +3191,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2829,7 +3204,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2842,7 +3217,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2855,7 +3230,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2868,7 +3243,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2881,7 +3256,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2894,7 +3269,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2907,7 +3282,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2920,7 +3295,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2933,7 +3308,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2946,7 +3321,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2959,7 +3334,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2972,7 +3347,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2985,7 +3360,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2998,7 +3373,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3011,7 +3386,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3024,7 +3399,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3037,7 +3412,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3050,7 +3425,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3063,7 +3438,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3076,7 +3451,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3089,7 +3464,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FD8BE5-087F-436A-9DA9-45C4F12718D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6FB37B-FA6D-4769-9159-2F2F171385D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-33870" yWindow="3750" windowWidth="31020" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,73 @@
   </si>
   <si>
     <t>등반왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title30</t>
+  </si>
+  <si>
+    <t>title31</t>
+  </si>
+  <si>
+    <t>title32</t>
+  </si>
+  <si>
+    <t>스테이지 550 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 650 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설악인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백두인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 23000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 26000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 29000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허경</t>
+  </si>
+  <si>
+    <t>여의경</t>
+  </si>
+  <si>
+    <t>신선</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +495,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +534,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD3CFC9"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -515,7 +589,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,6 +600,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2133,6 +2210,252 @@
       </c>
       <c r="M31" s="2">
         <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1400000</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10</v>
+      </c>
+      <c r="H33" s="2">
+        <v>4</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1600000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10</v>
+      </c>
+      <c r="H34" s="2">
+        <v>4</v>
+      </c>
+      <c r="I34" s="2">
+        <v>10</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1">
+        <v>130000</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="G36" s="1">
+        <v>11</v>
+      </c>
+      <c r="H36" s="1">
+        <v>150000</v>
+      </c>
+      <c r="I36" s="1">
+        <v>10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="G37" s="1">
+        <v>11</v>
+      </c>
+      <c r="H37" s="1">
+        <v>170000</v>
+      </c>
+      <c r="I37" s="1">
+        <v>10</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6FB37B-FA6D-4769-9159-2F2F171385D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF359DB-039E-4385-8176-06359C8E7B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33870" yWindow="3750" windowWidth="31020" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +488,18 @@
   </si>
   <si>
     <t>신선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천지인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,26 +934,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1023,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1064,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1187,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1228,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1269,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1351,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1433,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1515,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1761,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1884,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1966,7 +1978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2455,6 +2467,47 @@
         <v>120</v>
       </c>
       <c r="M37" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="G38" s="2">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="2">
         <v>6</v>
       </c>
     </row>
@@ -2474,12 +2527,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -2487,7 +2540,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2500,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2513,7 +2566,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2526,7 +2579,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2539,7 +2592,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2552,7 +2605,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2565,7 +2618,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2578,7 +2631,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2591,7 +2644,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2604,7 +2657,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2617,7 +2670,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2630,7 +2683,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2643,7 +2696,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2656,7 +2709,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2669,7 +2722,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2682,7 +2735,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2695,7 +2748,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2708,7 +2761,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2721,7 +2774,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2734,7 +2787,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2747,7 +2800,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2760,7 +2813,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2773,7 +2826,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2786,7 +2839,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2799,7 +2852,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2812,7 +2865,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2825,7 +2878,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2838,7 +2891,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2851,7 +2904,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2864,7 +2917,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2877,7 +2930,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2890,7 +2943,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2903,7 +2956,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2916,7 +2969,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2929,7 +2982,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2942,7 +2995,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2955,7 +3008,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2968,7 +3021,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2981,7 +3034,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2994,7 +3047,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3007,7 +3060,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3020,7 +3073,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3033,7 +3086,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3046,7 +3099,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3059,7 +3112,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3072,7 +3125,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3085,7 +3138,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3098,7 +3151,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3111,7 +3164,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3124,7 +3177,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3137,7 +3190,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3150,7 +3203,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3163,7 +3216,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3176,7 +3229,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3189,7 +3242,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3202,7 +3255,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3215,7 +3268,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3228,7 +3281,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3241,7 +3294,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3254,7 +3307,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3267,7 +3320,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3280,7 +3333,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3293,7 +3346,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3306,7 +3359,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3319,7 +3372,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3332,7 +3385,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3345,7 +3398,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3358,7 +3411,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3371,7 +3424,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3384,7 +3437,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3397,7 +3450,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3410,7 +3463,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3423,7 +3476,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3436,7 +3489,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3449,7 +3502,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3462,7 +3515,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3475,7 +3528,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3488,7 +3541,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3501,7 +3554,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3514,7 +3567,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3527,7 +3580,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3540,7 +3593,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3553,7 +3606,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3566,7 +3619,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3579,7 +3632,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3592,7 +3645,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3605,7 +3658,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3618,7 +3671,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3631,7 +3684,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3644,7 +3697,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3657,7 +3710,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3670,7 +3723,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3683,7 +3736,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3696,7 +3749,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3709,7 +3762,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3722,7 +3775,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3735,7 +3788,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3748,7 +3801,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3761,7 +3814,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3774,7 +3827,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3787,7 +3840,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF359DB-039E-4385-8176-06359C8E7B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027B8AA-00AF-4AD4-B9A9-D3E3CF5C42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,6 +500,99 @@
   </si>
   <si>
     <t>천지인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 750 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 850 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외계인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title40</t>
+  </si>
+  <si>
+    <t>title41</t>
+  </si>
+  <si>
+    <t>title42</t>
+  </si>
+  <si>
+    <t>천선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 35000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 32000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 38000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 베기 LV100(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천공 베기 LV100(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천공 사냥꾼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,26 +1027,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.19921875" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1035,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1076,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1117,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1158,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1199,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1240,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1281,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1322,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1363,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1404,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1445,7 +1538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1486,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1527,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1568,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1609,7 +1702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1650,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1691,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1732,7 +1825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1773,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1814,7 +1907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1855,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1896,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1937,7 +2030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1978,7 +2071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2019,7 +2112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2060,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2101,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2142,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2183,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2224,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2265,7 +2358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2306,7 +2399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2347,7 +2440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2388,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2429,7 +2522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2470,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2508,6 +2601,334 @@
         <v>123</v>
       </c>
       <c r="M38" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1800000</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10</v>
+      </c>
+      <c r="H39" s="2">
+        <v>5</v>
+      </c>
+      <c r="I39" s="2">
+        <v>10</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1900000</v>
+      </c>
+      <c r="G40" s="1">
+        <v>10</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>131</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="G41" s="1">
+        <v>10</v>
+      </c>
+      <c r="H41" s="1">
+        <v>6</v>
+      </c>
+      <c r="I41" s="1">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+      <c r="M41" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>11</v>
+      </c>
+      <c r="H42" s="1">
+        <v>190000</v>
+      </c>
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M42" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>11</v>
+      </c>
+      <c r="H43" s="1">
+        <v>210000</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>11</v>
+      </c>
+      <c r="H44" s="1">
+        <v>230000</v>
+      </c>
+      <c r="I44" s="1">
+        <v>10</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
+        <v>40</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3">
+        <v>250</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="M45" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3">
+        <v>40</v>
+      </c>
+      <c r="G46" s="3">
+        <v>18</v>
+      </c>
+      <c r="H46" s="3">
+        <v>250</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M46" s="3">
         <v>6</v>
       </c>
     </row>
@@ -2527,12 +2948,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -2540,7 +2961,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2553,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2566,7 +2987,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2579,7 +3000,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2592,7 +3013,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2605,7 +3026,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2618,7 +3039,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2631,7 +3052,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2644,7 +3065,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2657,7 +3078,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2670,7 +3091,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2683,7 +3104,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2696,7 +3117,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2709,7 +3130,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2722,7 +3143,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2735,7 +3156,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2748,7 +3169,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2761,7 +3182,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2774,7 +3195,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2787,7 +3208,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2800,7 +3221,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2813,7 +3234,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2826,7 +3247,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2839,7 +3260,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2852,7 +3273,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2865,7 +3286,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2878,7 +3299,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2891,7 +3312,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2904,7 +3325,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2917,7 +3338,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2930,7 +3351,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2943,7 +3364,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2956,7 +3377,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2969,7 +3390,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2982,7 +3403,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2995,7 +3416,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3008,7 +3429,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3021,7 +3442,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3034,7 +3455,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3047,7 +3468,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3060,7 +3481,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3073,7 +3494,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3086,7 +3507,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3099,7 +3520,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3112,7 +3533,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3125,7 +3546,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3138,7 +3559,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3151,7 +3572,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3164,7 +3585,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3177,7 +3598,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3190,7 +3611,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3203,7 +3624,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3216,7 +3637,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3229,7 +3650,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3242,7 +3663,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3255,7 +3676,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3268,7 +3689,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3281,7 +3702,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3294,7 +3715,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3307,7 +3728,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3320,7 +3741,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3333,7 +3754,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3346,7 +3767,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3359,7 +3780,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3372,7 +3793,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3385,7 +3806,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3398,7 +3819,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3411,7 +3832,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3424,7 +3845,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3437,7 +3858,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3450,7 +3871,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3463,7 +3884,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3476,7 +3897,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3489,7 +3910,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3502,7 +3923,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3515,7 +3936,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3528,7 +3949,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3541,7 +3962,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3554,7 +3975,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3567,7 +3988,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3580,7 +4001,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3593,7 +4014,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3606,7 +4027,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3619,7 +4040,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3632,7 +4053,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3645,7 +4066,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3658,7 +4079,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3671,7 +4092,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3684,7 +4105,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3697,7 +4118,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3710,7 +4131,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3723,7 +4144,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3736,7 +4157,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3749,7 +4170,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3762,7 +4183,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3775,7 +4196,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3788,7 +4209,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3801,7 +4222,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3814,7 +4235,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3827,7 +4248,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3840,7 +4261,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4027B8AA-00AF-4AD4-B9A9-D3E3CF5C42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7858DB9-82AC-4FE3-9F38-082EA3FA7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,30 @@
   </si>
   <si>
     <t>천공 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 950 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스가르드인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림푸스인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2930,6 +2954,88 @@
       </c>
       <c r="M46" s="3">
         <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>5</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="G47" s="1">
+        <v>11</v>
+      </c>
+      <c r="H47" s="1">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L47" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2200000</v>
+      </c>
+      <c r="G48" s="1">
+        <v>11</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7858DB9-82AC-4FE3-9F38-082EA3FA7263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23588AAC-CB8C-4E9E-8505-F80355381486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,39 @@
   </si>
   <si>
     <t>올림푸스인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title47</t>
+  </si>
+  <si>
+    <t>title48</t>
+  </si>
+  <si>
+    <t>title49</t>
+  </si>
+  <si>
+    <t>현무갑주 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호부적 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작반지 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1051,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2976,7 +3009,7 @@
         <v>2100000</v>
       </c>
       <c r="G47" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1">
         <v>7</v>
@@ -3017,7 +3050,7 @@
         <v>2200000</v>
       </c>
       <c r="G48" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1">
         <v>7</v>
@@ -3036,6 +3069,129 @@
       </c>
       <c r="M48" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>14</v>
+      </c>
+      <c r="F49" s="1">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="s">
+        <v>160</v>
+      </c>
+      <c r="M49" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>14</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9</v>
+      </c>
+      <c r="H50" s="1">
+        <v>8</v>
+      </c>
+      <c r="I50" s="1">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>161</v>
+      </c>
+      <c r="M50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>14</v>
+      </c>
+      <c r="F51" s="1">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1">
+        <v>9</v>
+      </c>
+      <c r="I51" s="1">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>162</v>
+      </c>
+      <c r="M51" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23588AAC-CB8C-4E9E-8505-F80355381486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C165782-0AA7-4958-928B-335D08676C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -650,6 +650,18 @@
   </si>
   <si>
     <t>닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 41000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산신령</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3192,6 +3204,47 @@
       </c>
       <c r="M51" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="G52" s="1">
+        <v>11</v>
+      </c>
+      <c r="H52" s="1">
+        <v>260000</v>
+      </c>
+      <c r="I52" s="1">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M52" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C165782-0AA7-4958-928B-335D08676C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B36F9-F55A-44D4-A82C-EAFCC162265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="2370" windowWidth="31890" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,7 +661,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산신령</t>
+    <t>title51</t>
+  </si>
+  <si>
+    <t>title52</t>
+  </si>
+  <si>
+    <t>title53</t>
+  </si>
+  <si>
+    <t>title54</t>
+  </si>
+  <si>
+    <t>title55</t>
+  </si>
+  <si>
+    <t>레벨 44000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 47000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 50000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1050 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁거세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주몽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이세계인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저세계인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 베기 LV1000(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 사냥꾼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3229,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="H52" s="1">
-        <v>260000</v>
+        <v>250000</v>
       </c>
       <c r="I52" s="1">
         <v>10</v>
@@ -3240,11 +3307,257 @@
       <c r="K52" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L52" s="1" t="s">
-        <v>165</v>
+      <c r="L52" t="s">
+        <v>178</v>
       </c>
       <c r="M52" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="G53" s="1">
+        <v>11</v>
+      </c>
+      <c r="H53" s="1">
+        <v>270000</v>
+      </c>
+      <c r="I53" s="1">
+        <v>10</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="s">
+        <v>177</v>
+      </c>
+      <c r="M53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1">
+        <v>290000</v>
+      </c>
+      <c r="I54" s="1">
+        <v>10</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1">
+        <v>310000</v>
+      </c>
+      <c r="I55" s="1">
+        <v>10</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>175</v>
+      </c>
+      <c r="M55" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10</v>
+      </c>
+      <c r="H56" s="1">
+        <v>8</v>
+      </c>
+      <c r="I56" s="1">
+        <v>10</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M56" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1">
+        <v>5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2400000</v>
+      </c>
+      <c r="G57" s="1">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1">
+        <v>8</v>
+      </c>
+      <c r="I57" s="1">
+        <v>10</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="s">
+        <v>180</v>
+      </c>
+      <c r="M57" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="3">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45</v>
+      </c>
+      <c r="G58" s="3">
+        <v>18</v>
+      </c>
+      <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M58" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6B36F9-F55A-44D4-A82C-EAFCC162265E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8660BBF-1C1C-49D2-88A3-97140ADEF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4590" windowWidth="27480" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3285" yWindow="1215" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -724,11 +724,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약점 베기 LV1000(요물)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>약점 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약점 베기 LV100(요물)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3527,7 +3527,7 @@
         <v>181</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D58" s="3">
         <v>3</v>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M58" s="3">
         <v>7</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8660BBF-1C1C-49D2-88A3-97140ADEF94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A7FE5-D52C-4B22-8800-1D8156920075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1215" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,6 +729,54 @@
   </si>
   <si>
     <t>약점 베기 LV100(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1150 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡 목걸이 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스모스인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 53000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무형검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,10 +1211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M58"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3150,126 +3199,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>14</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="2">
         <v>5</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>9</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>7</v>
       </c>
-      <c r="I49" s="1">
-        <v>10</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="I49" s="2">
+        <v>10</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>14</v>
       </c>
-      <c r="F50" s="1">
-        <v>10</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F50" s="2">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2">
         <v>9</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>8</v>
       </c>
-      <c r="I50" s="1">
-        <v>10</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="I50" s="2">
+        <v>10</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>14</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="2">
         <v>15</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>9</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>9</v>
       </c>
-      <c r="I51" s="1">
-        <v>10</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="I51" s="2">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="2">
         <v>6</v>
       </c>
     </row>
@@ -3558,6 +3607,170 @@
       </c>
       <c r="M58" s="3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2500000</v>
+      </c>
+      <c r="G59" s="1">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1">
+        <v>9</v>
+      </c>
+      <c r="I59" s="1">
+        <v>10</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>191</v>
+      </c>
+      <c r="M59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2600000</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>9</v>
+      </c>
+      <c r="I60" s="1">
+        <v>10</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="s">
+        <v>192</v>
+      </c>
+      <c r="M60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>14</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20</v>
+      </c>
+      <c r="G61" s="1">
+        <v>9</v>
+      </c>
+      <c r="H61" s="1">
+        <v>10</v>
+      </c>
+      <c r="I61" s="1">
+        <v>10</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="s">
+        <v>190</v>
+      </c>
+      <c r="M61" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="G62" s="1">
+        <v>11</v>
+      </c>
+      <c r="H62" s="1">
+        <v>330000</v>
+      </c>
+      <c r="I62" s="1">
+        <v>10</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="s">
+        <v>195</v>
+      </c>
+      <c r="M62" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825A7FE5-D52C-4B22-8800-1D8156920075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B434E-54D7-41EB-AB8E-E87D1B7C26F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="230">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -777,6 +777,119 @@
   </si>
   <si>
     <t>무형검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title62</t>
+  </si>
+  <si>
+    <t>title63</t>
+  </si>
+  <si>
+    <t>title64</t>
+  </si>
+  <si>
+    <t>title65</t>
+  </si>
+  <si>
+    <t>title66</t>
+  </si>
+  <si>
+    <t>title67</t>
+  </si>
+  <si>
+    <t>title68</t>
+  </si>
+  <si>
+    <t>title69</t>
+  </si>
+  <si>
+    <t>title70</t>
+  </si>
+  <si>
+    <t>레벨 56000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 59000달성</t>
+  </si>
+  <si>
+    <t>레벨 62000달성</t>
+  </si>
+  <si>
+    <t>레벨 65000달성</t>
+  </si>
+  <si>
+    <t>레벨 68000달성</t>
+  </si>
+  <si>
+    <t>레벨 71000달성</t>
+  </si>
+  <si>
+    <t>레벨 74000달성</t>
+  </si>
+  <si>
+    <t>레벨 77000달성</t>
+  </si>
+  <si>
+    <t>레벨 80000달성</t>
+  </si>
+  <si>
+    <t>레벨 83000달성</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1250 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1350 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1400 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title71</t>
+  </si>
+  <si>
+    <t>title72</t>
+  </si>
+  <si>
+    <t>title73</t>
+  </si>
+  <si>
+    <t>title74</t>
+  </si>
+  <si>
+    <t>title75</t>
+  </si>
+  <si>
+    <t>title76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 베기 LV1000(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘 사냥꾼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,11 +1324,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3771,6 +3884,662 @@
       </c>
       <c r="M62" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="G63" s="1">
+        <v>11</v>
+      </c>
+      <c r="H63" s="1">
+        <v>350000</v>
+      </c>
+      <c r="I63" s="1">
+        <v>10</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>216</v>
+      </c>
+      <c r="M63" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>65000000</v>
+      </c>
+      <c r="G64" s="1">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1">
+        <v>370000</v>
+      </c>
+      <c r="I64" s="1">
+        <v>10</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>216</v>
+      </c>
+      <c r="M64" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>65000000</v>
+      </c>
+      <c r="G65" s="1">
+        <v>11</v>
+      </c>
+      <c r="H65" s="1">
+        <v>390000</v>
+      </c>
+      <c r="I65" s="1">
+        <v>10</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>216</v>
+      </c>
+      <c r="M65" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="G66" s="1">
+        <v>11</v>
+      </c>
+      <c r="H66" s="1">
+        <v>410000</v>
+      </c>
+      <c r="I66" s="1">
+        <v>10</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>216</v>
+      </c>
+      <c r="M66" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>11</v>
+      </c>
+      <c r="H67" s="1">
+        <v>430000</v>
+      </c>
+      <c r="I67" s="1">
+        <v>10</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>216</v>
+      </c>
+      <c r="M67" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>75000000</v>
+      </c>
+      <c r="G68" s="1">
+        <v>11</v>
+      </c>
+      <c r="H68" s="1">
+        <v>450000</v>
+      </c>
+      <c r="I68" s="1">
+        <v>10</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>216</v>
+      </c>
+      <c r="M68" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>75000000</v>
+      </c>
+      <c r="G69" s="1">
+        <v>11</v>
+      </c>
+      <c r="H69" s="1">
+        <v>470000</v>
+      </c>
+      <c r="I69" s="1">
+        <v>10</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>216</v>
+      </c>
+      <c r="M69" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="G70" s="1">
+        <v>11</v>
+      </c>
+      <c r="H70" s="1">
+        <v>490000</v>
+      </c>
+      <c r="I70" s="1">
+        <v>10</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>216</v>
+      </c>
+      <c r="M70" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="G71" s="1">
+        <v>11</v>
+      </c>
+      <c r="H71" s="1">
+        <v>510000</v>
+      </c>
+      <c r="I71" s="1">
+        <v>10</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>216</v>
+      </c>
+      <c r="M71" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="G72" s="1">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1">
+        <v>530000</v>
+      </c>
+      <c r="I72" s="1">
+        <v>10</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>216</v>
+      </c>
+      <c r="M72" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>5</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2700000</v>
+      </c>
+      <c r="G73" s="1">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1">
+        <v>10</v>
+      </c>
+      <c r="I73" s="1">
+        <v>10</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="s">
+        <v>216</v>
+      </c>
+      <c r="M73" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="G74" s="1">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1">
+        <v>10</v>
+      </c>
+      <c r="I74" s="1">
+        <v>10</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="s">
+        <v>216</v>
+      </c>
+      <c r="M74" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2900000</v>
+      </c>
+      <c r="G75" s="1">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11</v>
+      </c>
+      <c r="I75" s="1">
+        <v>10</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>216</v>
+      </c>
+      <c r="M75" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="1">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1">
+        <v>5</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1">
+        <v>11</v>
+      </c>
+      <c r="I76" s="1">
+        <v>10</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>216</v>
+      </c>
+      <c r="M76" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1">
+        <v>5</v>
+      </c>
+      <c r="F77" s="1">
+        <v>3100000</v>
+      </c>
+      <c r="G77" s="1">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1">
+        <v>12</v>
+      </c>
+      <c r="I77" s="1">
+        <v>10</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>216</v>
+      </c>
+      <c r="M77" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="3">
+        <v>3</v>
+      </c>
+      <c r="E78" s="3">
+        <v>4</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45</v>
+      </c>
+      <c r="G78" s="3">
+        <v>18</v>
+      </c>
+      <c r="H78" s="3">
+        <v>300</v>
+      </c>
+      <c r="I78" s="3">
+        <v>10</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M78" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B434E-54D7-41EB-AB8E-E87D1B7C26F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991CA734-EAA9-420C-86B8-51E8437CF69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,10 +842,6 @@
     <t>레벨 83000달성</t>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스테이지 1200 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,6 +886,66 @@
   </si>
   <si>
     <t>하늘 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제2평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제5평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제6평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썩은물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해골물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증류수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심해수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1327,8 +1383,8 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H78" sqref="H78"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3921,7 +3977,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="M63" s="1">
         <v>9</v>
@@ -3962,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M64" s="1">
         <v>10</v>
@@ -4003,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M65" s="1">
         <v>10</v>
@@ -4044,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="L66" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="M66" s="1">
         <v>10</v>
@@ -4085,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="L67" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="M67" s="1">
         <v>10</v>
@@ -4126,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="M68" s="1">
         <v>11</v>
@@ -4167,7 +4223,7 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="M69" s="1">
         <v>11</v>
@@ -4208,7 +4264,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="M70" s="1">
         <v>11</v>
@@ -4249,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M71" s="1">
         <v>11</v>
@@ -4290,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M72" s="1">
         <v>12</v>
@@ -4301,10 +4357,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -4331,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="L73" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="M73" s="1">
         <v>9</v>
@@ -4342,10 +4398,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -4372,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M74" s="1">
         <v>9</v>
@@ -4383,10 +4439,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -4413,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M75" s="1">
         <v>10</v>
@@ -4424,10 +4480,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -4454,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="M76" s="1">
         <v>10</v>
@@ -4465,10 +4521,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -4495,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="L77" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="M77" s="1">
         <v>11</v>
@@ -4506,10 +4562,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D78" s="3">
         <v>3</v>
@@ -4536,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M78" s="3">
         <v>7</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991CA734-EAA9-420C-86B8-51E8437CF69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868B6A5-EB07-4F11-B7E3-6402DD4F9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -946,6 +946,30 @@
   </si>
   <si>
     <t>고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1450 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제7평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제8평행우주인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,11 +1404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L69" sqref="L69"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4596,6 +4620,88 @@
       </c>
       <c r="M78" s="3">
         <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1">
+        <v>5</v>
+      </c>
+      <c r="F79" s="1">
+        <v>3200000</v>
+      </c>
+      <c r="G79" s="1">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1">
+        <v>12</v>
+      </c>
+      <c r="I79" s="1">
+        <v>10</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>248</v>
+      </c>
+      <c r="M79" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1">
+        <v>5</v>
+      </c>
+      <c r="F80" s="1">
+        <v>3300000</v>
+      </c>
+      <c r="G80" s="1">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1">
+        <v>13</v>
+      </c>
+      <c r="I80" s="1">
+        <v>10</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>249</v>
+      </c>
+      <c r="M80" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7868B6A5-EB07-4F11-B7E3-6402DD4F9684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4730C1-5C02-4195-8955-4593ED321BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,6 +970,82 @@
   </si>
   <si>
     <t>제8평행우주인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1550 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1650 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 1700 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 1750 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 1800 돌파</t>
+  </si>
+  <si>
+    <t>title81</t>
+  </si>
+  <si>
+    <t>title82</t>
+  </si>
+  <si>
+    <t>title83</t>
+  </si>
+  <si>
+    <t>title84</t>
+  </si>
+  <si>
+    <t>아수라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원숭이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제천대성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차 무기 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4702,6 +4778,293 @@
       </c>
       <c r="M80" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
+      </c>
+      <c r="F81" s="1">
+        <v>3400000</v>
+      </c>
+      <c r="G81" s="1">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1">
+        <v>13</v>
+      </c>
+      <c r="I81" s="1">
+        <v>10</v>
+      </c>
+      <c r="J81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>262</v>
+      </c>
+      <c r="M81" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1">
+        <v>5</v>
+      </c>
+      <c r="F82" s="1">
+        <v>3500000</v>
+      </c>
+      <c r="G82" s="1">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1">
+        <v>10</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="s">
+        <v>263</v>
+      </c>
+      <c r="M82" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>5</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3600000</v>
+      </c>
+      <c r="G83" s="1">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1">
+        <v>10</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>266</v>
+      </c>
+      <c r="M83" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3700000</v>
+      </c>
+      <c r="G84" s="1">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1">
+        <v>15</v>
+      </c>
+      <c r="I84" s="1">
+        <v>10</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>265</v>
+      </c>
+      <c r="M84" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>5</v>
+      </c>
+      <c r="F85" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="G85" s="1">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1">
+        <v>15</v>
+      </c>
+      <c r="I85" s="1">
+        <v>10</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>264</v>
+      </c>
+      <c r="M85" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>5</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3900000</v>
+      </c>
+      <c r="G86" s="1">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1">
+        <v>16</v>
+      </c>
+      <c r="I86" s="1">
+        <v>10</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="s">
+        <v>267</v>
+      </c>
+      <c r="M86" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>1000000000</v>
+      </c>
+      <c r="G87">
+        <v>4</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>270</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4730C1-5C02-4195-8955-4593ED321BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE165E-B7F0-4A15-B1FF-CD7FA29FA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1046,6 +1046,151 @@
   </si>
   <si>
     <t>도깨비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title86</t>
+  </si>
+  <si>
+    <t>title87</t>
+  </si>
+  <si>
+    <t>title88</t>
+  </si>
+  <si>
+    <t>title89</t>
+  </si>
+  <si>
+    <t>title90</t>
+  </si>
+  <si>
+    <t>title91</t>
+  </si>
+  <si>
+    <t>title92</t>
+  </si>
+  <si>
+    <t>title93</t>
+  </si>
+  <si>
+    <t>스테이지 1850 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 1950 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2000 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2050 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2100 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2150 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2200 돌파</t>
+  </si>
+  <si>
+    <t>사오정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저팔계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼장법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오장법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>육장법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠장법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팔장법사..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title94</t>
+  </si>
+  <si>
+    <t>title95</t>
+  </si>
+  <si>
+    <t>title96</t>
+  </si>
+  <si>
+    <t>레벨 86000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 89000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 92000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title97</t>
+  </si>
+  <si>
+    <t>레벨 95000달성</t>
+  </si>
+  <si>
+    <t>title98</t>
+  </si>
+  <si>
+    <t>레벨 98000달성</t>
+  </si>
+  <si>
+    <t>title99</t>
+  </si>
+  <si>
+    <t>레벨 101000달성</t>
+  </si>
+  <si>
+    <t>소고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초초고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초초초고수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,16 +1625,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
@@ -1501,10 +1647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" t="s">
@@ -1993,10 +2139,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2034,10 +2180,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2075,10 +2221,10 @@
       </c>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2116,10 +2262,10 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2157,10 +2303,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2198,10 +2344,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2239,10 +2385,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2280,10 +2426,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
@@ -2321,10 +2467,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C21" t="s">
@@ -2362,10 +2508,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C22" t="s">
@@ -2403,10 +2549,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
@@ -2444,10 +2590,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
@@ -2485,10 +2631,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
@@ -2526,10 +2672,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2567,10 +2713,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2608,10 +2754,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2649,10 +2795,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2690,10 +2836,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2731,10 +2877,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2772,10 +2918,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2813,10 +2959,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2854,10 +3000,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3018,10 +3164,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3305,10 +3451,10 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -3346,10 +3492,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -3469,10 +3615,10 @@
       </c>
     </row>
     <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -3510,10 +3656,10 @@
       </c>
     </row>
     <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3551,10 +3697,10 @@
       </c>
     </row>
     <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -3841,7 +3987,7 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4661,7 +4807,7 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -5027,10 +5173,10 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C87" t="s">
@@ -5065,6 +5211,580 @@
       </c>
       <c r="M87">
         <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="G88" s="1">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1">
+        <v>16</v>
+      </c>
+      <c r="I88" s="1">
+        <v>10</v>
+      </c>
+      <c r="J88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>287</v>
+      </c>
+      <c r="M88" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1">
+        <v>5</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4100000</v>
+      </c>
+      <c r="G89" s="1">
+        <v>10</v>
+      </c>
+      <c r="H89" s="1">
+        <v>17</v>
+      </c>
+      <c r="I89" s="1">
+        <v>10</v>
+      </c>
+      <c r="J89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>288</v>
+      </c>
+      <c r="M89" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>5</v>
+      </c>
+      <c r="F90" s="1">
+        <v>4200000</v>
+      </c>
+      <c r="G90" s="1">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1">
+        <v>17</v>
+      </c>
+      <c r="I90" s="1">
+        <v>10</v>
+      </c>
+      <c r="J90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>289</v>
+      </c>
+      <c r="M90" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>5</v>
+      </c>
+      <c r="F91" s="1">
+        <v>4300000</v>
+      </c>
+      <c r="G91" s="1">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1">
+        <v>18</v>
+      </c>
+      <c r="I91" s="1">
+        <v>10</v>
+      </c>
+      <c r="J91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>290</v>
+      </c>
+      <c r="M91" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>5</v>
+      </c>
+      <c r="F92" s="1">
+        <v>4400000</v>
+      </c>
+      <c r="G92" s="1">
+        <v>10</v>
+      </c>
+      <c r="H92" s="1">
+        <v>18</v>
+      </c>
+      <c r="I92" s="1">
+        <v>10</v>
+      </c>
+      <c r="J92" s="1">
+        <v>0</v>
+      </c>
+      <c r="K92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>291</v>
+      </c>
+      <c r="M92" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>5</v>
+      </c>
+      <c r="F93" s="1">
+        <v>4500000</v>
+      </c>
+      <c r="G93" s="1">
+        <v>10</v>
+      </c>
+      <c r="H93" s="1">
+        <v>19</v>
+      </c>
+      <c r="I93" s="1">
+        <v>10</v>
+      </c>
+      <c r="J93" s="1">
+        <v>0</v>
+      </c>
+      <c r="K93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>292</v>
+      </c>
+      <c r="M93" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5</v>
+      </c>
+      <c r="F94" s="1">
+        <v>4600000</v>
+      </c>
+      <c r="G94" s="1">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1">
+        <v>19</v>
+      </c>
+      <c r="I94" s="1">
+        <v>10</v>
+      </c>
+      <c r="J94" s="1">
+        <v>0</v>
+      </c>
+      <c r="K94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>293</v>
+      </c>
+      <c r="M94" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>5</v>
+      </c>
+      <c r="F95" s="1">
+        <v>4700000</v>
+      </c>
+      <c r="G95" s="1">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1">
+        <v>20</v>
+      </c>
+      <c r="I95" s="1">
+        <v>10</v>
+      </c>
+      <c r="J95" s="1">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L95" t="s">
+        <v>294</v>
+      </c>
+      <c r="M95" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="G96" s="1">
+        <v>11</v>
+      </c>
+      <c r="H96" s="1">
+        <v>550000</v>
+      </c>
+      <c r="I96" s="1">
+        <v>10</v>
+      </c>
+      <c r="J96" s="1">
+        <v>0</v>
+      </c>
+      <c r="K96" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>307</v>
+      </c>
+      <c r="M96" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="G97" s="1">
+        <v>11</v>
+      </c>
+      <c r="H97" s="1">
+        <v>570000</v>
+      </c>
+      <c r="I97" s="1">
+        <v>10</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>308</v>
+      </c>
+      <c r="M97" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="G98" s="1">
+        <v>11</v>
+      </c>
+      <c r="H98" s="1">
+        <v>590000</v>
+      </c>
+      <c r="I98" s="1">
+        <v>10</v>
+      </c>
+      <c r="J98" s="1">
+        <v>0</v>
+      </c>
+      <c r="K98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="s">
+        <v>309</v>
+      </c>
+      <c r="M98" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="G99" s="1">
+        <v>11</v>
+      </c>
+      <c r="H99" s="1">
+        <v>610000</v>
+      </c>
+      <c r="I99" s="1">
+        <v>10</v>
+      </c>
+      <c r="J99" s="1">
+        <v>0</v>
+      </c>
+      <c r="K99" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="s">
+        <v>310</v>
+      </c>
+      <c r="M99" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="G100" s="1">
+        <v>11</v>
+      </c>
+      <c r="H100" s="1">
+        <v>630000</v>
+      </c>
+      <c r="I100" s="1">
+        <v>10</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>311</v>
+      </c>
+      <c r="M100" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>1</v>
+      </c>
+      <c r="F101" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="G101" s="1">
+        <v>11</v>
+      </c>
+      <c r="H101" s="1">
+        <v>650000</v>
+      </c>
+      <c r="I101" s="1">
+        <v>10</v>
+      </c>
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>312</v>
+      </c>
+      <c r="M101" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CE165E-B7F0-4A15-B1FF-CD7FA29FA98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4D300-F4A2-4A36-B2F1-23D78F779A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,6 +1191,128 @@
   </si>
   <si>
     <t>초초초고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title100</t>
+  </si>
+  <si>
+    <t>title101</t>
+  </si>
+  <si>
+    <t>title102</t>
+  </si>
+  <si>
+    <t>title103</t>
+  </si>
+  <si>
+    <t>title104</t>
+  </si>
+  <si>
+    <t>title105</t>
+  </si>
+  <si>
+    <t>title106</t>
+  </si>
+  <si>
+    <t>title107</t>
+  </si>
+  <si>
+    <t>레벨 104000달성</t>
+  </si>
+  <si>
+    <t>레벨 107000달성</t>
+  </si>
+  <si>
+    <t>레벨 110000달성</t>
+  </si>
+  <si>
+    <t>레벨 113000달성</t>
+  </si>
+  <si>
+    <t>레벨 116000달성</t>
+  </si>
+  <si>
+    <t>레벨 119000달성</t>
+  </si>
+  <si>
+    <t>레벨 122000달성</t>
+  </si>
+  <si>
+    <t>레벨 125000달성</t>
+  </si>
+  <si>
+    <t>title108</t>
+  </si>
+  <si>
+    <t>title109</t>
+  </si>
+  <si>
+    <t>스테이지 2250 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title110</t>
+  </si>
+  <si>
+    <t>스테이지 2350 돌파</t>
+  </si>
+  <si>
+    <t>title111</t>
+  </si>
+  <si>
+    <t>스테이지 2400 돌파</t>
+  </si>
+  <si>
+    <t>초초초초고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구장법사..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십장법사..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십일법사..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>십이법사..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕왕고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕왕왕고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱짱고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱짱짱고수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,11 +1747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5784,6 +5906,498 @@
         <v>312</v>
       </c>
       <c r="M101" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="G102" s="1">
+        <v>11</v>
+      </c>
+      <c r="H102" s="1">
+        <v>670000</v>
+      </c>
+      <c r="I102" s="1">
+        <v>10</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>337</v>
+      </c>
+      <c r="M102" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>105000000</v>
+      </c>
+      <c r="G103" s="1">
+        <v>11</v>
+      </c>
+      <c r="H103" s="1">
+        <v>690000</v>
+      </c>
+      <c r="I103" s="1">
+        <v>10</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="s">
+        <v>342</v>
+      </c>
+      <c r="M103" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>105000000</v>
+      </c>
+      <c r="G104" s="1">
+        <v>11</v>
+      </c>
+      <c r="H104" s="1">
+        <v>710000</v>
+      </c>
+      <c r="I104" s="1">
+        <v>10</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L104" t="s">
+        <v>345</v>
+      </c>
+      <c r="M104" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="G105" s="1">
+        <v>11</v>
+      </c>
+      <c r="H105" s="1">
+        <v>730000</v>
+      </c>
+      <c r="I105" s="1">
+        <v>10</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L105" t="s">
+        <v>343</v>
+      </c>
+      <c r="M105" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="G106" s="1">
+        <v>11</v>
+      </c>
+      <c r="H106" s="1">
+        <v>750000</v>
+      </c>
+      <c r="I106" s="1">
+        <v>10</v>
+      </c>
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L106" t="s">
+        <v>344</v>
+      </c>
+      <c r="M106" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>115000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>11</v>
+      </c>
+      <c r="H107" s="1">
+        <v>770000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>10</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L107" t="s">
+        <v>346</v>
+      </c>
+      <c r="M107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>115000000</v>
+      </c>
+      <c r="G108" s="1">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1">
+        <v>790000</v>
+      </c>
+      <c r="I108" s="1">
+        <v>10</v>
+      </c>
+      <c r="J108" s="1">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L108" t="s">
+        <v>347</v>
+      </c>
+      <c r="M108" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="G109" s="1">
+        <v>11</v>
+      </c>
+      <c r="H109" s="1">
+        <v>810000</v>
+      </c>
+      <c r="I109" s="1">
+        <v>10</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L109" t="s">
+        <v>348</v>
+      </c>
+      <c r="M109" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D110" s="1">
+        <v>1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>5</v>
+      </c>
+      <c r="F110" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="G110" s="1">
+        <v>10</v>
+      </c>
+      <c r="H110" s="1">
+        <v>20</v>
+      </c>
+      <c r="I110" s="1">
+        <v>10</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>338</v>
+      </c>
+      <c r="M110" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>5</v>
+      </c>
+      <c r="F111" s="1">
+        <v>4900000</v>
+      </c>
+      <c r="G111" s="1">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1">
+        <v>21</v>
+      </c>
+      <c r="I111" s="1">
+        <v>10</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="s">
+        <v>339</v>
+      </c>
+      <c r="M111" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="1">
+        <v>5</v>
+      </c>
+      <c r="F112" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="G112" s="1">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1">
+        <v>21</v>
+      </c>
+      <c r="I112" s="1">
+        <v>10</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="s">
+        <v>340</v>
+      </c>
+      <c r="M112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>5</v>
+      </c>
+      <c r="F113" s="1">
+        <v>5100000</v>
+      </c>
+      <c r="G113" s="1">
+        <v>10</v>
+      </c>
+      <c r="H113" s="1">
+        <v>22</v>
+      </c>
+      <c r="I113" s="1">
+        <v>10</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="s">
+        <v>341</v>
+      </c>
+      <c r="M113" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4D300-F4A2-4A36-B2F1-23D78F779A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB36D6-A9CE-4378-B3BC-F9E4521F6B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1313,6 +1313,46 @@
   </si>
   <si>
     <t>짱짱짱고수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2450 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2500 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2550 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2600 돌파</t>
+  </si>
+  <si>
+    <t>title112</t>
+  </si>
+  <si>
+    <t>title113</t>
+  </si>
+  <si>
+    <t>title114</t>
+  </si>
+  <si>
+    <t>title115</t>
+  </si>
+  <si>
+    <t>왕초보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕초보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕왕초보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕왕왕왕초보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1747,11 +1787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6398,6 +6438,170 @@
         <v>341</v>
       </c>
       <c r="M113" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
+      <c r="E114" s="1">
+        <v>5</v>
+      </c>
+      <c r="F114" s="1">
+        <v>5200000</v>
+      </c>
+      <c r="G114" s="1">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1">
+        <v>22</v>
+      </c>
+      <c r="I114" s="1">
+        <v>10</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="s">
+        <v>357</v>
+      </c>
+      <c r="M114" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
+      <c r="E115" s="1">
+        <v>5</v>
+      </c>
+      <c r="F115" s="1">
+        <v>5300000</v>
+      </c>
+      <c r="G115" s="1">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1">
+        <v>23</v>
+      </c>
+      <c r="I115" s="1">
+        <v>10</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="s">
+        <v>358</v>
+      </c>
+      <c r="M115" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
+      <c r="E116" s="1">
+        <v>5</v>
+      </c>
+      <c r="F116" s="1">
+        <v>5400000</v>
+      </c>
+      <c r="G116" s="1">
+        <v>10</v>
+      </c>
+      <c r="H116" s="1">
+        <v>23</v>
+      </c>
+      <c r="I116" s="1">
+        <v>10</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="s">
+        <v>359</v>
+      </c>
+      <c r="M116" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1">
+        <v>5</v>
+      </c>
+      <c r="F117" s="1">
+        <v>5500000</v>
+      </c>
+      <c r="G117" s="1">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1">
+        <v>24</v>
+      </c>
+      <c r="I117" s="1">
+        <v>10</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="s">
+        <v>360</v>
+      </c>
+      <c r="M117" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB36D6-A9CE-4378-B3BC-F9E4521F6B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4526063-B50A-4AE8-A715-DEAAABC3762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3570" yWindow="4275" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1354,6 +1354,170 @@
   <si>
     <t>왕왕왕왕초보</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2650 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2700 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2750 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 2800 돌파</t>
+  </si>
+  <si>
+    <t>title116</t>
+  </si>
+  <si>
+    <t>title117</t>
+  </si>
+  <si>
+    <t>title118</t>
+  </si>
+  <si>
+    <t>title119</t>
+  </si>
+  <si>
+    <t>초보요괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간요괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급요괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴졸개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title120</t>
+  </si>
+  <si>
+    <t>title121</t>
+  </si>
+  <si>
+    <t>title122</t>
+  </si>
+  <si>
+    <t>title123</t>
+  </si>
+  <si>
+    <t>레벨 128000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 131000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 134000달성</t>
+  </si>
+  <si>
+    <t>레벨 137000달성</t>
+  </si>
+  <si>
+    <t>레벨 140000달성</t>
+  </si>
+  <si>
+    <t>레벨 143000달성</t>
+  </si>
+  <si>
+    <t>레벨 146000달성</t>
+  </si>
+  <si>
+    <t>레벨 149000달성</t>
+  </si>
+  <si>
+    <t>레벨 152000달성</t>
+  </si>
+  <si>
+    <t>레벨 155000달성</t>
+  </si>
+  <si>
+    <t>레벨 158000달성</t>
+  </si>
+  <si>
+    <t>레벨 161000달성</t>
+  </si>
+  <si>
+    <t>title124</t>
+  </si>
+  <si>
+    <t>title125</t>
+  </si>
+  <si>
+    <t>title126</t>
+  </si>
+  <si>
+    <t>title127</t>
+  </si>
+  <si>
+    <t>title128</t>
+  </si>
+  <si>
+    <t>title129</t>
+  </si>
+  <si>
+    <t>title130</t>
+  </si>
+  <si>
+    <t>title131</t>
+  </si>
+  <si>
+    <t>title132</t>
+  </si>
+  <si>
+    <t>한계돌파 LV3000(요물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌파 사냥꾼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인물1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인물2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인물3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고인물4</t>
+  </si>
+  <si>
+    <t>고인물5</t>
+  </si>
+  <si>
+    <t>고인물6</t>
+  </si>
+  <si>
+    <t>고인물7</t>
+  </si>
+  <si>
+    <t>고인물8</t>
+  </si>
+  <si>
+    <t>고인물9</t>
+  </si>
+  <si>
+    <t>고인물10</t>
+  </si>
+  <si>
+    <t>고인물11</t>
+  </si>
+  <si>
+    <t>고인물12</t>
   </si>
 </sst>
 </file>
@@ -1787,11 +1951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L117" sqref="L117"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6603,6 +6767,703 @@
       </c>
       <c r="M117" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
+      <c r="E118" s="1">
+        <v>5</v>
+      </c>
+      <c r="F118" s="1">
+        <v>5600000</v>
+      </c>
+      <c r="G118" s="1">
+        <v>10</v>
+      </c>
+      <c r="H118" s="1">
+        <v>24</v>
+      </c>
+      <c r="I118" s="1">
+        <v>10</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="s">
+        <v>369</v>
+      </c>
+      <c r="M118" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D119" s="1">
+        <v>1</v>
+      </c>
+      <c r="E119" s="1">
+        <v>5</v>
+      </c>
+      <c r="F119" s="1">
+        <v>5700000</v>
+      </c>
+      <c r="G119" s="1">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1">
+        <v>25</v>
+      </c>
+      <c r="I119" s="1">
+        <v>10</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
+        <v>370</v>
+      </c>
+      <c r="M119" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>5800000</v>
+      </c>
+      <c r="G120" s="1">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1">
+        <v>25</v>
+      </c>
+      <c r="I120" s="1">
+        <v>10</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="s">
+        <v>371</v>
+      </c>
+      <c r="M120" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D121" s="1">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1">
+        <v>5</v>
+      </c>
+      <c r="F121" s="1">
+        <v>5900000</v>
+      </c>
+      <c r="G121" s="1">
+        <v>10</v>
+      </c>
+      <c r="H121" s="1">
+        <v>26</v>
+      </c>
+      <c r="I121" s="1">
+        <v>10</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="s">
+        <v>372</v>
+      </c>
+      <c r="M121" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="G122" s="1">
+        <v>11</v>
+      </c>
+      <c r="H122" s="1">
+        <v>830000</v>
+      </c>
+      <c r="I122" s="1">
+        <v>10</v>
+      </c>
+      <c r="J122" s="1">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="s">
+        <v>400</v>
+      </c>
+      <c r="M122" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>125000000</v>
+      </c>
+      <c r="G123" s="1">
+        <v>11</v>
+      </c>
+      <c r="H123" s="1">
+        <v>850000</v>
+      </c>
+      <c r="I123" s="1">
+        <v>10</v>
+      </c>
+      <c r="J123" s="1">
+        <v>0</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="s">
+        <v>401</v>
+      </c>
+      <c r="M123" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1</v>
+      </c>
+      <c r="F124" s="1">
+        <v>125000000</v>
+      </c>
+      <c r="G124" s="1">
+        <v>11</v>
+      </c>
+      <c r="H124" s="1">
+        <v>870000</v>
+      </c>
+      <c r="I124" s="1">
+        <v>10</v>
+      </c>
+      <c r="J124" s="1">
+        <v>0</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="s">
+        <v>402</v>
+      </c>
+      <c r="M124" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>130000000</v>
+      </c>
+      <c r="G125" s="1">
+        <v>11</v>
+      </c>
+      <c r="H125" s="1">
+        <v>890000</v>
+      </c>
+      <c r="I125" s="1">
+        <v>10</v>
+      </c>
+      <c r="J125" s="1">
+        <v>0</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" t="s">
+        <v>403</v>
+      </c>
+      <c r="M125" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1">
+        <v>130000000</v>
+      </c>
+      <c r="G126" s="1">
+        <v>11</v>
+      </c>
+      <c r="H126" s="1">
+        <v>910000</v>
+      </c>
+      <c r="I126" s="1">
+        <v>10</v>
+      </c>
+      <c r="J126" s="1">
+        <v>0</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" t="s">
+        <v>404</v>
+      </c>
+      <c r="M126" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>135000000</v>
+      </c>
+      <c r="G127" s="1">
+        <v>11</v>
+      </c>
+      <c r="H127" s="1">
+        <v>930000</v>
+      </c>
+      <c r="I127" s="1">
+        <v>10</v>
+      </c>
+      <c r="J127" s="1">
+        <v>0</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" t="s">
+        <v>405</v>
+      </c>
+      <c r="M127" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>135000000</v>
+      </c>
+      <c r="G128" s="1">
+        <v>11</v>
+      </c>
+      <c r="H128" s="1">
+        <v>950000</v>
+      </c>
+      <c r="I128" s="1">
+        <v>10</v>
+      </c>
+      <c r="J128" s="1">
+        <v>0</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" t="s">
+        <v>406</v>
+      </c>
+      <c r="M128" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1</v>
+      </c>
+      <c r="F129" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="G129" s="1">
+        <v>11</v>
+      </c>
+      <c r="H129" s="1">
+        <v>970000</v>
+      </c>
+      <c r="I129" s="1">
+        <v>10</v>
+      </c>
+      <c r="J129" s="1">
+        <v>0</v>
+      </c>
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>407</v>
+      </c>
+      <c r="M129" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="G130" s="1">
+        <v>11</v>
+      </c>
+      <c r="H130" s="1">
+        <v>990000</v>
+      </c>
+      <c r="I130" s="1">
+        <v>10</v>
+      </c>
+      <c r="J130" s="1">
+        <v>0</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="s">
+        <v>408</v>
+      </c>
+      <c r="M130" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1</v>
+      </c>
+      <c r="F131" s="1">
+        <v>145000000</v>
+      </c>
+      <c r="G131" s="1">
+        <v>11</v>
+      </c>
+      <c r="H131" s="1">
+        <v>1010000</v>
+      </c>
+      <c r="I131" s="1">
+        <v>10</v>
+      </c>
+      <c r="J131" s="1">
+        <v>0</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="s">
+        <v>409</v>
+      </c>
+      <c r="M131" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>145000000</v>
+      </c>
+      <c r="G132" s="1">
+        <v>11</v>
+      </c>
+      <c r="H132" s="1">
+        <v>1030000</v>
+      </c>
+      <c r="I132" s="1">
+        <v>10</v>
+      </c>
+      <c r="J132" s="1">
+        <v>0</v>
+      </c>
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="s">
+        <v>410</v>
+      </c>
+      <c r="M132" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D133" s="1">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="G133" s="1">
+        <v>11</v>
+      </c>
+      <c r="H133" s="1">
+        <v>1050000</v>
+      </c>
+      <c r="I133" s="1">
+        <v>10</v>
+      </c>
+      <c r="J133" s="1">
+        <v>0</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>411</v>
+      </c>
+      <c r="M133" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D134" s="3">
+        <v>3</v>
+      </c>
+      <c r="E134" s="3">
+        <v>4</v>
+      </c>
+      <c r="F134" s="3">
+        <v>200</v>
+      </c>
+      <c r="G134" s="3">
+        <v>18</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I134" s="3">
+        <v>10</v>
+      </c>
+      <c r="J134" s="3">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="M134" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4526063-B50A-4AE8-A715-DEAAABC3762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E23234-3FB1-4796-9262-086C2E9880C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="4275" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="945" yWindow="2595" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1518,6 +1518,94 @@
   </si>
   <si>
     <t>고인물12</t>
+  </si>
+  <si>
+    <t>title133</t>
+  </si>
+  <si>
+    <t>title134</t>
+  </si>
+  <si>
+    <t>title135</t>
+  </si>
+  <si>
+    <t>title136</t>
+  </si>
+  <si>
+    <t>스테이지 2850 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 2950 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title137</t>
+  </si>
+  <si>
+    <t>title138</t>
+  </si>
+  <si>
+    <t>title139</t>
+  </si>
+  <si>
+    <t>title140</t>
+  </si>
+  <si>
+    <t>레벨 164000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 167000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 170000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 173000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼화취정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적사투관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천화난추</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반박귀진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1951,11 +2039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7464,6 +7552,334 @@
       </c>
       <c r="M134" s="3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1</v>
+      </c>
+      <c r="E135" s="1">
+        <v>5</v>
+      </c>
+      <c r="F135" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="G135" s="1">
+        <v>10</v>
+      </c>
+      <c r="H135" s="1">
+        <v>26</v>
+      </c>
+      <c r="I135" s="1">
+        <v>10</v>
+      </c>
+      <c r="J135" s="1">
+        <v>0</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>420</v>
+      </c>
+      <c r="M135" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>5</v>
+      </c>
+      <c r="F136" s="1">
+        <v>6100000</v>
+      </c>
+      <c r="G136" s="1">
+        <v>10</v>
+      </c>
+      <c r="H136" s="1">
+        <v>27</v>
+      </c>
+      <c r="I136" s="1">
+        <v>10</v>
+      </c>
+      <c r="J136" s="1">
+        <v>0</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="s">
+        <v>421</v>
+      </c>
+      <c r="M136" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D137" s="1">
+        <v>1</v>
+      </c>
+      <c r="E137" s="1">
+        <v>5</v>
+      </c>
+      <c r="F137" s="1">
+        <v>6200000</v>
+      </c>
+      <c r="G137" s="1">
+        <v>10</v>
+      </c>
+      <c r="H137" s="1">
+        <v>27</v>
+      </c>
+      <c r="I137" s="1">
+        <v>10</v>
+      </c>
+      <c r="J137" s="1">
+        <v>0</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="s">
+        <v>422</v>
+      </c>
+      <c r="M137" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>5</v>
+      </c>
+      <c r="F138" s="1">
+        <v>6300000</v>
+      </c>
+      <c r="G138" s="1">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1">
+        <v>28</v>
+      </c>
+      <c r="I138" s="1">
+        <v>10</v>
+      </c>
+      <c r="J138" s="1">
+        <v>0</v>
+      </c>
+      <c r="K138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="s">
+        <v>423</v>
+      </c>
+      <c r="M138" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="G139" s="1">
+        <v>11</v>
+      </c>
+      <c r="H139" s="1">
+        <v>1070000</v>
+      </c>
+      <c r="I139" s="1">
+        <v>10</v>
+      </c>
+      <c r="J139" s="1">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="s">
+        <v>432</v>
+      </c>
+      <c r="M139" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>155000000</v>
+      </c>
+      <c r="G140" s="1">
+        <v>11</v>
+      </c>
+      <c r="H140" s="1">
+        <v>1090000</v>
+      </c>
+      <c r="I140" s="1">
+        <v>10</v>
+      </c>
+      <c r="J140" s="1">
+        <v>0</v>
+      </c>
+      <c r="K140" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="s">
+        <v>433</v>
+      </c>
+      <c r="M140" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" s="1">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1">
+        <v>155000000</v>
+      </c>
+      <c r="G141" s="1">
+        <v>11</v>
+      </c>
+      <c r="H141" s="1">
+        <v>1100000</v>
+      </c>
+      <c r="I141" s="1">
+        <v>10</v>
+      </c>
+      <c r="J141" s="1">
+        <v>0</v>
+      </c>
+      <c r="K141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="s">
+        <v>434</v>
+      </c>
+      <c r="M141" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="G142" s="1">
+        <v>11</v>
+      </c>
+      <c r="H142" s="1">
+        <v>1120000</v>
+      </c>
+      <c r="I142" s="1">
+        <v>10</v>
+      </c>
+      <c r="J142" s="1">
+        <v>0</v>
+      </c>
+      <c r="K142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="s">
+        <v>435</v>
+      </c>
+      <c r="M142" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E23234-3FB1-4796-9262-086C2E9880C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A22AC-A481-4001-A265-742B065BE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2595" windowWidth="34695" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1605,6 +1605,50 @@
   </si>
   <si>
     <t>반박귀진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title141</t>
+  </si>
+  <si>
+    <t>title142</t>
+  </si>
+  <si>
+    <t>title143</t>
+  </si>
+  <si>
+    <t>title144</t>
+  </si>
+  <si>
+    <t>스테이지 3050 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3150 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,11 +2083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomLeft" activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7879,6 +7923,170 @@
         <v>435</v>
       </c>
       <c r="M142" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D143" s="1">
+        <v>1</v>
+      </c>
+      <c r="E143" s="1">
+        <v>5</v>
+      </c>
+      <c r="F143" s="1">
+        <v>6400000</v>
+      </c>
+      <c r="G143" s="1">
+        <v>10</v>
+      </c>
+      <c r="H143" s="1">
+        <v>28</v>
+      </c>
+      <c r="I143" s="1">
+        <v>10</v>
+      </c>
+      <c r="J143" s="1">
+        <v>0</v>
+      </c>
+      <c r="K143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="s">
+        <v>444</v>
+      </c>
+      <c r="M143" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>5</v>
+      </c>
+      <c r="F144" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="G144" s="1">
+        <v>10</v>
+      </c>
+      <c r="H144" s="1">
+        <v>29</v>
+      </c>
+      <c r="I144" s="1">
+        <v>10</v>
+      </c>
+      <c r="J144" s="1">
+        <v>0</v>
+      </c>
+      <c r="K144" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="s">
+        <v>445</v>
+      </c>
+      <c r="M144" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D145" s="1">
+        <v>1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>5</v>
+      </c>
+      <c r="F145" s="1">
+        <v>6600000</v>
+      </c>
+      <c r="G145" s="1">
+        <v>10</v>
+      </c>
+      <c r="H145" s="1">
+        <v>29</v>
+      </c>
+      <c r="I145" s="1">
+        <v>10</v>
+      </c>
+      <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="s">
+        <v>446</v>
+      </c>
+      <c r="M145" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D146" s="1">
+        <v>1</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>6700000</v>
+      </c>
+      <c r="G146" s="1">
+        <v>10</v>
+      </c>
+      <c r="H146" s="1">
+        <v>30</v>
+      </c>
+      <c r="I146" s="1">
+        <v>10</v>
+      </c>
+      <c r="J146" s="1">
+        <v>0</v>
+      </c>
+      <c r="K146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="s">
+        <v>447</v>
+      </c>
+      <c r="M146" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A22AC-A481-4001-A265-742B065BE250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3957F97-1C80-4221-91AE-87B20B8991A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="11280" yWindow="2490" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="522">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1649,6 +1649,252 @@
   </si>
   <si>
     <t>미신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 176000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 179000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 182000달성</t>
+  </si>
+  <si>
+    <t>레벨 185000달성</t>
+  </si>
+  <si>
+    <t>레벨 188000달성</t>
+  </si>
+  <si>
+    <t>레벨 191000달성</t>
+  </si>
+  <si>
+    <t>레벨 194000달성</t>
+  </si>
+  <si>
+    <t>레벨 197000달성</t>
+  </si>
+  <si>
+    <t>레벨 200000달성</t>
+  </si>
+  <si>
+    <t>레벨 203000달성</t>
+  </si>
+  <si>
+    <t>레벨 206000달성</t>
+  </si>
+  <si>
+    <t>레벨 209000달성</t>
+  </si>
+  <si>
+    <t>레벨 212000달성</t>
+  </si>
+  <si>
+    <t>레벨 215000달성</t>
+  </si>
+  <si>
+    <t>레벨 218000달성</t>
+  </si>
+  <si>
+    <t>레벨 221000달성</t>
+  </si>
+  <si>
+    <t>레벨 224000달성</t>
+  </si>
+  <si>
+    <t>레벨 227000달성</t>
+  </si>
+  <si>
+    <t>레벨 230000달성</t>
+  </si>
+  <si>
+    <t>레벨 233000달성</t>
+  </si>
+  <si>
+    <t>레벨 236000달성</t>
+  </si>
+  <si>
+    <t>레벨 239000달성</t>
+  </si>
+  <si>
+    <t>레벨 242000달성</t>
+  </si>
+  <si>
+    <t>레벨 245000달성</t>
+  </si>
+  <si>
+    <t>레벨 248000달성</t>
+  </si>
+  <si>
+    <t>레벨 251000달성</t>
+  </si>
+  <si>
+    <t>title145</t>
+  </si>
+  <si>
+    <t>title146</t>
+  </si>
+  <si>
+    <t>title147</t>
+  </si>
+  <si>
+    <t>title148</t>
+  </si>
+  <si>
+    <t>title149</t>
+  </si>
+  <si>
+    <t>title150</t>
+  </si>
+  <si>
+    <t>title151</t>
+  </si>
+  <si>
+    <t>title152</t>
+  </si>
+  <si>
+    <t>title153</t>
+  </si>
+  <si>
+    <t>title154</t>
+  </si>
+  <si>
+    <t>title155</t>
+  </si>
+  <si>
+    <t>title156</t>
+  </si>
+  <si>
+    <t>title157</t>
+  </si>
+  <si>
+    <t>title158</t>
+  </si>
+  <si>
+    <t>title159</t>
+  </si>
+  <si>
+    <t>title160</t>
+  </si>
+  <si>
+    <t>title161</t>
+  </si>
+  <si>
+    <t>title162</t>
+  </si>
+  <si>
+    <t>title163</t>
+  </si>
+  <si>
+    <t>title164</t>
+  </si>
+  <si>
+    <t>title165</t>
+  </si>
+  <si>
+    <t>title166</t>
+  </si>
+  <si>
+    <t>title167</t>
+  </si>
+  <si>
+    <t>title168</t>
+  </si>
+  <si>
+    <t>title169</t>
+  </si>
+  <si>
+    <t>title170</t>
+  </si>
+  <si>
+    <t>반로환동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등봉조극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌탈입망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허공분쇄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검희</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동정어은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마존</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,11 +2329,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O124" sqref="O124"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7867,7 +8113,7 @@
         <v>11</v>
       </c>
       <c r="H141" s="1">
-        <v>1100000</v>
+        <v>1110000</v>
       </c>
       <c r="I141" s="1">
         <v>10</v>
@@ -7908,7 +8154,7 @@
         <v>11</v>
       </c>
       <c r="H142" s="1">
-        <v>1120000</v>
+        <v>1130000</v>
       </c>
       <c r="I142" s="1">
         <v>10</v>
@@ -8050,7 +8296,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -8087,6 +8333,1072 @@
         <v>447</v>
       </c>
       <c r="M146" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="G147" s="1">
+        <v>11</v>
+      </c>
+      <c r="H147" s="1">
+        <v>1150000</v>
+      </c>
+      <c r="I147" s="1">
+        <v>10</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="s">
+        <v>432</v>
+      </c>
+      <c r="M147" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>155000000</v>
+      </c>
+      <c r="G148" s="1">
+        <v>11</v>
+      </c>
+      <c r="H148" s="1">
+        <v>1170000</v>
+      </c>
+      <c r="I148" s="1">
+        <v>10</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
+        <v>433</v>
+      </c>
+      <c r="M148" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>155000000</v>
+      </c>
+      <c r="G149" s="1">
+        <v>11</v>
+      </c>
+      <c r="H149" s="1">
+        <v>1190000</v>
+      </c>
+      <c r="I149" s="1">
+        <v>10</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="s">
+        <v>434</v>
+      </c>
+      <c r="M149" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="G150" s="1">
+        <v>11</v>
+      </c>
+      <c r="H150" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="I150" s="1">
+        <v>10</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="s">
+        <v>435</v>
+      </c>
+      <c r="M150" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="G151" s="1">
+        <v>11</v>
+      </c>
+      <c r="H151" s="1">
+        <v>1230000</v>
+      </c>
+      <c r="I151" s="1">
+        <v>10</v>
+      </c>
+      <c r="J151" s="1">
+        <v>0</v>
+      </c>
+      <c r="K151" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="s">
+        <v>500</v>
+      </c>
+      <c r="M151" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>165000000</v>
+      </c>
+      <c r="G152" s="1">
+        <v>11</v>
+      </c>
+      <c r="H152" s="1">
+        <v>1250000</v>
+      </c>
+      <c r="I152" s="1">
+        <v>10</v>
+      </c>
+      <c r="J152" s="1">
+        <v>0</v>
+      </c>
+      <c r="K152" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="s">
+        <v>501</v>
+      </c>
+      <c r="M152" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>165000000</v>
+      </c>
+      <c r="G153" s="1">
+        <v>11</v>
+      </c>
+      <c r="H153" s="1">
+        <v>1270000</v>
+      </c>
+      <c r="I153" s="1">
+        <v>10</v>
+      </c>
+      <c r="J153" s="1">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="s">
+        <v>502</v>
+      </c>
+      <c r="M153" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1">
+        <v>170000000</v>
+      </c>
+      <c r="G154" s="1">
+        <v>11</v>
+      </c>
+      <c r="H154" s="1">
+        <v>1290000</v>
+      </c>
+      <c r="I154" s="1">
+        <v>10</v>
+      </c>
+      <c r="J154" s="1">
+        <v>0</v>
+      </c>
+      <c r="K154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="s">
+        <v>503</v>
+      </c>
+      <c r="M154" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>170000000</v>
+      </c>
+      <c r="G155" s="1">
+        <v>11</v>
+      </c>
+      <c r="H155" s="1">
+        <v>1310000</v>
+      </c>
+      <c r="I155" s="1">
+        <v>10</v>
+      </c>
+      <c r="J155" s="1">
+        <v>0</v>
+      </c>
+      <c r="K155" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="s">
+        <v>504</v>
+      </c>
+      <c r="M155" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="1">
+        <v>175000000</v>
+      </c>
+      <c r="G156" s="1">
+        <v>11</v>
+      </c>
+      <c r="H156" s="1">
+        <v>1330000</v>
+      </c>
+      <c r="I156" s="1">
+        <v>10</v>
+      </c>
+      <c r="J156" s="1">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="s">
+        <v>505</v>
+      </c>
+      <c r="M156" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>175000000</v>
+      </c>
+      <c r="G157" s="1">
+        <v>11</v>
+      </c>
+      <c r="H157" s="1">
+        <v>1350000</v>
+      </c>
+      <c r="I157" s="1">
+        <v>10</v>
+      </c>
+      <c r="J157" s="1">
+        <v>0</v>
+      </c>
+      <c r="K157" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="s">
+        <v>506</v>
+      </c>
+      <c r="M157" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="G158" s="1">
+        <v>11</v>
+      </c>
+      <c r="H158" s="1">
+        <v>1370000</v>
+      </c>
+      <c r="I158" s="1">
+        <v>10</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="s">
+        <v>507</v>
+      </c>
+      <c r="M158" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="G159" s="1">
+        <v>11</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1390000</v>
+      </c>
+      <c r="I159" s="1">
+        <v>10</v>
+      </c>
+      <c r="J159" s="1">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="s">
+        <v>508</v>
+      </c>
+      <c r="M159" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>185000000</v>
+      </c>
+      <c r="G160" s="1">
+        <v>11</v>
+      </c>
+      <c r="H160" s="1">
+        <v>1410000</v>
+      </c>
+      <c r="I160" s="1">
+        <v>10</v>
+      </c>
+      <c r="J160" s="1">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>509</v>
+      </c>
+      <c r="M160" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="1">
+        <v>185000000</v>
+      </c>
+      <c r="G161" s="1">
+        <v>11</v>
+      </c>
+      <c r="H161" s="1">
+        <v>1430000</v>
+      </c>
+      <c r="I161" s="1">
+        <v>10</v>
+      </c>
+      <c r="J161" s="1">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="s">
+        <v>510</v>
+      </c>
+      <c r="M161" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>190000000</v>
+      </c>
+      <c r="G162" s="1">
+        <v>11</v>
+      </c>
+      <c r="H162" s="1">
+        <v>1450000</v>
+      </c>
+      <c r="I162" s="1">
+        <v>10</v>
+      </c>
+      <c r="J162" s="1">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="s">
+        <v>511</v>
+      </c>
+      <c r="M162" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>190000000</v>
+      </c>
+      <c r="G163" s="1">
+        <v>11</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1470000</v>
+      </c>
+      <c r="I163" s="1">
+        <v>10</v>
+      </c>
+      <c r="J163" s="1">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="s">
+        <v>512</v>
+      </c>
+      <c r="M163" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1">
+        <v>195000000</v>
+      </c>
+      <c r="G164" s="1">
+        <v>11</v>
+      </c>
+      <c r="H164" s="1">
+        <v>1490000</v>
+      </c>
+      <c r="I164" s="1">
+        <v>10</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="s">
+        <v>513</v>
+      </c>
+      <c r="M164" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>195000000</v>
+      </c>
+      <c r="G165" s="1">
+        <v>11</v>
+      </c>
+      <c r="H165" s="1">
+        <v>1510000</v>
+      </c>
+      <c r="I165" s="1">
+        <v>10</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="s">
+        <v>514</v>
+      </c>
+      <c r="M165" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="G166" s="1">
+        <v>11</v>
+      </c>
+      <c r="H166" s="1">
+        <v>1530000</v>
+      </c>
+      <c r="I166" s="1">
+        <v>10</v>
+      </c>
+      <c r="J166" s="1">
+        <v>0</v>
+      </c>
+      <c r="K166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="s">
+        <v>515</v>
+      </c>
+      <c r="M166" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="G167" s="1">
+        <v>11</v>
+      </c>
+      <c r="H167" s="1">
+        <v>1550000</v>
+      </c>
+      <c r="I167" s="1">
+        <v>10</v>
+      </c>
+      <c r="J167" s="1">
+        <v>0</v>
+      </c>
+      <c r="K167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="s">
+        <v>516</v>
+      </c>
+      <c r="M167" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>205000000</v>
+      </c>
+      <c r="G168" s="1">
+        <v>11</v>
+      </c>
+      <c r="H168" s="1">
+        <v>1570000</v>
+      </c>
+      <c r="I168" s="1">
+        <v>10</v>
+      </c>
+      <c r="J168" s="1">
+        <v>0</v>
+      </c>
+      <c r="K168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="s">
+        <v>517</v>
+      </c>
+      <c r="M168" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="1">
+        <v>205000000</v>
+      </c>
+      <c r="G169" s="1">
+        <v>11</v>
+      </c>
+      <c r="H169" s="1">
+        <v>1590000</v>
+      </c>
+      <c r="I169" s="1">
+        <v>10</v>
+      </c>
+      <c r="J169" s="1">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="s">
+        <v>518</v>
+      </c>
+      <c r="M169" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>210000000</v>
+      </c>
+      <c r="G170" s="1">
+        <v>11</v>
+      </c>
+      <c r="H170" s="1">
+        <v>1610000</v>
+      </c>
+      <c r="I170" s="1">
+        <v>10</v>
+      </c>
+      <c r="J170" s="1">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="s">
+        <v>519</v>
+      </c>
+      <c r="M170" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1">
+        <v>210000000</v>
+      </c>
+      <c r="G171" s="1">
+        <v>11</v>
+      </c>
+      <c r="H171" s="1">
+        <v>1630000</v>
+      </c>
+      <c r="I171" s="1">
+        <v>10</v>
+      </c>
+      <c r="J171" s="1">
+        <v>0</v>
+      </c>
+      <c r="K171" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="s">
+        <v>520</v>
+      </c>
+      <c r="M171" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>215000000</v>
+      </c>
+      <c r="G172" s="1">
+        <v>11</v>
+      </c>
+      <c r="H172" s="1">
+        <v>1650000</v>
+      </c>
+      <c r="I172" s="1">
+        <v>10</v>
+      </c>
+      <c r="J172" s="1">
+        <v>0</v>
+      </c>
+      <c r="K172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="s">
+        <v>521</v>
+      </c>
+      <c r="M172" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3957F97-1C80-4221-91AE-87B20B8991A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE8910-F9F0-474C-9D5D-169BCFE31D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="2490" windowWidth="26715" windowHeight="14640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="546">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1895,6 +1895,90 @@
   </si>
   <si>
     <t>마존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title171</t>
+  </si>
+  <si>
+    <t>title172</t>
+  </si>
+  <si>
+    <t>title173</t>
+  </si>
+  <si>
+    <t>title174</t>
+  </si>
+  <si>
+    <t>title175</t>
+  </si>
+  <si>
+    <t>title176</t>
+  </si>
+  <si>
+    <t>title177</t>
+  </si>
+  <si>
+    <t>title178</t>
+  </si>
+  <si>
+    <t>스테이지 3250 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3350 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3400 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3450 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 3500 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 3550 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 3600 돌파</t>
+  </si>
+  <si>
+    <t>장보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대조영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광개토대왕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2329,11 +2413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L173" sqref="L173"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9399,6 +9483,334 @@
         <v>521</v>
       </c>
       <c r="M172" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D173" s="1">
+        <v>1</v>
+      </c>
+      <c r="E173" s="1">
+        <v>5</v>
+      </c>
+      <c r="F173" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="G173" s="1">
+        <v>10</v>
+      </c>
+      <c r="H173" s="1">
+        <v>30</v>
+      </c>
+      <c r="I173" s="1">
+        <v>10</v>
+      </c>
+      <c r="J173" s="1">
+        <v>0</v>
+      </c>
+      <c r="K173" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="s">
+        <v>534</v>
+      </c>
+      <c r="M173" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D174" s="1">
+        <v>1</v>
+      </c>
+      <c r="E174" s="1">
+        <v>5</v>
+      </c>
+      <c r="F174" s="1">
+        <v>6900000</v>
+      </c>
+      <c r="G174" s="1">
+        <v>10</v>
+      </c>
+      <c r="H174" s="1">
+        <v>31</v>
+      </c>
+      <c r="I174" s="1">
+        <v>10</v>
+      </c>
+      <c r="J174" s="1">
+        <v>0</v>
+      </c>
+      <c r="K174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="s">
+        <v>535</v>
+      </c>
+      <c r="M174" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D175" s="1">
+        <v>1</v>
+      </c>
+      <c r="E175" s="1">
+        <v>5</v>
+      </c>
+      <c r="F175" s="1">
+        <v>7000000</v>
+      </c>
+      <c r="G175" s="1">
+        <v>10</v>
+      </c>
+      <c r="H175" s="1">
+        <v>31</v>
+      </c>
+      <c r="I175" s="1">
+        <v>10</v>
+      </c>
+      <c r="J175" s="1">
+        <v>0</v>
+      </c>
+      <c r="K175" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="s">
+        <v>536</v>
+      </c>
+      <c r="M175" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="1">
+        <v>5</v>
+      </c>
+      <c r="F176" s="1">
+        <v>7100000</v>
+      </c>
+      <c r="G176" s="1">
+        <v>10</v>
+      </c>
+      <c r="H176" s="1">
+        <v>32</v>
+      </c>
+      <c r="I176" s="1">
+        <v>10</v>
+      </c>
+      <c r="J176" s="1">
+        <v>0</v>
+      </c>
+      <c r="K176" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="s">
+        <v>537</v>
+      </c>
+      <c r="M176" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D177" s="1">
+        <v>1</v>
+      </c>
+      <c r="E177" s="1">
+        <v>5</v>
+      </c>
+      <c r="F177" s="1">
+        <v>7200000</v>
+      </c>
+      <c r="G177" s="1">
+        <v>10</v>
+      </c>
+      <c r="H177" s="1">
+        <v>32</v>
+      </c>
+      <c r="I177" s="1">
+        <v>10</v>
+      </c>
+      <c r="J177" s="1">
+        <v>0</v>
+      </c>
+      <c r="K177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>542</v>
+      </c>
+      <c r="M177" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="1">
+        <v>5</v>
+      </c>
+      <c r="F178" s="1">
+        <v>7300000</v>
+      </c>
+      <c r="G178" s="1">
+        <v>10</v>
+      </c>
+      <c r="H178" s="1">
+        <v>33</v>
+      </c>
+      <c r="I178" s="1">
+        <v>10</v>
+      </c>
+      <c r="J178" s="1">
+        <v>0</v>
+      </c>
+      <c r="K178" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="s">
+        <v>544</v>
+      </c>
+      <c r="M178" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D179" s="1">
+        <v>1</v>
+      </c>
+      <c r="E179" s="1">
+        <v>5</v>
+      </c>
+      <c r="F179" s="1">
+        <v>7400000</v>
+      </c>
+      <c r="G179" s="1">
+        <v>10</v>
+      </c>
+      <c r="H179" s="1">
+        <v>33</v>
+      </c>
+      <c r="I179" s="1">
+        <v>10</v>
+      </c>
+      <c r="J179" s="1">
+        <v>0</v>
+      </c>
+      <c r="K179" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="s">
+        <v>545</v>
+      </c>
+      <c r="M179" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="1">
+        <v>5</v>
+      </c>
+      <c r="F180" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="G180" s="1">
+        <v>10</v>
+      </c>
+      <c r="H180" s="1">
+        <v>34</v>
+      </c>
+      <c r="I180" s="1">
+        <v>10</v>
+      </c>
+      <c r="J180" s="1">
+        <v>0</v>
+      </c>
+      <c r="K180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="s">
+        <v>543</v>
+      </c>
+      <c r="M180" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BE8910-F9F0-474C-9D5D-169BCFE31D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAE6D0-261B-4F37-B4DE-0B7E6377E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="576">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1979,6 +1979,109 @@
   </si>
   <si>
     <t>광개토대왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title179</t>
+  </si>
+  <si>
+    <t>title180</t>
+  </si>
+  <si>
+    <t>title181</t>
+  </si>
+  <si>
+    <t>title182</t>
+  </si>
+  <si>
+    <t>title183</t>
+  </si>
+  <si>
+    <t>title184</t>
+  </si>
+  <si>
+    <t>title185</t>
+  </si>
+  <si>
+    <t>title186</t>
+  </si>
+  <si>
+    <t>title187</t>
+  </si>
+  <si>
+    <t>레벨 255000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 260000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 265000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 270000달성</t>
+  </si>
+  <si>
+    <t>레벨 275000달성</t>
+  </si>
+  <si>
+    <t>레벨 280000달성</t>
+  </si>
+  <si>
+    <t>레벨 285000달성</t>
+  </si>
+  <si>
+    <t>레벨 290000달성</t>
+  </si>
+  <si>
+    <t>레벨 295000달성</t>
+  </si>
+  <si>
+    <t>레벨 300000달성</t>
+  </si>
+  <si>
+    <t>title188</t>
+  </si>
+  <si>
+    <t>마황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마종지주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마지존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만마지수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2413,11 +2516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M180"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L180" sqref="L180"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9811,6 +9914,416 @@
         <v>543</v>
       </c>
       <c r="M180" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1">
+        <v>225000000</v>
+      </c>
+      <c r="G181" s="1">
+        <v>11</v>
+      </c>
+      <c r="H181" s="1">
+        <v>1690000</v>
+      </c>
+      <c r="I181" s="1">
+        <v>10</v>
+      </c>
+      <c r="J181" s="1">
+        <v>0</v>
+      </c>
+      <c r="K181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="s">
+        <v>566</v>
+      </c>
+      <c r="M181" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>235000000</v>
+      </c>
+      <c r="G182" s="1">
+        <v>11</v>
+      </c>
+      <c r="H182" s="1">
+        <v>1730000</v>
+      </c>
+      <c r="I182" s="1">
+        <v>10</v>
+      </c>
+      <c r="J182" s="1">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="s">
+        <v>567</v>
+      </c>
+      <c r="M182" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>245000000</v>
+      </c>
+      <c r="G183" s="1">
+        <v>11</v>
+      </c>
+      <c r="H183" s="1">
+        <v>1770000</v>
+      </c>
+      <c r="I183" s="1">
+        <v>10</v>
+      </c>
+      <c r="J183" s="1">
+        <v>0</v>
+      </c>
+      <c r="K183" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="s">
+        <v>568</v>
+      </c>
+      <c r="M183" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1">
+        <v>255000000</v>
+      </c>
+      <c r="G184" s="1">
+        <v>11</v>
+      </c>
+      <c r="H184" s="1">
+        <v>1810000</v>
+      </c>
+      <c r="I184" s="1">
+        <v>10</v>
+      </c>
+      <c r="J184" s="1">
+        <v>0</v>
+      </c>
+      <c r="K184" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="s">
+        <v>569</v>
+      </c>
+      <c r="M184" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>265000000</v>
+      </c>
+      <c r="G185" s="1">
+        <v>11</v>
+      </c>
+      <c r="H185" s="1">
+        <v>1850000</v>
+      </c>
+      <c r="I185" s="1">
+        <v>10</v>
+      </c>
+      <c r="J185" s="1">
+        <v>0</v>
+      </c>
+      <c r="K185" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="s">
+        <v>570</v>
+      </c>
+      <c r="M185" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>275000000</v>
+      </c>
+      <c r="G186" s="1">
+        <v>11</v>
+      </c>
+      <c r="H186" s="1">
+        <v>1890000</v>
+      </c>
+      <c r="I186" s="1">
+        <v>10</v>
+      </c>
+      <c r="J186" s="1">
+        <v>0</v>
+      </c>
+      <c r="K186" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="s">
+        <v>571</v>
+      </c>
+      <c r="M186" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>285000000</v>
+      </c>
+      <c r="G187" s="1">
+        <v>11</v>
+      </c>
+      <c r="H187" s="1">
+        <v>1930000</v>
+      </c>
+      <c r="I187" s="1">
+        <v>10</v>
+      </c>
+      <c r="J187" s="1">
+        <v>0</v>
+      </c>
+      <c r="K187" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="s">
+        <v>572</v>
+      </c>
+      <c r="M187" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>295000000</v>
+      </c>
+      <c r="G188" s="1">
+        <v>11</v>
+      </c>
+      <c r="H188" s="1">
+        <v>1970000</v>
+      </c>
+      <c r="I188" s="1">
+        <v>10</v>
+      </c>
+      <c r="J188" s="1">
+        <v>0</v>
+      </c>
+      <c r="K188" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="s">
+        <v>573</v>
+      </c>
+      <c r="M188" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>305000000</v>
+      </c>
+      <c r="G189" s="1">
+        <v>11</v>
+      </c>
+      <c r="H189" s="1">
+        <v>2010000</v>
+      </c>
+      <c r="I189" s="1">
+        <v>10</v>
+      </c>
+      <c r="J189" s="1">
+        <v>0</v>
+      </c>
+      <c r="K189" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="s">
+        <v>574</v>
+      </c>
+      <c r="M189" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>315000000</v>
+      </c>
+      <c r="G190" s="1">
+        <v>11</v>
+      </c>
+      <c r="H190" s="1">
+        <v>2050000</v>
+      </c>
+      <c r="I190" s="1">
+        <v>10</v>
+      </c>
+      <c r="J190" s="1">
+        <v>0</v>
+      </c>
+      <c r="K190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="s">
+        <v>575</v>
+      </c>
+      <c r="M190" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FAE6D0-261B-4F37-B4DE-0B7E6377E70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5A32FE-2DF4-4A30-91F3-EE754A36C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2082,74 @@
   </si>
   <si>
     <t>군신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title189</t>
+  </si>
+  <si>
+    <t>title190</t>
+  </si>
+  <si>
+    <t>title191</t>
+  </si>
+  <si>
+    <t>title192</t>
+  </si>
+  <si>
+    <t>스테이지 3650 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3750 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 3800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title193</t>
+  </si>
+  <si>
+    <t>스테이지 3850 돌파</t>
+  </si>
+  <si>
+    <t>title194</t>
+  </si>
+  <si>
+    <t>스테이지 3900 돌파</t>
+  </si>
+  <si>
+    <t>title195</t>
+  </si>
+  <si>
+    <t>스테이지 3950 돌파</t>
+  </si>
+  <si>
+    <t>title196</t>
+  </si>
+  <si>
+    <t>스테이지 4000 돌파</t>
+  </si>
+  <si>
+    <t>노화순청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만류귀종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반선지경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오기조원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2516,11 +2584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H183" sqref="H183"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10324,6 +10392,334 @@
         <v>575</v>
       </c>
       <c r="M190" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D191" s="1">
+        <v>1</v>
+      </c>
+      <c r="E191" s="1">
+        <v>5</v>
+      </c>
+      <c r="F191" s="1">
+        <v>7600000</v>
+      </c>
+      <c r="G191" s="1">
+        <v>10</v>
+      </c>
+      <c r="H191" s="1">
+        <v>34</v>
+      </c>
+      <c r="I191" s="1">
+        <v>10</v>
+      </c>
+      <c r="J191" s="1">
+        <v>0</v>
+      </c>
+      <c r="K191" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" t="s">
+        <v>592</v>
+      </c>
+      <c r="M191" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="1">
+        <v>5</v>
+      </c>
+      <c r="F192" s="1">
+        <v>7700000</v>
+      </c>
+      <c r="G192" s="1">
+        <v>10</v>
+      </c>
+      <c r="H192" s="1">
+        <v>35</v>
+      </c>
+      <c r="I192" s="1">
+        <v>10</v>
+      </c>
+      <c r="J192" s="1">
+        <v>0</v>
+      </c>
+      <c r="K192" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="s">
+        <v>501</v>
+      </c>
+      <c r="M192" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D193" s="1">
+        <v>1</v>
+      </c>
+      <c r="E193" s="1">
+        <v>5</v>
+      </c>
+      <c r="F193" s="1">
+        <v>7800000</v>
+      </c>
+      <c r="G193" s="1">
+        <v>10</v>
+      </c>
+      <c r="H193" s="1">
+        <v>35</v>
+      </c>
+      <c r="I193" s="1">
+        <v>10</v>
+      </c>
+      <c r="J193" s="1">
+        <v>0</v>
+      </c>
+      <c r="K193" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L193" t="s">
+        <v>593</v>
+      </c>
+      <c r="M193" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="1">
+        <v>5</v>
+      </c>
+      <c r="F194" s="1">
+        <v>7900000</v>
+      </c>
+      <c r="G194" s="1">
+        <v>10</v>
+      </c>
+      <c r="H194" s="1">
+        <v>36</v>
+      </c>
+      <c r="I194" s="1">
+        <v>10</v>
+      </c>
+      <c r="J194" s="1">
+        <v>0</v>
+      </c>
+      <c r="K194" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L194" t="s">
+        <v>500</v>
+      </c>
+      <c r="M194" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D195" s="1">
+        <v>1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>5</v>
+      </c>
+      <c r="F195" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="G195" s="1">
+        <v>10</v>
+      </c>
+      <c r="H195" s="1">
+        <v>36</v>
+      </c>
+      <c r="I195" s="1">
+        <v>10</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0</v>
+      </c>
+      <c r="K195" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L195" t="s">
+        <v>435</v>
+      </c>
+      <c r="M195" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="1">
+        <v>5</v>
+      </c>
+      <c r="F196" s="1">
+        <v>8100000</v>
+      </c>
+      <c r="G196" s="1">
+        <v>10</v>
+      </c>
+      <c r="H196" s="1">
+        <v>37</v>
+      </c>
+      <c r="I196" s="1">
+        <v>10</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0</v>
+      </c>
+      <c r="K196" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L196" t="s">
+        <v>594</v>
+      </c>
+      <c r="M196" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1</v>
+      </c>
+      <c r="E197" s="1">
+        <v>5</v>
+      </c>
+      <c r="F197" s="1">
+        <v>8200000</v>
+      </c>
+      <c r="G197" s="1">
+        <v>10</v>
+      </c>
+      <c r="H197" s="1">
+        <v>37</v>
+      </c>
+      <c r="I197" s="1">
+        <v>10</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0</v>
+      </c>
+      <c r="K197" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="s">
+        <v>432</v>
+      </c>
+      <c r="M197" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="1">
+        <v>5</v>
+      </c>
+      <c r="F198" s="1">
+        <v>8300000</v>
+      </c>
+      <c r="G198" s="1">
+        <v>10</v>
+      </c>
+      <c r="H198" s="1">
+        <v>38</v>
+      </c>
+      <c r="I198" s="1">
+        <v>10</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0</v>
+      </c>
+      <c r="K198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="s">
+        <v>595</v>
+      </c>
+      <c r="M198" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5A32FE-2DF4-4A30-91F3-EE754A36C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B89D93-A3EA-4ECD-B122-95F2EA97A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,6 +2150,109 @@
   </si>
   <si>
     <t>오기조원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title197</t>
+  </si>
+  <si>
+    <t>title198</t>
+  </si>
+  <si>
+    <t>title199</t>
+  </si>
+  <si>
+    <t>title200</t>
+  </si>
+  <si>
+    <t>title201</t>
+  </si>
+  <si>
+    <t>title202</t>
+  </si>
+  <si>
+    <t>title203</t>
+  </si>
+  <si>
+    <t>title204</t>
+  </si>
+  <si>
+    <t>title205</t>
+  </si>
+  <si>
+    <t>title206</t>
+  </si>
+  <si>
+    <t>레벨 305000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 310000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 315000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 320000달성</t>
+  </si>
+  <si>
+    <t>레벨 325000달성</t>
+  </si>
+  <si>
+    <t>레벨 330000달성</t>
+  </si>
+  <si>
+    <t>레벨 335000달성</t>
+  </si>
+  <si>
+    <t>레벨 340000달성</t>
+  </si>
+  <si>
+    <t>레벨 345000달성</t>
+  </si>
+  <si>
+    <t>레벨 350000달성</t>
+  </si>
+  <si>
+    <t>각골명심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간뇌도지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간난신고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강모견순</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검산도림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도산검림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견강무쌍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경천동지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구명정초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중천</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2584,11 +2687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G192" sqref="G192"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10720,6 +10823,416 @@
         <v>595</v>
       </c>
       <c r="M198" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="1">
+        <v>325000000</v>
+      </c>
+      <c r="G199" s="1">
+        <v>11</v>
+      </c>
+      <c r="H199" s="1">
+        <v>2090000</v>
+      </c>
+      <c r="I199" s="1">
+        <v>10</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0</v>
+      </c>
+      <c r="K199" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="s">
+        <v>616</v>
+      </c>
+      <c r="M199" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>335000000</v>
+      </c>
+      <c r="G200" s="1">
+        <v>11</v>
+      </c>
+      <c r="H200" s="1">
+        <v>2130000</v>
+      </c>
+      <c r="I200" s="1">
+        <v>10</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0</v>
+      </c>
+      <c r="K200" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="s">
+        <v>617</v>
+      </c>
+      <c r="M200" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
+      <c r="E201" s="1">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>345000000</v>
+      </c>
+      <c r="G201" s="1">
+        <v>11</v>
+      </c>
+      <c r="H201" s="1">
+        <v>2170000</v>
+      </c>
+      <c r="I201" s="1">
+        <v>10</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0</v>
+      </c>
+      <c r="K201" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="s">
+        <v>618</v>
+      </c>
+      <c r="M201" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D202" s="1">
+        <v>0</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>355000000</v>
+      </c>
+      <c r="G202" s="1">
+        <v>11</v>
+      </c>
+      <c r="H202" s="1">
+        <v>2210000</v>
+      </c>
+      <c r="I202" s="1">
+        <v>10</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0</v>
+      </c>
+      <c r="K202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="s">
+        <v>619</v>
+      </c>
+      <c r="M202" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D203" s="1">
+        <v>0</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>365000000</v>
+      </c>
+      <c r="G203" s="1">
+        <v>11</v>
+      </c>
+      <c r="H203" s="1">
+        <v>2250000</v>
+      </c>
+      <c r="I203" s="1">
+        <v>10</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0</v>
+      </c>
+      <c r="K203" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="s">
+        <v>620</v>
+      </c>
+      <c r="M203" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0</v>
+      </c>
+      <c r="E204" s="1">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>375000000</v>
+      </c>
+      <c r="G204" s="1">
+        <v>11</v>
+      </c>
+      <c r="H204" s="1">
+        <v>2290000</v>
+      </c>
+      <c r="I204" s="1">
+        <v>10</v>
+      </c>
+      <c r="J204" s="1">
+        <v>0</v>
+      </c>
+      <c r="K204" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L204" t="s">
+        <v>621</v>
+      </c>
+      <c r="M204" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
+        <v>385000000</v>
+      </c>
+      <c r="G205" s="1">
+        <v>11</v>
+      </c>
+      <c r="H205" s="1">
+        <v>2330000</v>
+      </c>
+      <c r="I205" s="1">
+        <v>10</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0</v>
+      </c>
+      <c r="K205" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L205" t="s">
+        <v>622</v>
+      </c>
+      <c r="M205" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1">
+        <v>1</v>
+      </c>
+      <c r="F206" s="1">
+        <v>395000000</v>
+      </c>
+      <c r="G206" s="1">
+        <v>11</v>
+      </c>
+      <c r="H206" s="1">
+        <v>2370000</v>
+      </c>
+      <c r="I206" s="1">
+        <v>10</v>
+      </c>
+      <c r="J206" s="1">
+        <v>0</v>
+      </c>
+      <c r="K206" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="s">
+        <v>623</v>
+      </c>
+      <c r="M206" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D207" s="1">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>405000000</v>
+      </c>
+      <c r="G207" s="1">
+        <v>11</v>
+      </c>
+      <c r="H207" s="1">
+        <v>2410000</v>
+      </c>
+      <c r="I207" s="1">
+        <v>10</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0</v>
+      </c>
+      <c r="K207" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="s">
+        <v>624</v>
+      </c>
+      <c r="M207" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>415000000</v>
+      </c>
+      <c r="G208" s="1">
+        <v>11</v>
+      </c>
+      <c r="H208" s="1">
+        <v>2450000</v>
+      </c>
+      <c r="I208" s="1">
+        <v>10</v>
+      </c>
+      <c r="J208" s="1">
+        <v>0</v>
+      </c>
+      <c r="K208" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="s">
+        <v>625</v>
+      </c>
+      <c r="M208" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B89D93-A3EA-4ECD-B122-95F2EA97A5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A21DA8B-E06B-4D83-A1B3-CC549C8A821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="628">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2253,6 +2253,13 @@
   </si>
   <si>
     <t>중천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title207</t>
+  </si>
+  <si>
+    <t>필멸 무기 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2687,11 +2694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M208"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H199" sqref="H199"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11233,6 +11240,47 @@
         <v>625</v>
       </c>
       <c r="M208" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" t="s">
+        <v>627</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>20</v>
+      </c>
+      <c r="F209">
+        <v>3000</v>
+      </c>
+      <c r="G209">
+        <v>4</v>
+      </c>
+      <c r="H209">
+        <v>200</v>
+      </c>
+      <c r="I209">
+        <v>10</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="s">
+        <v>270</v>
+      </c>
+      <c r="M209">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A21DA8B-E06B-4D83-A1B3-CC549C8A821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731312B-C125-4FA5-8FB2-31339D109AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="680">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2260,6 +2260,182 @@
   </si>
   <si>
     <t>필멸 무기 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4050 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4150 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 4200 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 4250 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 4300 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 4350 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 4400 돌파</t>
+  </si>
+  <si>
+    <t>title208</t>
+  </si>
+  <si>
+    <t>title209</t>
+  </si>
+  <si>
+    <t>title210</t>
+  </si>
+  <si>
+    <t>title211</t>
+  </si>
+  <si>
+    <t>title212</t>
+  </si>
+  <si>
+    <t>title213</t>
+  </si>
+  <si>
+    <t>title214</t>
+  </si>
+  <si>
+    <t>title215</t>
+  </si>
+  <si>
+    <t>title216</t>
+  </si>
+  <si>
+    <t>스테이지 4100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능공허도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만년한철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유엽비도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이기어검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이일대로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기상인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기성강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 355000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 360000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 365000달성</t>
+  </si>
+  <si>
+    <t>레벨 370000달성</t>
+  </si>
+  <si>
+    <t>레벨 375000달성</t>
+  </si>
+  <si>
+    <t>레벨 380000달성</t>
+  </si>
+  <si>
+    <t>레벨 385000달성</t>
+  </si>
+  <si>
+    <t>레벨 390000달성</t>
+  </si>
+  <si>
+    <t>레벨 395000달성</t>
+  </si>
+  <si>
+    <t>레벨 400000달성</t>
+  </si>
+  <si>
+    <t>title217</t>
+  </si>
+  <si>
+    <t>title218</t>
+  </si>
+  <si>
+    <t>title219</t>
+  </si>
+  <si>
+    <t>title220</t>
+  </si>
+  <si>
+    <t>title221</t>
+  </si>
+  <si>
+    <t>title222</t>
+  </si>
+  <si>
+    <t>title223</t>
+  </si>
+  <si>
+    <t>title224</t>
+  </si>
+  <si>
+    <t>title225</t>
+  </si>
+  <si>
+    <t>금강불괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가진기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력답수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부공삼매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부신약영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어검비행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천안통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천인합일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출신입화지경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2694,11 +2870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G209" sqref="G209"/>
+      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11281,6 +11457,744 @@
         <v>270</v>
       </c>
       <c r="M209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="1">
+        <v>5</v>
+      </c>
+      <c r="F210" s="1">
+        <v>8400000</v>
+      </c>
+      <c r="G210" s="1">
+        <v>10</v>
+      </c>
+      <c r="H210" s="1">
+        <v>38</v>
+      </c>
+      <c r="I210" s="1">
+        <v>10</v>
+      </c>
+      <c r="J210" s="1">
+        <v>0</v>
+      </c>
+      <c r="K210" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="s">
+        <v>645</v>
+      </c>
+      <c r="M210" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D211" s="1">
+        <v>1</v>
+      </c>
+      <c r="E211" s="1">
+        <v>5</v>
+      </c>
+      <c r="F211" s="1">
+        <v>8500000</v>
+      </c>
+      <c r="G211" s="1">
+        <v>10</v>
+      </c>
+      <c r="H211" s="1">
+        <v>39</v>
+      </c>
+      <c r="I211" s="1">
+        <v>10</v>
+      </c>
+      <c r="J211" s="1">
+        <v>0</v>
+      </c>
+      <c r="K211" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="s">
+        <v>646</v>
+      </c>
+      <c r="M211" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="1">
+        <v>5</v>
+      </c>
+      <c r="F212" s="1">
+        <v>8600000</v>
+      </c>
+      <c r="G212" s="1">
+        <v>10</v>
+      </c>
+      <c r="H212" s="1">
+        <v>39</v>
+      </c>
+      <c r="I212" s="1">
+        <v>10</v>
+      </c>
+      <c r="J212" s="1">
+        <v>0</v>
+      </c>
+      <c r="K212" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>593</v>
+      </c>
+      <c r="M212" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D213" s="1">
+        <v>1</v>
+      </c>
+      <c r="E213" s="1">
+        <v>5</v>
+      </c>
+      <c r="F213" s="1">
+        <v>8700000</v>
+      </c>
+      <c r="G213" s="1">
+        <v>10</v>
+      </c>
+      <c r="H213" s="1">
+        <v>40</v>
+      </c>
+      <c r="I213" s="1">
+        <v>10</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="K213" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>647</v>
+      </c>
+      <c r="M213" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="1">
+        <v>5</v>
+      </c>
+      <c r="F214" s="1">
+        <v>8800000</v>
+      </c>
+      <c r="G214" s="1">
+        <v>10</v>
+      </c>
+      <c r="H214" s="1">
+        <v>40</v>
+      </c>
+      <c r="I214" s="1">
+        <v>10</v>
+      </c>
+      <c r="J214" s="1">
+        <v>0</v>
+      </c>
+      <c r="K214" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="s">
+        <v>648</v>
+      </c>
+      <c r="M214" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D215" s="1">
+        <v>1</v>
+      </c>
+      <c r="E215" s="1">
+        <v>5</v>
+      </c>
+      <c r="F215" s="1">
+        <v>8900000</v>
+      </c>
+      <c r="G215" s="1">
+        <v>10</v>
+      </c>
+      <c r="H215" s="1">
+        <v>41</v>
+      </c>
+      <c r="I215" s="1">
+        <v>10</v>
+      </c>
+      <c r="J215" s="1">
+        <v>0</v>
+      </c>
+      <c r="K215" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="s">
+        <v>649</v>
+      </c>
+      <c r="M215" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="1">
+        <v>5</v>
+      </c>
+      <c r="F216" s="1">
+        <v>9000000</v>
+      </c>
+      <c r="G216" s="1">
+        <v>10</v>
+      </c>
+      <c r="H216" s="1">
+        <v>41</v>
+      </c>
+      <c r="I216" s="1">
+        <v>10</v>
+      </c>
+      <c r="J216" s="1">
+        <v>0</v>
+      </c>
+      <c r="K216" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="s">
+        <v>650</v>
+      </c>
+      <c r="M216" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D217" s="1">
+        <v>1</v>
+      </c>
+      <c r="E217" s="1">
+        <v>5</v>
+      </c>
+      <c r="F217" s="1">
+        <v>9100000</v>
+      </c>
+      <c r="G217" s="1">
+        <v>10</v>
+      </c>
+      <c r="H217" s="1">
+        <v>42</v>
+      </c>
+      <c r="I217" s="1">
+        <v>10</v>
+      </c>
+      <c r="J217" s="1">
+        <v>0</v>
+      </c>
+      <c r="K217" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="s">
+        <v>651</v>
+      </c>
+      <c r="M217" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>425000000</v>
+      </c>
+      <c r="G218" s="1">
+        <v>11</v>
+      </c>
+      <c r="H218" s="1">
+        <v>2490000</v>
+      </c>
+      <c r="I218" s="1">
+        <v>10</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0</v>
+      </c>
+      <c r="K218" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="s">
+        <v>671</v>
+      </c>
+      <c r="M218" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="1">
+        <v>435000000</v>
+      </c>
+      <c r="G219" s="1">
+        <v>11</v>
+      </c>
+      <c r="H219" s="1">
+        <v>2530000</v>
+      </c>
+      <c r="I219" s="1">
+        <v>10</v>
+      </c>
+      <c r="J219" s="1">
+        <v>0</v>
+      </c>
+      <c r="K219" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="s">
+        <v>672</v>
+      </c>
+      <c r="M219" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>445000000</v>
+      </c>
+      <c r="G220" s="1">
+        <v>11</v>
+      </c>
+      <c r="H220" s="1">
+        <v>2570000</v>
+      </c>
+      <c r="I220" s="1">
+        <v>10</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0</v>
+      </c>
+      <c r="K220" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="s">
+        <v>673</v>
+      </c>
+      <c r="M220" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D221" s="1">
+        <v>0</v>
+      </c>
+      <c r="E221" s="1">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>455000000</v>
+      </c>
+      <c r="G221" s="1">
+        <v>11</v>
+      </c>
+      <c r="H221" s="1">
+        <v>2610000</v>
+      </c>
+      <c r="I221" s="1">
+        <v>10</v>
+      </c>
+      <c r="J221" s="1">
+        <v>0</v>
+      </c>
+      <c r="K221" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="s">
+        <v>674</v>
+      </c>
+      <c r="M221" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <v>465000000</v>
+      </c>
+      <c r="G222" s="1">
+        <v>11</v>
+      </c>
+      <c r="H222" s="1">
+        <v>2650000</v>
+      </c>
+      <c r="I222" s="1">
+        <v>10</v>
+      </c>
+      <c r="J222" s="1">
+        <v>0</v>
+      </c>
+      <c r="K222" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="s">
+        <v>675</v>
+      </c>
+      <c r="M222" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>475000000</v>
+      </c>
+      <c r="G223" s="1">
+        <v>11</v>
+      </c>
+      <c r="H223" s="1">
+        <v>2690000</v>
+      </c>
+      <c r="I223" s="1">
+        <v>10</v>
+      </c>
+      <c r="J223" s="1">
+        <v>0</v>
+      </c>
+      <c r="K223" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="s">
+        <v>676</v>
+      </c>
+      <c r="M223" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0</v>
+      </c>
+      <c r="E224" s="1">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>485000000</v>
+      </c>
+      <c r="G224" s="1">
+        <v>11</v>
+      </c>
+      <c r="H224" s="1">
+        <v>2730000</v>
+      </c>
+      <c r="I224" s="1">
+        <v>10</v>
+      </c>
+      <c r="J224" s="1">
+        <v>0</v>
+      </c>
+      <c r="K224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="s">
+        <v>677</v>
+      </c>
+      <c r="M224" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>495000000</v>
+      </c>
+      <c r="G225" s="1">
+        <v>11</v>
+      </c>
+      <c r="H225" s="1">
+        <v>2770000</v>
+      </c>
+      <c r="I225" s="1">
+        <v>10</v>
+      </c>
+      <c r="J225" s="1">
+        <v>0</v>
+      </c>
+      <c r="K225" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="s">
+        <v>678</v>
+      </c>
+      <c r="M225" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F226" s="1">
+        <v>505000000</v>
+      </c>
+      <c r="G226" s="1">
+        <v>11</v>
+      </c>
+      <c r="H226" s="1">
+        <v>2810000</v>
+      </c>
+      <c r="I226" s="1">
+        <v>10</v>
+      </c>
+      <c r="J226" s="1">
+        <v>0</v>
+      </c>
+      <c r="K226" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="s">
+        <v>650</v>
+      </c>
+      <c r="M226" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>515000000</v>
+      </c>
+      <c r="G227" s="1">
+        <v>11</v>
+      </c>
+      <c r="H227" s="1">
+        <v>2850000</v>
+      </c>
+      <c r="I227" s="1">
+        <v>10</v>
+      </c>
+      <c r="J227" s="1">
+        <v>0</v>
+      </c>
+      <c r="K227" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="s">
+        <v>679</v>
+      </c>
+      <c r="M227" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B731312B-C125-4FA5-8FB2-31339D109AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6AAC4-087B-4DF0-8F06-D3DC9A7AF108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="691">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2436,6 +2436,46 @@
   </si>
   <si>
     <t>출신입화지경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title226</t>
+  </si>
+  <si>
+    <t>title227</t>
+  </si>
+  <si>
+    <t>title228</t>
+  </si>
+  <si>
+    <t>title229</t>
+  </si>
+  <si>
+    <t>스테이지 4450 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4550 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격산타우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격체전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답설무흔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2870,11 +2910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M227"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J229" sqref="J229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12195,6 +12235,170 @@
         <v>679</v>
       </c>
       <c r="M227" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D228" s="1">
+        <v>1</v>
+      </c>
+      <c r="E228" s="1">
+        <v>5</v>
+      </c>
+      <c r="F228" s="1">
+        <v>9200000</v>
+      </c>
+      <c r="G228" s="1">
+        <v>10</v>
+      </c>
+      <c r="H228" s="1">
+        <v>42</v>
+      </c>
+      <c r="I228" s="1">
+        <v>10</v>
+      </c>
+      <c r="J228" s="1">
+        <v>0</v>
+      </c>
+      <c r="K228" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="s">
+        <v>688</v>
+      </c>
+      <c r="M228" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D229" s="1">
+        <v>1</v>
+      </c>
+      <c r="E229" s="1">
+        <v>5</v>
+      </c>
+      <c r="F229" s="1">
+        <v>9300000</v>
+      </c>
+      <c r="G229" s="1">
+        <v>10</v>
+      </c>
+      <c r="H229" s="1">
+        <v>43</v>
+      </c>
+      <c r="I229" s="1">
+        <v>10</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="K229" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="s">
+        <v>689</v>
+      </c>
+      <c r="M229" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>5</v>
+      </c>
+      <c r="F230" s="1">
+        <v>9400000</v>
+      </c>
+      <c r="G230" s="1">
+        <v>10</v>
+      </c>
+      <c r="H230" s="1">
+        <v>43</v>
+      </c>
+      <c r="I230" s="1">
+        <v>10</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0</v>
+      </c>
+      <c r="K230" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="s">
+        <v>690</v>
+      </c>
+      <c r="M230" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D231" s="1">
+        <v>1</v>
+      </c>
+      <c r="E231" s="1">
+        <v>5</v>
+      </c>
+      <c r="F231" s="1">
+        <v>9500000</v>
+      </c>
+      <c r="G231" s="1">
+        <v>10</v>
+      </c>
+      <c r="H231" s="1">
+        <v>44</v>
+      </c>
+      <c r="I231" s="1">
+        <v>10</v>
+      </c>
+      <c r="J231" s="1">
+        <v>0</v>
+      </c>
+      <c r="K231" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="s">
+        <v>501</v>
+      </c>
+      <c r="M231" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F6AAC4-087B-4DF0-8F06-D3DC9A7AF108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1084E23-6241-43D7-B420-98A7187B2B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4215" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="703">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2476,6 +2476,50 @@
   </si>
   <si>
     <t>답설무흔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4650 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4750 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 4800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title230</t>
+  </si>
+  <si>
+    <t>title231</t>
+  </si>
+  <si>
+    <t>title232</t>
+  </si>
+  <si>
+    <t>title233</t>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2910,11 +2954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M231"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J229" sqref="J229"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12399,6 +12443,170 @@
         <v>501</v>
       </c>
       <c r="M231" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D232" s="1">
+        <v>1</v>
+      </c>
+      <c r="E232" s="1">
+        <v>5</v>
+      </c>
+      <c r="F232" s="1">
+        <v>9600000</v>
+      </c>
+      <c r="G232" s="1">
+        <v>10</v>
+      </c>
+      <c r="H232" s="1">
+        <v>44</v>
+      </c>
+      <c r="I232" s="1">
+        <v>10</v>
+      </c>
+      <c r="J232" s="1">
+        <v>0</v>
+      </c>
+      <c r="K232" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="s">
+        <v>699</v>
+      </c>
+      <c r="M232" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>5</v>
+      </c>
+      <c r="F233" s="1">
+        <v>9700000</v>
+      </c>
+      <c r="G233" s="1">
+        <v>10</v>
+      </c>
+      <c r="H233" s="1">
+        <v>45</v>
+      </c>
+      <c r="I233" s="1">
+        <v>10</v>
+      </c>
+      <c r="J233" s="1">
+        <v>0</v>
+      </c>
+      <c r="K233" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="s">
+        <v>700</v>
+      </c>
+      <c r="M233" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D234" s="1">
+        <v>1</v>
+      </c>
+      <c r="E234" s="1">
+        <v>5</v>
+      </c>
+      <c r="F234" s="1">
+        <v>9800000</v>
+      </c>
+      <c r="G234" s="1">
+        <v>10</v>
+      </c>
+      <c r="H234" s="1">
+        <v>45</v>
+      </c>
+      <c r="I234" s="1">
+        <v>10</v>
+      </c>
+      <c r="J234" s="1">
+        <v>0</v>
+      </c>
+      <c r="K234" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="s">
+        <v>701</v>
+      </c>
+      <c r="M234" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D235" s="1">
+        <v>1</v>
+      </c>
+      <c r="E235" s="1">
+        <v>5</v>
+      </c>
+      <c r="F235" s="1">
+        <v>9900000</v>
+      </c>
+      <c r="G235" s="1">
+        <v>10</v>
+      </c>
+      <c r="H235" s="1">
+        <v>46</v>
+      </c>
+      <c r="I235" s="1">
+        <v>10</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0</v>
+      </c>
+      <c r="K235" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="s">
+        <v>702</v>
+      </c>
+      <c r="M235" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1084E23-6241-43D7-B420-98A7187B2B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7ADE6-B085-475E-A5DF-2C4A8842BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4215" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="715">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2520,6 +2520,46 @@
   </si>
   <si>
     <t>묘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title234</t>
+  </si>
+  <si>
+    <t>스테이지 4850 돌파</t>
+  </si>
+  <si>
+    <t>title235</t>
+  </si>
+  <si>
+    <t>스테이지 4900 돌파</t>
+  </si>
+  <si>
+    <t>title236</t>
+  </si>
+  <si>
+    <t>스테이지 4950 돌파</t>
+  </si>
+  <si>
+    <t>title237</t>
+  </si>
+  <si>
+    <t>스테이지 5000 돌파</t>
+  </si>
+  <si>
+    <t>진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2954,11 +2994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B232" sqref="B232"/>
+      <selection pane="bottomLeft" activeCell="H240" sqref="H240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12607,6 +12647,170 @@
         <v>702</v>
       </c>
       <c r="M235" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>5</v>
+      </c>
+      <c r="F236" s="1">
+        <v>9600000</v>
+      </c>
+      <c r="G236" s="1">
+        <v>10</v>
+      </c>
+      <c r="H236" s="1">
+        <v>46</v>
+      </c>
+      <c r="I236" s="1">
+        <v>10</v>
+      </c>
+      <c r="J236" s="1">
+        <v>0</v>
+      </c>
+      <c r="K236" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="s">
+        <v>711</v>
+      </c>
+      <c r="M236" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D237" s="1">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>5</v>
+      </c>
+      <c r="F237" s="1">
+        <v>9700000</v>
+      </c>
+      <c r="G237" s="1">
+        <v>10</v>
+      </c>
+      <c r="H237" s="1">
+        <v>47</v>
+      </c>
+      <c r="I237" s="1">
+        <v>10</v>
+      </c>
+      <c r="J237" s="1">
+        <v>0</v>
+      </c>
+      <c r="K237" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="s">
+        <v>712</v>
+      </c>
+      <c r="M237" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="D238" s="1">
+        <v>1</v>
+      </c>
+      <c r="E238" s="1">
+        <v>5</v>
+      </c>
+      <c r="F238" s="1">
+        <v>9800000</v>
+      </c>
+      <c r="G238" s="1">
+        <v>10</v>
+      </c>
+      <c r="H238" s="1">
+        <v>47</v>
+      </c>
+      <c r="I238" s="1">
+        <v>10</v>
+      </c>
+      <c r="J238" s="1">
+        <v>0</v>
+      </c>
+      <c r="K238" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="s">
+        <v>713</v>
+      </c>
+      <c r="M238" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D239" s="1">
+        <v>1</v>
+      </c>
+      <c r="E239" s="1">
+        <v>5</v>
+      </c>
+      <c r="F239" s="1">
+        <v>9900000</v>
+      </c>
+      <c r="G239" s="1">
+        <v>10</v>
+      </c>
+      <c r="H239" s="1">
+        <v>48</v>
+      </c>
+      <c r="I239" s="1">
+        <v>10</v>
+      </c>
+      <c r="J239" s="1">
+        <v>0</v>
+      </c>
+      <c r="K239" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="s">
+        <v>714</v>
+      </c>
+      <c r="M239" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA7ADE6-B085-475E-A5DF-2C4A8842BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1963BDD-0D52-4472-A139-E8860DAF1D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="783">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2560,6 +2560,230 @@
   </si>
   <si>
     <t>미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title238</t>
+  </si>
+  <si>
+    <t>스테이지 5050 돌파</t>
+  </si>
+  <si>
+    <t>title239</t>
+  </si>
+  <si>
+    <t>스테이지 5100 돌파</t>
+  </si>
+  <si>
+    <t>title240</t>
+  </si>
+  <si>
+    <t>스테이지 5150 돌파</t>
+  </si>
+  <si>
+    <t>title241</t>
+  </si>
+  <si>
+    <t>스테이지 5200 돌파</t>
+  </si>
+  <si>
+    <t>신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title242</t>
+  </si>
+  <si>
+    <t>title243</t>
+  </si>
+  <si>
+    <t>title244</t>
+  </si>
+  <si>
+    <t>title245</t>
+  </si>
+  <si>
+    <t>title246</t>
+  </si>
+  <si>
+    <t>title247</t>
+  </si>
+  <si>
+    <t>title248</t>
+  </si>
+  <si>
+    <t>title249</t>
+  </si>
+  <si>
+    <t>title250</t>
+  </si>
+  <si>
+    <t>title251</t>
+  </si>
+  <si>
+    <t>레벨 405000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 410000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 415000달성</t>
+  </si>
+  <si>
+    <t>레벨 420000달성</t>
+  </si>
+  <si>
+    <t>레벨 425000달성</t>
+  </si>
+  <si>
+    <t>레벨 430000달성</t>
+  </si>
+  <si>
+    <t>레벨 435000달성</t>
+  </si>
+  <si>
+    <t>레벨 440000달성</t>
+  </si>
+  <si>
+    <t>레벨 445000달성</t>
+  </si>
+  <si>
+    <t>레벨 450000달성</t>
+  </si>
+  <si>
+    <t>레벨 455000달성</t>
+  </si>
+  <si>
+    <t>레벨 460000달성</t>
+  </si>
+  <si>
+    <t>레벨 465000달성</t>
+  </si>
+  <si>
+    <t>레벨 470000달성</t>
+  </si>
+  <si>
+    <t>레벨 475000달성</t>
+  </si>
+  <si>
+    <t>레벨 480000달성</t>
+  </si>
+  <si>
+    <t>레벨 485000달성</t>
+  </si>
+  <si>
+    <t>레벨 490000달성</t>
+  </si>
+  <si>
+    <t>레벨 495000달성</t>
+  </si>
+  <si>
+    <t>레벨 500000달성</t>
+  </si>
+  <si>
+    <t>title252</t>
+  </si>
+  <si>
+    <t>title253</t>
+  </si>
+  <si>
+    <t>title254</t>
+  </si>
+  <si>
+    <t>title255</t>
+  </si>
+  <si>
+    <t>title256</t>
+  </si>
+  <si>
+    <t>title257</t>
+  </si>
+  <si>
+    <t>title258</t>
+  </si>
+  <si>
+    <t>title259</t>
+  </si>
+  <si>
+    <t>title260</t>
+  </si>
+  <si>
+    <t>title261</t>
+  </si>
+  <si>
+    <t>락선불권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마철저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만강혈성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만복운홍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명철보신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무괴아심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무언실천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한불성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물박정후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박문약예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title262</t>
+  </si>
+  <si>
+    <t>title263</t>
+  </si>
+  <si>
+    <t>스테이지 5250 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 5300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2994,11 +3218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H240" sqref="H240"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H266" sqref="H266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12811,6 +13035,1072 @@
         <v>714</v>
       </c>
       <c r="M239" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D240" s="1">
+        <v>1</v>
+      </c>
+      <c r="E240" s="1">
+        <v>5</v>
+      </c>
+      <c r="F240" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="G240" s="1">
+        <v>10</v>
+      </c>
+      <c r="H240" s="1">
+        <v>48</v>
+      </c>
+      <c r="I240" s="1">
+        <v>10</v>
+      </c>
+      <c r="J240" s="1">
+        <v>0</v>
+      </c>
+      <c r="K240" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="s">
+        <v>723</v>
+      </c>
+      <c r="M240" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D241" s="1">
+        <v>1</v>
+      </c>
+      <c r="E241" s="1">
+        <v>5</v>
+      </c>
+      <c r="F241" s="1">
+        <v>10100000</v>
+      </c>
+      <c r="G241" s="1">
+        <v>10</v>
+      </c>
+      <c r="H241" s="1">
+        <v>49</v>
+      </c>
+      <c r="I241" s="1">
+        <v>10</v>
+      </c>
+      <c r="J241" s="1">
+        <v>0</v>
+      </c>
+      <c r="K241" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="s">
+        <v>724</v>
+      </c>
+      <c r="M241" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D242" s="1">
+        <v>1</v>
+      </c>
+      <c r="E242" s="1">
+        <v>5</v>
+      </c>
+      <c r="F242" s="1">
+        <v>10200000</v>
+      </c>
+      <c r="G242" s="1">
+        <v>10</v>
+      </c>
+      <c r="H242" s="1">
+        <v>49</v>
+      </c>
+      <c r="I242" s="1">
+        <v>10</v>
+      </c>
+      <c r="J242" s="1">
+        <v>0</v>
+      </c>
+      <c r="K242" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="s">
+        <v>726</v>
+      </c>
+      <c r="M242" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D243" s="1">
+        <v>1</v>
+      </c>
+      <c r="E243" s="1">
+        <v>5</v>
+      </c>
+      <c r="F243" s="1">
+        <v>10300000</v>
+      </c>
+      <c r="G243" s="1">
+        <v>10</v>
+      </c>
+      <c r="H243" s="1">
+        <v>50</v>
+      </c>
+      <c r="I243" s="1">
+        <v>10</v>
+      </c>
+      <c r="J243" s="1">
+        <v>0</v>
+      </c>
+      <c r="K243" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="s">
+        <v>725</v>
+      </c>
+      <c r="M243" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D244" s="1">
+        <v>0</v>
+      </c>
+      <c r="E244" s="1">
+        <v>1</v>
+      </c>
+      <c r="F244" s="1">
+        <v>525000000</v>
+      </c>
+      <c r="G244" s="1">
+        <v>11</v>
+      </c>
+      <c r="H244" s="1">
+        <v>2890000</v>
+      </c>
+      <c r="I244" s="1">
+        <v>10</v>
+      </c>
+      <c r="J244" s="1">
+        <v>0</v>
+      </c>
+      <c r="K244" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="s">
+        <v>671</v>
+      </c>
+      <c r="M244" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D245" s="1">
+        <v>0</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>535000000</v>
+      </c>
+      <c r="G245" s="1">
+        <v>11</v>
+      </c>
+      <c r="H245" s="1">
+        <v>2930000</v>
+      </c>
+      <c r="I245" s="1">
+        <v>10</v>
+      </c>
+      <c r="J245" s="1">
+        <v>0</v>
+      </c>
+      <c r="K245" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="s">
+        <v>672</v>
+      </c>
+      <c r="M245" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D246" s="1">
+        <v>0</v>
+      </c>
+      <c r="E246" s="1">
+        <v>1</v>
+      </c>
+      <c r="F246" s="1">
+        <v>545000000</v>
+      </c>
+      <c r="G246" s="1">
+        <v>11</v>
+      </c>
+      <c r="H246" s="1">
+        <v>2970000</v>
+      </c>
+      <c r="I246" s="1">
+        <v>10</v>
+      </c>
+      <c r="J246" s="1">
+        <v>0</v>
+      </c>
+      <c r="K246" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="s">
+        <v>673</v>
+      </c>
+      <c r="M246" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D247" s="1">
+        <v>0</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>555000000</v>
+      </c>
+      <c r="G247" s="1">
+        <v>11</v>
+      </c>
+      <c r="H247" s="1">
+        <v>3010000</v>
+      </c>
+      <c r="I247" s="1">
+        <v>10</v>
+      </c>
+      <c r="J247" s="1">
+        <v>0</v>
+      </c>
+      <c r="K247" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="s">
+        <v>674</v>
+      </c>
+      <c r="M247" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D248" s="1">
+        <v>0</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>565000000</v>
+      </c>
+      <c r="G248" s="1">
+        <v>11</v>
+      </c>
+      <c r="H248" s="1">
+        <v>3050000</v>
+      </c>
+      <c r="I248" s="1">
+        <v>10</v>
+      </c>
+      <c r="J248" s="1">
+        <v>0</v>
+      </c>
+      <c r="K248" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="s">
+        <v>675</v>
+      </c>
+      <c r="M248" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D249" s="1">
+        <v>0</v>
+      </c>
+      <c r="E249" s="1">
+        <v>1</v>
+      </c>
+      <c r="F249" s="1">
+        <v>575000000</v>
+      </c>
+      <c r="G249" s="1">
+        <v>11</v>
+      </c>
+      <c r="H249" s="1">
+        <v>3090000</v>
+      </c>
+      <c r="I249" s="1">
+        <v>10</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0</v>
+      </c>
+      <c r="K249" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="s">
+        <v>676</v>
+      </c>
+      <c r="M249" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="D250" s="1">
+        <v>0</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F250" s="1">
+        <v>585000000</v>
+      </c>
+      <c r="G250" s="1">
+        <v>11</v>
+      </c>
+      <c r="H250" s="1">
+        <v>3130000</v>
+      </c>
+      <c r="I250" s="1">
+        <v>10</v>
+      </c>
+      <c r="J250" s="1">
+        <v>0</v>
+      </c>
+      <c r="K250" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="s">
+        <v>677</v>
+      </c>
+      <c r="M250" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D251" s="1">
+        <v>0</v>
+      </c>
+      <c r="E251" s="1">
+        <v>1</v>
+      </c>
+      <c r="F251" s="1">
+        <v>595000000</v>
+      </c>
+      <c r="G251" s="1">
+        <v>11</v>
+      </c>
+      <c r="H251" s="1">
+        <v>3170000</v>
+      </c>
+      <c r="I251" s="1">
+        <v>10</v>
+      </c>
+      <c r="J251" s="1">
+        <v>0</v>
+      </c>
+      <c r="K251" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="s">
+        <v>678</v>
+      </c>
+      <c r="M251" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D252" s="1">
+        <v>0</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>605000000</v>
+      </c>
+      <c r="G252" s="1">
+        <v>11</v>
+      </c>
+      <c r="H252" s="1">
+        <v>3210000</v>
+      </c>
+      <c r="I252" s="1">
+        <v>10</v>
+      </c>
+      <c r="J252" s="1">
+        <v>0</v>
+      </c>
+      <c r="K252" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="s">
+        <v>650</v>
+      </c>
+      <c r="M252" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D253" s="1">
+        <v>0</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1">
+        <v>615000000</v>
+      </c>
+      <c r="G253" s="1">
+        <v>11</v>
+      </c>
+      <c r="H253" s="1">
+        <v>3250000</v>
+      </c>
+      <c r="I253" s="1">
+        <v>10</v>
+      </c>
+      <c r="J253" s="1">
+        <v>0</v>
+      </c>
+      <c r="K253" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="s">
+        <v>679</v>
+      </c>
+      <c r="M253" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D254" s="1">
+        <v>0</v>
+      </c>
+      <c r="E254" s="1">
+        <v>1</v>
+      </c>
+      <c r="F254" s="1">
+        <v>625000000</v>
+      </c>
+      <c r="G254" s="1">
+        <v>11</v>
+      </c>
+      <c r="H254" s="1">
+        <v>3290000</v>
+      </c>
+      <c r="I254" s="1">
+        <v>10</v>
+      </c>
+      <c r="J254" s="1">
+        <v>0</v>
+      </c>
+      <c r="K254" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="s">
+        <v>767</v>
+      </c>
+      <c r="M254" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D255" s="1">
+        <v>0</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
+      <c r="F255" s="1">
+        <v>635000000</v>
+      </c>
+      <c r="G255" s="1">
+        <v>11</v>
+      </c>
+      <c r="H255" s="1">
+        <v>3330000</v>
+      </c>
+      <c r="I255" s="1">
+        <v>10</v>
+      </c>
+      <c r="J255" s="1">
+        <v>0</v>
+      </c>
+      <c r="K255" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="s">
+        <v>768</v>
+      </c>
+      <c r="M255" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D256" s="1">
+        <v>0</v>
+      </c>
+      <c r="E256" s="1">
+        <v>1</v>
+      </c>
+      <c r="F256" s="1">
+        <v>645000000</v>
+      </c>
+      <c r="G256" s="1">
+        <v>11</v>
+      </c>
+      <c r="H256" s="1">
+        <v>3370000</v>
+      </c>
+      <c r="I256" s="1">
+        <v>10</v>
+      </c>
+      <c r="J256" s="1">
+        <v>0</v>
+      </c>
+      <c r="K256" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="s">
+        <v>769</v>
+      </c>
+      <c r="M256" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D257" s="1">
+        <v>0</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="1">
+        <v>655000000</v>
+      </c>
+      <c r="G257" s="1">
+        <v>11</v>
+      </c>
+      <c r="H257" s="1">
+        <v>3410000</v>
+      </c>
+      <c r="I257" s="1">
+        <v>10</v>
+      </c>
+      <c r="J257" s="1">
+        <v>0</v>
+      </c>
+      <c r="K257" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="s">
+        <v>770</v>
+      </c>
+      <c r="M257" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D258" s="1">
+        <v>0</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1">
+        <v>665000000</v>
+      </c>
+      <c r="G258" s="1">
+        <v>11</v>
+      </c>
+      <c r="H258" s="1">
+        <v>3450000</v>
+      </c>
+      <c r="I258" s="1">
+        <v>10</v>
+      </c>
+      <c r="J258" s="1">
+        <v>0</v>
+      </c>
+      <c r="K258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="s">
+        <v>771</v>
+      </c>
+      <c r="M258" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D259" s="1">
+        <v>0</v>
+      </c>
+      <c r="E259" s="1">
+        <v>1</v>
+      </c>
+      <c r="F259" s="1">
+        <v>675000000</v>
+      </c>
+      <c r="G259" s="1">
+        <v>11</v>
+      </c>
+      <c r="H259" s="1">
+        <v>3490000</v>
+      </c>
+      <c r="I259" s="1">
+        <v>10</v>
+      </c>
+      <c r="J259" s="1">
+        <v>0</v>
+      </c>
+      <c r="K259" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="s">
+        <v>772</v>
+      </c>
+      <c r="M259" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D260" s="1">
+        <v>0</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1">
+        <v>685000000</v>
+      </c>
+      <c r="G260" s="1">
+        <v>11</v>
+      </c>
+      <c r="H260" s="1">
+        <v>3530000</v>
+      </c>
+      <c r="I260" s="1">
+        <v>10</v>
+      </c>
+      <c r="J260" s="1">
+        <v>0</v>
+      </c>
+      <c r="K260" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="s">
+        <v>773</v>
+      </c>
+      <c r="M260" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D261" s="1">
+        <v>0</v>
+      </c>
+      <c r="E261" s="1">
+        <v>1</v>
+      </c>
+      <c r="F261" s="1">
+        <v>695000000</v>
+      </c>
+      <c r="G261" s="1">
+        <v>11</v>
+      </c>
+      <c r="H261" s="1">
+        <v>3570000</v>
+      </c>
+      <c r="I261" s="1">
+        <v>10</v>
+      </c>
+      <c r="J261" s="1">
+        <v>0</v>
+      </c>
+      <c r="K261" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="s">
+        <v>774</v>
+      </c>
+      <c r="M261" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D262" s="1">
+        <v>0</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1">
+        <v>705000000</v>
+      </c>
+      <c r="G262" s="1">
+        <v>11</v>
+      </c>
+      <c r="H262" s="1">
+        <v>3610000</v>
+      </c>
+      <c r="I262" s="1">
+        <v>10</v>
+      </c>
+      <c r="J262" s="1">
+        <v>0</v>
+      </c>
+      <c r="K262" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="s">
+        <v>775</v>
+      </c>
+      <c r="M262" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D263" s="1">
+        <v>0</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1</v>
+      </c>
+      <c r="F263" s="1">
+        <v>715000000</v>
+      </c>
+      <c r="G263" s="1">
+        <v>11</v>
+      </c>
+      <c r="H263" s="1">
+        <v>3650000</v>
+      </c>
+      <c r="I263" s="1">
+        <v>10</v>
+      </c>
+      <c r="J263" s="1">
+        <v>0</v>
+      </c>
+      <c r="K263" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="s">
+        <v>776</v>
+      </c>
+      <c r="M263" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D264" s="1">
+        <v>1</v>
+      </c>
+      <c r="E264" s="1">
+        <v>5</v>
+      </c>
+      <c r="F264" s="1">
+        <v>10400000</v>
+      </c>
+      <c r="G264" s="1">
+        <v>10</v>
+      </c>
+      <c r="H264" s="1">
+        <v>50</v>
+      </c>
+      <c r="I264" s="1">
+        <v>10</v>
+      </c>
+      <c r="J264" s="1">
+        <v>0</v>
+      </c>
+      <c r="K264" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="s">
+        <v>781</v>
+      </c>
+      <c r="M264" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D265" s="1">
+        <v>1</v>
+      </c>
+      <c r="E265" s="1">
+        <v>5</v>
+      </c>
+      <c r="F265" s="1">
+        <v>10500000</v>
+      </c>
+      <c r="G265" s="1">
+        <v>10</v>
+      </c>
+      <c r="H265" s="1">
+        <v>51</v>
+      </c>
+      <c r="I265" s="1">
+        <v>10</v>
+      </c>
+      <c r="J265" s="1">
+        <v>0</v>
+      </c>
+      <c r="K265" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="s">
+        <v>782</v>
+      </c>
+      <c r="M265" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1963BDD-0D52-4472-A139-E8860DAF1D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C7139-F274-4CED-B583-7394DE8F776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="807">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2779,11 +2779,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꾸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>러</t>
+    <t>title264</t>
+  </si>
+  <si>
+    <t>스테이지 5350 돌파</t>
+  </si>
+  <si>
+    <t>title265</t>
+  </si>
+  <si>
+    <t>스테이지 5400 돌파</t>
+  </si>
+  <si>
+    <t>title266</t>
+  </si>
+  <si>
+    <t>스테이지 5450 돌파</t>
+  </si>
+  <si>
+    <t>title267</t>
+  </si>
+  <si>
+    <t>스테이지 5500 돌파</t>
+  </si>
+  <si>
+    <t>title268</t>
+  </si>
+  <si>
+    <t>스테이지 5550 돌파</t>
+  </si>
+  <si>
+    <t>title269</t>
+  </si>
+  <si>
+    <t>스테이지 5600 돌파</t>
+  </si>
+  <si>
+    <t>title270</t>
+  </si>
+  <si>
+    <t>스테이지 5650 돌파</t>
+  </si>
+  <si>
+    <t>title271</t>
+  </si>
+  <si>
+    <t>스테이지 5700 돌파</t>
+  </si>
+  <si>
+    <t>백세청풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백인삼성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉몽의생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비례부동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개권유득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견득사의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견인견지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경천애인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결자해지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결초보은</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3218,11 +3298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H266" sqref="H266"/>
+      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L274" sqref="L274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14057,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="L264" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="M264" s="1">
         <v>11</v>
@@ -14098,9 +14178,337 @@
         <v>1</v>
       </c>
       <c r="L265" t="s">
+        <v>798</v>
+      </c>
+      <c r="M265" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="M265" s="1">
+      <c r="D266" s="1">
+        <v>1</v>
+      </c>
+      <c r="E266" s="1">
+        <v>5</v>
+      </c>
+      <c r="F266" s="1">
+        <v>10600000</v>
+      </c>
+      <c r="G266" s="1">
+        <v>10</v>
+      </c>
+      <c r="H266" s="1">
+        <v>51</v>
+      </c>
+      <c r="I266" s="1">
+        <v>10</v>
+      </c>
+      <c r="J266" s="1">
+        <v>0</v>
+      </c>
+      <c r="K266" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="s">
+        <v>799</v>
+      </c>
+      <c r="M266" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D267" s="1">
+        <v>1</v>
+      </c>
+      <c r="E267" s="1">
+        <v>5</v>
+      </c>
+      <c r="F267" s="1">
+        <v>10700000</v>
+      </c>
+      <c r="G267" s="1">
+        <v>10</v>
+      </c>
+      <c r="H267" s="1">
+        <v>52</v>
+      </c>
+      <c r="I267" s="1">
+        <v>10</v>
+      </c>
+      <c r="J267" s="1">
+        <v>0</v>
+      </c>
+      <c r="K267" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="s">
+        <v>800</v>
+      </c>
+      <c r="M267" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D268" s="1">
+        <v>1</v>
+      </c>
+      <c r="E268" s="1">
+        <v>5</v>
+      </c>
+      <c r="F268" s="1">
+        <v>10800000</v>
+      </c>
+      <c r="G268" s="1">
+        <v>10</v>
+      </c>
+      <c r="H268" s="1">
+        <v>52</v>
+      </c>
+      <c r="I268" s="1">
+        <v>10</v>
+      </c>
+      <c r="J268" s="1">
+        <v>0</v>
+      </c>
+      <c r="K268" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="s">
+        <v>801</v>
+      </c>
+      <c r="M268" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D269" s="1">
+        <v>1</v>
+      </c>
+      <c r="E269" s="1">
+        <v>5</v>
+      </c>
+      <c r="F269" s="1">
+        <v>10900000</v>
+      </c>
+      <c r="G269" s="1">
+        <v>10</v>
+      </c>
+      <c r="H269" s="1">
+        <v>53</v>
+      </c>
+      <c r="I269" s="1">
+        <v>10</v>
+      </c>
+      <c r="J269" s="1">
+        <v>0</v>
+      </c>
+      <c r="K269" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L269" t="s">
+        <v>802</v>
+      </c>
+      <c r="M269" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D270" s="1">
+        <v>1</v>
+      </c>
+      <c r="E270" s="1">
+        <v>5</v>
+      </c>
+      <c r="F270" s="1">
+        <v>11000000</v>
+      </c>
+      <c r="G270" s="1">
+        <v>10</v>
+      </c>
+      <c r="H270" s="1">
+        <v>53</v>
+      </c>
+      <c r="I270" s="1">
+        <v>10</v>
+      </c>
+      <c r="J270" s="1">
+        <v>0</v>
+      </c>
+      <c r="K270" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L270" t="s">
+        <v>803</v>
+      </c>
+      <c r="M270" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D271" s="1">
+        <v>1</v>
+      </c>
+      <c r="E271" s="1">
+        <v>5</v>
+      </c>
+      <c r="F271" s="1">
+        <v>11100000</v>
+      </c>
+      <c r="G271" s="1">
+        <v>10</v>
+      </c>
+      <c r="H271" s="1">
+        <v>54</v>
+      </c>
+      <c r="I271" s="1">
+        <v>10</v>
+      </c>
+      <c r="J271" s="1">
+        <v>0</v>
+      </c>
+      <c r="K271" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L271" t="s">
+        <v>804</v>
+      </c>
+      <c r="M271" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D272" s="1">
+        <v>1</v>
+      </c>
+      <c r="E272" s="1">
+        <v>5</v>
+      </c>
+      <c r="F272" s="1">
+        <v>11200000</v>
+      </c>
+      <c r="G272" s="1">
+        <v>10</v>
+      </c>
+      <c r="H272" s="1">
+        <v>54</v>
+      </c>
+      <c r="I272" s="1">
+        <v>10</v>
+      </c>
+      <c r="J272" s="1">
+        <v>0</v>
+      </c>
+      <c r="K272" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L272" t="s">
+        <v>805</v>
+      </c>
+      <c r="M272" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D273" s="1">
+        <v>1</v>
+      </c>
+      <c r="E273" s="1">
+        <v>5</v>
+      </c>
+      <c r="F273" s="1">
+        <v>11300000</v>
+      </c>
+      <c r="G273" s="1">
+        <v>10</v>
+      </c>
+      <c r="H273" s="1">
+        <v>55</v>
+      </c>
+      <c r="I273" s="1">
+        <v>10</v>
+      </c>
+      <c r="J273" s="1">
+        <v>0</v>
+      </c>
+      <c r="K273" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="s">
+        <v>806</v>
+      </c>
+      <c r="M273" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13C7139-F274-4CED-B583-7394DE8F776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3518B478-1517-4FB0-A0D8-D4E9C767C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="645" yWindow="2175" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="874">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2864,6 +2864,224 @@
   </si>
   <si>
     <t>결초보은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title272</t>
+  </si>
+  <si>
+    <t>스테이지 5750 돌파</t>
+  </si>
+  <si>
+    <t>title273</t>
+  </si>
+  <si>
+    <t>스테이지 5800 돌파</t>
+  </si>
+  <si>
+    <t>title274</t>
+  </si>
+  <si>
+    <t>스테이지 5850 돌파</t>
+  </si>
+  <si>
+    <t>title275</t>
+  </si>
+  <si>
+    <t>스테이지 5900 돌파</t>
+  </si>
+  <si>
+    <t>title276</t>
+  </si>
+  <si>
+    <t>스테이지 5950 돌파</t>
+  </si>
+  <si>
+    <t>title277</t>
+  </si>
+  <si>
+    <t>스테이지 6000 돌파</t>
+  </si>
+  <si>
+    <t>설중송백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세심화친</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙려단행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신사독행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신애인화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실천궁행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title278</t>
+  </si>
+  <si>
+    <t>title279</t>
+  </si>
+  <si>
+    <t>title280</t>
+  </si>
+  <si>
+    <t>title281</t>
+  </si>
+  <si>
+    <t>title282</t>
+  </si>
+  <si>
+    <t>title283</t>
+  </si>
+  <si>
+    <t>title284</t>
+  </si>
+  <si>
+    <t>title285</t>
+  </si>
+  <si>
+    <t>title286</t>
+  </si>
+  <si>
+    <t>title287</t>
+  </si>
+  <si>
+    <t>title288</t>
+  </si>
+  <si>
+    <t>레벨 505000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 510000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 515000달성</t>
+  </si>
+  <si>
+    <t>레벨 520000달성</t>
+  </si>
+  <si>
+    <t>레벨 525000달성</t>
+  </si>
+  <si>
+    <t>레벨 530000달성</t>
+  </si>
+  <si>
+    <t>레벨 535000달성</t>
+  </si>
+  <si>
+    <t>레벨 540000달성</t>
+  </si>
+  <si>
+    <t>레벨 545000달성</t>
+  </si>
+  <si>
+    <t>레벨 550000달성</t>
+  </si>
+  <si>
+    <t>레벨 555000달성</t>
+  </si>
+  <si>
+    <t>레벨 560000달성</t>
+  </si>
+  <si>
+    <t>레벨 565000달성</t>
+  </si>
+  <si>
+    <t>레벨 570000달성</t>
+  </si>
+  <si>
+    <t>레벨 575000달성</t>
+  </si>
+  <si>
+    <t>레벨 580000달성</t>
+  </si>
+  <si>
+    <t>레벨 585000달성</t>
+  </si>
+  <si>
+    <t>레벨 590000달성</t>
+  </si>
+  <si>
+    <t>레벨 595000달성</t>
+  </si>
+  <si>
+    <t>레벨 600000달성</t>
+  </si>
+  <si>
+    <t>title289</t>
+  </si>
+  <si>
+    <t>title290</t>
+  </si>
+  <si>
+    <t>title291</t>
+  </si>
+  <si>
+    <t>title292</t>
+  </si>
+  <si>
+    <t>title293</t>
+  </si>
+  <si>
+    <t>title294</t>
+  </si>
+  <si>
+    <t>title295</t>
+  </si>
+  <si>
+    <t>title296</t>
+  </si>
+  <si>
+    <t>title297</t>
+  </si>
+  <si>
+    <t>정근사원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정심성의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조장발묘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존사애생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존심수도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주일무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지존상락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지족자부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진광불휘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3298,11 +3516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:M299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L274" sqref="L274"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14472,7 +14690,7 @@
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A273" s="1">
+      <c r="A273" s="2">
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -14509,6 +14727,1072 @@
         <v>806</v>
       </c>
       <c r="M273" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D274" s="1">
+        <v>1</v>
+      </c>
+      <c r="E274" s="1">
+        <v>5</v>
+      </c>
+      <c r="F274" s="1">
+        <v>11400000</v>
+      </c>
+      <c r="G274" s="1">
+        <v>10</v>
+      </c>
+      <c r="H274" s="1">
+        <v>55</v>
+      </c>
+      <c r="I274" s="1">
+        <v>10</v>
+      </c>
+      <c r="J274" s="1">
+        <v>0</v>
+      </c>
+      <c r="K274" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="s">
+        <v>819</v>
+      </c>
+      <c r="M274" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D275" s="1">
+        <v>1</v>
+      </c>
+      <c r="E275" s="1">
+        <v>5</v>
+      </c>
+      <c r="F275" s="1">
+        <v>11500000</v>
+      </c>
+      <c r="G275" s="1">
+        <v>10</v>
+      </c>
+      <c r="H275" s="1">
+        <v>56</v>
+      </c>
+      <c r="I275" s="1">
+        <v>10</v>
+      </c>
+      <c r="J275" s="1">
+        <v>0</v>
+      </c>
+      <c r="K275" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="s">
+        <v>820</v>
+      </c>
+      <c r="M275" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D276" s="1">
+        <v>1</v>
+      </c>
+      <c r="E276" s="1">
+        <v>5</v>
+      </c>
+      <c r="F276" s="1">
+        <v>11600000</v>
+      </c>
+      <c r="G276" s="1">
+        <v>10</v>
+      </c>
+      <c r="H276" s="1">
+        <v>56</v>
+      </c>
+      <c r="I276" s="1">
+        <v>10</v>
+      </c>
+      <c r="J276" s="1">
+        <v>0</v>
+      </c>
+      <c r="K276" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="s">
+        <v>821</v>
+      </c>
+      <c r="M276" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D277" s="1">
+        <v>1</v>
+      </c>
+      <c r="E277" s="1">
+        <v>5</v>
+      </c>
+      <c r="F277" s="1">
+        <v>11700000</v>
+      </c>
+      <c r="G277" s="1">
+        <v>10</v>
+      </c>
+      <c r="H277" s="1">
+        <v>57</v>
+      </c>
+      <c r="I277" s="1">
+        <v>10</v>
+      </c>
+      <c r="J277" s="1">
+        <v>0</v>
+      </c>
+      <c r="K277" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="s">
+        <v>822</v>
+      </c>
+      <c r="M277" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D278" s="1">
+        <v>1</v>
+      </c>
+      <c r="E278" s="1">
+        <v>5</v>
+      </c>
+      <c r="F278" s="1">
+        <v>11800000</v>
+      </c>
+      <c r="G278" s="1">
+        <v>10</v>
+      </c>
+      <c r="H278" s="1">
+        <v>57</v>
+      </c>
+      <c r="I278" s="1">
+        <v>10</v>
+      </c>
+      <c r="J278" s="1">
+        <v>0</v>
+      </c>
+      <c r="K278" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="s">
+        <v>823</v>
+      </c>
+      <c r="M278" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D279" s="1">
+        <v>1</v>
+      </c>
+      <c r="E279" s="1">
+        <v>5</v>
+      </c>
+      <c r="F279" s="1">
+        <v>11900000</v>
+      </c>
+      <c r="G279" s="1">
+        <v>10</v>
+      </c>
+      <c r="H279" s="1">
+        <v>58</v>
+      </c>
+      <c r="I279" s="1">
+        <v>10</v>
+      </c>
+      <c r="J279" s="1">
+        <v>0</v>
+      </c>
+      <c r="K279" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="s">
+        <v>824</v>
+      </c>
+      <c r="M279" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D280" s="1">
+        <v>0</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>725000000</v>
+      </c>
+      <c r="G280" s="1">
+        <v>11</v>
+      </c>
+      <c r="H280" s="1">
+        <v>3650000</v>
+      </c>
+      <c r="I280" s="1">
+        <v>10</v>
+      </c>
+      <c r="J280" s="1">
+        <v>0</v>
+      </c>
+      <c r="K280" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="s">
+        <v>679</v>
+      </c>
+      <c r="M280" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D281" s="1">
+        <v>0</v>
+      </c>
+      <c r="E281" s="1">
+        <v>1</v>
+      </c>
+      <c r="F281" s="1">
+        <v>735000000</v>
+      </c>
+      <c r="G281" s="1">
+        <v>11</v>
+      </c>
+      <c r="H281" s="1">
+        <v>3690000</v>
+      </c>
+      <c r="I281" s="1">
+        <v>10</v>
+      </c>
+      <c r="J281" s="1">
+        <v>0</v>
+      </c>
+      <c r="K281" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="s">
+        <v>767</v>
+      </c>
+      <c r="M281" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D282" s="1">
+        <v>0</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1">
+        <v>745000000</v>
+      </c>
+      <c r="G282" s="1">
+        <v>11</v>
+      </c>
+      <c r="H282" s="1">
+        <v>3730000</v>
+      </c>
+      <c r="I282" s="1">
+        <v>10</v>
+      </c>
+      <c r="J282" s="1">
+        <v>0</v>
+      </c>
+      <c r="K282" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="s">
+        <v>768</v>
+      </c>
+      <c r="M282" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D283" s="1">
+        <v>0</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F283" s="1">
+        <v>755000000</v>
+      </c>
+      <c r="G283" s="1">
+        <v>11</v>
+      </c>
+      <c r="H283" s="1">
+        <v>3770000</v>
+      </c>
+      <c r="I283" s="1">
+        <v>10</v>
+      </c>
+      <c r="J283" s="1">
+        <v>0</v>
+      </c>
+      <c r="K283" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="s">
+        <v>769</v>
+      </c>
+      <c r="M283" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D284" s="1">
+        <v>0</v>
+      </c>
+      <c r="E284" s="1">
+        <v>1</v>
+      </c>
+      <c r="F284" s="1">
+        <v>765000000</v>
+      </c>
+      <c r="G284" s="1">
+        <v>11</v>
+      </c>
+      <c r="H284" s="1">
+        <v>3810000</v>
+      </c>
+      <c r="I284" s="1">
+        <v>10</v>
+      </c>
+      <c r="J284" s="1">
+        <v>0</v>
+      </c>
+      <c r="K284" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="s">
+        <v>770</v>
+      </c>
+      <c r="M284" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D285" s="1">
+        <v>0</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F285" s="1">
+        <v>775000000</v>
+      </c>
+      <c r="G285" s="1">
+        <v>11</v>
+      </c>
+      <c r="H285" s="1">
+        <v>3850000</v>
+      </c>
+      <c r="I285" s="1">
+        <v>10</v>
+      </c>
+      <c r="J285" s="1">
+        <v>0</v>
+      </c>
+      <c r="K285" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="s">
+        <v>771</v>
+      </c>
+      <c r="M285" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D286" s="1">
+        <v>0</v>
+      </c>
+      <c r="E286" s="1">
+        <v>1</v>
+      </c>
+      <c r="F286" s="1">
+        <v>785000000</v>
+      </c>
+      <c r="G286" s="1">
+        <v>11</v>
+      </c>
+      <c r="H286" s="1">
+        <v>3890000</v>
+      </c>
+      <c r="I286" s="1">
+        <v>10</v>
+      </c>
+      <c r="J286" s="1">
+        <v>0</v>
+      </c>
+      <c r="K286" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L286" t="s">
+        <v>772</v>
+      </c>
+      <c r="M286" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D287" s="1">
+        <v>0</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F287" s="1">
+        <v>795000000</v>
+      </c>
+      <c r="G287" s="1">
+        <v>11</v>
+      </c>
+      <c r="H287" s="1">
+        <v>3930000</v>
+      </c>
+      <c r="I287" s="1">
+        <v>10</v>
+      </c>
+      <c r="J287" s="1">
+        <v>0</v>
+      </c>
+      <c r="K287" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="s">
+        <v>773</v>
+      </c>
+      <c r="M287" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D288" s="1">
+        <v>0</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1">
+        <v>805000000</v>
+      </c>
+      <c r="G288" s="1">
+        <v>11</v>
+      </c>
+      <c r="H288" s="1">
+        <v>3970000</v>
+      </c>
+      <c r="I288" s="1">
+        <v>10</v>
+      </c>
+      <c r="J288" s="1">
+        <v>0</v>
+      </c>
+      <c r="K288" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="s">
+        <v>774</v>
+      </c>
+      <c r="M288" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D289" s="1">
+        <v>0</v>
+      </c>
+      <c r="E289" s="1">
+        <v>1</v>
+      </c>
+      <c r="F289" s="1">
+        <v>815000000</v>
+      </c>
+      <c r="G289" s="1">
+        <v>11</v>
+      </c>
+      <c r="H289" s="1">
+        <v>4010000</v>
+      </c>
+      <c r="I289" s="1">
+        <v>10</v>
+      </c>
+      <c r="J289" s="1">
+        <v>0</v>
+      </c>
+      <c r="K289" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L289" t="s">
+        <v>775</v>
+      </c>
+      <c r="M289" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D290" s="1">
+        <v>0</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="1">
+        <v>825000000</v>
+      </c>
+      <c r="G290" s="1">
+        <v>11</v>
+      </c>
+      <c r="H290" s="1">
+        <v>4050000</v>
+      </c>
+      <c r="I290" s="1">
+        <v>10</v>
+      </c>
+      <c r="J290" s="1">
+        <v>0</v>
+      </c>
+      <c r="K290" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L290" t="s">
+        <v>776</v>
+      </c>
+      <c r="M290" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D291" s="1">
+        <v>0</v>
+      </c>
+      <c r="E291" s="1">
+        <v>1</v>
+      </c>
+      <c r="F291" s="1">
+        <v>835000000</v>
+      </c>
+      <c r="G291" s="1">
+        <v>11</v>
+      </c>
+      <c r="H291" s="1">
+        <v>4090000</v>
+      </c>
+      <c r="I291" s="1">
+        <v>10</v>
+      </c>
+      <c r="J291" s="1">
+        <v>0</v>
+      </c>
+      <c r="K291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="s">
+        <v>865</v>
+      </c>
+      <c r="M291" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D292" s="1">
+        <v>0</v>
+      </c>
+      <c r="E292" s="1">
+        <v>1</v>
+      </c>
+      <c r="F292" s="1">
+        <v>845000000</v>
+      </c>
+      <c r="G292" s="1">
+        <v>11</v>
+      </c>
+      <c r="H292" s="1">
+        <v>4130000</v>
+      </c>
+      <c r="I292" s="1">
+        <v>10</v>
+      </c>
+      <c r="J292" s="1">
+        <v>0</v>
+      </c>
+      <c r="K292" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L292" t="s">
+        <v>866</v>
+      </c>
+      <c r="M292" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D293" s="1">
+        <v>0</v>
+      </c>
+      <c r="E293" s="1">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1">
+        <v>855000000</v>
+      </c>
+      <c r="G293" s="1">
+        <v>11</v>
+      </c>
+      <c r="H293" s="1">
+        <v>4170000</v>
+      </c>
+      <c r="I293" s="1">
+        <v>10</v>
+      </c>
+      <c r="J293" s="1">
+        <v>0</v>
+      </c>
+      <c r="K293" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L293" t="s">
+        <v>867</v>
+      </c>
+      <c r="M293" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D294" s="1">
+        <v>0</v>
+      </c>
+      <c r="E294" s="1">
+        <v>1</v>
+      </c>
+      <c r="F294" s="1">
+        <v>865000000</v>
+      </c>
+      <c r="G294" s="1">
+        <v>11</v>
+      </c>
+      <c r="H294" s="1">
+        <v>4210000</v>
+      </c>
+      <c r="I294" s="1">
+        <v>10</v>
+      </c>
+      <c r="J294" s="1">
+        <v>0</v>
+      </c>
+      <c r="K294" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L294" t="s">
+        <v>868</v>
+      </c>
+      <c r="M294" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D295" s="1">
+        <v>0</v>
+      </c>
+      <c r="E295" s="1">
+        <v>1</v>
+      </c>
+      <c r="F295" s="1">
+        <v>875000000</v>
+      </c>
+      <c r="G295" s="1">
+        <v>11</v>
+      </c>
+      <c r="H295" s="1">
+        <v>4250000</v>
+      </c>
+      <c r="I295" s="1">
+        <v>10</v>
+      </c>
+      <c r="J295" s="1">
+        <v>0</v>
+      </c>
+      <c r="K295" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L295" t="s">
+        <v>869</v>
+      </c>
+      <c r="M295" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D296" s="1">
+        <v>0</v>
+      </c>
+      <c r="E296" s="1">
+        <v>1</v>
+      </c>
+      <c r="F296" s="1">
+        <v>885000000</v>
+      </c>
+      <c r="G296" s="1">
+        <v>11</v>
+      </c>
+      <c r="H296" s="1">
+        <v>4290000</v>
+      </c>
+      <c r="I296" s="1">
+        <v>10</v>
+      </c>
+      <c r="J296" s="1">
+        <v>0</v>
+      </c>
+      <c r="K296" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L296" t="s">
+        <v>870</v>
+      </c>
+      <c r="M296" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D297" s="1">
+        <v>0</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1</v>
+      </c>
+      <c r="F297" s="1">
+        <v>895000000</v>
+      </c>
+      <c r="G297" s="1">
+        <v>11</v>
+      </c>
+      <c r="H297" s="1">
+        <v>4330000</v>
+      </c>
+      <c r="I297" s="1">
+        <v>10</v>
+      </c>
+      <c r="J297" s="1">
+        <v>0</v>
+      </c>
+      <c r="K297" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L297" t="s">
+        <v>871</v>
+      </c>
+      <c r="M297" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D298" s="1">
+        <v>0</v>
+      </c>
+      <c r="E298" s="1">
+        <v>1</v>
+      </c>
+      <c r="F298" s="1">
+        <v>905000000</v>
+      </c>
+      <c r="G298" s="1">
+        <v>11</v>
+      </c>
+      <c r="H298" s="1">
+        <v>4370000</v>
+      </c>
+      <c r="I298" s="1">
+        <v>10</v>
+      </c>
+      <c r="J298" s="1">
+        <v>0</v>
+      </c>
+      <c r="K298" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L298" t="s">
+        <v>872</v>
+      </c>
+      <c r="M298" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D299" s="1">
+        <v>0</v>
+      </c>
+      <c r="E299" s="1">
+        <v>1</v>
+      </c>
+      <c r="F299" s="1">
+        <v>915000000</v>
+      </c>
+      <c r="G299" s="1">
+        <v>11</v>
+      </c>
+      <c r="H299" s="1">
+        <v>4410000</v>
+      </c>
+      <c r="I299" s="1">
+        <v>10</v>
+      </c>
+      <c r="J299" s="1">
+        <v>0</v>
+      </c>
+      <c r="K299" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L299" t="s">
+        <v>873</v>
+      </c>
+      <c r="M299" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3518B478-1517-4FB0-A0D8-D4E9C767C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D230F35-7DC1-4772-B964-75B32323F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="2175" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="890">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3083,6 +3083,56 @@
   <si>
     <t>진광불휘</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6050 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6150 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6200 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6250 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6300 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6350 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6400 돌파</t>
+  </si>
+  <si>
+    <t>title298</t>
+  </si>
+  <si>
+    <t>title299</t>
+  </si>
+  <si>
+    <t>title300</t>
+  </si>
+  <si>
+    <t>title301</t>
+  </si>
+  <si>
+    <t>title302</t>
+  </si>
+  <si>
+    <t>title303</t>
+  </si>
+  <si>
+    <t>title304</t>
+  </si>
+  <si>
+    <t>title305</t>
   </si>
 </sst>
 </file>
@@ -3516,11 +3566,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M299"/>
+  <dimension ref="A1:M307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F284" sqref="F284"/>
+      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15793,6 +15843,334 @@
         <v>873</v>
       </c>
       <c r="M299" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D300" s="1">
+        <v>1</v>
+      </c>
+      <c r="E300" s="1">
+        <v>5</v>
+      </c>
+      <c r="F300" s="1">
+        <v>12000000</v>
+      </c>
+      <c r="G300" s="1">
+        <v>10</v>
+      </c>
+      <c r="H300" s="1">
+        <v>57</v>
+      </c>
+      <c r="I300" s="1">
+        <v>10</v>
+      </c>
+      <c r="J300" s="1">
+        <v>0</v>
+      </c>
+      <c r="K300" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L300" t="s">
+        <v>823</v>
+      </c>
+      <c r="M300" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="D301" s="1">
+        <v>1</v>
+      </c>
+      <c r="E301" s="1">
+        <v>5</v>
+      </c>
+      <c r="F301" s="1">
+        <v>12100000</v>
+      </c>
+      <c r="G301" s="1">
+        <v>10</v>
+      </c>
+      <c r="H301" s="1">
+        <v>58</v>
+      </c>
+      <c r="I301" s="1">
+        <v>10</v>
+      </c>
+      <c r="J301" s="1">
+        <v>0</v>
+      </c>
+      <c r="K301" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L301" t="s">
+        <v>824</v>
+      </c>
+      <c r="M301" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D302" s="1">
+        <v>1</v>
+      </c>
+      <c r="E302" s="1">
+        <v>5</v>
+      </c>
+      <c r="F302" s="1">
+        <v>12200000</v>
+      </c>
+      <c r="G302" s="1">
+        <v>10</v>
+      </c>
+      <c r="H302" s="1">
+        <v>58</v>
+      </c>
+      <c r="I302" s="1">
+        <v>10</v>
+      </c>
+      <c r="J302" s="1">
+        <v>0</v>
+      </c>
+      <c r="K302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L302" t="s">
+        <v>865</v>
+      </c>
+      <c r="M302" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1</v>
+      </c>
+      <c r="E303" s="1">
+        <v>5</v>
+      </c>
+      <c r="F303" s="1">
+        <v>12300000</v>
+      </c>
+      <c r="G303" s="1">
+        <v>10</v>
+      </c>
+      <c r="H303" s="1">
+        <v>59</v>
+      </c>
+      <c r="I303" s="1">
+        <v>10</v>
+      </c>
+      <c r="J303" s="1">
+        <v>0</v>
+      </c>
+      <c r="K303" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L303" t="s">
+        <v>866</v>
+      </c>
+      <c r="M303" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1</v>
+      </c>
+      <c r="E304" s="1">
+        <v>5</v>
+      </c>
+      <c r="F304" s="1">
+        <v>12400000</v>
+      </c>
+      <c r="G304" s="1">
+        <v>10</v>
+      </c>
+      <c r="H304" s="1">
+        <v>59</v>
+      </c>
+      <c r="I304" s="1">
+        <v>10</v>
+      </c>
+      <c r="J304" s="1">
+        <v>0</v>
+      </c>
+      <c r="K304" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L304" t="s">
+        <v>867</v>
+      </c>
+      <c r="M304" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D305" s="1">
+        <v>1</v>
+      </c>
+      <c r="E305" s="1">
+        <v>5</v>
+      </c>
+      <c r="F305" s="1">
+        <v>12500000</v>
+      </c>
+      <c r="G305" s="1">
+        <v>10</v>
+      </c>
+      <c r="H305" s="1">
+        <v>60</v>
+      </c>
+      <c r="I305" s="1">
+        <v>10</v>
+      </c>
+      <c r="J305" s="1">
+        <v>0</v>
+      </c>
+      <c r="K305" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L305" t="s">
+        <v>868</v>
+      </c>
+      <c r="M305" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D306" s="1">
+        <v>1</v>
+      </c>
+      <c r="E306" s="1">
+        <v>5</v>
+      </c>
+      <c r="F306" s="1">
+        <v>12600000</v>
+      </c>
+      <c r="G306" s="1">
+        <v>10</v>
+      </c>
+      <c r="H306" s="1">
+        <v>60</v>
+      </c>
+      <c r="I306" s="1">
+        <v>10</v>
+      </c>
+      <c r="J306" s="1">
+        <v>0</v>
+      </c>
+      <c r="K306" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L306" t="s">
+        <v>869</v>
+      </c>
+      <c r="M306" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1</v>
+      </c>
+      <c r="E307" s="1">
+        <v>5</v>
+      </c>
+      <c r="F307" s="1">
+        <v>12700000</v>
+      </c>
+      <c r="G307" s="1">
+        <v>10</v>
+      </c>
+      <c r="H307" s="1">
+        <v>61</v>
+      </c>
+      <c r="I307" s="1">
+        <v>10</v>
+      </c>
+      <c r="J307" s="1">
+        <v>0</v>
+      </c>
+      <c r="K307" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L307" t="s">
+        <v>870</v>
+      </c>
+      <c r="M307" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D230F35-7DC1-4772-B964-75B32323F368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7855BE9B-99D0-431D-98E1-9FAE7FEB63AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="901">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3133,6 +3133,42 @@
   </si>
   <si>
     <t>title305</t>
+  </si>
+  <si>
+    <t>스테이지 6450 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6500 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6550 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 6600 돌파</t>
+  </si>
+  <si>
+    <t>title306</t>
+  </si>
+  <si>
+    <t>title307</t>
+  </si>
+  <si>
+    <t>title308</t>
+  </si>
+  <si>
+    <t>title309</t>
+  </si>
+  <si>
+    <t>지족상락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접인춘풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적우심주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3566,11 +3602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K294" sqref="K294"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J302" sqref="J302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16171,6 +16207,170 @@
         <v>870</v>
       </c>
       <c r="M307" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D308" s="1">
+        <v>1</v>
+      </c>
+      <c r="E308" s="1">
+        <v>5</v>
+      </c>
+      <c r="F308" s="1">
+        <v>12800000</v>
+      </c>
+      <c r="G308" s="1">
+        <v>10</v>
+      </c>
+      <c r="H308" s="1">
+        <v>61</v>
+      </c>
+      <c r="I308" s="1">
+        <v>10</v>
+      </c>
+      <c r="J308" s="1">
+        <v>0</v>
+      </c>
+      <c r="K308" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L308" t="s">
+        <v>898</v>
+      </c>
+      <c r="M308" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D309" s="1">
+        <v>1</v>
+      </c>
+      <c r="E309" s="1">
+        <v>5</v>
+      </c>
+      <c r="F309" s="1">
+        <v>12900000</v>
+      </c>
+      <c r="G309" s="1">
+        <v>10</v>
+      </c>
+      <c r="H309" s="1">
+        <v>62</v>
+      </c>
+      <c r="I309" s="1">
+        <v>10</v>
+      </c>
+      <c r="J309" s="1">
+        <v>0</v>
+      </c>
+      <c r="K309" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L309" t="s">
+        <v>872</v>
+      </c>
+      <c r="M309" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1</v>
+      </c>
+      <c r="E310" s="1">
+        <v>5</v>
+      </c>
+      <c r="F310" s="1">
+        <v>13000000</v>
+      </c>
+      <c r="G310" s="1">
+        <v>10</v>
+      </c>
+      <c r="H310" s="1">
+        <v>62</v>
+      </c>
+      <c r="I310" s="1">
+        <v>10</v>
+      </c>
+      <c r="J310" s="1">
+        <v>0</v>
+      </c>
+      <c r="K310" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L310" t="s">
+        <v>899</v>
+      </c>
+      <c r="M310" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1">
+        <v>5</v>
+      </c>
+      <c r="F311" s="1">
+        <v>13100000</v>
+      </c>
+      <c r="G311" s="1">
+        <v>10</v>
+      </c>
+      <c r="H311" s="1">
+        <v>63</v>
+      </c>
+      <c r="I311" s="1">
+        <v>10</v>
+      </c>
+      <c r="J311" s="1">
+        <v>0</v>
+      </c>
+      <c r="K311" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="s">
+        <v>900</v>
+      </c>
+      <c r="M311" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7855BE9B-99D0-431D-98E1-9FAE7FEB63AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F396B0A-71AD-444A-924A-C2FC29D9128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="966">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3168,6 +3168,218 @@
   </si>
   <si>
     <t>적우심주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title310</t>
+  </si>
+  <si>
+    <t>스테이지 6650 돌파</t>
+  </si>
+  <si>
+    <t>title311</t>
+  </si>
+  <si>
+    <t>스테이지 6700 돌파</t>
+  </si>
+  <si>
+    <t>title312</t>
+  </si>
+  <si>
+    <t>스테이지 6750 돌파</t>
+  </si>
+  <si>
+    <t>title313</t>
+  </si>
+  <si>
+    <t>스테이지 6800 돌파</t>
+  </si>
+  <si>
+    <t>아시타비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공명지조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임중도원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파사현정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 605000달성</t>
+  </si>
+  <si>
+    <t>레벨 610000달성</t>
+  </si>
+  <si>
+    <t>레벨 615000달성</t>
+  </si>
+  <si>
+    <t>레벨 620000달성</t>
+  </si>
+  <si>
+    <t>레벨 625000달성</t>
+  </si>
+  <si>
+    <t>레벨 630000달성</t>
+  </si>
+  <si>
+    <t>레벨 635000달성</t>
+  </si>
+  <si>
+    <t>레벨 640000달성</t>
+  </si>
+  <si>
+    <t>레벨 645000달성</t>
+  </si>
+  <si>
+    <t>레벨 650000달성</t>
+  </si>
+  <si>
+    <t>레벨 655000달성</t>
+  </si>
+  <si>
+    <t>레벨 660000달성</t>
+  </si>
+  <si>
+    <t>레벨 665000달성</t>
+  </si>
+  <si>
+    <t>레벨 670000달성</t>
+  </si>
+  <si>
+    <t>레벨 675000달성</t>
+  </si>
+  <si>
+    <t>레벨 680000달성</t>
+  </si>
+  <si>
+    <t>레벨 685000달성</t>
+  </si>
+  <si>
+    <t>레벨 690000달성</t>
+  </si>
+  <si>
+    <t>레벨 695000달성</t>
+  </si>
+  <si>
+    <t>레벨 700000달성</t>
+  </si>
+  <si>
+    <t>title314</t>
+  </si>
+  <si>
+    <t>title315</t>
+  </si>
+  <si>
+    <t>title316</t>
+  </si>
+  <si>
+    <t>title317</t>
+  </si>
+  <si>
+    <t>title318</t>
+  </si>
+  <si>
+    <t>title319</t>
+  </si>
+  <si>
+    <t>title320</t>
+  </si>
+  <si>
+    <t>title321</t>
+  </si>
+  <si>
+    <t>title322</t>
+  </si>
+  <si>
+    <t>title323</t>
+  </si>
+  <si>
+    <t>title324</t>
+  </si>
+  <si>
+    <t>title325</t>
+  </si>
+  <si>
+    <t>title326</t>
+  </si>
+  <si>
+    <t>title327</t>
+  </si>
+  <si>
+    <t>title328</t>
+  </si>
+  <si>
+    <t>title329</t>
+  </si>
+  <si>
+    <t>title330</t>
+  </si>
+  <si>
+    <t>title331</t>
+  </si>
+  <si>
+    <t>title332</t>
+  </si>
+  <si>
+    <t>title333</t>
+  </si>
+  <si>
+    <t>가정맹어호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가화만사성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강남일지춘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절매봉역사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요증일지춘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개문칠건사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거자일이소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출곽문직시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고묘려위전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백양다비풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백두소갱단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군자원포주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐요개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3602,11 +3814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J302" sqref="J302"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I309" sqref="I309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16371,6 +16583,990 @@
         <v>900</v>
       </c>
       <c r="M311" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1</v>
+      </c>
+      <c r="E312" s="1">
+        <v>5</v>
+      </c>
+      <c r="F312" s="1">
+        <v>13200000</v>
+      </c>
+      <c r="G312" s="1">
+        <v>10</v>
+      </c>
+      <c r="H312" s="1">
+        <v>63</v>
+      </c>
+      <c r="I312" s="1">
+        <v>10</v>
+      </c>
+      <c r="J312" s="1">
+        <v>0</v>
+      </c>
+      <c r="K312" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="s">
+        <v>909</v>
+      </c>
+      <c r="M312" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D313" s="1">
+        <v>1</v>
+      </c>
+      <c r="E313" s="1">
+        <v>5</v>
+      </c>
+      <c r="F313" s="1">
+        <v>13300000</v>
+      </c>
+      <c r="G313" s="1">
+        <v>10</v>
+      </c>
+      <c r="H313" s="1">
+        <v>64</v>
+      </c>
+      <c r="I313" s="1">
+        <v>10</v>
+      </c>
+      <c r="J313" s="1">
+        <v>0</v>
+      </c>
+      <c r="K313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="s">
+        <v>910</v>
+      </c>
+      <c r="M313" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D314" s="1">
+        <v>1</v>
+      </c>
+      <c r="E314" s="1">
+        <v>5</v>
+      </c>
+      <c r="F314" s="1">
+        <v>13400000</v>
+      </c>
+      <c r="G314" s="1">
+        <v>10</v>
+      </c>
+      <c r="H314" s="1">
+        <v>64</v>
+      </c>
+      <c r="I314" s="1">
+        <v>10</v>
+      </c>
+      <c r="J314" s="1">
+        <v>0</v>
+      </c>
+      <c r="K314" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L314" t="s">
+        <v>911</v>
+      </c>
+      <c r="M314" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1</v>
+      </c>
+      <c r="E315" s="1">
+        <v>5</v>
+      </c>
+      <c r="F315" s="1">
+        <v>13500000</v>
+      </c>
+      <c r="G315" s="1">
+        <v>10</v>
+      </c>
+      <c r="H315" s="1">
+        <v>65</v>
+      </c>
+      <c r="I315" s="1">
+        <v>10</v>
+      </c>
+      <c r="J315" s="1">
+        <v>0</v>
+      </c>
+      <c r="K315" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L315" t="s">
+        <v>912</v>
+      </c>
+      <c r="M315" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D316" s="1">
+        <v>0</v>
+      </c>
+      <c r="E316" s="1">
+        <v>1</v>
+      </c>
+      <c r="F316" s="1">
+        <v>925000000</v>
+      </c>
+      <c r="G316" s="1">
+        <v>11</v>
+      </c>
+      <c r="H316" s="1">
+        <v>4450000</v>
+      </c>
+      <c r="I316" s="1">
+        <v>10</v>
+      </c>
+      <c r="J316" s="1">
+        <v>0</v>
+      </c>
+      <c r="K316" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L316" t="s">
+        <v>867</v>
+      </c>
+      <c r="M316" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D317" s="1">
+        <v>0</v>
+      </c>
+      <c r="E317" s="1">
+        <v>1</v>
+      </c>
+      <c r="F317" s="1">
+        <v>935000000</v>
+      </c>
+      <c r="G317" s="1">
+        <v>11</v>
+      </c>
+      <c r="H317" s="1">
+        <v>4490000</v>
+      </c>
+      <c r="I317" s="1">
+        <v>10</v>
+      </c>
+      <c r="J317" s="1">
+        <v>0</v>
+      </c>
+      <c r="K317" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L317" t="s">
+        <v>868</v>
+      </c>
+      <c r="M317" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="D318" s="1">
+        <v>0</v>
+      </c>
+      <c r="E318" s="1">
+        <v>1</v>
+      </c>
+      <c r="F318" s="1">
+        <v>945000000</v>
+      </c>
+      <c r="G318" s="1">
+        <v>11</v>
+      </c>
+      <c r="H318" s="1">
+        <v>4530000</v>
+      </c>
+      <c r="I318" s="1">
+        <v>10</v>
+      </c>
+      <c r="J318" s="1">
+        <v>0</v>
+      </c>
+      <c r="K318" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L318" t="s">
+        <v>869</v>
+      </c>
+      <c r="M318" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D319" s="1">
+        <v>0</v>
+      </c>
+      <c r="E319" s="1">
+        <v>1</v>
+      </c>
+      <c r="F319" s="1">
+        <v>955000000</v>
+      </c>
+      <c r="G319" s="1">
+        <v>11</v>
+      </c>
+      <c r="H319" s="1">
+        <v>4570000</v>
+      </c>
+      <c r="I319" s="1">
+        <v>10</v>
+      </c>
+      <c r="J319" s="1">
+        <v>0</v>
+      </c>
+      <c r="K319" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L319" t="s">
+        <v>870</v>
+      </c>
+      <c r="M319" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="D320" s="1">
+        <v>0</v>
+      </c>
+      <c r="E320" s="1">
+        <v>1</v>
+      </c>
+      <c r="F320" s="1">
+        <v>965000000</v>
+      </c>
+      <c r="G320" s="1">
+        <v>11</v>
+      </c>
+      <c r="H320" s="1">
+        <v>4610000</v>
+      </c>
+      <c r="I320" s="1">
+        <v>10</v>
+      </c>
+      <c r="J320" s="1">
+        <v>0</v>
+      </c>
+      <c r="K320" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L320" t="s">
+        <v>871</v>
+      </c>
+      <c r="M320" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D321" s="1">
+        <v>0</v>
+      </c>
+      <c r="E321" s="1">
+        <v>1</v>
+      </c>
+      <c r="F321" s="1">
+        <v>975000000</v>
+      </c>
+      <c r="G321" s="1">
+        <v>11</v>
+      </c>
+      <c r="H321" s="1">
+        <v>4650000</v>
+      </c>
+      <c r="I321" s="1">
+        <v>10</v>
+      </c>
+      <c r="J321" s="1">
+        <v>0</v>
+      </c>
+      <c r="K321" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="s">
+        <v>872</v>
+      </c>
+      <c r="M321" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D322" s="1">
+        <v>0</v>
+      </c>
+      <c r="E322" s="1">
+        <v>1</v>
+      </c>
+      <c r="F322" s="1">
+        <v>985000000</v>
+      </c>
+      <c r="G322" s="1">
+        <v>11</v>
+      </c>
+      <c r="H322" s="1">
+        <v>4690000</v>
+      </c>
+      <c r="I322" s="1">
+        <v>10</v>
+      </c>
+      <c r="J322" s="1">
+        <v>0</v>
+      </c>
+      <c r="K322" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="s">
+        <v>873</v>
+      </c>
+      <c r="M322" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D323" s="1">
+        <v>0</v>
+      </c>
+      <c r="E323" s="1">
+        <v>1</v>
+      </c>
+      <c r="F323" s="1">
+        <v>995000000</v>
+      </c>
+      <c r="G323" s="1">
+        <v>11</v>
+      </c>
+      <c r="H323" s="1">
+        <v>4730000</v>
+      </c>
+      <c r="I323" s="1">
+        <v>10</v>
+      </c>
+      <c r="J323" s="1">
+        <v>0</v>
+      </c>
+      <c r="K323" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="s">
+        <v>953</v>
+      </c>
+      <c r="M323" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D324" s="1">
+        <v>0</v>
+      </c>
+      <c r="E324" s="1">
+        <v>1</v>
+      </c>
+      <c r="F324" s="1">
+        <v>1005000000</v>
+      </c>
+      <c r="G324" s="1">
+        <v>11</v>
+      </c>
+      <c r="H324" s="1">
+        <v>4770000</v>
+      </c>
+      <c r="I324" s="1">
+        <v>10</v>
+      </c>
+      <c r="J324" s="1">
+        <v>0</v>
+      </c>
+      <c r="K324" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="s">
+        <v>954</v>
+      </c>
+      <c r="M324" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D325" s="1">
+        <v>0</v>
+      </c>
+      <c r="E325" s="1">
+        <v>1</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1015000000</v>
+      </c>
+      <c r="G325" s="1">
+        <v>11</v>
+      </c>
+      <c r="H325" s="1">
+        <v>4810000</v>
+      </c>
+      <c r="I325" s="1">
+        <v>10</v>
+      </c>
+      <c r="J325" s="1">
+        <v>0</v>
+      </c>
+      <c r="K325" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="s">
+        <v>955</v>
+      </c>
+      <c r="M325" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="D326" s="1">
+        <v>0</v>
+      </c>
+      <c r="E326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F326" s="1">
+        <v>1025000000</v>
+      </c>
+      <c r="G326" s="1">
+        <v>11</v>
+      </c>
+      <c r="H326" s="1">
+        <v>4850000</v>
+      </c>
+      <c r="I326" s="1">
+        <v>10</v>
+      </c>
+      <c r="J326" s="1">
+        <v>0</v>
+      </c>
+      <c r="K326" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="s">
+        <v>956</v>
+      </c>
+      <c r="M326" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="D327" s="1">
+        <v>0</v>
+      </c>
+      <c r="E327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1035000000</v>
+      </c>
+      <c r="G327" s="1">
+        <v>11</v>
+      </c>
+      <c r="H327" s="1">
+        <v>4890000</v>
+      </c>
+      <c r="I327" s="1">
+        <v>10</v>
+      </c>
+      <c r="J327" s="1">
+        <v>0</v>
+      </c>
+      <c r="K327" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="s">
+        <v>957</v>
+      </c>
+      <c r="M327" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D328" s="1">
+        <v>0</v>
+      </c>
+      <c r="E328" s="1">
+        <v>1</v>
+      </c>
+      <c r="F328" s="1">
+        <v>1045000000</v>
+      </c>
+      <c r="G328" s="1">
+        <v>11</v>
+      </c>
+      <c r="H328" s="1">
+        <v>4930000</v>
+      </c>
+      <c r="I328" s="1">
+        <v>10</v>
+      </c>
+      <c r="J328" s="1">
+        <v>0</v>
+      </c>
+      <c r="K328" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="s">
+        <v>958</v>
+      </c>
+      <c r="M328" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D329" s="1">
+        <v>0</v>
+      </c>
+      <c r="E329" s="1">
+        <v>1</v>
+      </c>
+      <c r="F329" s="1">
+        <v>1055000000</v>
+      </c>
+      <c r="G329" s="1">
+        <v>11</v>
+      </c>
+      <c r="H329" s="1">
+        <v>4970000</v>
+      </c>
+      <c r="I329" s="1">
+        <v>10</v>
+      </c>
+      <c r="J329" s="1">
+        <v>0</v>
+      </c>
+      <c r="K329" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L329" t="s">
+        <v>959</v>
+      </c>
+      <c r="M329" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="D330" s="1">
+        <v>0</v>
+      </c>
+      <c r="E330" s="1">
+        <v>1</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1065000000</v>
+      </c>
+      <c r="G330" s="1">
+        <v>11</v>
+      </c>
+      <c r="H330" s="1">
+        <v>5010000</v>
+      </c>
+      <c r="I330" s="1">
+        <v>10</v>
+      </c>
+      <c r="J330" s="1">
+        <v>0</v>
+      </c>
+      <c r="K330" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L330" t="s">
+        <v>960</v>
+      </c>
+      <c r="M330" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D331" s="1">
+        <v>0</v>
+      </c>
+      <c r="E331" s="1">
+        <v>1</v>
+      </c>
+      <c r="F331" s="1">
+        <v>1075000000</v>
+      </c>
+      <c r="G331" s="1">
+        <v>11</v>
+      </c>
+      <c r="H331" s="1">
+        <v>5050000</v>
+      </c>
+      <c r="I331" s="1">
+        <v>10</v>
+      </c>
+      <c r="J331" s="1">
+        <v>0</v>
+      </c>
+      <c r="K331" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L331" t="s">
+        <v>961</v>
+      </c>
+      <c r="M331" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D332" s="1">
+        <v>0</v>
+      </c>
+      <c r="E332" s="1">
+        <v>1</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1085000000</v>
+      </c>
+      <c r="G332" s="1">
+        <v>11</v>
+      </c>
+      <c r="H332" s="1">
+        <v>5090000</v>
+      </c>
+      <c r="I332" s="1">
+        <v>10</v>
+      </c>
+      <c r="J332" s="1">
+        <v>0</v>
+      </c>
+      <c r="K332" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L332" t="s">
+        <v>962</v>
+      </c>
+      <c r="M332" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D333" s="1">
+        <v>0</v>
+      </c>
+      <c r="E333" s="1">
+        <v>1</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1095000000</v>
+      </c>
+      <c r="G333" s="1">
+        <v>11</v>
+      </c>
+      <c r="H333" s="1">
+        <v>5130000</v>
+      </c>
+      <c r="I333" s="1">
+        <v>10</v>
+      </c>
+      <c r="J333" s="1">
+        <v>0</v>
+      </c>
+      <c r="K333" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L333" t="s">
+        <v>963</v>
+      </c>
+      <c r="M333" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D334" s="1">
+        <v>0</v>
+      </c>
+      <c r="E334" s="1">
+        <v>1</v>
+      </c>
+      <c r="F334" s="1">
+        <v>1105000000</v>
+      </c>
+      <c r="G334" s="1">
+        <v>11</v>
+      </c>
+      <c r="H334" s="1">
+        <v>5170000</v>
+      </c>
+      <c r="I334" s="1">
+        <v>10</v>
+      </c>
+      <c r="J334" s="1">
+        <v>0</v>
+      </c>
+      <c r="K334" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L334" t="s">
+        <v>964</v>
+      </c>
+      <c r="M334" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D335" s="1">
+        <v>0</v>
+      </c>
+      <c r="E335" s="1">
+        <v>1</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1115000000</v>
+      </c>
+      <c r="G335" s="1">
+        <v>11</v>
+      </c>
+      <c r="H335" s="1">
+        <v>5210000</v>
+      </c>
+      <c r="I335" s="1">
+        <v>10</v>
+      </c>
+      <c r="J335" s="1">
+        <v>0</v>
+      </c>
+      <c r="K335" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L335" t="s">
+        <v>965</v>
+      </c>
+      <c r="M335" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F396B0A-71AD-444A-924A-C2FC29D9128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1FB14-66FF-4040-A5B1-CD8D69F7C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -3817,8 +3817,8 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I309" sqref="I309"/>
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H316" sqref="H316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16117,7 +16117,7 @@
         <v>10</v>
       </c>
       <c r="H300" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I300" s="1">
         <v>10</v>
@@ -16158,7 +16158,7 @@
         <v>10</v>
       </c>
       <c r="H301" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I301" s="1">
         <v>10</v>
@@ -16199,7 +16199,7 @@
         <v>10</v>
       </c>
       <c r="H302" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I302" s="1">
         <v>10</v>
@@ -16240,7 +16240,7 @@
         <v>10</v>
       </c>
       <c r="H303" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I303" s="1">
         <v>10</v>
@@ -16281,7 +16281,7 @@
         <v>10</v>
       </c>
       <c r="H304" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I304" s="1">
         <v>10</v>
@@ -16322,7 +16322,7 @@
         <v>10</v>
       </c>
       <c r="H305" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I305" s="1">
         <v>10</v>
@@ -16363,7 +16363,7 @@
         <v>10</v>
       </c>
       <c r="H306" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I306" s="1">
         <v>10</v>
@@ -16404,7 +16404,7 @@
         <v>10</v>
       </c>
       <c r="H307" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I307" s="1">
         <v>10</v>
@@ -16445,7 +16445,7 @@
         <v>10</v>
       </c>
       <c r="H308" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I308" s="1">
         <v>10</v>
@@ -16486,7 +16486,7 @@
         <v>10</v>
       </c>
       <c r="H309" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I309" s="1">
         <v>10</v>
@@ -16527,7 +16527,7 @@
         <v>10</v>
       </c>
       <c r="H310" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I310" s="1">
         <v>10</v>
@@ -16568,7 +16568,7 @@
         <v>10</v>
       </c>
       <c r="H311" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I311" s="1">
         <v>10</v>
@@ -16609,7 +16609,7 @@
         <v>10</v>
       </c>
       <c r="H312" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I312" s="1">
         <v>10</v>
@@ -16650,7 +16650,7 @@
         <v>10</v>
       </c>
       <c r="H313" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I313" s="1">
         <v>10</v>
@@ -16691,7 +16691,7 @@
         <v>10</v>
       </c>
       <c r="H314" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I314" s="1">
         <v>10</v>
@@ -16732,7 +16732,7 @@
         <v>10</v>
       </c>
       <c r="H315" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I315" s="1">
         <v>10</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B1FB14-66FF-4040-A5B1-CD8D69F7C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356D96C-E908-44B8-891C-3121F2283A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1023">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3381,6 +3381,180 @@
   <si>
     <t>다람쥐요개</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 705000달성</t>
+  </si>
+  <si>
+    <t>레벨 710000달성</t>
+  </si>
+  <si>
+    <t>레벨 715000달성</t>
+  </si>
+  <si>
+    <t>레벨 720000달성</t>
+  </si>
+  <si>
+    <t>레벨 725000달성</t>
+  </si>
+  <si>
+    <t>레벨 730000달성</t>
+  </si>
+  <si>
+    <t>레벨 735000달성</t>
+  </si>
+  <si>
+    <t>레벨 740000달성</t>
+  </si>
+  <si>
+    <t>레벨 745000달성</t>
+  </si>
+  <si>
+    <t>레벨 750000달성</t>
+  </si>
+  <si>
+    <t>레벨 755000달성</t>
+  </si>
+  <si>
+    <t>레벨 760000달성</t>
+  </si>
+  <si>
+    <t>레벨 765000달성</t>
+  </si>
+  <si>
+    <t>레벨 770000달성</t>
+  </si>
+  <si>
+    <t>레벨 775000달성</t>
+  </si>
+  <si>
+    <t>레벨 780000달성</t>
+  </si>
+  <si>
+    <t>레벨 785000달성</t>
+  </si>
+  <si>
+    <t>레벨 790000달성</t>
+  </si>
+  <si>
+    <t>레벨 795000달성</t>
+  </si>
+  <si>
+    <t>레벨 800000달성</t>
+  </si>
+  <si>
+    <t>title334</t>
+  </si>
+  <si>
+    <t>title335</t>
+  </si>
+  <si>
+    <t>title336</t>
+  </si>
+  <si>
+    <t>title337</t>
+  </si>
+  <si>
+    <t>title338</t>
+  </si>
+  <si>
+    <t>title339</t>
+  </si>
+  <si>
+    <t>title340</t>
+  </si>
+  <si>
+    <t>title341</t>
+  </si>
+  <si>
+    <t>title342</t>
+  </si>
+  <si>
+    <t>title343</t>
+  </si>
+  <si>
+    <t>title344</t>
+  </si>
+  <si>
+    <t>title345</t>
+  </si>
+  <si>
+    <t>title346</t>
+  </si>
+  <si>
+    <t>title347</t>
+  </si>
+  <si>
+    <t>title348</t>
+  </si>
+  <si>
+    <t>title349</t>
+  </si>
+  <si>
+    <t>title350</t>
+  </si>
+  <si>
+    <t>title351</t>
+  </si>
+  <si>
+    <t>title352</t>
+  </si>
+  <si>
+    <t>title353</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title354</t>
+  </si>
+  <si>
+    <t>title355</t>
+  </si>
+  <si>
+    <t>title356</t>
+  </si>
+  <si>
+    <t>title357</t>
+  </si>
+  <si>
+    <t>title358</t>
+  </si>
+  <si>
+    <t>title359</t>
+  </si>
+  <si>
+    <t>title360</t>
+  </si>
+  <si>
+    <t>title361</t>
+  </si>
+  <si>
+    <t>스테이지 6850 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 6950 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7000 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7050 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7100 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7150 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7200 돌파</t>
   </si>
 </sst>
 </file>
@@ -3814,11 +3988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M335"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H316" sqref="H316"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17567,6 +17741,1154 @@
         <v>965</v>
       </c>
       <c r="M335" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="D336" s="1">
+        <v>0</v>
+      </c>
+      <c r="E336" s="1">
+        <v>1</v>
+      </c>
+      <c r="F336" s="1">
+        <v>1125000000</v>
+      </c>
+      <c r="G336" s="1">
+        <v>11</v>
+      </c>
+      <c r="H336" s="1">
+        <v>5250000</v>
+      </c>
+      <c r="I336" s="1">
+        <v>10</v>
+      </c>
+      <c r="J336" s="1">
+        <v>0</v>
+      </c>
+      <c r="K336" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L336" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M336" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D337" s="1">
+        <v>0</v>
+      </c>
+      <c r="E337" s="1">
+        <v>1</v>
+      </c>
+      <c r="F337" s="1">
+        <v>1135000000</v>
+      </c>
+      <c r="G337" s="1">
+        <v>11</v>
+      </c>
+      <c r="H337" s="1">
+        <v>5290000</v>
+      </c>
+      <c r="I337" s="1">
+        <v>10</v>
+      </c>
+      <c r="J337" s="1">
+        <v>0</v>
+      </c>
+      <c r="K337" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L337" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M337" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D338" s="1">
+        <v>0</v>
+      </c>
+      <c r="E338" s="1">
+        <v>1</v>
+      </c>
+      <c r="F338" s="1">
+        <v>1145000000</v>
+      </c>
+      <c r="G338" s="1">
+        <v>11</v>
+      </c>
+      <c r="H338" s="1">
+        <v>5330000</v>
+      </c>
+      <c r="I338" s="1">
+        <v>10</v>
+      </c>
+      <c r="J338" s="1">
+        <v>0</v>
+      </c>
+      <c r="K338" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L338" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M338" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="D339" s="1">
+        <v>0</v>
+      </c>
+      <c r="E339" s="1">
+        <v>1</v>
+      </c>
+      <c r="F339" s="1">
+        <v>1155000000</v>
+      </c>
+      <c r="G339" s="1">
+        <v>11</v>
+      </c>
+      <c r="H339" s="1">
+        <v>5370000</v>
+      </c>
+      <c r="I339" s="1">
+        <v>10</v>
+      </c>
+      <c r="J339" s="1">
+        <v>0</v>
+      </c>
+      <c r="K339" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M339" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D340" s="1">
+        <v>0</v>
+      </c>
+      <c r="E340" s="1">
+        <v>1</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1165000000</v>
+      </c>
+      <c r="G340" s="1">
+        <v>11</v>
+      </c>
+      <c r="H340" s="1">
+        <v>5410000</v>
+      </c>
+      <c r="I340" s="1">
+        <v>10</v>
+      </c>
+      <c r="J340" s="1">
+        <v>0</v>
+      </c>
+      <c r="K340" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M340" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D341" s="1">
+        <v>0</v>
+      </c>
+      <c r="E341" s="1">
+        <v>1</v>
+      </c>
+      <c r="F341" s="1">
+        <v>1175000000</v>
+      </c>
+      <c r="G341" s="1">
+        <v>11</v>
+      </c>
+      <c r="H341" s="1">
+        <v>5450000</v>
+      </c>
+      <c r="I341" s="1">
+        <v>10</v>
+      </c>
+      <c r="J341" s="1">
+        <v>0</v>
+      </c>
+      <c r="K341" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M341" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D342" s="1">
+        <v>0</v>
+      </c>
+      <c r="E342" s="1">
+        <v>1</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1185000000</v>
+      </c>
+      <c r="G342" s="1">
+        <v>11</v>
+      </c>
+      <c r="H342" s="1">
+        <v>5490000</v>
+      </c>
+      <c r="I342" s="1">
+        <v>10</v>
+      </c>
+      <c r="J342" s="1">
+        <v>0</v>
+      </c>
+      <c r="K342" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M342" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D343" s="1">
+        <v>0</v>
+      </c>
+      <c r="E343" s="1">
+        <v>1</v>
+      </c>
+      <c r="F343" s="1">
+        <v>1195000000</v>
+      </c>
+      <c r="G343" s="1">
+        <v>11</v>
+      </c>
+      <c r="H343" s="1">
+        <v>5530000</v>
+      </c>
+      <c r="I343" s="1">
+        <v>10</v>
+      </c>
+      <c r="J343" s="1">
+        <v>0</v>
+      </c>
+      <c r="K343" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M343" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="D344" s="1">
+        <v>0</v>
+      </c>
+      <c r="E344" s="1">
+        <v>1</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1205000000</v>
+      </c>
+      <c r="G344" s="1">
+        <v>11</v>
+      </c>
+      <c r="H344" s="1">
+        <v>5570000</v>
+      </c>
+      <c r="I344" s="1">
+        <v>10</v>
+      </c>
+      <c r="J344" s="1">
+        <v>0</v>
+      </c>
+      <c r="K344" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M344" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D345" s="1">
+        <v>0</v>
+      </c>
+      <c r="E345" s="1">
+        <v>1</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1215000000</v>
+      </c>
+      <c r="G345" s="1">
+        <v>11</v>
+      </c>
+      <c r="H345" s="1">
+        <v>5610000</v>
+      </c>
+      <c r="I345" s="1">
+        <v>10</v>
+      </c>
+      <c r="J345" s="1">
+        <v>0</v>
+      </c>
+      <c r="K345" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M345" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D346" s="1">
+        <v>0</v>
+      </c>
+      <c r="E346" s="1">
+        <v>1</v>
+      </c>
+      <c r="F346" s="1">
+        <v>1225000000</v>
+      </c>
+      <c r="G346" s="1">
+        <v>11</v>
+      </c>
+      <c r="H346" s="1">
+        <v>5650000</v>
+      </c>
+      <c r="I346" s="1">
+        <v>10</v>
+      </c>
+      <c r="J346" s="1">
+        <v>0</v>
+      </c>
+      <c r="K346" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L346" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M346" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="D347" s="1">
+        <v>0</v>
+      </c>
+      <c r="E347" s="1">
+        <v>1</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1235000000</v>
+      </c>
+      <c r="G347" s="1">
+        <v>11</v>
+      </c>
+      <c r="H347" s="1">
+        <v>5690000</v>
+      </c>
+      <c r="I347" s="1">
+        <v>10</v>
+      </c>
+      <c r="J347" s="1">
+        <v>0</v>
+      </c>
+      <c r="K347" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M347" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D348" s="1">
+        <v>0</v>
+      </c>
+      <c r="E348" s="1">
+        <v>1</v>
+      </c>
+      <c r="F348" s="1">
+        <v>1245000000</v>
+      </c>
+      <c r="G348" s="1">
+        <v>11</v>
+      </c>
+      <c r="H348" s="1">
+        <v>5730000</v>
+      </c>
+      <c r="I348" s="1">
+        <v>10</v>
+      </c>
+      <c r="J348" s="1">
+        <v>0</v>
+      </c>
+      <c r="K348" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L348" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M348" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D349" s="1">
+        <v>0</v>
+      </c>
+      <c r="E349" s="1">
+        <v>1</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1255000000</v>
+      </c>
+      <c r="G349" s="1">
+        <v>11</v>
+      </c>
+      <c r="H349" s="1">
+        <v>5770000</v>
+      </c>
+      <c r="I349" s="1">
+        <v>10</v>
+      </c>
+      <c r="J349" s="1">
+        <v>0</v>
+      </c>
+      <c r="K349" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L349" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M349" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="D350" s="1">
+        <v>0</v>
+      </c>
+      <c r="E350" s="1">
+        <v>1</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1265000000</v>
+      </c>
+      <c r="G350" s="1">
+        <v>11</v>
+      </c>
+      <c r="H350" s="1">
+        <v>5810000</v>
+      </c>
+      <c r="I350" s="1">
+        <v>10</v>
+      </c>
+      <c r="J350" s="1">
+        <v>0</v>
+      </c>
+      <c r="K350" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L350" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M350" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D351" s="1">
+        <v>0</v>
+      </c>
+      <c r="E351" s="1">
+        <v>1</v>
+      </c>
+      <c r="F351" s="1">
+        <v>1275000000</v>
+      </c>
+      <c r="G351" s="1">
+        <v>11</v>
+      </c>
+      <c r="H351" s="1">
+        <v>5850000</v>
+      </c>
+      <c r="I351" s="1">
+        <v>10</v>
+      </c>
+      <c r="J351" s="1">
+        <v>0</v>
+      </c>
+      <c r="K351" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M351" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D352" s="1">
+        <v>0</v>
+      </c>
+      <c r="E352" s="1">
+        <v>1</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1285000000</v>
+      </c>
+      <c r="G352" s="1">
+        <v>11</v>
+      </c>
+      <c r="H352" s="1">
+        <v>5890000</v>
+      </c>
+      <c r="I352" s="1">
+        <v>10</v>
+      </c>
+      <c r="J352" s="1">
+        <v>0</v>
+      </c>
+      <c r="K352" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L352" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M352" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D353" s="1">
+        <v>0</v>
+      </c>
+      <c r="E353" s="1">
+        <v>1</v>
+      </c>
+      <c r="F353" s="1">
+        <v>1295000000</v>
+      </c>
+      <c r="G353" s="1">
+        <v>11</v>
+      </c>
+      <c r="H353" s="1">
+        <v>5930000</v>
+      </c>
+      <c r="I353" s="1">
+        <v>10</v>
+      </c>
+      <c r="J353" s="1">
+        <v>0</v>
+      </c>
+      <c r="K353" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L353" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M353" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D354" s="1">
+        <v>0</v>
+      </c>
+      <c r="E354" s="1">
+        <v>1</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1305000000</v>
+      </c>
+      <c r="G354" s="1">
+        <v>11</v>
+      </c>
+      <c r="H354" s="1">
+        <v>5970000</v>
+      </c>
+      <c r="I354" s="1">
+        <v>10</v>
+      </c>
+      <c r="J354" s="1">
+        <v>0</v>
+      </c>
+      <c r="K354" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L354" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M354" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D355" s="1">
+        <v>0</v>
+      </c>
+      <c r="E355" s="1">
+        <v>1</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1315000000</v>
+      </c>
+      <c r="G355" s="1">
+        <v>11</v>
+      </c>
+      <c r="H355" s="1">
+        <v>6010000</v>
+      </c>
+      <c r="I355" s="1">
+        <v>10</v>
+      </c>
+      <c r="J355" s="1">
+        <v>0</v>
+      </c>
+      <c r="K355" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L355" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M355" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D356" s="1">
+        <v>1</v>
+      </c>
+      <c r="E356" s="1">
+        <v>5</v>
+      </c>
+      <c r="F356" s="1">
+        <v>13600000</v>
+      </c>
+      <c r="G356" s="1">
+        <v>10</v>
+      </c>
+      <c r="H356" s="1">
+        <v>66</v>
+      </c>
+      <c r="I356" s="1">
+        <v>10</v>
+      </c>
+      <c r="J356" s="1">
+        <v>0</v>
+      </c>
+      <c r="K356" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L356" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M356" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D357" s="1">
+        <v>1</v>
+      </c>
+      <c r="E357" s="1">
+        <v>5</v>
+      </c>
+      <c r="F357" s="1">
+        <v>13700000</v>
+      </c>
+      <c r="G357" s="1">
+        <v>10</v>
+      </c>
+      <c r="H357" s="1">
+        <v>67</v>
+      </c>
+      <c r="I357" s="1">
+        <v>10</v>
+      </c>
+      <c r="J357" s="1">
+        <v>0</v>
+      </c>
+      <c r="K357" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L357" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M357" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D358" s="1">
+        <v>1</v>
+      </c>
+      <c r="E358" s="1">
+        <v>5</v>
+      </c>
+      <c r="F358" s="1">
+        <v>13800000</v>
+      </c>
+      <c r="G358" s="1">
+        <v>10</v>
+      </c>
+      <c r="H358" s="1">
+        <v>67</v>
+      </c>
+      <c r="I358" s="1">
+        <v>10</v>
+      </c>
+      <c r="J358" s="1">
+        <v>0</v>
+      </c>
+      <c r="K358" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L358" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M358" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D359" s="1">
+        <v>1</v>
+      </c>
+      <c r="E359" s="1">
+        <v>5</v>
+      </c>
+      <c r="F359" s="1">
+        <v>13900000</v>
+      </c>
+      <c r="G359" s="1">
+        <v>10</v>
+      </c>
+      <c r="H359" s="1">
+        <v>68</v>
+      </c>
+      <c r="I359" s="1">
+        <v>10</v>
+      </c>
+      <c r="J359" s="1">
+        <v>0</v>
+      </c>
+      <c r="K359" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M359" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1</v>
+      </c>
+      <c r="E360" s="1">
+        <v>5</v>
+      </c>
+      <c r="F360" s="1">
+        <v>14000000</v>
+      </c>
+      <c r="G360" s="1">
+        <v>10</v>
+      </c>
+      <c r="H360" s="1">
+        <v>68</v>
+      </c>
+      <c r="I360" s="1">
+        <v>10</v>
+      </c>
+      <c r="J360" s="1">
+        <v>0</v>
+      </c>
+      <c r="K360" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L360" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M360" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D361" s="1">
+        <v>1</v>
+      </c>
+      <c r="E361" s="1">
+        <v>5</v>
+      </c>
+      <c r="F361" s="1">
+        <v>14100000</v>
+      </c>
+      <c r="G361" s="1">
+        <v>10</v>
+      </c>
+      <c r="H361" s="1">
+        <v>69</v>
+      </c>
+      <c r="I361" s="1">
+        <v>10</v>
+      </c>
+      <c r="J361" s="1">
+        <v>0</v>
+      </c>
+      <c r="K361" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L361" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M361" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D362" s="1">
+        <v>1</v>
+      </c>
+      <c r="E362" s="1">
+        <v>5</v>
+      </c>
+      <c r="F362" s="1">
+        <v>14200000</v>
+      </c>
+      <c r="G362" s="1">
+        <v>10</v>
+      </c>
+      <c r="H362" s="1">
+        <v>69</v>
+      </c>
+      <c r="I362" s="1">
+        <v>10</v>
+      </c>
+      <c r="J362" s="1">
+        <v>0</v>
+      </c>
+      <c r="K362" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L362" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M362" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D363" s="1">
+        <v>1</v>
+      </c>
+      <c r="E363" s="1">
+        <v>5</v>
+      </c>
+      <c r="F363" s="1">
+        <v>14300000</v>
+      </c>
+      <c r="G363" s="1">
+        <v>10</v>
+      </c>
+      <c r="H363" s="1">
+        <v>70</v>
+      </c>
+      <c r="I363" s="1">
+        <v>10</v>
+      </c>
+      <c r="J363" s="1">
+        <v>0</v>
+      </c>
+      <c r="K363" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L363" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M363" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F356D96C-E908-44B8-891C-3121F2283A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C7F8E-1733-4349-A5D9-9AE93EB19F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1022">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3501,10 +3501,6 @@
   </si>
   <si>
     <t>title353</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>title354</t>
@@ -3991,8 +3987,8 @@
   <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O358" sqref="O358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17779,7 +17775,7 @@
         <v>1</v>
       </c>
       <c r="L336" t="s">
-        <v>1006</v>
+        <v>767</v>
       </c>
       <c r="M336" s="1">
         <v>11</v>
@@ -17820,7 +17816,7 @@
         <v>1</v>
       </c>
       <c r="L337" t="s">
-        <v>1006</v>
+        <v>768</v>
       </c>
       <c r="M337" s="1">
         <v>11</v>
@@ -17861,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="L338" t="s">
-        <v>1006</v>
+        <v>769</v>
       </c>
       <c r="M338" s="1">
         <v>11</v>
@@ -17902,7 +17898,7 @@
         <v>1</v>
       </c>
       <c r="L339" t="s">
-        <v>1006</v>
+        <v>770</v>
       </c>
       <c r="M339" s="1">
         <v>11</v>
@@ -17943,7 +17939,7 @@
         <v>1</v>
       </c>
       <c r="L340" t="s">
-        <v>1006</v>
+        <v>771</v>
       </c>
       <c r="M340" s="1">
         <v>11</v>
@@ -17984,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="L341" t="s">
-        <v>1006</v>
+        <v>772</v>
       </c>
       <c r="M341" s="1">
         <v>11</v>
@@ -18025,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="L342" t="s">
-        <v>1006</v>
+        <v>773</v>
       </c>
       <c r="M342" s="1">
         <v>11</v>
@@ -18066,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="L343" t="s">
-        <v>1006</v>
+        <v>774</v>
       </c>
       <c r="M343" s="1">
         <v>11</v>
@@ -18107,7 +18103,7 @@
         <v>1</v>
       </c>
       <c r="L344" t="s">
-        <v>1006</v>
+        <v>775</v>
       </c>
       <c r="M344" s="1">
         <v>11</v>
@@ -18148,7 +18144,7 @@
         <v>1</v>
       </c>
       <c r="L345" t="s">
-        <v>1006</v>
+        <v>776</v>
       </c>
       <c r="M345" s="1">
         <v>11</v>
@@ -18189,7 +18185,7 @@
         <v>1</v>
       </c>
       <c r="L346" t="s">
-        <v>1006</v>
+        <v>865</v>
       </c>
       <c r="M346" s="1">
         <v>11</v>
@@ -18230,7 +18226,7 @@
         <v>1</v>
       </c>
       <c r="L347" t="s">
-        <v>1006</v>
+        <v>866</v>
       </c>
       <c r="M347" s="1">
         <v>11</v>
@@ -18271,7 +18267,7 @@
         <v>1</v>
       </c>
       <c r="L348" t="s">
-        <v>1006</v>
+        <v>867</v>
       </c>
       <c r="M348" s="1">
         <v>11</v>
@@ -18312,7 +18308,7 @@
         <v>1</v>
       </c>
       <c r="L349" t="s">
-        <v>1006</v>
+        <v>868</v>
       </c>
       <c r="M349" s="1">
         <v>11</v>
@@ -18353,7 +18349,7 @@
         <v>1</v>
       </c>
       <c r="L350" t="s">
-        <v>1006</v>
+        <v>869</v>
       </c>
       <c r="M350" s="1">
         <v>11</v>
@@ -18394,7 +18390,7 @@
         <v>1</v>
       </c>
       <c r="L351" t="s">
-        <v>1006</v>
+        <v>870</v>
       </c>
       <c r="M351" s="1">
         <v>11</v>
@@ -18435,7 +18431,7 @@
         <v>1</v>
       </c>
       <c r="L352" t="s">
-        <v>1006</v>
+        <v>871</v>
       </c>
       <c r="M352" s="1">
         <v>11</v>
@@ -18476,7 +18472,7 @@
         <v>1</v>
       </c>
       <c r="L353" t="s">
-        <v>1006</v>
+        <v>872</v>
       </c>
       <c r="M353" s="1">
         <v>11</v>
@@ -18517,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="L354" t="s">
-        <v>1006</v>
+        <v>873</v>
       </c>
       <c r="M354" s="1">
         <v>11</v>
@@ -18558,7 +18554,7 @@
         <v>1</v>
       </c>
       <c r="L355" t="s">
-        <v>1006</v>
+        <v>823</v>
       </c>
       <c r="M355" s="1">
         <v>11</v>
@@ -18569,10 +18565,10 @@
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D356" s="1">
         <v>1</v>
@@ -18599,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="L356" t="s">
-        <v>1006</v>
+        <v>824</v>
       </c>
       <c r="M356" s="1">
         <v>11</v>
@@ -18610,10 +18606,10 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D357" s="1">
         <v>1</v>
@@ -18640,7 +18636,7 @@
         <v>1</v>
       </c>
       <c r="L357" t="s">
-        <v>1006</v>
+        <v>865</v>
       </c>
       <c r="M357" s="1">
         <v>11</v>
@@ -18651,10 +18647,10 @@
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D358" s="1">
         <v>1</v>
@@ -18681,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="L358" t="s">
-        <v>1006</v>
+        <v>866</v>
       </c>
       <c r="M358" s="1">
         <v>11</v>
@@ -18692,10 +18688,10 @@
         <v>357</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D359" s="1">
         <v>1</v>
@@ -18722,7 +18718,7 @@
         <v>1</v>
       </c>
       <c r="L359" t="s">
-        <v>1006</v>
+        <v>867</v>
       </c>
       <c r="M359" s="1">
         <v>11</v>
@@ -18733,10 +18729,10 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D360" s="1">
         <v>1</v>
@@ -18763,7 +18759,7 @@
         <v>1</v>
       </c>
       <c r="L360" t="s">
-        <v>1006</v>
+        <v>868</v>
       </c>
       <c r="M360" s="1">
         <v>11</v>
@@ -18774,10 +18770,10 @@
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D361" s="1">
         <v>1</v>
@@ -18804,7 +18800,7 @@
         <v>1</v>
       </c>
       <c r="L361" t="s">
-        <v>1006</v>
+        <v>869</v>
       </c>
       <c r="M361" s="1">
         <v>11</v>
@@ -18815,10 +18811,10 @@
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -18845,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="L362" t="s">
-        <v>1006</v>
+        <v>870</v>
       </c>
       <c r="M362" s="1">
         <v>11</v>
@@ -18856,10 +18852,10 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D363" s="1">
         <v>1</v>
@@ -18886,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="L363" t="s">
-        <v>1006</v>
+        <v>898</v>
       </c>
       <c r="M363" s="1">
         <v>11</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685C7F8E-1733-4349-A5D9-9AE93EB19F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C27238-B323-49C8-A1E6-D9BA684BBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1038">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3551,6 +3551,54 @@
   </si>
   <si>
     <t>스테이지 7200 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7250 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7300 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7350 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7400 돌파</t>
+  </si>
+  <si>
+    <t>title362</t>
+  </si>
+  <si>
+    <t>title363</t>
+  </si>
+  <si>
+    <t>title364</t>
+  </si>
+  <si>
+    <t>title365</t>
+  </si>
+  <si>
+    <t>스테이지 7450 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7500 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7550 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7600 돌파</t>
+  </si>
+  <si>
+    <t>title366</t>
+  </si>
+  <si>
+    <t>title367</t>
+  </si>
+  <si>
+    <t>title368</t>
+  </si>
+  <si>
+    <t>title369</t>
   </si>
 </sst>
 </file>
@@ -3984,11 +4032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O358" sqref="O358"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18848,7 +18896,7 @@
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
+      <c r="A363" s="3">
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -18885,6 +18933,334 @@
         <v>898</v>
       </c>
       <c r="M363" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D364" s="1">
+        <v>1</v>
+      </c>
+      <c r="E364" s="1">
+        <v>5</v>
+      </c>
+      <c r="F364" s="1">
+        <v>14400000</v>
+      </c>
+      <c r="G364" s="1">
+        <v>10</v>
+      </c>
+      <c r="H364" s="1">
+        <v>70</v>
+      </c>
+      <c r="I364" s="1">
+        <v>10</v>
+      </c>
+      <c r="J364" s="1">
+        <v>0</v>
+      </c>
+      <c r="K364" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L364" t="s">
+        <v>900</v>
+      </c>
+      <c r="M364" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D365" s="1">
+        <v>1</v>
+      </c>
+      <c r="E365" s="1">
+        <v>5</v>
+      </c>
+      <c r="F365" s="1">
+        <v>14500000</v>
+      </c>
+      <c r="G365" s="1">
+        <v>10</v>
+      </c>
+      <c r="H365" s="1">
+        <v>71</v>
+      </c>
+      <c r="I365" s="1">
+        <v>10</v>
+      </c>
+      <c r="J365" s="1">
+        <v>0</v>
+      </c>
+      <c r="K365" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L365" t="s">
+        <v>909</v>
+      </c>
+      <c r="M365" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D366" s="1">
+        <v>1</v>
+      </c>
+      <c r="E366" s="1">
+        <v>5</v>
+      </c>
+      <c r="F366" s="1">
+        <v>14600000</v>
+      </c>
+      <c r="G366" s="1">
+        <v>10</v>
+      </c>
+      <c r="H366" s="1">
+        <v>71</v>
+      </c>
+      <c r="I366" s="1">
+        <v>10</v>
+      </c>
+      <c r="J366" s="1">
+        <v>0</v>
+      </c>
+      <c r="K366" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L366" t="s">
+        <v>910</v>
+      </c>
+      <c r="M366" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1</v>
+      </c>
+      <c r="E367" s="1">
+        <v>5</v>
+      </c>
+      <c r="F367" s="1">
+        <v>14700000</v>
+      </c>
+      <c r="G367" s="1">
+        <v>10</v>
+      </c>
+      <c r="H367" s="1">
+        <v>72</v>
+      </c>
+      <c r="I367" s="1">
+        <v>10</v>
+      </c>
+      <c r="J367" s="1">
+        <v>0</v>
+      </c>
+      <c r="K367" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L367" t="s">
+        <v>911</v>
+      </c>
+      <c r="M367" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D368" s="1">
+        <v>1</v>
+      </c>
+      <c r="E368" s="1">
+        <v>5</v>
+      </c>
+      <c r="F368" s="1">
+        <v>14800000</v>
+      </c>
+      <c r="G368" s="1">
+        <v>10</v>
+      </c>
+      <c r="H368" s="1">
+        <v>72</v>
+      </c>
+      <c r="I368" s="1">
+        <v>10</v>
+      </c>
+      <c r="J368" s="1">
+        <v>0</v>
+      </c>
+      <c r="K368" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L368" t="s">
+        <v>767</v>
+      </c>
+      <c r="M368" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D369" s="1">
+        <v>1</v>
+      </c>
+      <c r="E369" s="1">
+        <v>5</v>
+      </c>
+      <c r="F369" s="1">
+        <v>14900000</v>
+      </c>
+      <c r="G369" s="1">
+        <v>10</v>
+      </c>
+      <c r="H369" s="1">
+        <v>73</v>
+      </c>
+      <c r="I369" s="1">
+        <v>10</v>
+      </c>
+      <c r="J369" s="1">
+        <v>0</v>
+      </c>
+      <c r="K369" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L369" t="s">
+        <v>768</v>
+      </c>
+      <c r="M369" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1</v>
+      </c>
+      <c r="E370" s="1">
+        <v>5</v>
+      </c>
+      <c r="F370" s="1">
+        <v>15000000</v>
+      </c>
+      <c r="G370" s="1">
+        <v>10</v>
+      </c>
+      <c r="H370" s="1">
+        <v>73</v>
+      </c>
+      <c r="I370" s="1">
+        <v>10</v>
+      </c>
+      <c r="J370" s="1">
+        <v>0</v>
+      </c>
+      <c r="K370" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L370" t="s">
+        <v>769</v>
+      </c>
+      <c r="M370" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D371" s="1">
+        <v>1</v>
+      </c>
+      <c r="E371" s="1">
+        <v>5</v>
+      </c>
+      <c r="F371" s="1">
+        <v>15100000</v>
+      </c>
+      <c r="G371" s="1">
+        <v>10</v>
+      </c>
+      <c r="H371" s="1">
+        <v>74</v>
+      </c>
+      <c r="I371" s="1">
+        <v>10</v>
+      </c>
+      <c r="J371" s="1">
+        <v>0</v>
+      </c>
+      <c r="K371" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L371" t="s">
+        <v>770</v>
+      </c>
+      <c r="M371" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C27238-B323-49C8-A1E6-D9BA684BBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842F5CC-F9FD-4B55-BC64-034E7B1738BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1050">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3599,6 +3599,46 @@
   </si>
   <si>
     <t>title369</t>
+  </si>
+  <si>
+    <t>스테이지 7650 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7700 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7750 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 7800 돌파</t>
+  </si>
+  <si>
+    <t>title370</t>
+  </si>
+  <si>
+    <t>title371</t>
+  </si>
+  <si>
+    <t>title372</t>
+  </si>
+  <si>
+    <t>title373</t>
+  </si>
+  <si>
+    <t>십팔반무예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신풍절비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여산진면목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양웅불구립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4032,11 +4072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M371"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C370" sqref="C370"/>
+      <selection pane="bottomLeft" activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19261,6 +19301,170 @@
         <v>770</v>
       </c>
       <c r="M371" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1</v>
+      </c>
+      <c r="E372" s="1">
+        <v>5</v>
+      </c>
+      <c r="F372" s="1">
+        <v>15200000</v>
+      </c>
+      <c r="G372" s="1">
+        <v>10</v>
+      </c>
+      <c r="H372" s="1">
+        <v>74</v>
+      </c>
+      <c r="I372" s="1">
+        <v>10</v>
+      </c>
+      <c r="J372" s="1">
+        <v>0</v>
+      </c>
+      <c r="K372" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M372" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D373" s="1">
+        <v>1</v>
+      </c>
+      <c r="E373" s="1">
+        <v>5</v>
+      </c>
+      <c r="F373" s="1">
+        <v>15300000</v>
+      </c>
+      <c r="G373" s="1">
+        <v>10</v>
+      </c>
+      <c r="H373" s="1">
+        <v>75</v>
+      </c>
+      <c r="I373" s="1">
+        <v>10</v>
+      </c>
+      <c r="J373" s="1">
+        <v>0</v>
+      </c>
+      <c r="K373" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L373" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M373" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D374" s="1">
+        <v>1</v>
+      </c>
+      <c r="E374" s="1">
+        <v>5</v>
+      </c>
+      <c r="F374" s="1">
+        <v>15400000</v>
+      </c>
+      <c r="G374" s="1">
+        <v>10</v>
+      </c>
+      <c r="H374" s="1">
+        <v>75</v>
+      </c>
+      <c r="I374" s="1">
+        <v>10</v>
+      </c>
+      <c r="J374" s="1">
+        <v>0</v>
+      </c>
+      <c r="K374" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L374" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M374" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D375" s="1">
+        <v>1</v>
+      </c>
+      <c r="E375" s="1">
+        <v>5</v>
+      </c>
+      <c r="F375" s="1">
+        <v>15500000</v>
+      </c>
+      <c r="G375" s="1">
+        <v>10</v>
+      </c>
+      <c r="H375" s="1">
+        <v>76</v>
+      </c>
+      <c r="I375" s="1">
+        <v>10</v>
+      </c>
+      <c r="J375" s="1">
+        <v>0</v>
+      </c>
+      <c r="K375" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M375" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E842F5CC-F9FD-4B55-BC64-034E7B1738BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008890F-6F99-47B5-9880-543251F571EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1098">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3639,6 +3639,156 @@
   <si>
     <t>양웅불구립</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 810000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 820000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title374</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title375</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title376</t>
+  </si>
+  <si>
+    <t>title377</t>
+  </si>
+  <si>
+    <t>title378</t>
+  </si>
+  <si>
+    <t>title379</t>
+  </si>
+  <si>
+    <t>title380</t>
+  </si>
+  <si>
+    <t>title381</t>
+  </si>
+  <si>
+    <t>title382</t>
+  </si>
+  <si>
+    <t>title383</t>
+  </si>
+  <si>
+    <t>title384</t>
+  </si>
+  <si>
+    <t>title385</t>
+  </si>
+  <si>
+    <t>title386</t>
+  </si>
+  <si>
+    <t>title387</t>
+  </si>
+  <si>
+    <t>title388</t>
+  </si>
+  <si>
+    <t>title389</t>
+  </si>
+  <si>
+    <t>title390</t>
+  </si>
+  <si>
+    <t>레벨 830000달성</t>
+  </si>
+  <si>
+    <t>레벨 840000달성</t>
+  </si>
+  <si>
+    <t>레벨 850000달성</t>
+  </si>
+  <si>
+    <t>레벨 860000달성</t>
+  </si>
+  <si>
+    <t>레벨 870000달성</t>
+  </si>
+  <si>
+    <t>레벨 880000달성</t>
+  </si>
+  <si>
+    <t>레벨 890000달성</t>
+  </si>
+  <si>
+    <t>레벨 900000달성</t>
+  </si>
+  <si>
+    <t>레벨 910000달성</t>
+  </si>
+  <si>
+    <t>레벨 920000달성</t>
+  </si>
+  <si>
+    <t>레벨 930000달성</t>
+  </si>
+  <si>
+    <t>레벨 940000달성</t>
+  </si>
+  <si>
+    <t>레벨 950000달성</t>
+  </si>
+  <si>
+    <t>레벨 960000달성</t>
+  </si>
+  <si>
+    <t>레벨 970000달성</t>
+  </si>
+  <si>
+    <t>레벨 980000달성</t>
+  </si>
+  <si>
+    <t>레벨 990000달성</t>
+  </si>
+  <si>
+    <t>레벨 1000000달성</t>
+  </si>
+  <si>
+    <t>title391</t>
+  </si>
+  <si>
+    <t>title392</t>
+  </si>
+  <si>
+    <t>title393</t>
+  </si>
+  <si>
+    <t>title394</t>
+  </si>
+  <si>
+    <t>title395</t>
+  </si>
+  <si>
+    <t>title396</t>
+  </si>
+  <si>
+    <t>title397</t>
+  </si>
+  <si>
+    <t>스테이지 7900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 8000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 8100 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 8200 돌파</t>
   </si>
 </sst>
 </file>
@@ -4072,11 +4222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D365" sqref="D365"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I398" sqref="I398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19465,6 +19615,990 @@
         <v>1049</v>
       </c>
       <c r="M375" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D376" s="1">
+        <v>0</v>
+      </c>
+      <c r="E376" s="1">
+        <v>1</v>
+      </c>
+      <c r="F376" s="1">
+        <v>1335000000</v>
+      </c>
+      <c r="G376" s="1">
+        <v>11</v>
+      </c>
+      <c r="H376" s="1">
+        <v>6090000</v>
+      </c>
+      <c r="I376" s="1">
+        <v>10</v>
+      </c>
+      <c r="J376" s="1">
+        <v>0</v>
+      </c>
+      <c r="K376" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L376" t="s">
+        <v>823</v>
+      </c>
+      <c r="M376" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D377" s="1">
+        <v>0</v>
+      </c>
+      <c r="E377" s="1">
+        <v>1</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1355000000</v>
+      </c>
+      <c r="G377" s="1">
+        <v>11</v>
+      </c>
+      <c r="H377" s="1">
+        <v>6170000</v>
+      </c>
+      <c r="I377" s="1">
+        <v>10</v>
+      </c>
+      <c r="J377" s="1">
+        <v>0</v>
+      </c>
+      <c r="K377" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L377" t="s">
+        <v>823</v>
+      </c>
+      <c r="M377" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D378" s="1">
+        <v>0</v>
+      </c>
+      <c r="E378" s="1">
+        <v>1</v>
+      </c>
+      <c r="F378" s="1">
+        <v>1375000000</v>
+      </c>
+      <c r="G378" s="1">
+        <v>11</v>
+      </c>
+      <c r="H378" s="1">
+        <v>6250000</v>
+      </c>
+      <c r="I378" s="1">
+        <v>10</v>
+      </c>
+      <c r="J378" s="1">
+        <v>0</v>
+      </c>
+      <c r="K378" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L378" t="s">
+        <v>823</v>
+      </c>
+      <c r="M378" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D379" s="1">
+        <v>0</v>
+      </c>
+      <c r="E379" s="1">
+        <v>1</v>
+      </c>
+      <c r="F379" s="1">
+        <v>1395000000</v>
+      </c>
+      <c r="G379" s="1">
+        <v>11</v>
+      </c>
+      <c r="H379" s="1">
+        <v>6330000</v>
+      </c>
+      <c r="I379" s="1">
+        <v>10</v>
+      </c>
+      <c r="J379" s="1">
+        <v>0</v>
+      </c>
+      <c r="K379" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L379" t="s">
+        <v>824</v>
+      </c>
+      <c r="M379" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D380" s="1">
+        <v>0</v>
+      </c>
+      <c r="E380" s="1">
+        <v>1</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1415000000</v>
+      </c>
+      <c r="G380" s="1">
+        <v>11</v>
+      </c>
+      <c r="H380" s="1">
+        <v>6410000</v>
+      </c>
+      <c r="I380" s="1">
+        <v>10</v>
+      </c>
+      <c r="J380" s="1">
+        <v>0</v>
+      </c>
+      <c r="K380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L380" t="s">
+        <v>679</v>
+      </c>
+      <c r="M380" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D381" s="1">
+        <v>0</v>
+      </c>
+      <c r="E381" s="1">
+        <v>1</v>
+      </c>
+      <c r="F381" s="1">
+        <v>1435000000</v>
+      </c>
+      <c r="G381" s="1">
+        <v>11</v>
+      </c>
+      <c r="H381" s="1">
+        <v>6490000</v>
+      </c>
+      <c r="I381" s="1">
+        <v>10</v>
+      </c>
+      <c r="J381" s="1">
+        <v>0</v>
+      </c>
+      <c r="K381" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L381" t="s">
+        <v>767</v>
+      </c>
+      <c r="M381" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D382" s="1">
+        <v>0</v>
+      </c>
+      <c r="E382" s="1">
+        <v>1</v>
+      </c>
+      <c r="F382" s="1">
+        <v>1455000000</v>
+      </c>
+      <c r="G382" s="1">
+        <v>11</v>
+      </c>
+      <c r="H382" s="1">
+        <v>6570000</v>
+      </c>
+      <c r="I382" s="1">
+        <v>10</v>
+      </c>
+      <c r="J382" s="1">
+        <v>0</v>
+      </c>
+      <c r="K382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L382" t="s">
+        <v>768</v>
+      </c>
+      <c r="M382" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D383" s="1">
+        <v>0</v>
+      </c>
+      <c r="E383" s="1">
+        <v>1</v>
+      </c>
+      <c r="F383" s="1">
+        <v>1475000000</v>
+      </c>
+      <c r="G383" s="1">
+        <v>11</v>
+      </c>
+      <c r="H383" s="1">
+        <v>6650000</v>
+      </c>
+      <c r="I383" s="1">
+        <v>10</v>
+      </c>
+      <c r="J383" s="1">
+        <v>0</v>
+      </c>
+      <c r="K383" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L383" t="s">
+        <v>769</v>
+      </c>
+      <c r="M383" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D384" s="1">
+        <v>0</v>
+      </c>
+      <c r="E384" s="1">
+        <v>1</v>
+      </c>
+      <c r="F384" s="1">
+        <v>1495000000</v>
+      </c>
+      <c r="G384" s="1">
+        <v>11</v>
+      </c>
+      <c r="H384" s="1">
+        <v>6730000</v>
+      </c>
+      <c r="I384" s="1">
+        <v>10</v>
+      </c>
+      <c r="J384" s="1">
+        <v>0</v>
+      </c>
+      <c r="K384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L384" t="s">
+        <v>770</v>
+      </c>
+      <c r="M384" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D385" s="1">
+        <v>0</v>
+      </c>
+      <c r="E385" s="1">
+        <v>1</v>
+      </c>
+      <c r="F385" s="1">
+        <v>1515000000</v>
+      </c>
+      <c r="G385" s="1">
+        <v>11</v>
+      </c>
+      <c r="H385" s="1">
+        <v>6810000</v>
+      </c>
+      <c r="I385" s="1">
+        <v>10</v>
+      </c>
+      <c r="J385" s="1">
+        <v>0</v>
+      </c>
+      <c r="K385" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L385" t="s">
+        <v>771</v>
+      </c>
+      <c r="M385" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D386" s="1">
+        <v>0</v>
+      </c>
+      <c r="E386" s="1">
+        <v>1</v>
+      </c>
+      <c r="F386" s="1">
+        <v>1535000000</v>
+      </c>
+      <c r="G386" s="1">
+        <v>11</v>
+      </c>
+      <c r="H386" s="1">
+        <v>6890000</v>
+      </c>
+      <c r="I386" s="1">
+        <v>10</v>
+      </c>
+      <c r="J386" s="1">
+        <v>0</v>
+      </c>
+      <c r="K386" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L386" t="s">
+        <v>772</v>
+      </c>
+      <c r="M386" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D387" s="1">
+        <v>0</v>
+      </c>
+      <c r="E387" s="1">
+        <v>1</v>
+      </c>
+      <c r="F387" s="1">
+        <v>1555000000</v>
+      </c>
+      <c r="G387" s="1">
+        <v>11</v>
+      </c>
+      <c r="H387" s="1">
+        <v>6970000</v>
+      </c>
+      <c r="I387" s="1">
+        <v>10</v>
+      </c>
+      <c r="J387" s="1">
+        <v>0</v>
+      </c>
+      <c r="K387" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="s">
+        <v>773</v>
+      </c>
+      <c r="M387" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D388" s="1">
+        <v>0</v>
+      </c>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1">
+        <v>1575000000</v>
+      </c>
+      <c r="G388" s="1">
+        <v>11</v>
+      </c>
+      <c r="H388" s="1">
+        <v>7050000</v>
+      </c>
+      <c r="I388" s="1">
+        <v>10</v>
+      </c>
+      <c r="J388" s="1">
+        <v>0</v>
+      </c>
+      <c r="K388" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="s">
+        <v>774</v>
+      </c>
+      <c r="M388" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D389" s="1">
+        <v>0</v>
+      </c>
+      <c r="E389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1595000000</v>
+      </c>
+      <c r="G389" s="1">
+        <v>11</v>
+      </c>
+      <c r="H389" s="1">
+        <v>7130000</v>
+      </c>
+      <c r="I389" s="1">
+        <v>10</v>
+      </c>
+      <c r="J389" s="1">
+        <v>0</v>
+      </c>
+      <c r="K389" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="s">
+        <v>775</v>
+      </c>
+      <c r="M389" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D390" s="1">
+        <v>0</v>
+      </c>
+      <c r="E390" s="1">
+        <v>1</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1615000000</v>
+      </c>
+      <c r="G390" s="1">
+        <v>11</v>
+      </c>
+      <c r="H390" s="1">
+        <v>7210000</v>
+      </c>
+      <c r="I390" s="1">
+        <v>10</v>
+      </c>
+      <c r="J390" s="1">
+        <v>0</v>
+      </c>
+      <c r="K390" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="s">
+        <v>776</v>
+      </c>
+      <c r="M390" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D391" s="1">
+        <v>0</v>
+      </c>
+      <c r="E391" s="1">
+        <v>1</v>
+      </c>
+      <c r="F391" s="1">
+        <v>1635000000</v>
+      </c>
+      <c r="G391" s="1">
+        <v>11</v>
+      </c>
+      <c r="H391" s="1">
+        <v>7290000</v>
+      </c>
+      <c r="I391" s="1">
+        <v>10</v>
+      </c>
+      <c r="J391" s="1">
+        <v>0</v>
+      </c>
+      <c r="K391" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="s">
+        <v>865</v>
+      </c>
+      <c r="M391" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D392" s="1">
+        <v>0</v>
+      </c>
+      <c r="E392" s="1">
+        <v>1</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1655000000</v>
+      </c>
+      <c r="G392" s="1">
+        <v>11</v>
+      </c>
+      <c r="H392" s="1">
+        <v>7370000</v>
+      </c>
+      <c r="I392" s="1">
+        <v>10</v>
+      </c>
+      <c r="J392" s="1">
+        <v>0</v>
+      </c>
+      <c r="K392" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="s">
+        <v>866</v>
+      </c>
+      <c r="M392" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D393" s="1">
+        <v>0</v>
+      </c>
+      <c r="E393" s="1">
+        <v>1</v>
+      </c>
+      <c r="F393" s="1">
+        <v>1675000000</v>
+      </c>
+      <c r="G393" s="1">
+        <v>11</v>
+      </c>
+      <c r="H393" s="1">
+        <v>7450000</v>
+      </c>
+      <c r="I393" s="1">
+        <v>10</v>
+      </c>
+      <c r="J393" s="1">
+        <v>0</v>
+      </c>
+      <c r="K393" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="s">
+        <v>797</v>
+      </c>
+      <c r="M393" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D394" s="1">
+        <v>0</v>
+      </c>
+      <c r="E394" s="1">
+        <v>1</v>
+      </c>
+      <c r="F394" s="1">
+        <v>1695000000</v>
+      </c>
+      <c r="G394" s="1">
+        <v>11</v>
+      </c>
+      <c r="H394" s="1">
+        <v>7530000</v>
+      </c>
+      <c r="I394" s="1">
+        <v>10</v>
+      </c>
+      <c r="J394" s="1">
+        <v>0</v>
+      </c>
+      <c r="K394" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="s">
+        <v>798</v>
+      </c>
+      <c r="M394" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D395" s="1">
+        <v>0</v>
+      </c>
+      <c r="E395" s="1">
+        <v>1</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1715000000</v>
+      </c>
+      <c r="G395" s="1">
+        <v>11</v>
+      </c>
+      <c r="H395" s="1">
+        <v>7610000</v>
+      </c>
+      <c r="I395" s="1">
+        <v>10</v>
+      </c>
+      <c r="J395" s="1">
+        <v>0</v>
+      </c>
+      <c r="K395" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="s">
+        <v>799</v>
+      </c>
+      <c r="M395" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D396" s="1">
+        <v>1</v>
+      </c>
+      <c r="E396" s="1">
+        <v>5</v>
+      </c>
+      <c r="F396" s="1">
+        <v>15700000</v>
+      </c>
+      <c r="G396" s="1">
+        <v>10</v>
+      </c>
+      <c r="H396" s="1">
+        <v>77</v>
+      </c>
+      <c r="I396" s="1">
+        <v>10</v>
+      </c>
+      <c r="J396" s="1">
+        <v>0</v>
+      </c>
+      <c r="K396" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M396" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D397" s="1">
+        <v>1</v>
+      </c>
+      <c r="E397" s="1">
+        <v>5</v>
+      </c>
+      <c r="F397" s="1">
+        <v>15900000</v>
+      </c>
+      <c r="G397" s="1">
+        <v>10</v>
+      </c>
+      <c r="H397" s="1">
+        <v>78</v>
+      </c>
+      <c r="I397" s="1">
+        <v>10</v>
+      </c>
+      <c r="J397" s="1">
+        <v>0</v>
+      </c>
+      <c r="K397" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L397" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M397" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D398" s="1">
+        <v>1</v>
+      </c>
+      <c r="E398" s="1">
+        <v>5</v>
+      </c>
+      <c r="F398" s="1">
+        <v>16100000</v>
+      </c>
+      <c r="G398" s="1">
+        <v>10</v>
+      </c>
+      <c r="H398" s="1">
+        <v>79</v>
+      </c>
+      <c r="I398" s="1">
+        <v>10</v>
+      </c>
+      <c r="J398" s="1">
+        <v>0</v>
+      </c>
+      <c r="K398" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L398" t="s">
+        <v>775</v>
+      </c>
+      <c r="M398" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D399" s="1">
+        <v>1</v>
+      </c>
+      <c r="E399" s="1">
+        <v>5</v>
+      </c>
+      <c r="F399" s="1">
+        <v>16300000</v>
+      </c>
+      <c r="G399" s="1">
+        <v>10</v>
+      </c>
+      <c r="H399" s="1">
+        <v>80</v>
+      </c>
+      <c r="I399" s="1">
+        <v>10</v>
+      </c>
+      <c r="J399" s="1">
+        <v>0</v>
+      </c>
+      <c r="K399" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L399" t="s">
+        <v>776</v>
+      </c>
+      <c r="M399" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6008890F-6F99-47B5-9880-543251F571EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D64D3-820E-4162-80DF-CE41FB8916DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3789,6 +3789,30 @@
   </si>
   <si>
     <t>스테이지 8200 돌파</t>
+  </si>
+  <si>
+    <t>title398</t>
+  </si>
+  <si>
+    <t>스테이지 8300 돌파</t>
+  </si>
+  <si>
+    <t>title399</t>
+  </si>
+  <si>
+    <t>스테이지 8400 돌파</t>
+  </si>
+  <si>
+    <t>title400</t>
+  </si>
+  <si>
+    <t>스테이지 8500 돌파</t>
+  </si>
+  <si>
+    <t>title401</t>
+  </si>
+  <si>
+    <t>스테이지 8600 돌파</t>
   </si>
 </sst>
 </file>
@@ -4222,11 +4246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M399"/>
+  <dimension ref="A1:M403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I398" sqref="I398"/>
+      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19653,7 +19677,7 @@
         <v>1</v>
       </c>
       <c r="L376" t="s">
-        <v>823</v>
+        <v>900</v>
       </c>
       <c r="M376" s="1">
         <v>11</v>
@@ -19694,7 +19718,7 @@
         <v>1</v>
       </c>
       <c r="L377" t="s">
-        <v>823</v>
+        <v>909</v>
       </c>
       <c r="M377" s="1">
         <v>11</v>
@@ -19735,7 +19759,7 @@
         <v>1</v>
       </c>
       <c r="L378" t="s">
-        <v>823</v>
+        <v>910</v>
       </c>
       <c r="M378" s="1">
         <v>11</v>
@@ -19776,7 +19800,7 @@
         <v>1</v>
       </c>
       <c r="L379" t="s">
-        <v>824</v>
+        <v>911</v>
       </c>
       <c r="M379" s="1">
         <v>11</v>
@@ -20599,6 +20623,170 @@
         <v>776</v>
       </c>
       <c r="M399" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D400" s="1">
+        <v>1</v>
+      </c>
+      <c r="E400" s="1">
+        <v>5</v>
+      </c>
+      <c r="F400" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="G400" s="1">
+        <v>10</v>
+      </c>
+      <c r="H400" s="1">
+        <v>81</v>
+      </c>
+      <c r="I400" s="1">
+        <v>10</v>
+      </c>
+      <c r="J400" s="1">
+        <v>0</v>
+      </c>
+      <c r="K400" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L400" t="s">
+        <v>869</v>
+      </c>
+      <c r="M400" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D401" s="1">
+        <v>1</v>
+      </c>
+      <c r="E401" s="1">
+        <v>5</v>
+      </c>
+      <c r="F401" s="1">
+        <v>32000000</v>
+      </c>
+      <c r="G401" s="1">
+        <v>10</v>
+      </c>
+      <c r="H401" s="1">
+        <v>82</v>
+      </c>
+      <c r="I401" s="1">
+        <v>10</v>
+      </c>
+      <c r="J401" s="1">
+        <v>0</v>
+      </c>
+      <c r="K401" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L401" t="s">
+        <v>870</v>
+      </c>
+      <c r="M401" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D402" s="1">
+        <v>1</v>
+      </c>
+      <c r="E402" s="1">
+        <v>5</v>
+      </c>
+      <c r="F402" s="1">
+        <v>34000000</v>
+      </c>
+      <c r="G402" s="1">
+        <v>10</v>
+      </c>
+      <c r="H402" s="1">
+        <v>83</v>
+      </c>
+      <c r="I402" s="1">
+        <v>10</v>
+      </c>
+      <c r="J402" s="1">
+        <v>0</v>
+      </c>
+      <c r="K402" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L402" t="s">
+        <v>871</v>
+      </c>
+      <c r="M402" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D403" s="1">
+        <v>1</v>
+      </c>
+      <c r="E403" s="1">
+        <v>5</v>
+      </c>
+      <c r="F403" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="G403" s="1">
+        <v>10</v>
+      </c>
+      <c r="H403" s="1">
+        <v>84</v>
+      </c>
+      <c r="I403" s="1">
+        <v>10</v>
+      </c>
+      <c r="J403" s="1">
+        <v>0</v>
+      </c>
+      <c r="K403" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L403" t="s">
+        <v>872</v>
+      </c>
+      <c r="M403" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D64D3-820E-4162-80DF-CE41FB8916DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF855570-1597-4416-8727-3DA84CA93591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TitleTable!$D$1:$D$403</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3813,6 +3816,50 @@
   </si>
   <si>
     <t>스테이지 8600 돌파</t>
+  </si>
+  <si>
+    <t>필멸 무기(암) 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸 무기(천) 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸 무기(극) 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title402</t>
+  </si>
+  <si>
+    <t>title403</t>
+  </si>
+  <si>
+    <t>title404</t>
+  </si>
+  <si>
+    <t>title405</t>
+  </si>
+  <si>
+    <t>암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4246,28 +4293,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M403"/>
+  <dimension ref="A1:M407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4308,7 +4355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4349,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4390,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4431,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4472,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4513,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4554,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4595,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4636,7 +4683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4677,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4718,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4759,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4800,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4841,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4882,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4923,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4964,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5005,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5046,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5087,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5128,7 +5175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5169,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5210,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5251,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5292,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5333,7 +5380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5374,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5415,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5456,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5497,7 +5544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5538,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5579,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5620,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5661,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5702,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5743,7 +5790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5784,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5825,7 +5872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5866,7 +5913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5907,7 +5954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5948,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5989,7 +6036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6030,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6071,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6112,7 +6159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6153,7 +6200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6194,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6235,7 +6282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6276,7 +6323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6317,7 +6364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6358,7 +6405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6399,7 +6446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6440,7 +6487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6481,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6522,7 +6569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6563,7 +6610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6604,7 +6651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6645,7 +6692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6686,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6727,7 +6774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6768,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6809,7 +6856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6850,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6891,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6932,7 +6979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -6973,7 +7020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7014,7 +7061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7055,7 +7102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7096,7 +7143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7137,7 +7184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7178,7 +7225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7219,7 +7266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7260,7 +7307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7301,7 +7348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7342,7 +7389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7383,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7424,7 +7471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7465,7 +7512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7506,7 +7553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7547,7 +7594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7588,7 +7635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7629,7 +7676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7670,7 +7717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7711,7 +7758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7752,7 +7799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7793,7 +7840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7834,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7875,7 +7922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7916,7 +7963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -7957,7 +8004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -7998,7 +8045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8039,7 +8086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8080,7 +8127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8121,7 +8168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8162,7 +8209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8203,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8244,7 +8291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8285,7 +8332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8326,7 +8373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8367,7 +8414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8408,7 +8455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8449,7 +8496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8490,7 +8537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8531,7 +8578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8572,7 +8619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8613,7 +8660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8654,7 +8701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8695,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8736,7 +8783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8777,7 +8824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8818,7 +8865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8859,7 +8906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8900,7 +8947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8941,7 +8988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -8982,7 +9029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9023,7 +9070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9064,7 +9111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -9105,7 +9152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9146,7 +9193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9187,7 +9234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9228,7 +9275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9269,7 +9316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9310,7 +9357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9351,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9392,7 +9439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9433,7 +9480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9474,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9515,7 +9562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9556,7 +9603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9597,7 +9644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9638,7 +9685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9679,7 +9726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9720,7 +9767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9761,7 +9808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9802,7 +9849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9843,7 +9890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9884,7 +9931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9925,7 +9972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9966,7 +10013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10007,7 +10054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10048,7 +10095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10089,7 +10136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10130,7 +10177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10171,7 +10218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10212,7 +10259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -10253,7 +10300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10294,7 +10341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10335,7 +10382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10376,7 +10423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10417,7 +10464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10458,7 +10505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10499,7 +10546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10540,7 +10587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10581,7 +10628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10622,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10663,7 +10710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10704,7 +10751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10745,7 +10792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10786,7 +10833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10827,7 +10874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -10868,7 +10915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -10909,7 +10956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -10950,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -10991,7 +11038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11032,7 +11079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11073,7 +11120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11114,7 +11161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11155,7 +11202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11196,7 +11243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11237,7 +11284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11278,7 +11325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11319,7 +11366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11360,7 +11407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11401,7 +11448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11442,7 +11489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11483,7 +11530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11524,7 +11571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11565,7 +11612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11606,7 +11653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11647,7 +11694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11688,7 +11735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11729,7 +11776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -11770,7 +11817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -11811,7 +11858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11852,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -11893,7 +11940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11934,7 +11981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -11975,7 +12022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12016,7 +12063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12057,7 +12104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12098,7 +12145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12139,7 +12186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12180,7 +12227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12221,7 +12268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12262,7 +12309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12303,7 +12350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12344,7 +12391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12385,7 +12432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12426,7 +12473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12467,7 +12514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12508,7 +12555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12549,7 +12596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12590,7 +12637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12631,7 +12678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12672,7 +12719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12713,7 +12760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -12754,7 +12801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12795,7 +12842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12836,7 +12883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12877,7 +12924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12918,7 +12965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12959,7 +13006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13000,7 +13047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13041,7 +13088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13082,7 +13129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13123,7 +13170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13164,7 +13211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -13205,7 +13252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13246,7 +13293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13287,7 +13334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13328,7 +13375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13369,7 +13416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13410,7 +13457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13451,7 +13498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13492,7 +13539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13533,7 +13580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13574,7 +13621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13615,7 +13662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13656,7 +13703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13697,7 +13744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13738,7 +13785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -13779,7 +13826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13820,7 +13867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13861,7 +13908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13902,7 +13949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13943,7 +13990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -13984,7 +14031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14025,7 +14072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14066,7 +14113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14107,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14148,7 +14195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14189,7 +14236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14230,7 +14277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14271,7 +14318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14312,7 +14359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14353,7 +14400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14394,7 +14441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14435,7 +14482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14476,7 +14523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14517,7 +14564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14558,7 +14605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14599,7 +14646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14640,7 +14687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14681,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14722,7 +14769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14763,7 +14810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14804,7 +14851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14845,7 +14892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14886,7 +14933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14927,7 +14974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14968,7 +15015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15009,7 +15056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15050,7 +15097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -15091,7 +15138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -15132,7 +15179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -15173,7 +15220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -15214,7 +15261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15255,7 +15302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15296,7 +15343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15337,7 +15384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15378,7 +15425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15419,7 +15466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -15460,7 +15507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15501,7 +15548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15542,7 +15589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15583,7 +15630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15624,7 +15671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15665,7 +15712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15706,7 +15753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15747,7 +15794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15788,7 +15835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15829,7 +15876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15870,7 +15917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15911,7 +15958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15952,7 +15999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -15993,7 +16040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16034,7 +16081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16075,7 +16122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16116,7 +16163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16157,7 +16204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16198,7 +16245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16239,7 +16286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16280,7 +16327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16321,7 +16368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16362,7 +16409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16403,7 +16450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16444,7 +16491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16485,7 +16532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16526,7 +16573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16567,7 +16614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16608,7 +16655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -16649,7 +16696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -16690,7 +16737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -16731,7 +16778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -16772,7 +16819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -16813,7 +16860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -16854,7 +16901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -16895,7 +16942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -16936,7 +16983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -16977,7 +17024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17018,7 +17065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17059,7 +17106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17100,7 +17147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17141,7 +17188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17182,7 +17229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17223,7 +17270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17264,7 +17311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17305,7 +17352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17346,7 +17393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17387,7 +17434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17428,7 +17475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17469,7 +17516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17510,7 +17557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17551,7 +17598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17592,7 +17639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17633,7 +17680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17674,7 +17721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17715,7 +17762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17756,7 +17803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17797,7 +17844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17838,7 +17885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17879,7 +17926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17920,7 +17967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17961,7 +18008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -18002,7 +18049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
         <v>334</v>
       </c>
@@ -18043,7 +18090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -18084,7 +18131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -18125,7 +18172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -18166,7 +18213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -18207,7 +18254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18248,7 +18295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18289,7 +18336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18330,7 +18377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18371,7 +18418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18412,7 +18459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18453,7 +18500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18494,7 +18541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18535,7 +18582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18576,7 +18623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18617,7 +18664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18658,7 +18705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18699,7 +18746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18740,7 +18787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18781,7 +18828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18822,7 +18869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18863,7 +18910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18904,7 +18951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18945,7 +18992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -18986,7 +19033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -19027,7 +19074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -19068,7 +19115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -19109,7 +19156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <v>361</v>
       </c>
@@ -19150,7 +19197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -19191,7 +19238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -19232,7 +19279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -19273,7 +19320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -19314,7 +19361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -19355,7 +19402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19396,7 +19443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19437,7 +19484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19478,7 +19525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19519,7 +19566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19560,7 +19607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19601,7 +19648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19642,7 +19689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -19683,7 +19730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -19724,7 +19771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -19765,7 +19812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -19806,7 +19853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -19847,7 +19894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -19888,7 +19935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -19929,7 +19976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -19970,7 +20017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -20011,7 +20058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -20052,7 +20099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -20093,7 +20140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -20134,7 +20181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -20175,7 +20222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -20216,7 +20263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20257,7 +20304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20298,7 +20345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20339,7 +20386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20380,7 +20427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20421,7 +20468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20462,7 +20509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20503,7 +20550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20544,7 +20591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20585,7 +20632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -20626,7 +20673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -20667,7 +20714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -20708,7 +20755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -20749,7 +20796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -20790,7 +20837,172 @@
         <v>11</v>
       </c>
     </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D404">
+        <v>2</v>
+      </c>
+      <c r="E404">
+        <v>52</v>
+      </c>
+      <c r="F404">
+        <v>1000</v>
+      </c>
+      <c r="G404">
+        <v>27</v>
+      </c>
+      <c r="H404">
+        <v>1</v>
+      </c>
+      <c r="I404">
+        <v>10</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404" t="b">
+        <v>1</v>
+      </c>
+      <c r="L404" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M404">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D405">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>52</v>
+      </c>
+      <c r="F405">
+        <v>2000</v>
+      </c>
+      <c r="G405">
+        <v>27</v>
+      </c>
+      <c r="H405">
+        <v>2</v>
+      </c>
+      <c r="I405">
+        <v>10</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405" t="b">
+        <v>1</v>
+      </c>
+      <c r="L405" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M405">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D406">
+        <v>2</v>
+      </c>
+      <c r="E406">
+        <v>52</v>
+      </c>
+      <c r="F406">
+        <v>3000</v>
+      </c>
+      <c r="G406">
+        <v>27</v>
+      </c>
+      <c r="H406">
+        <v>3</v>
+      </c>
+      <c r="I406">
+        <v>10</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406" t="b">
+        <v>1</v>
+      </c>
+      <c r="L406" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M406">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407">
+        <v>52</v>
+      </c>
+      <c r="F407">
+        <v>4000</v>
+      </c>
+      <c r="G407">
+        <v>27</v>
+      </c>
+      <c r="H407">
+        <v>4</v>
+      </c>
+      <c r="I407">
+        <v>10</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407" t="b">
+        <v>1</v>
+      </c>
+      <c r="L407" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M407">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D403" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -20806,12 +21018,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -20819,7 +21031,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20832,7 +21044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20845,7 +21057,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20858,7 +21070,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20871,7 +21083,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20884,7 +21096,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20897,7 +21109,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20910,7 +21122,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20923,7 +21135,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20936,7 +21148,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20949,7 +21161,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20962,7 +21174,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20975,7 +21187,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20988,7 +21200,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21001,7 +21213,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21014,7 +21226,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21027,7 +21239,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21040,7 +21252,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21053,7 +21265,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -21066,7 +21278,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -21079,7 +21291,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21092,7 +21304,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -21105,7 +21317,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21118,7 +21330,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -21131,7 +21343,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -21144,7 +21356,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21157,7 +21369,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21170,7 +21382,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21183,7 +21395,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21196,7 +21408,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21209,7 +21421,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -21222,7 +21434,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -21235,7 +21447,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -21248,7 +21460,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21261,7 +21473,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21274,7 +21486,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -21287,7 +21499,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -21300,7 +21512,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21313,7 +21525,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21326,7 +21538,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -21339,7 +21551,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -21352,7 +21564,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21365,7 +21577,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21378,7 +21590,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -21391,7 +21603,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -21404,7 +21616,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -21417,7 +21629,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -21430,7 +21642,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -21443,7 +21655,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -21456,7 +21668,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -21469,7 +21681,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -21482,7 +21694,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -21495,7 +21707,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -21508,7 +21720,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -21521,7 +21733,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -21534,7 +21746,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21547,7 +21759,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21560,7 +21772,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21573,7 +21785,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -21586,7 +21798,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -21599,7 +21811,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -21612,7 +21824,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -21625,7 +21837,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -21638,7 +21850,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -21651,7 +21863,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -21664,7 +21876,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -21677,7 +21889,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -21690,7 +21902,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -21703,7 +21915,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -21716,7 +21928,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -21729,7 +21941,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -21742,7 +21954,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -21755,7 +21967,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -21768,7 +21980,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -21781,7 +21993,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -21794,7 +22006,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -21807,7 +22019,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -21820,7 +22032,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -21833,7 +22045,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -21846,7 +22058,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -21859,7 +22071,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -21872,7 +22084,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -21885,7 +22097,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -21898,7 +22110,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -21911,7 +22123,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -21924,7 +22136,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -21937,7 +22149,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -21950,7 +22162,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -21963,7 +22175,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -21976,7 +22188,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -21989,7 +22201,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -22002,7 +22214,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -22015,7 +22227,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -22028,7 +22240,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -22041,7 +22253,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -22054,7 +22266,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -22067,7 +22279,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -22080,7 +22292,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -22093,7 +22305,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -22106,7 +22318,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -22119,7 +22331,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF855570-1597-4416-8727-3DA84CA93591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE851F-3A83-4DD1-87E4-88911756F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -3830,10 +3830,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뇌검 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title402</t>
   </si>
   <si>
@@ -3859,6 +3855,10 @@
   </si>
   <si>
     <t>뇌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라의 검 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4296,25 +4296,25 @@
   <dimension ref="A1:M407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G407" sqref="G407"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H405" sqref="H405"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8045,7 +8045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9029,7 +9029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9070,7 +9070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9316,7 +9316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10054,7 +10054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11202,7 +11202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12637,7 +12637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -12801,7 +12801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13129,7 +13129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -13867,7 +13867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -13908,7 +13908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14687,7 +14687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15343,7 +15343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15425,7 +15425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15712,7 +15712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15753,7 +15753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -15917,7 +15917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -15999,7 +15999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16122,7 +16122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16163,7 +16163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16532,7 +16532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16655,7 +16655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17024,7 +17024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17229,7 +17229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17311,7 +17311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17352,7 +17352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17721,7 +17721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17762,7 +17762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17844,7 +17844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>334</v>
       </c>
@@ -18090,7 +18090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -18131,7 +18131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -18213,7 +18213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -18254,7 +18254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18582,7 +18582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18705,7 +18705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18869,7 +18869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18910,7 +18910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -19033,7 +19033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -19115,7 +19115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>361</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -19238,7 +19238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -19279,7 +19279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19443,7 +19443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19484,7 +19484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19525,7 +19525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19566,7 +19566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -19712,7 +19712,7 @@
         <v>11</v>
       </c>
       <c r="H376" s="1">
-        <v>6090000</v>
+        <v>12200000</v>
       </c>
       <c r="I376" s="1">
         <v>10</v>
@@ -19730,7 +19730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -19753,7 +19753,7 @@
         <v>11</v>
       </c>
       <c r="H377" s="1">
-        <v>6170000</v>
+        <v>12400000</v>
       </c>
       <c r="I377" s="1">
         <v>10</v>
@@ -19771,7 +19771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>11</v>
       </c>
       <c r="H378" s="1">
-        <v>6250000</v>
+        <v>12600000</v>
       </c>
       <c r="I378" s="1">
         <v>10</v>
@@ -19812,7 +19812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>11</v>
       </c>
       <c r="H379" s="1">
-        <v>6330000</v>
+        <v>12800000</v>
       </c>
       <c r="I379" s="1">
         <v>10</v>
@@ -19853,7 +19853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>11</v>
       </c>
       <c r="H380" s="1">
-        <v>6410000</v>
+        <v>13000000</v>
       </c>
       <c r="I380" s="1">
         <v>10</v>
@@ -19894,7 +19894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -19917,7 +19917,7 @@
         <v>11</v>
       </c>
       <c r="H381" s="1">
-        <v>6490000</v>
+        <v>13200000</v>
       </c>
       <c r="I381" s="1">
         <v>10</v>
@@ -19935,7 +19935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>11</v>
       </c>
       <c r="H382" s="1">
-        <v>6570000</v>
+        <v>13400000</v>
       </c>
       <c r="I382" s="1">
         <v>10</v>
@@ -19976,7 +19976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -19999,7 +19999,7 @@
         <v>11</v>
       </c>
       <c r="H383" s="1">
-        <v>6650000</v>
+        <v>13600000</v>
       </c>
       <c r="I383" s="1">
         <v>10</v>
@@ -20017,7 +20017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>11</v>
       </c>
       <c r="H384" s="1">
-        <v>6730000</v>
+        <v>13800000</v>
       </c>
       <c r="I384" s="1">
         <v>10</v>
@@ -20058,7 +20058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -20081,7 +20081,7 @@
         <v>11</v>
       </c>
       <c r="H385" s="1">
-        <v>6810000</v>
+        <v>14000000</v>
       </c>
       <c r="I385" s="1">
         <v>10</v>
@@ -20099,7 +20099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -20122,7 +20122,7 @@
         <v>11</v>
       </c>
       <c r="H386" s="1">
-        <v>6890000</v>
+        <v>14200000</v>
       </c>
       <c r="I386" s="1">
         <v>10</v>
@@ -20140,7 +20140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>11</v>
       </c>
       <c r="H387" s="1">
-        <v>6970000</v>
+        <v>14400000</v>
       </c>
       <c r="I387" s="1">
         <v>10</v>
@@ -20181,7 +20181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -20204,7 +20204,7 @@
         <v>11</v>
       </c>
       <c r="H388" s="1">
-        <v>7050000</v>
+        <v>14600000</v>
       </c>
       <c r="I388" s="1">
         <v>10</v>
@@ -20222,7 +20222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -20245,7 +20245,7 @@
         <v>11</v>
       </c>
       <c r="H389" s="1">
-        <v>7130000</v>
+        <v>14800000</v>
       </c>
       <c r="I389" s="1">
         <v>10</v>
@@ -20263,7 +20263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20286,7 +20286,7 @@
         <v>11</v>
       </c>
       <c r="H390" s="1">
-        <v>7210000</v>
+        <v>15000000</v>
       </c>
       <c r="I390" s="1">
         <v>10</v>
@@ -20304,7 +20304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>11</v>
       </c>
       <c r="H391" s="1">
-        <v>7290000</v>
+        <v>15200000</v>
       </c>
       <c r="I391" s="1">
         <v>10</v>
@@ -20345,7 +20345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>11</v>
       </c>
       <c r="H392" s="1">
-        <v>7370000</v>
+        <v>15400000</v>
       </c>
       <c r="I392" s="1">
         <v>10</v>
@@ -20386,7 +20386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20409,7 +20409,7 @@
         <v>11</v>
       </c>
       <c r="H393" s="1">
-        <v>7450000</v>
+        <v>15600000</v>
       </c>
       <c r="I393" s="1">
         <v>10</v>
@@ -20427,7 +20427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>11</v>
       </c>
       <c r="H394" s="1">
-        <v>7530000</v>
+        <v>15800000</v>
       </c>
       <c r="I394" s="1">
         <v>10</v>
@@ -20468,7 +20468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>11</v>
       </c>
       <c r="H395" s="1">
-        <v>7610000</v>
+        <v>16000000</v>
       </c>
       <c r="I395" s="1">
         <v>10</v>
@@ -20509,7 +20509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20532,7 +20532,7 @@
         <v>10</v>
       </c>
       <c r="H396" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I396" s="1">
         <v>10</v>
@@ -20550,7 +20550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20573,7 +20573,7 @@
         <v>10</v>
       </c>
       <c r="H397" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I397" s="1">
         <v>10</v>
@@ -20591,7 +20591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>10</v>
       </c>
       <c r="H398" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I398" s="1">
         <v>10</v>
@@ -20632,7 +20632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -20655,7 +20655,7 @@
         <v>10</v>
       </c>
       <c r="H399" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I399" s="1">
         <v>10</v>
@@ -20673,7 +20673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>10</v>
       </c>
       <c r="H400" s="1">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="I400" s="1">
         <v>10</v>
@@ -20714,7 +20714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>10</v>
       </c>
       <c r="H401" s="1">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="I401" s="1">
         <v>10</v>
@@ -20755,7 +20755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>10</v>
       </c>
       <c r="H402" s="1">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I402" s="1">
         <v>10</v>
@@ -20796,7 +20796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -20819,7 +20819,7 @@
         <v>10</v>
       </c>
       <c r="H403" s="1">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I403" s="1">
         <v>10</v>
@@ -20837,12 +20837,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C404" t="s">
         <v>1106</v>
@@ -20851,39 +20851,39 @@
         <v>2</v>
       </c>
       <c r="E404">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F404">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="G404">
         <v>27</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I404">
         <v>10</v>
       </c>
-      <c r="J404">
+      <c r="J404" s="1">
         <v>0</v>
       </c>
       <c r="K404" t="b">
         <v>1</v>
       </c>
       <c r="L404" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M404">
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C405" t="s">
         <v>1107</v>
@@ -20892,39 +20892,39 @@
         <v>2</v>
       </c>
       <c r="E405">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F405">
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="G405">
         <v>27</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I405">
         <v>10</v>
       </c>
-      <c r="J405">
+      <c r="J405" s="1">
         <v>0</v>
       </c>
       <c r="K405" t="b">
         <v>1</v>
       </c>
       <c r="L405" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="M405">
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C406" t="s">
         <v>1108</v>
@@ -20933,69 +20933,69 @@
         <v>2</v>
       </c>
       <c r="E406">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F406">
-        <v>3000</v>
+        <v>11000</v>
       </c>
       <c r="G406">
         <v>27</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I406">
         <v>10</v>
       </c>
-      <c r="J406">
+      <c r="J406" s="1">
         <v>0</v>
       </c>
       <c r="K406" t="b">
         <v>1</v>
       </c>
       <c r="L406" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M406">
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C407" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="D407">
         <v>2</v>
       </c>
       <c r="E407">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F407">
-        <v>4000</v>
+        <v>13000</v>
       </c>
       <c r="G407">
         <v>27</v>
       </c>
       <c r="H407">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I407">
         <v>10</v>
       </c>
-      <c r="J407">
+      <c r="J407" s="1">
         <v>0</v>
       </c>
       <c r="K407" t="b">
         <v>1</v>
       </c>
       <c r="L407" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="M407">
         <v>11</v>
@@ -21018,12 +21018,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21057,7 +21057,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -21070,7 +21070,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -21109,7 +21109,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -21122,7 +21122,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -21135,7 +21135,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -21161,7 +21161,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -21187,7 +21187,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -21239,7 +21239,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -21291,7 +21291,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -21317,7 +21317,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -21330,7 +21330,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -21343,7 +21343,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -21356,7 +21356,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -21421,7 +21421,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -21434,7 +21434,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -21447,7 +21447,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -21473,7 +21473,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -21525,7 +21525,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -21551,7 +21551,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -21564,7 +21564,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -21629,7 +21629,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -21655,7 +21655,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -21668,7 +21668,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -21681,7 +21681,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -21694,7 +21694,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -21707,7 +21707,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -21720,7 +21720,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -21733,7 +21733,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -21746,7 +21746,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -21759,7 +21759,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -21772,7 +21772,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -21785,7 +21785,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -21811,7 +21811,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -21824,7 +21824,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -21876,7 +21876,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -21915,7 +21915,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -21967,7 +21967,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -21993,7 +21993,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -22006,7 +22006,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -22019,7 +22019,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -22032,7 +22032,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -22045,7 +22045,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -22071,7 +22071,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -22084,7 +22084,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -22097,7 +22097,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -22110,7 +22110,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -22149,7 +22149,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -22201,7 +22201,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -22227,7 +22227,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -22240,7 +22240,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -22266,7 +22266,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -22331,7 +22331,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE851F-3A83-4DD1-87E4-88911756F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FFB83-4A60-498E-9EA5-D7B704338ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3860,6 +3860,32 @@
   <si>
     <t>인드라의 검 획득</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title406</t>
+  </si>
+  <si>
+    <t>title407</t>
+  </si>
+  <si>
+    <t>title408</t>
+  </si>
+  <si>
+    <t>title409</t>
+  </si>
+  <si>
+    <t>스테이지 8700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 8800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 8900 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 9000 돌파</t>
   </si>
 </sst>
 </file>
@@ -4293,11 +4319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M407"/>
+  <dimension ref="A1:M411"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H405" sqref="H405"/>
+      <selection pane="bottomLeft" activeCell="M409" sqref="M409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20998,6 +21024,170 @@
         <v>1116</v>
       </c>
       <c r="M407">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D408" s="1">
+        <v>1</v>
+      </c>
+      <c r="E408" s="1">
+        <v>5</v>
+      </c>
+      <c r="F408" s="1">
+        <v>38000000</v>
+      </c>
+      <c r="G408" s="1">
+        <v>10</v>
+      </c>
+      <c r="H408" s="1">
+        <v>96</v>
+      </c>
+      <c r="I408" s="1">
+        <v>10</v>
+      </c>
+      <c r="J408" s="1">
+        <v>0</v>
+      </c>
+      <c r="K408" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L408" t="s">
+        <v>911</v>
+      </c>
+      <c r="M408" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D409" s="1">
+        <v>1</v>
+      </c>
+      <c r="E409" s="1">
+        <v>5</v>
+      </c>
+      <c r="F409" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="G409" s="1">
+        <v>10</v>
+      </c>
+      <c r="H409" s="1">
+        <v>98</v>
+      </c>
+      <c r="I409" s="1">
+        <v>10</v>
+      </c>
+      <c r="J409" s="1">
+        <v>0</v>
+      </c>
+      <c r="K409" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L409" t="s">
+        <v>679</v>
+      </c>
+      <c r="M409" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D410" s="1">
+        <v>1</v>
+      </c>
+      <c r="E410" s="1">
+        <v>5</v>
+      </c>
+      <c r="F410" s="1">
+        <v>42000000</v>
+      </c>
+      <c r="G410" s="1">
+        <v>10</v>
+      </c>
+      <c r="H410" s="1">
+        <v>100</v>
+      </c>
+      <c r="I410" s="1">
+        <v>10</v>
+      </c>
+      <c r="J410" s="1">
+        <v>0</v>
+      </c>
+      <c r="K410" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L410" t="s">
+        <v>767</v>
+      </c>
+      <c r="M410" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D411" s="1">
+        <v>1</v>
+      </c>
+      <c r="E411" s="1">
+        <v>5</v>
+      </c>
+      <c r="F411" s="1">
+        <v>44000000</v>
+      </c>
+      <c r="G411" s="1">
+        <v>10</v>
+      </c>
+      <c r="H411" s="1">
+        <v>102</v>
+      </c>
+      <c r="I411" s="1">
+        <v>10</v>
+      </c>
+      <c r="J411" s="1">
+        <v>0</v>
+      </c>
+      <c r="K411" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L411" t="s">
+        <v>768</v>
+      </c>
+      <c r="M411" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FFB83-4A60-498E-9EA5-D7B704338ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BFD17-9683-48AA-8A76-54755BDA1484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1146">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3886,6 +3886,68 @@
   </si>
   <si>
     <t>스테이지 9000 돌파</t>
+  </si>
+  <si>
+    <t>title410</t>
+  </si>
+  <si>
+    <t>title411</t>
+  </si>
+  <si>
+    <t>title412</t>
+  </si>
+  <si>
+    <t>title413</t>
+  </si>
+  <si>
+    <t>title414</t>
+  </si>
+  <si>
+    <t>title415</t>
+  </si>
+  <si>
+    <t>title416</t>
+  </si>
+  <si>
+    <t>title417</t>
+  </si>
+  <si>
+    <t>title418</t>
+  </si>
+  <si>
+    <t>title419</t>
+  </si>
+  <si>
+    <t>레벨 1010000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1030000달성</t>
+  </si>
+  <si>
+    <t>레벨 1040000달성</t>
+  </si>
+  <si>
+    <t>레벨 1050000달성</t>
+  </si>
+  <si>
+    <t>레벨 1060000달성</t>
+  </si>
+  <si>
+    <t>레벨 1070000달성</t>
+  </si>
+  <si>
+    <t>레벨 1080000달성</t>
+  </si>
+  <si>
+    <t>레벨 1090000달성</t>
+  </si>
+  <si>
+    <t>레벨 1100000달성</t>
+  </si>
+  <si>
+    <t>레벨 1020000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4319,11 +4381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M411"/>
+  <dimension ref="A1:M421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M409" sqref="M409"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J405" sqref="J405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21188,6 +21250,416 @@
         <v>768</v>
       </c>
       <c r="M411" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D412" s="1">
+        <v>0</v>
+      </c>
+      <c r="E412" s="1">
+        <v>1</v>
+      </c>
+      <c r="F412" s="1">
+        <v>1735000000</v>
+      </c>
+      <c r="G412" s="1">
+        <v>11</v>
+      </c>
+      <c r="H412" s="1">
+        <v>16200000</v>
+      </c>
+      <c r="I412" s="1">
+        <v>10</v>
+      </c>
+      <c r="J412" s="1">
+        <v>0</v>
+      </c>
+      <c r="K412" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L412" t="s">
+        <v>771</v>
+      </c>
+      <c r="M412" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D413" s="1">
+        <v>0</v>
+      </c>
+      <c r="E413" s="1">
+        <v>1</v>
+      </c>
+      <c r="F413" s="1">
+        <v>1755000000</v>
+      </c>
+      <c r="G413" s="1">
+        <v>11</v>
+      </c>
+      <c r="H413" s="1">
+        <v>16400000</v>
+      </c>
+      <c r="I413" s="1">
+        <v>10</v>
+      </c>
+      <c r="J413" s="1">
+        <v>0</v>
+      </c>
+      <c r="K413" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L413" t="s">
+        <v>772</v>
+      </c>
+      <c r="M413" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D414" s="1">
+        <v>0</v>
+      </c>
+      <c r="E414" s="1">
+        <v>1</v>
+      </c>
+      <c r="F414" s="1">
+        <v>1775000000</v>
+      </c>
+      <c r="G414" s="1">
+        <v>11</v>
+      </c>
+      <c r="H414" s="1">
+        <v>16600000</v>
+      </c>
+      <c r="I414" s="1">
+        <v>10</v>
+      </c>
+      <c r="J414" s="1">
+        <v>0</v>
+      </c>
+      <c r="K414" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L414" t="s">
+        <v>773</v>
+      </c>
+      <c r="M414" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D415" s="1">
+        <v>0</v>
+      </c>
+      <c r="E415" s="1">
+        <v>1</v>
+      </c>
+      <c r="F415" s="1">
+        <v>1795000000</v>
+      </c>
+      <c r="G415" s="1">
+        <v>11</v>
+      </c>
+      <c r="H415" s="1">
+        <v>16800000</v>
+      </c>
+      <c r="I415" s="1">
+        <v>10</v>
+      </c>
+      <c r="J415" s="1">
+        <v>0</v>
+      </c>
+      <c r="K415" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L415" t="s">
+        <v>774</v>
+      </c>
+      <c r="M415" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D416" s="1">
+        <v>0</v>
+      </c>
+      <c r="E416" s="1">
+        <v>1</v>
+      </c>
+      <c r="F416" s="1">
+        <v>1815000000</v>
+      </c>
+      <c r="G416" s="1">
+        <v>11</v>
+      </c>
+      <c r="H416" s="1">
+        <v>17000000</v>
+      </c>
+      <c r="I416" s="1">
+        <v>10</v>
+      </c>
+      <c r="J416" s="1">
+        <v>0</v>
+      </c>
+      <c r="K416" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L416" t="s">
+        <v>775</v>
+      </c>
+      <c r="M416" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D417" s="1">
+        <v>0</v>
+      </c>
+      <c r="E417" s="1">
+        <v>1</v>
+      </c>
+      <c r="F417" s="1">
+        <v>1835000000</v>
+      </c>
+      <c r="G417" s="1">
+        <v>11</v>
+      </c>
+      <c r="H417" s="1">
+        <v>17200000</v>
+      </c>
+      <c r="I417" s="1">
+        <v>10</v>
+      </c>
+      <c r="J417" s="1">
+        <v>0</v>
+      </c>
+      <c r="K417" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L417" t="s">
+        <v>776</v>
+      </c>
+      <c r="M417" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D418" s="1">
+        <v>0</v>
+      </c>
+      <c r="E418" s="1">
+        <v>1</v>
+      </c>
+      <c r="F418" s="1">
+        <v>1855000000</v>
+      </c>
+      <c r="G418" s="1">
+        <v>11</v>
+      </c>
+      <c r="H418" s="1">
+        <v>17400000</v>
+      </c>
+      <c r="I418" s="1">
+        <v>10</v>
+      </c>
+      <c r="J418" s="1">
+        <v>0</v>
+      </c>
+      <c r="K418" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L418" t="s">
+        <v>865</v>
+      </c>
+      <c r="M418" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D419" s="1">
+        <v>0</v>
+      </c>
+      <c r="E419" s="1">
+        <v>1</v>
+      </c>
+      <c r="F419" s="1">
+        <v>1875000000</v>
+      </c>
+      <c r="G419" s="1">
+        <v>11</v>
+      </c>
+      <c r="H419" s="1">
+        <v>17600000</v>
+      </c>
+      <c r="I419" s="1">
+        <v>10</v>
+      </c>
+      <c r="J419" s="1">
+        <v>0</v>
+      </c>
+      <c r="K419" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L419" t="s">
+        <v>866</v>
+      </c>
+      <c r="M419" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D420" s="1">
+        <v>0</v>
+      </c>
+      <c r="E420" s="1">
+        <v>1</v>
+      </c>
+      <c r="F420" s="1">
+        <v>1895000000</v>
+      </c>
+      <c r="G420" s="1">
+        <v>11</v>
+      </c>
+      <c r="H420" s="1">
+        <v>17800000</v>
+      </c>
+      <c r="I420" s="1">
+        <v>10</v>
+      </c>
+      <c r="J420" s="1">
+        <v>0</v>
+      </c>
+      <c r="K420" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L420" t="s">
+        <v>797</v>
+      </c>
+      <c r="M420" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D421" s="1">
+        <v>0</v>
+      </c>
+      <c r="E421" s="1">
+        <v>1</v>
+      </c>
+      <c r="F421" s="1">
+        <v>1915000000</v>
+      </c>
+      <c r="G421" s="1">
+        <v>11</v>
+      </c>
+      <c r="H421" s="1">
+        <v>18000000</v>
+      </c>
+      <c r="I421" s="1">
+        <v>10</v>
+      </c>
+      <c r="J421" s="1">
+        <v>0</v>
+      </c>
+      <c r="K421" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L421" t="s">
+        <v>798</v>
+      </c>
+      <c r="M421" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595BFD17-9683-48AA-8A76-54755BDA1484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989810E3-EA79-4048-8B77-A043CDCF441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1150">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3947,6 +3947,20 @@
   </si>
   <si>
     <t>레벨 1020000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title420</t>
+  </si>
+  <si>
+    <t>title421</t>
+  </si>
+  <si>
+    <t>스테이지 9100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 9200 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4381,11 +4395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M421"/>
+  <dimension ref="A1:M423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J405" sqref="J405"/>
+      <selection pane="bottomLeft" activeCell="M413" sqref="M413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21660,6 +21674,88 @@
         <v>798</v>
       </c>
       <c r="M421" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D422" s="1">
+        <v>1</v>
+      </c>
+      <c r="E422" s="1">
+        <v>5</v>
+      </c>
+      <c r="F422" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="G422" s="1">
+        <v>10</v>
+      </c>
+      <c r="H422" s="1">
+        <v>104</v>
+      </c>
+      <c r="I422" s="1">
+        <v>10</v>
+      </c>
+      <c r="J422" s="1">
+        <v>0</v>
+      </c>
+      <c r="K422" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L422" t="s">
+        <v>865</v>
+      </c>
+      <c r="M422" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D423" s="1">
+        <v>1</v>
+      </c>
+      <c r="E423" s="1">
+        <v>5</v>
+      </c>
+      <c r="F423" s="1">
+        <v>48000000</v>
+      </c>
+      <c r="G423" s="1">
+        <v>10</v>
+      </c>
+      <c r="H423" s="1">
+        <v>106</v>
+      </c>
+      <c r="I423" s="1">
+        <v>10</v>
+      </c>
+      <c r="J423" s="1">
+        <v>0</v>
+      </c>
+      <c r="K423" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L423" t="s">
+        <v>866</v>
+      </c>
+      <c r="M423" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989810E3-EA79-4048-8B77-A043CDCF441C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183CE3C-5CCC-4006-BAE5-FC98747AF38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1177">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3961,6 +3961,92 @@
   </si>
   <si>
     <t>스테이지 9200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title422</t>
+  </si>
+  <si>
+    <t>스테이지 9300 돌파</t>
+  </si>
+  <si>
+    <t>title423</t>
+  </si>
+  <si>
+    <t>스테이지 9400 돌파</t>
+  </si>
+  <si>
+    <t>title424</t>
+  </si>
+  <si>
+    <t>title425</t>
+  </si>
+  <si>
+    <t>title426</t>
+  </si>
+  <si>
+    <t>title427</t>
+  </si>
+  <si>
+    <t>title428</t>
+  </si>
+  <si>
+    <t>title429</t>
+  </si>
+  <si>
+    <t>title430</t>
+  </si>
+  <si>
+    <t>title431</t>
+  </si>
+  <si>
+    <t>title432</t>
+  </si>
+  <si>
+    <t>title433</t>
+  </si>
+  <si>
+    <t>레벨 1110000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1120000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1130000달성</t>
+  </si>
+  <si>
+    <t>레벨 1140000달성</t>
+  </si>
+  <si>
+    <t>레벨 1150000달성</t>
+  </si>
+  <si>
+    <t>레벨 1160000달성</t>
+  </si>
+  <si>
+    <t>레벨 1170000달성</t>
+  </si>
+  <si>
+    <t>레벨 1180000달성</t>
+  </si>
+  <si>
+    <t>레벨 1190000달성</t>
+  </si>
+  <si>
+    <t>레벨 1200000달성</t>
+  </si>
+  <si>
+    <t>title434</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타의 검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4395,11 +4481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M423"/>
+  <dimension ref="A1:M436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M413" sqref="M413"/>
+      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21756,6 +21842,539 @@
         <v>866</v>
       </c>
       <c r="M423" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D424" s="1">
+        <v>1</v>
+      </c>
+      <c r="E424" s="1">
+        <v>5</v>
+      </c>
+      <c r="F424" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="G424" s="1">
+        <v>10</v>
+      </c>
+      <c r="H424" s="1">
+        <v>108</v>
+      </c>
+      <c r="I424" s="1">
+        <v>10</v>
+      </c>
+      <c r="J424" s="1">
+        <v>0</v>
+      </c>
+      <c r="K424" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L424" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M424" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D425" s="1">
+        <v>1</v>
+      </c>
+      <c r="E425" s="1">
+        <v>5</v>
+      </c>
+      <c r="F425" s="1">
+        <v>52000000</v>
+      </c>
+      <c r="G425" s="1">
+        <v>10</v>
+      </c>
+      <c r="H425" s="1">
+        <v>110</v>
+      </c>
+      <c r="I425" s="1">
+        <v>10</v>
+      </c>
+      <c r="J425" s="1">
+        <v>0</v>
+      </c>
+      <c r="K425" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L425" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M425" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D426" s="1">
+        <v>0</v>
+      </c>
+      <c r="E426" s="1">
+        <v>1</v>
+      </c>
+      <c r="F426" s="1">
+        <v>1935000000</v>
+      </c>
+      <c r="G426" s="1">
+        <v>11</v>
+      </c>
+      <c r="H426" s="1">
+        <v>18200000</v>
+      </c>
+      <c r="I426" s="1">
+        <v>10</v>
+      </c>
+      <c r="J426" s="1">
+        <v>0</v>
+      </c>
+      <c r="K426" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L426" t="s">
+        <v>798</v>
+      </c>
+      <c r="M426" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D427" s="1">
+        <v>0</v>
+      </c>
+      <c r="E427" s="1">
+        <v>1</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1955000000</v>
+      </c>
+      <c r="G427" s="1">
+        <v>11</v>
+      </c>
+      <c r="H427" s="1">
+        <v>18400000</v>
+      </c>
+      <c r="I427" s="1">
+        <v>10</v>
+      </c>
+      <c r="J427" s="1">
+        <v>0</v>
+      </c>
+      <c r="K427" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L427" t="s">
+        <v>772</v>
+      </c>
+      <c r="M427" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D428" s="1">
+        <v>0</v>
+      </c>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F428" s="1">
+        <v>1975000000</v>
+      </c>
+      <c r="G428" s="1">
+        <v>11</v>
+      </c>
+      <c r="H428" s="1">
+        <v>18600000</v>
+      </c>
+      <c r="I428" s="1">
+        <v>10</v>
+      </c>
+      <c r="J428" s="1">
+        <v>0</v>
+      </c>
+      <c r="K428" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L428" t="s">
+        <v>773</v>
+      </c>
+      <c r="M428" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D429" s="1">
+        <v>0</v>
+      </c>
+      <c r="E429" s="1">
+        <v>1</v>
+      </c>
+      <c r="F429" s="1">
+        <v>1995000000</v>
+      </c>
+      <c r="G429" s="1">
+        <v>11</v>
+      </c>
+      <c r="H429" s="1">
+        <v>18800000</v>
+      </c>
+      <c r="I429" s="1">
+        <v>10</v>
+      </c>
+      <c r="J429" s="1">
+        <v>0</v>
+      </c>
+      <c r="K429" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L429" t="s">
+        <v>774</v>
+      </c>
+      <c r="M429" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D430" s="1">
+        <v>0</v>
+      </c>
+      <c r="E430" s="1">
+        <v>1</v>
+      </c>
+      <c r="F430" s="1">
+        <v>2015000000</v>
+      </c>
+      <c r="G430" s="1">
+        <v>11</v>
+      </c>
+      <c r="H430" s="1">
+        <v>19000000</v>
+      </c>
+      <c r="I430" s="1">
+        <v>10</v>
+      </c>
+      <c r="J430" s="1">
+        <v>0</v>
+      </c>
+      <c r="K430" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L430" t="s">
+        <v>775</v>
+      </c>
+      <c r="M430" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D431" s="1">
+        <v>0</v>
+      </c>
+      <c r="E431" s="1">
+        <v>1</v>
+      </c>
+      <c r="F431" s="1">
+        <v>2035000000</v>
+      </c>
+      <c r="G431" s="1">
+        <v>11</v>
+      </c>
+      <c r="H431" s="1">
+        <v>19200000</v>
+      </c>
+      <c r="I431" s="1">
+        <v>10</v>
+      </c>
+      <c r="J431" s="1">
+        <v>0</v>
+      </c>
+      <c r="K431" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L431" t="s">
+        <v>776</v>
+      </c>
+      <c r="M431" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D432" s="1">
+        <v>0</v>
+      </c>
+      <c r="E432" s="1">
+        <v>1</v>
+      </c>
+      <c r="F432" s="1">
+        <v>2055000000</v>
+      </c>
+      <c r="G432" s="1">
+        <v>11</v>
+      </c>
+      <c r="H432" s="1">
+        <v>19400000</v>
+      </c>
+      <c r="I432" s="1">
+        <v>10</v>
+      </c>
+      <c r="J432" s="1">
+        <v>0</v>
+      </c>
+      <c r="K432" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L432" t="s">
+        <v>865</v>
+      </c>
+      <c r="M432" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D433" s="1">
+        <v>0</v>
+      </c>
+      <c r="E433" s="1">
+        <v>1</v>
+      </c>
+      <c r="F433" s="1">
+        <v>2075000000</v>
+      </c>
+      <c r="G433" s="1">
+        <v>11</v>
+      </c>
+      <c r="H433" s="1">
+        <v>19600000</v>
+      </c>
+      <c r="I433" s="1">
+        <v>10</v>
+      </c>
+      <c r="J433" s="1">
+        <v>0</v>
+      </c>
+      <c r="K433" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L433" t="s">
+        <v>866</v>
+      </c>
+      <c r="M433" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D434" s="1">
+        <v>0</v>
+      </c>
+      <c r="E434" s="1">
+        <v>1</v>
+      </c>
+      <c r="F434" s="1">
+        <v>2095000000</v>
+      </c>
+      <c r="G434" s="1">
+        <v>11</v>
+      </c>
+      <c r="H434" s="1">
+        <v>19800000</v>
+      </c>
+      <c r="I434" s="1">
+        <v>10</v>
+      </c>
+      <c r="J434" s="1">
+        <v>0</v>
+      </c>
+      <c r="K434" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="s">
+        <v>797</v>
+      </c>
+      <c r="M434" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D435" s="1">
+        <v>0</v>
+      </c>
+      <c r="E435" s="1">
+        <v>1</v>
+      </c>
+      <c r="F435" s="1">
+        <v>2115000000</v>
+      </c>
+      <c r="G435" s="1">
+        <v>11</v>
+      </c>
+      <c r="H435" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="I435" s="1">
+        <v>10</v>
+      </c>
+      <c r="J435" s="1">
+        <v>0</v>
+      </c>
+      <c r="K435" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="s">
+        <v>798</v>
+      </c>
+      <c r="M435" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C436" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D436">
+        <v>2</v>
+      </c>
+      <c r="E436">
+        <v>46</v>
+      </c>
+      <c r="F436">
+        <v>15000</v>
+      </c>
+      <c r="G436">
+        <v>27</v>
+      </c>
+      <c r="H436">
+        <v>70</v>
+      </c>
+      <c r="I436">
+        <v>10</v>
+      </c>
+      <c r="J436" s="1">
+        <v>0</v>
+      </c>
+      <c r="K436" t="b">
+        <v>1</v>
+      </c>
+      <c r="L436" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M436">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9183CE3C-5CCC-4006-BAE5-FC98747AF38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5636F9-6371-46D7-9951-F5203DA88248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1181">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4047,6 +4047,20 @@
   </si>
   <si>
     <t>나타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title435</t>
+  </si>
+  <si>
+    <t>title436</t>
+  </si>
+  <si>
+    <t>스테이지 9500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 9600 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4481,11 +4495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M436"/>
+  <dimension ref="A1:M438"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
+      <selection pane="bottomLeft" activeCell="Q415" sqref="Q415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21763,167 +21777,167 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A422" s="1">
+    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
         <v>420</v>
       </c>
-      <c r="B422" s="1" t="s">
+      <c r="B422" s="2" t="s">
         <v>1146</v>
       </c>
-      <c r="C422" s="1" t="s">
+      <c r="C422" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="D422" s="1">
-        <v>1</v>
-      </c>
-      <c r="E422" s="1">
+      <c r="D422" s="2">
+        <v>1</v>
+      </c>
+      <c r="E422" s="2">
         <v>5</v>
       </c>
-      <c r="F422" s="1">
+      <c r="F422" s="2">
         <v>46000000</v>
       </c>
-      <c r="G422" s="1">
-        <v>10</v>
-      </c>
-      <c r="H422" s="1">
+      <c r="G422" s="2">
+        <v>10</v>
+      </c>
+      <c r="H422" s="2">
         <v>104</v>
       </c>
-      <c r="I422" s="1">
-        <v>10</v>
-      </c>
-      <c r="J422" s="1">
-        <v>0</v>
-      </c>
-      <c r="K422" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L422" t="s">
+      <c r="I422" s="2">
+        <v>10</v>
+      </c>
+      <c r="J422" s="2">
+        <v>0</v>
+      </c>
+      <c r="K422" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L422" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="M422" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A423" s="1">
+      <c r="M422" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
         <v>421</v>
       </c>
-      <c r="B423" s="1" t="s">
+      <c r="B423" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="C423" s="1" t="s">
+      <c r="C423" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="D423" s="1">
-        <v>1</v>
-      </c>
-      <c r="E423" s="1">
+      <c r="D423" s="2">
+        <v>1</v>
+      </c>
+      <c r="E423" s="2">
         <v>5</v>
       </c>
-      <c r="F423" s="1">
+      <c r="F423" s="2">
         <v>48000000</v>
       </c>
-      <c r="G423" s="1">
-        <v>10</v>
-      </c>
-      <c r="H423" s="1">
+      <c r="G423" s="2">
+        <v>10</v>
+      </c>
+      <c r="H423" s="2">
         <v>106</v>
       </c>
-      <c r="I423" s="1">
-        <v>10</v>
-      </c>
-      <c r="J423" s="1">
-        <v>0</v>
-      </c>
-      <c r="K423" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L423" t="s">
+      <c r="I423" s="2">
+        <v>10</v>
+      </c>
+      <c r="J423" s="2">
+        <v>0</v>
+      </c>
+      <c r="K423" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L423" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="M423" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A424" s="1">
+      <c r="M423" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
         <v>422</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="C424" s="1" t="s">
+      <c r="C424" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="D424" s="1">
-        <v>1</v>
-      </c>
-      <c r="E424" s="1">
+      <c r="D424" s="2">
+        <v>1</v>
+      </c>
+      <c r="E424" s="2">
         <v>5</v>
       </c>
-      <c r="F424" s="1">
+      <c r="F424" s="2">
         <v>50000000</v>
       </c>
-      <c r="G424" s="1">
-        <v>10</v>
-      </c>
-      <c r="H424" s="1">
+      <c r="G424" s="2">
+        <v>10</v>
+      </c>
+      <c r="H424" s="2">
         <v>108</v>
       </c>
-      <c r="I424" s="1">
-        <v>10</v>
-      </c>
-      <c r="J424" s="1">
-        <v>0</v>
-      </c>
-      <c r="K424" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L424" t="s">
+      <c r="I424" s="2">
+        <v>10</v>
+      </c>
+      <c r="J424" s="2">
+        <v>0</v>
+      </c>
+      <c r="K424" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L424" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="M424" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A425" s="1">
+      <c r="M424" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
         <v>423</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B425" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="C425" s="1" t="s">
+      <c r="C425" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="D425" s="1">
-        <v>1</v>
-      </c>
-      <c r="E425" s="1">
+      <c r="D425" s="2">
+        <v>1</v>
+      </c>
+      <c r="E425" s="2">
         <v>5</v>
       </c>
-      <c r="F425" s="1">
+      <c r="F425" s="2">
         <v>52000000</v>
       </c>
-      <c r="G425" s="1">
-        <v>10</v>
-      </c>
-      <c r="H425" s="1">
+      <c r="G425" s="2">
+        <v>10</v>
+      </c>
+      <c r="H425" s="2">
         <v>110</v>
       </c>
-      <c r="I425" s="1">
-        <v>10</v>
-      </c>
-      <c r="J425" s="1">
-        <v>0</v>
-      </c>
-      <c r="K425" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L425" t="s">
+      <c r="I425" s="2">
+        <v>10</v>
+      </c>
+      <c r="J425" s="2">
+        <v>0</v>
+      </c>
+      <c r="K425" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L425" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="M425" s="1">
+      <c r="M425" s="2">
         <v>11</v>
       </c>
     </row>
@@ -22375,6 +22389,88 @@
         <v>1176</v>
       </c>
       <c r="M436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D437" s="1">
+        <v>1</v>
+      </c>
+      <c r="E437" s="1">
+        <v>5</v>
+      </c>
+      <c r="F437" s="1">
+        <v>54000000</v>
+      </c>
+      <c r="G437" s="1">
+        <v>10</v>
+      </c>
+      <c r="H437" s="1">
+        <v>112</v>
+      </c>
+      <c r="I437" s="1">
+        <v>10</v>
+      </c>
+      <c r="J437" s="1">
+        <v>0</v>
+      </c>
+      <c r="K437" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L437" t="s">
+        <v>776</v>
+      </c>
+      <c r="M437" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D438" s="1">
+        <v>1</v>
+      </c>
+      <c r="E438" s="1">
+        <v>5</v>
+      </c>
+      <c r="F438" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="G438" s="1">
+        <v>10</v>
+      </c>
+      <c r="H438" s="1">
+        <v>114</v>
+      </c>
+      <c r="I438" s="1">
+        <v>10</v>
+      </c>
+      <c r="J438" s="1">
+        <v>0</v>
+      </c>
+      <c r="K438" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L438" t="s">
+        <v>865</v>
+      </c>
+      <c r="M438" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5636F9-6371-46D7-9951-F5203DA88248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C296DF7-56C2-4FC4-BDD8-796F97ECBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1205">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4062,6 +4062,80 @@
   <si>
     <t>스테이지 9600 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title437</t>
+  </si>
+  <si>
+    <t>스테이지 9700 돌파</t>
+  </si>
+  <si>
+    <t>title438</t>
+  </si>
+  <si>
+    <t>스테이지 9800 돌파</t>
+  </si>
+  <si>
+    <t>title439</t>
+  </si>
+  <si>
+    <t>title440</t>
+  </si>
+  <si>
+    <t>title441</t>
+  </si>
+  <si>
+    <t>title442</t>
+  </si>
+  <si>
+    <t>title443</t>
+  </si>
+  <si>
+    <t>title444</t>
+  </si>
+  <si>
+    <t>title445</t>
+  </si>
+  <si>
+    <t>title446</t>
+  </si>
+  <si>
+    <t>title447</t>
+  </si>
+  <si>
+    <t>title448</t>
+  </si>
+  <si>
+    <t>레벨 1210000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1220000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1230000달성</t>
+  </si>
+  <si>
+    <t>레벨 1240000달성</t>
+  </si>
+  <si>
+    <t>레벨 1250000달성</t>
+  </si>
+  <si>
+    <t>레벨 1260000달성</t>
+  </si>
+  <si>
+    <t>레벨 1270000달성</t>
+  </si>
+  <si>
+    <t>레벨 1280000달성</t>
+  </si>
+  <si>
+    <t>레벨 1290000달성</t>
+  </si>
+  <si>
+    <t>레벨 1300000달성</t>
   </si>
 </sst>
 </file>
@@ -4495,28 +4569,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M438"/>
+  <dimension ref="A1:M450"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A399" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q415" sqref="Q415"/>
+      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I450" sqref="I450"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.09765625" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4631,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4598,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4639,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4680,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4721,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4762,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4803,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4844,7 +4918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4885,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4926,7 +5000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4967,7 +5041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5008,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5049,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5090,7 +5164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5131,7 +5205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5172,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5213,7 +5287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5254,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5295,7 +5369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5336,7 +5410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5377,7 +5451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5418,7 +5492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5459,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5500,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5541,7 +5615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5582,7 +5656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5623,7 +5697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5664,7 +5738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5705,7 +5779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5746,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5787,7 +5861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5828,7 +5902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5869,7 +5943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5910,7 +5984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -5951,7 +6025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -5992,7 +6066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6033,7 +6107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6074,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6115,7 +6189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6156,7 +6230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6197,7 +6271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6238,7 +6312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6279,7 +6353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6320,7 +6394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6361,7 +6435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6402,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6443,7 +6517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6484,7 +6558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6525,7 +6599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6566,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6607,7 +6681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6648,7 +6722,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6689,7 +6763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6730,7 +6804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6771,7 +6845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6812,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6853,7 +6927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6894,7 +6968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -6935,7 +7009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -6976,7 +7050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7017,7 +7091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7058,7 +7132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7099,7 +7173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7140,7 +7214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7181,7 +7255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7222,7 +7296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7263,7 +7337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7304,7 +7378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7345,7 +7419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7386,7 +7460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7427,7 +7501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7468,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7509,7 +7583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7550,7 +7624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7591,7 +7665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7632,7 +7706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7673,7 +7747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7714,7 +7788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7755,7 +7829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7796,7 +7870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7837,7 +7911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7878,7 +7952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7919,7 +7993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -7960,7 +8034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8001,7 +8075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8042,7 +8116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8083,7 +8157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8124,7 +8198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8165,7 +8239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8206,7 +8280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8247,7 +8321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8288,7 +8362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8329,7 +8403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8370,7 +8444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8411,7 +8485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8452,7 +8526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8493,7 +8567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8534,7 +8608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8575,7 +8649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8616,7 +8690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8657,7 +8731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8698,7 +8772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8739,7 +8813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8780,7 +8854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8821,7 +8895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8862,7 +8936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8903,7 +8977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8944,7 +9018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8985,7 +9059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9026,7 +9100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9067,7 +9141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9108,7 +9182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9149,7 +9223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9190,7 +9264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9231,7 +9305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9272,7 +9346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9313,7 +9387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -9354,7 +9428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9395,7 +9469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9436,7 +9510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9477,7 +9551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9518,7 +9592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9559,7 +9633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9600,7 +9674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9641,7 +9715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9682,7 +9756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9723,7 +9797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9764,7 +9838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9805,7 +9879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9846,7 +9920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9887,7 +9961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9928,7 +10002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9969,7 +10043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10010,7 +10084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10051,7 +10125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10092,7 +10166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10133,7 +10207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10174,7 +10248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10215,7 +10289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10256,7 +10330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10297,7 +10371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10338,7 +10412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10379,7 +10453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10420,7 +10494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10461,7 +10535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -10502,7 +10576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10543,7 +10617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10584,7 +10658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10625,7 +10699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10666,7 +10740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10707,7 +10781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10748,7 +10822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10789,7 +10863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10830,7 +10904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10871,7 +10945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10912,7 +10986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10953,7 +11027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10994,7 +11068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11035,7 +11109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11076,7 +11150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11117,7 +11191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11158,7 +11232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11199,7 +11273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11240,7 +11314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11281,7 +11355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11322,7 +11396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11363,7 +11437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11404,7 +11478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11445,7 +11519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11486,7 +11560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11527,7 +11601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11568,7 +11642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11609,7 +11683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11650,7 +11724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11691,7 +11765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11732,7 +11806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11773,7 +11847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11814,7 +11888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11855,7 +11929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11896,7 +11970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11937,7 +12011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11978,7 +12052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12019,7 +12093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12060,7 +12134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12101,7 +12175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12142,7 +12216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12183,7 +12257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12224,7 +12298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12265,7 +12339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12306,7 +12380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12347,7 +12421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12388,7 +12462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12429,7 +12503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12470,7 +12544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12511,7 +12585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12552,7 +12626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12593,7 +12667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12634,7 +12708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12675,7 +12749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12716,7 +12790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12757,7 +12831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12798,7 +12872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12839,7 +12913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12880,7 +12954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12921,7 +12995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -12962,7 +13036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13003,7 +13077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13044,7 +13118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13085,7 +13159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13126,7 +13200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13167,7 +13241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13208,7 +13282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13249,7 +13323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13290,7 +13364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13331,7 +13405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13372,7 +13446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13413,7 +13487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -13454,7 +13528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13495,7 +13569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13536,7 +13610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13577,7 +13651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13618,7 +13692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13659,7 +13733,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13700,7 +13774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13741,7 +13815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13782,7 +13856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13823,7 +13897,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13864,7 +13938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13905,7 +13979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -13946,7 +14020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -13987,7 +14061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14028,7 +14102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14069,7 +14143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14110,7 +14184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14151,7 +14225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14192,7 +14266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14233,7 +14307,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14274,7 +14348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14315,7 +14389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14356,7 +14430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14397,7 +14471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14438,7 +14512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14479,7 +14553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14520,7 +14594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14561,7 +14635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14602,7 +14676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14643,7 +14717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14684,7 +14758,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14725,7 +14799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14766,7 +14840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14807,7 +14881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14848,7 +14922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14889,7 +14963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -14930,7 +15004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -14971,7 +15045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -15012,7 +15086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -15053,7 +15127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -15094,7 +15168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -15135,7 +15209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -15176,7 +15250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15217,7 +15291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15258,7 +15332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15299,7 +15373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -15340,7 +15414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -15381,7 +15455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -15422,7 +15496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -15463,7 +15537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15504,7 +15578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15545,7 +15619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15586,7 +15660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15627,7 +15701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15668,7 +15742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -15709,7 +15783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15750,7 +15824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15791,7 +15865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15832,7 +15906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15873,7 +15947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15914,7 +15988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -15955,7 +16029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -15996,7 +16070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16037,7 +16111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16078,7 +16152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16119,7 +16193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16160,7 +16234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16201,7 +16275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16242,7 +16316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16283,7 +16357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16324,7 +16398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16365,7 +16439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16406,7 +16480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16447,7 +16521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16488,7 +16562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16529,7 +16603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16570,7 +16644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16611,7 +16685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16652,7 +16726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16693,7 +16767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16734,7 +16808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16775,7 +16849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16816,7 +16890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16857,7 +16931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -16898,7 +16972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -16939,7 +17013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -16980,7 +17054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17021,7 +17095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17062,7 +17136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17103,7 +17177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17144,7 +17218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17185,7 +17259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17226,7 +17300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17267,7 +17341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17308,7 +17382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17349,7 +17423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17390,7 +17464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17431,7 +17505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17472,7 +17546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17513,7 +17587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17554,7 +17628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17595,7 +17669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17636,7 +17710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17677,7 +17751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17718,7 +17792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17759,7 +17833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17800,7 +17874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17841,7 +17915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17882,7 +17956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17923,7 +17997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17964,7 +18038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -18005,7 +18079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -18046,7 +18120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -18087,7 +18161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -18128,7 +18202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -18169,7 +18243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -18210,7 +18284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -18251,7 +18325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="3">
         <v>334</v>
       </c>
@@ -18292,7 +18366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -18333,7 +18407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -18374,7 +18448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -18415,7 +18489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -18456,7 +18530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18497,7 +18571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18538,7 +18612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18579,7 +18653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18620,7 +18694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18661,7 +18735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18702,7 +18776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18743,7 +18817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18784,7 +18858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18825,7 +18899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18866,7 +18940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18907,7 +18981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18948,7 +19022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18989,7 +19063,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -19030,7 +19104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -19071,7 +19145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -19112,7 +19186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -19153,7 +19227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -19194,7 +19268,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -19235,7 +19309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -19276,7 +19350,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -19317,7 +19391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -19358,7 +19432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="3">
         <v>361</v>
       </c>
@@ -19399,7 +19473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -19440,7 +19514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -19481,7 +19555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -19522,7 +19596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -19563,7 +19637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -19604,7 +19678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19645,7 +19719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19686,7 +19760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19727,7 +19801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19768,7 +19842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19809,7 +19883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19850,7 +19924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19891,7 +19965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -19932,7 +20006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -19973,7 +20047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -20014,7 +20088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -20055,7 +20129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -20096,7 +20170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -20137,7 +20211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -20178,7 +20252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -20219,7 +20293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -20260,7 +20334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -20301,7 +20375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -20342,7 +20416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -20383,7 +20457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -20424,7 +20498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -20465,7 +20539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20506,7 +20580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20547,7 +20621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20588,7 +20662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20629,7 +20703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20670,7 +20744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20711,7 +20785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20752,7 +20826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20793,7 +20867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20834,7 +20908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -20875,7 +20949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -20916,7 +20990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -20957,7 +21031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -20998,7 +21072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -21039,7 +21113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -21080,7 +21154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -21121,7 +21195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -21162,7 +21236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -21203,7 +21277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -21244,7 +21318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -21285,7 +21359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -21326,7 +21400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -21367,7 +21441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -21408,7 +21482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -21449,7 +21523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -21490,7 +21564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -21531,7 +21605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -21572,7 +21646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -21613,7 +21687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -21654,7 +21728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -21695,7 +21769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -21736,7 +21810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -21777,7 +21851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <v>420</v>
       </c>
@@ -21818,7 +21892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <v>421</v>
       </c>
@@ -21859,7 +21933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <v>422</v>
       </c>
@@ -21900,7 +21974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <v>423</v>
       </c>
@@ -21941,7 +22015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -21982,7 +22056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -22023,7 +22097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -22064,7 +22138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -22105,7 +22179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -22146,7 +22220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -22187,7 +22261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -22228,7 +22302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -22269,7 +22343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -22310,7 +22384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -22351,7 +22425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -22392,7 +22466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -22427,13 +22501,13 @@
         <v>1</v>
       </c>
       <c r="L437" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M437" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -22468,9 +22542,501 @@
         <v>1</v>
       </c>
       <c r="L438" t="s">
+        <v>776</v>
+      </c>
+      <c r="M438" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D439" s="1">
+        <v>1</v>
+      </c>
+      <c r="E439" s="1">
+        <v>5</v>
+      </c>
+      <c r="F439" s="1">
+        <v>58000000</v>
+      </c>
+      <c r="G439" s="1">
+        <v>10</v>
+      </c>
+      <c r="H439" s="1">
+        <v>116</v>
+      </c>
+      <c r="I439" s="1">
+        <v>10</v>
+      </c>
+      <c r="J439" s="1">
+        <v>0</v>
+      </c>
+      <c r="K439" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L439" t="s">
         <v>865</v>
       </c>
-      <c r="M438" s="1">
+      <c r="M439" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D440" s="1">
+        <v>1</v>
+      </c>
+      <c r="E440" s="1">
+        <v>5</v>
+      </c>
+      <c r="F440" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="G440" s="1">
+        <v>10</v>
+      </c>
+      <c r="H440" s="1">
+        <v>118</v>
+      </c>
+      <c r="I440" s="1">
+        <v>10</v>
+      </c>
+      <c r="J440" s="1">
+        <v>0</v>
+      </c>
+      <c r="K440" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L440" t="s">
+        <v>866</v>
+      </c>
+      <c r="M440" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D441" s="1">
+        <v>0</v>
+      </c>
+      <c r="E441" s="1">
+        <v>1</v>
+      </c>
+      <c r="F441" s="1">
+        <v>2135000000</v>
+      </c>
+      <c r="G441" s="1">
+        <v>11</v>
+      </c>
+      <c r="H441" s="1">
+        <v>20200000</v>
+      </c>
+      <c r="I441" s="1">
+        <v>10</v>
+      </c>
+      <c r="J441" s="1">
+        <v>0</v>
+      </c>
+      <c r="K441" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L441" t="s">
+        <v>797</v>
+      </c>
+      <c r="M441" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D442" s="1">
+        <v>0</v>
+      </c>
+      <c r="E442" s="1">
+        <v>1</v>
+      </c>
+      <c r="F442" s="1">
+        <v>2155000000</v>
+      </c>
+      <c r="G442" s="1">
+        <v>11</v>
+      </c>
+      <c r="H442" s="1">
+        <v>20400000</v>
+      </c>
+      <c r="I442" s="1">
+        <v>10</v>
+      </c>
+      <c r="J442" s="1">
+        <v>0</v>
+      </c>
+      <c r="K442" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L442" t="s">
+        <v>798</v>
+      </c>
+      <c r="M442" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A443" s="1">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D443" s="1">
+        <v>0</v>
+      </c>
+      <c r="E443" s="1">
+        <v>1</v>
+      </c>
+      <c r="F443" s="1">
+        <v>2175000000</v>
+      </c>
+      <c r="G443" s="1">
+        <v>11</v>
+      </c>
+      <c r="H443" s="1">
+        <v>20600000</v>
+      </c>
+      <c r="I443" s="1">
+        <v>10</v>
+      </c>
+      <c r="J443" s="1">
+        <v>0</v>
+      </c>
+      <c r="K443" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L443" t="s">
+        <v>799</v>
+      </c>
+      <c r="M443" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D444" s="1">
+        <v>0</v>
+      </c>
+      <c r="E444" s="1">
+        <v>1</v>
+      </c>
+      <c r="F444" s="1">
+        <v>2195000000</v>
+      </c>
+      <c r="G444" s="1">
+        <v>11</v>
+      </c>
+      <c r="H444" s="1">
+        <v>20800000</v>
+      </c>
+      <c r="I444" s="1">
+        <v>10</v>
+      </c>
+      <c r="J444" s="1">
+        <v>0</v>
+      </c>
+      <c r="K444" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L444" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M444" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D445" s="1">
+        <v>0</v>
+      </c>
+      <c r="E445" s="1">
+        <v>1</v>
+      </c>
+      <c r="F445" s="1">
+        <v>2215000000</v>
+      </c>
+      <c r="G445" s="1">
+        <v>11</v>
+      </c>
+      <c r="H445" s="1">
+        <v>21000000</v>
+      </c>
+      <c r="I445" s="1">
+        <v>10</v>
+      </c>
+      <c r="J445" s="1">
+        <v>0</v>
+      </c>
+      <c r="K445" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L445" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M445" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D446" s="1">
+        <v>0</v>
+      </c>
+      <c r="E446" s="1">
+        <v>1</v>
+      </c>
+      <c r="F446" s="1">
+        <v>2235000000</v>
+      </c>
+      <c r="G446" s="1">
+        <v>11</v>
+      </c>
+      <c r="H446" s="1">
+        <v>21200000</v>
+      </c>
+      <c r="I446" s="1">
+        <v>10</v>
+      </c>
+      <c r="J446" s="1">
+        <v>0</v>
+      </c>
+      <c r="K446" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L446" t="s">
+        <v>775</v>
+      </c>
+      <c r="M446" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D447" s="1">
+        <v>0</v>
+      </c>
+      <c r="E447" s="1">
+        <v>1</v>
+      </c>
+      <c r="F447" s="1">
+        <v>2255000000</v>
+      </c>
+      <c r="G447" s="1">
+        <v>11</v>
+      </c>
+      <c r="H447" s="1">
+        <v>21400000</v>
+      </c>
+      <c r="I447" s="1">
+        <v>10</v>
+      </c>
+      <c r="J447" s="1">
+        <v>0</v>
+      </c>
+      <c r="K447" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L447" t="s">
+        <v>900</v>
+      </c>
+      <c r="M447" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D448" s="1">
+        <v>0</v>
+      </c>
+      <c r="E448" s="1">
+        <v>1</v>
+      </c>
+      <c r="F448" s="1">
+        <v>2275000000</v>
+      </c>
+      <c r="G448" s="1">
+        <v>11</v>
+      </c>
+      <c r="H448" s="1">
+        <v>21600000</v>
+      </c>
+      <c r="I448" s="1">
+        <v>10</v>
+      </c>
+      <c r="J448" s="1">
+        <v>0</v>
+      </c>
+      <c r="K448" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L448" t="s">
+        <v>909</v>
+      </c>
+      <c r="M448" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D449" s="1">
+        <v>0</v>
+      </c>
+      <c r="E449" s="1">
+        <v>1</v>
+      </c>
+      <c r="F449" s="1">
+        <v>2295000000</v>
+      </c>
+      <c r="G449" s="1">
+        <v>11</v>
+      </c>
+      <c r="H449" s="1">
+        <v>21800000</v>
+      </c>
+      <c r="I449" s="1">
+        <v>10</v>
+      </c>
+      <c r="J449" s="1">
+        <v>0</v>
+      </c>
+      <c r="K449" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L449" t="s">
+        <v>910</v>
+      </c>
+      <c r="M449" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D450" s="1">
+        <v>0</v>
+      </c>
+      <c r="E450" s="1">
+        <v>1</v>
+      </c>
+      <c r="F450" s="1">
+        <v>2315000000</v>
+      </c>
+      <c r="G450" s="1">
+        <v>11</v>
+      </c>
+      <c r="H450" s="1">
+        <v>22000000</v>
+      </c>
+      <c r="I450" s="1">
+        <v>10</v>
+      </c>
+      <c r="J450" s="1">
+        <v>0</v>
+      </c>
+      <c r="K450" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L450" t="s">
+        <v>911</v>
+      </c>
+      <c r="M450" s="1">
         <v>11</v>
       </c>
     </row>
@@ -22491,12 +23057,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -22504,7 +23070,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22517,7 +23083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -22530,7 +23096,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -22543,7 +23109,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -22556,7 +23122,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -22569,7 +23135,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22582,7 +23148,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22595,7 +23161,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -22608,7 +23174,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -22621,7 +23187,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -22634,7 +23200,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -22647,7 +23213,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -22660,7 +23226,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -22673,7 +23239,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -22686,7 +23252,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -22699,7 +23265,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -22712,7 +23278,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -22725,7 +23291,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -22738,7 +23304,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -22751,7 +23317,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -22764,7 +23330,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -22777,7 +23343,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -22790,7 +23356,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -22803,7 +23369,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -22816,7 +23382,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -22829,7 +23395,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -22842,7 +23408,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -22855,7 +23421,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -22868,7 +23434,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -22881,7 +23447,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -22894,7 +23460,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -22907,7 +23473,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -22920,7 +23486,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -22933,7 +23499,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -22946,7 +23512,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -22959,7 +23525,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -22972,7 +23538,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -22985,7 +23551,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -22998,7 +23564,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -23011,7 +23577,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -23024,7 +23590,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -23037,7 +23603,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -23050,7 +23616,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23063,7 +23629,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -23076,7 +23642,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -23089,7 +23655,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -23102,7 +23668,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -23115,7 +23681,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -23128,7 +23694,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -23141,7 +23707,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -23154,7 +23720,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -23167,7 +23733,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -23180,7 +23746,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -23193,7 +23759,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -23206,7 +23772,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -23219,7 +23785,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -23232,7 +23798,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -23245,7 +23811,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -23258,7 +23824,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -23271,7 +23837,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -23284,7 +23850,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -23297,7 +23863,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23310,7 +23876,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23323,7 +23889,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23336,7 +23902,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23349,7 +23915,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -23362,7 +23928,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -23375,7 +23941,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -23388,7 +23954,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -23401,7 +23967,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23414,7 +23980,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23427,7 +23993,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -23440,7 +24006,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23453,7 +24019,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23466,7 +24032,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23479,7 +24045,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23492,7 +24058,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -23505,7 +24071,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -23518,7 +24084,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -23531,7 +24097,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -23544,7 +24110,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -23557,7 +24123,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -23570,7 +24136,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -23583,7 +24149,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -23596,7 +24162,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -23609,7 +24175,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -23622,7 +24188,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -23635,7 +24201,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -23648,7 +24214,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -23661,7 +24227,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -23674,7 +24240,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -23687,7 +24253,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -23700,7 +24266,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -23713,7 +24279,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -23726,7 +24292,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -23739,7 +24305,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -23752,7 +24318,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -23765,7 +24331,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -23778,7 +24344,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -23791,7 +24357,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -23804,7 +24370,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C296DF7-56C2-4FC4-BDD8-796F97ECBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B114D-F984-4197-8F43-49CEFD69721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1208">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4136,6 +4136,18 @@
   </si>
   <si>
     <t>레벨 1300000달성</t>
+  </si>
+  <si>
+    <t>title449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로치의 검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4569,28 +4581,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M450"/>
+  <dimension ref="A1:M451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I450" sqref="I450"/>
+      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L452" sqref="L452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.3984375" customWidth="1"/>
-    <col min="5" max="5" width="15.09765625" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="20.8984375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4836,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4918,7 +4930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4959,7 +4971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5000,7 +5012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5041,7 +5053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5123,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5205,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5246,7 +5258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -5369,7 +5381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -5410,7 +5422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -5451,7 +5463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -5615,7 +5627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -5656,7 +5668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -5738,7 +5750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -5820,7 +5832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -5902,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -5943,7 +5955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -5984,7 +5996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -6025,7 +6037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -6066,7 +6078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -6107,7 +6119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -6148,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -6189,7 +6201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -6230,7 +6242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -6353,7 +6365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -6435,7 +6447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -6476,7 +6488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -6517,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -6558,7 +6570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -6599,7 +6611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -6640,7 +6652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -6681,7 +6693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -6722,7 +6734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -6763,7 +6775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -6804,7 +6816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -6845,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -6886,7 +6898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -6968,7 +6980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7009,7 +7021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7050,7 +7062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7091,7 +7103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7132,7 +7144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7173,7 +7185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7214,7 +7226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7255,7 +7267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7296,7 +7308,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7337,7 +7349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7378,7 +7390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7419,7 +7431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7460,7 +7472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7501,7 +7513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -7542,7 +7554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -7583,7 +7595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -7624,7 +7636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -7665,7 +7677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -7706,7 +7718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -7747,7 +7759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -7788,7 +7800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -7829,7 +7841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -7870,7 +7882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -7911,7 +7923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -7952,7 +7964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -7993,7 +8005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8034,7 +8046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8075,7 +8087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8116,7 +8128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8198,7 +8210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8239,7 +8251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8280,7 +8292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8321,7 +8333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8362,7 +8374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8403,7 +8415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8444,7 +8456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8485,7 +8497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8526,7 +8538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8567,7 +8579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8608,7 +8620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8649,7 +8661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8690,7 +8702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8731,7 +8743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8772,7 +8784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8813,7 +8825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8854,7 +8866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8895,7 +8907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8936,7 +8948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8977,7 +8989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9018,7 +9030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9059,7 +9071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9100,7 +9112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9141,7 +9153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9182,7 +9194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9223,7 +9235,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9264,7 +9276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9305,7 +9317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9346,7 +9358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9387,7 +9399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -9428,7 +9440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9469,7 +9481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9510,7 +9522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9551,7 +9563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9592,7 +9604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9633,7 +9645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9674,7 +9686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9715,7 +9727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9756,7 +9768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9797,7 +9809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9838,7 +9850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9879,7 +9891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9920,7 +9932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9961,7 +9973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10002,7 +10014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10043,7 +10055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10084,7 +10096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10125,7 +10137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10166,7 +10178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10207,7 +10219,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10248,7 +10260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10289,7 +10301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10330,7 +10342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10371,7 +10383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10412,7 +10424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10453,7 +10465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10494,7 +10506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10535,7 +10547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -10576,7 +10588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10617,7 +10629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10658,7 +10670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10699,7 +10711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10740,7 +10752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10781,7 +10793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10822,7 +10834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10863,7 +10875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10904,7 +10916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10945,7 +10957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10986,7 +10998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11027,7 +11039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11068,7 +11080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11109,7 +11121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11150,7 +11162,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11191,7 +11203,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11232,7 +11244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11273,7 +11285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11314,7 +11326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11355,7 +11367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11396,7 +11408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11437,7 +11449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11478,7 +11490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11519,7 +11531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11560,7 +11572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11601,7 +11613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11642,7 +11654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11683,7 +11695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11724,7 +11736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11765,7 +11777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11806,7 +11818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11847,7 +11859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11888,7 +11900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11929,7 +11941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11970,7 +11982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -12011,7 +12023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -12052,7 +12064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -12093,7 +12105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -12134,7 +12146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -12175,7 +12187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -12216,7 +12228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -12257,7 +12269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -12298,7 +12310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -12339,7 +12351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -12380,7 +12392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -12421,7 +12433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -12462,7 +12474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -12503,7 +12515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -12544,7 +12556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -12585,7 +12597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -12626,7 +12638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -12667,7 +12679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -12708,7 +12720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -12749,7 +12761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -12790,7 +12802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -12831,7 +12843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -12872,7 +12884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -12913,7 +12925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -12954,7 +12966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -12995,7 +13007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -13036,7 +13048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -13077,7 +13089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -13118,7 +13130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13159,7 +13171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13200,7 +13212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13241,7 +13253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13282,7 +13294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13323,7 +13335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13364,7 +13376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -13405,7 +13417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -13446,7 +13458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -13487,7 +13499,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -13528,7 +13540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -13569,7 +13581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -13610,7 +13622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -13651,7 +13663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -13692,7 +13704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -13733,7 +13745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -13774,7 +13786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -13815,7 +13827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -13856,7 +13868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -13897,7 +13909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -13938,7 +13950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -13979,7 +13991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -14020,7 +14032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -14061,7 +14073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -14102,7 +14114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -14143,7 +14155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -14184,7 +14196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -14225,7 +14237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -14266,7 +14278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -14307,7 +14319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -14348,7 +14360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -14389,7 +14401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -14430,7 +14442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -14471,7 +14483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -14512,7 +14524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -14553,7 +14565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -14594,7 +14606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -14635,7 +14647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -14676,7 +14688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -14717,7 +14729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -14758,7 +14770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -14799,7 +14811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -14840,7 +14852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -14881,7 +14893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -14922,7 +14934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -14963,7 +14975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -15004,7 +15016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -15045,7 +15057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -15086,7 +15098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -15127,7 +15139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -15168,7 +15180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -15209,7 +15221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -15250,7 +15262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -15291,7 +15303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -15332,7 +15344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -15373,7 +15385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -15414,7 +15426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -15455,7 +15467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -15496,7 +15508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -15537,7 +15549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -15578,7 +15590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -15619,7 +15631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -15660,7 +15672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -15701,7 +15713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -15742,7 +15754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>271</v>
       </c>
@@ -15783,7 +15795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -15824,7 +15836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -15865,7 +15877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -15906,7 +15918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -15947,7 +15959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -15988,7 +16000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16029,7 +16041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16070,7 +16082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16111,7 +16123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16152,7 +16164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16193,7 +16205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16234,7 +16246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16275,7 +16287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16316,7 +16328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16357,7 +16369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16398,7 +16410,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16439,7 +16451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16480,7 +16492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16521,7 +16533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16562,7 +16574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16603,7 +16615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16644,7 +16656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16685,7 +16697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16726,7 +16738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16767,7 +16779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16808,7 +16820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16849,7 +16861,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16890,7 +16902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16931,7 +16943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -16972,7 +16984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -17013,7 +17025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -17054,7 +17066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17095,7 +17107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17136,7 +17148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17177,7 +17189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17218,7 +17230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17259,7 +17271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17300,7 +17312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17341,7 +17353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17382,7 +17394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17423,7 +17435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17464,7 +17476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17505,7 +17517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17546,7 +17558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17587,7 +17599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17628,7 +17640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17669,7 +17681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17710,7 +17722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17751,7 +17763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17792,7 +17804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17833,7 +17845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17874,7 +17886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17915,7 +17927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17956,7 +17968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17997,7 +18009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -18038,7 +18050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -18079,7 +18091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -18120,7 +18132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -18161,7 +18173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -18202,7 +18214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -18243,7 +18255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -18284,7 +18296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -18325,7 +18337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>334</v>
       </c>
@@ -18366,7 +18378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -18407,7 +18419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -18448,7 +18460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -18489,7 +18501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -18530,7 +18542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18571,7 +18583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18612,7 +18624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18653,7 +18665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18694,7 +18706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18735,7 +18747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18776,7 +18788,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18817,7 +18829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18858,7 +18870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18899,7 +18911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18940,7 +18952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18981,7 +18993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -19022,7 +19034,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -19063,7 +19075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -19104,7 +19116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -19145,7 +19157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -19186,7 +19198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -19227,7 +19239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -19268,7 +19280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -19309,7 +19321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -19350,7 +19362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -19391,7 +19403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -19432,7 +19444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>361</v>
       </c>
@@ -19473,7 +19485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -19514,7 +19526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -19555,7 +19567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -19596,7 +19608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -19637,7 +19649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -19678,7 +19690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -19719,7 +19731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -19760,7 +19772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -19801,7 +19813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -19842,7 +19854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -19883,7 +19895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -19924,7 +19936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -19965,7 +19977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -20006,7 +20018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -20047,7 +20059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -20088,7 +20100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -20129,7 +20141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -20170,7 +20182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -20211,7 +20223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -20252,7 +20264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -20293,7 +20305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -20334,7 +20346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -20375,7 +20387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -20416,7 +20428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -20457,7 +20469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -20498,7 +20510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -20539,7 +20551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -20580,7 +20592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -20621,7 +20633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -20662,7 +20674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -20703,7 +20715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -20744,7 +20756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -20785,7 +20797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -20826,7 +20838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -20867,7 +20879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -20908,7 +20920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -20949,7 +20961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -20990,7 +21002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -21031,7 +21043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -21072,7 +21084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -21113,7 +21125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -21154,7 +21166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -21195,7 +21207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -21236,7 +21248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -21277,7 +21289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -21318,7 +21330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -21359,7 +21371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -21400,7 +21412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -21441,7 +21453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -21482,7 +21494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -21523,7 +21535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -21564,7 +21576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -21605,7 +21617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -21646,7 +21658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -21687,7 +21699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -21728,7 +21740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -21769,7 +21781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -21810,7 +21822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -21851,7 +21863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>420</v>
       </c>
@@ -21892,7 +21904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>421</v>
       </c>
@@ -21933,7 +21945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>422</v>
       </c>
@@ -21974,7 +21986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>423</v>
       </c>
@@ -22015,7 +22027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -22056,7 +22068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -22097,7 +22109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -22138,7 +22150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -22179,7 +22191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -22220,7 +22232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -22261,7 +22273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -22302,7 +22314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -22343,7 +22355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -22384,7 +22396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -22425,7 +22437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -22466,7 +22478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -22507,7 +22519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -22548,7 +22560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -22589,7 +22601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -22630,7 +22642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -22671,7 +22683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -22712,7 +22724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -22753,7 +22765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -22794,7 +22806,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -22835,7 +22847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -22876,7 +22888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -22917,7 +22929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -22958,7 +22970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -22999,7 +23011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -23037,6 +23049,47 @@
         <v>911</v>
       </c>
       <c r="M450" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>449</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D451">
+        <v>2</v>
+      </c>
+      <c r="E451">
+        <v>46</v>
+      </c>
+      <c r="F451">
+        <v>17000</v>
+      </c>
+      <c r="G451">
+        <v>27</v>
+      </c>
+      <c r="H451">
+        <v>90</v>
+      </c>
+      <c r="I451">
+        <v>10</v>
+      </c>
+      <c r="J451" s="1">
+        <v>0</v>
+      </c>
+      <c r="K451" t="b">
+        <v>1</v>
+      </c>
+      <c r="L451" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M451">
         <v>11</v>
       </c>
     </row>
@@ -23057,12 +23110,12 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1">
         <v>2.52</v>
       </c>
@@ -23070,7 +23123,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23083,7 +23136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23096,7 +23149,7 @@
         <v>5.0982425092770489</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23109,7 +23162,7 @@
         <v>13.220106341400669</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23122,7 +23175,7 @@
         <v>25.992076683399535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23135,7 +23188,7 @@
         <v>43.911625123650687</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23148,7 +23201,7 @@
         <v>67.399308126891952</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23161,7 +23214,7 @@
         <v>96.823414491907187</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23174,7 +23227,7 @@
         <v>132.51391025169633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23187,7 +23240,7 @@
         <v>174.77121167794215</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23200,7 +23253,7 @@
         <v>223.87211385683412</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23213,7 +23266,7 @@
         <v>280.07401039353323</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23226,7 +23279,7 @@
         <v>343.61801778838282</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23239,7 +23292,7 @@
         <v>414.73136195363412</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23252,7 +23305,7 @@
         <v>493.62924765599212</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23265,7 +23318,7 @@
         <v>580.51635375838327</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -23278,7 +23331,7 @@
         <v>675.58805031572183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -23291,7 +23344,7 @@
         <v>779.03140419618865</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -23304,7 +23357,7 @@
         <v>891.02602077434108</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -23317,7 +23370,7 @@
         <v>1011.7447564018482</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -23330,7 +23383,7 @@
         <v>1141.3543275066218</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -23343,7 +23396,7 @@
         <v>1280.0158359205266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -23356,7 +23409,7 @@
         <v>1427.8852255320141</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -23369,7 +23422,7 @@
         <v>1585.1136820552156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -23382,7 +23435,7 @@
         <v>1751.8479852422499</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -23395,7 +23448,7 @@
         <v>1928.2308210000301</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -23408,7 +23461,7 @@
         <v>2114.401059442383</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -23421,7 +23474,7 @@
         <v>2310.4940037978395</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -23434,7 +23487,7 @@
         <v>2516.6416142222288</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -23447,7 +23500,7 @@
         <v>2732.9727098744729</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -23460,7 +23513,7 @@
         <v>2959.6131520615022</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -23473,7 +23526,7 @@
         <v>3196.6860108123951</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -23486,7 +23539,7 @@
         <v>3444.3117168792169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -23499,7 +23552,7 @@
         <v>3702.6082008650656</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -23512,7 +23565,7 @@
         <v>3971.6910209348021</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -23525,7 +23578,7 @@
         <v>4251.6734803604759</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -23538,7 +23591,7 @@
         <v>4542.6667359837229</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -23551,7 +23604,7 @@
         <v>4844.779898534598</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -23564,7 +23617,7 @@
         <v>5158.1201256260538</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -23577,7 +23630,7 @@
         <v>5482.7927081409744</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -23590,7 +23643,7 @@
         <v>5818.9011506415809</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -23603,7 +23656,7 @@
         <v>6166.5472463567085</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -23616,7 +23669,7 @@
         <v>6525.8311472378282</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -23629,7 +23682,7 @@
         <v>6896.8514295200839</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -23642,7 +23695,7 @@
         <v>7279.7051551759578</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -23655,7 +23708,7 @@
         <v>7674.4879296079898</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -23668,7 +23721,7 @@
         <v>8081.2939558905618</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -23681,7 +23734,7 @@
         <v>8500.2160858385614</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -23694,7 +23747,7 @@
         <v>8931.3458681533884</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -23707,7 +23760,7 @@
         <v>9374.7735938716633</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -23720,7 +23773,7 @@
         <v>9830.5883393205349</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -23733,7 +23786,7 @@
         <v>10298.8780067643</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -23746,7 +23799,7 @@
         <v>10779.729362909591</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -23759,7 +23812,7 @@
         <v>11273.228075421895</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -23772,7 +23825,7 @@
         <v>11779.458747591869</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -23785,7 +23838,7 @@
         <v>12298.504951278277</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -23798,7 +23851,7 @@
         <v>12830.449258243385</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -23811,7 +23864,7 @@
         <v>13375.37326998696</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -23824,7 +23877,7 @@
         <v>13933.357646176126</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -23837,7 +23890,7 @@
         <v>14504.482131760573</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -23850,7 +23903,7 @@
         <v>15088.825582855385</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -23863,7 +23916,7 @@
         <v>15686.465991467408</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -23876,7 +23929,7 @@
         <v>16297.48050913505</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -23889,7 +23942,7 @@
         <v>16921.94546954623</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -23902,7 +23955,7 @@
         <v>17559.936410194634</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -23915,7 +23968,7 @@
         <v>18211.528093129033</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -23928,7 +23981,7 @@
         <v>18876.79452484805</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -23941,7 +23994,7 @@
         <v>19555.808975387277</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -23954,7 +24007,7 @@
         <v>20248.643996643765</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -23967,7 +24020,7 @@
         <v>20955.371439979135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -23980,7 +24033,7 @@
         <v>21676.062473139707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -23993,7 +24046,7 @@
         <v>22410.78759652967</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -24006,7 +24059,7 @@
         <v>23159.616658871029</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -24019,7 +24072,7 @@
         <v>23922.618872281539</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -24032,7 +24085,7 @@
         <v>24699.862826800072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -24045,7 +24098,7 @@
         <v>25491.416504386692</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -24058,7 +24111,7 @@
         <v>26297.34729242426</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -24071,7 +24124,7 @@
         <v>27117.721996743792</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -24084,7 +24137,7 @@
         <v>27952.606854198537</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -24097,7 +24150,7 @@
         <v>28802.067544806476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -24110,7 +24163,7 @@
         <v>29666.169203482033</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -24123,7 +24176,7 @@
         <v>30544.976431376064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -24136,7 +24189,7 @@
         <v>31438.553306841091</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -24149,7 +24202,7 @@
         <v>32346.963396039911</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -24162,7 +24215,7 @@
         <v>33270.269763212098</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -24175,7 +24228,7 @@
         <v>34208.534980614233</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -24188,7 +24241,7 @@
         <v>35161.821138147461</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -24201,7 +24254,7 @@
         <v>36130.189852686453</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -24214,7 +24267,7 @@
         <v>37113.702277121331</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -24227,7 +24280,7 @@
         <v>38112.419109125585</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -24240,7 +24293,7 @@
         <v>39126.40059966105</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -24253,7 +24306,7 @@
         <v>40155.706561229832</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -24266,7 +24319,7 @@
         <v>41200.396375885008</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -24279,7 +24332,7 @@
         <v>42260.529003007789</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -24292,7 +24345,7 @@
         <v>43336.162986862706</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -24305,7 +24358,7 @@
         <v>44427.356463937285</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -24318,7 +24371,7 @@
         <v>45534.167170075518</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -24331,7 +24384,7 @@
         <v>46656.652447413682</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -24344,7 +24397,7 @@
         <v>47794.869251124474</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -24357,7 +24410,7 @@
         <v>48948.87415597833</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -24370,7 +24423,7 @@
         <v>50118.723362727294</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B102">
         <f>SUM(B2:B101)</f>
         <v>3170049.053967345</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B114D-F984-4197-8F43-49CEFD69721D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E135F3-8B85-4884-9746-47F0AE7AFC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1212">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4147,6 +4147,20 @@
   </si>
   <si>
     <t>오로치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title450</t>
+  </si>
+  <si>
+    <t>title451</t>
+  </si>
+  <si>
+    <t>스테이지 9900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10000 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4581,11 +4595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M451"/>
+  <dimension ref="A1:M453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A411" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L452" sqref="L452"/>
+      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I451" sqref="I451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23090,6 +23104,88 @@
         <v>1207</v>
       </c>
       <c r="M451">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D452" s="1">
+        <v>1</v>
+      </c>
+      <c r="E452" s="1">
+        <v>5</v>
+      </c>
+      <c r="F452" s="1">
+        <v>62000000</v>
+      </c>
+      <c r="G452" s="1">
+        <v>10</v>
+      </c>
+      <c r="H452" s="1">
+        <v>120</v>
+      </c>
+      <c r="I452" s="1">
+        <v>10</v>
+      </c>
+      <c r="J452" s="1">
+        <v>0</v>
+      </c>
+      <c r="K452" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L452" t="s">
+        <v>775</v>
+      </c>
+      <c r="M452" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D453" s="1">
+        <v>1</v>
+      </c>
+      <c r="E453" s="1">
+        <v>5</v>
+      </c>
+      <c r="F453" s="1">
+        <v>64000000</v>
+      </c>
+      <c r="G453" s="1">
+        <v>10</v>
+      </c>
+      <c r="H453" s="1">
+        <v>122</v>
+      </c>
+      <c r="I453" s="1">
+        <v>10</v>
+      </c>
+      <c r="J453" s="1">
+        <v>0</v>
+      </c>
+      <c r="K453" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L453" t="s">
+        <v>776</v>
+      </c>
+      <c r="M453" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E135F3-8B85-4884-9746-47F0AE7AFC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F03A9E-C718-45D0-BD34-C12558527924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1215">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4161,6 +4161,18 @@
   </si>
   <si>
     <t>스테이지 10000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(패) 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4595,11 +4607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M453"/>
+  <dimension ref="A1:M454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I451" sqref="I451"/>
+      <selection pane="bottomLeft" activeCell="C446" sqref="C446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23186,6 +23198,47 @@
         <v>776</v>
       </c>
       <c r="M453" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C454" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D454">
+        <v>2</v>
+      </c>
+      <c r="E454">
+        <v>46</v>
+      </c>
+      <c r="F454">
+        <v>19000</v>
+      </c>
+      <c r="G454">
+        <v>27</v>
+      </c>
+      <c r="H454">
+        <v>110</v>
+      </c>
+      <c r="I454">
+        <v>10</v>
+      </c>
+      <c r="J454" s="1">
+        <v>0</v>
+      </c>
+      <c r="K454" t="b">
+        <v>1</v>
+      </c>
+      <c r="L454" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M454">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F03A9E-C718-45D0-BD34-C12558527924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C36356-4980-4ACA-82E0-F87AD86C0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1223">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4174,6 +4174,32 @@
   <si>
     <t>필멸(패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title453</t>
+  </si>
+  <si>
+    <t>title454</t>
+  </si>
+  <si>
+    <t>title455</t>
+  </si>
+  <si>
+    <t>title456</t>
+  </si>
+  <si>
+    <t>스테이지 10100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10300 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 10400 돌파</t>
   </si>
 </sst>
 </file>
@@ -4607,11 +4633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M454"/>
+  <dimension ref="A1:M458"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A423" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C446" sqref="C446"/>
+      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I457" sqref="I457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23239,6 +23265,170 @@
         <v>1214</v>
       </c>
       <c r="M454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D455" s="1">
+        <v>1</v>
+      </c>
+      <c r="E455" s="1">
+        <v>5</v>
+      </c>
+      <c r="F455" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="G455" s="1">
+        <v>10</v>
+      </c>
+      <c r="H455" s="1">
+        <v>124</v>
+      </c>
+      <c r="I455" s="1">
+        <v>10</v>
+      </c>
+      <c r="J455" s="1">
+        <v>0</v>
+      </c>
+      <c r="K455" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L455" t="s">
+        <v>866</v>
+      </c>
+      <c r="M455" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D456" s="1">
+        <v>1</v>
+      </c>
+      <c r="E456" s="1">
+        <v>5</v>
+      </c>
+      <c r="F456" s="1">
+        <v>68000000</v>
+      </c>
+      <c r="G456" s="1">
+        <v>10</v>
+      </c>
+      <c r="H456" s="1">
+        <v>126</v>
+      </c>
+      <c r="I456" s="1">
+        <v>10</v>
+      </c>
+      <c r="J456" s="1">
+        <v>0</v>
+      </c>
+      <c r="K456" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L456" t="s">
+        <v>797</v>
+      </c>
+      <c r="M456" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D457" s="1">
+        <v>1</v>
+      </c>
+      <c r="E457" s="1">
+        <v>5</v>
+      </c>
+      <c r="F457" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="G457" s="1">
+        <v>10</v>
+      </c>
+      <c r="H457" s="1">
+        <v>128</v>
+      </c>
+      <c r="I457" s="1">
+        <v>10</v>
+      </c>
+      <c r="J457" s="1">
+        <v>0</v>
+      </c>
+      <c r="K457" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="s">
+        <v>798</v>
+      </c>
+      <c r="M457" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D458" s="1">
+        <v>1</v>
+      </c>
+      <c r="E458" s="1">
+        <v>5</v>
+      </c>
+      <c r="F458" s="1">
+        <v>72000000</v>
+      </c>
+      <c r="G458" s="1">
+        <v>10</v>
+      </c>
+      <c r="H458" s="1">
+        <v>130</v>
+      </c>
+      <c r="I458" s="1">
+        <v>10</v>
+      </c>
+      <c r="J458" s="1">
+        <v>0</v>
+      </c>
+      <c r="K458" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="s">
+        <v>799</v>
+      </c>
+      <c r="M458" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C36356-4980-4ACA-82E0-F87AD86C0F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A14554-ED82-4684-847A-2C6EF8DB8FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1246">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4200,6 +4200,88 @@
   </si>
   <si>
     <t>스테이지 10400 돌파</t>
+  </si>
+  <si>
+    <t>여우검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title458</t>
+  </si>
+  <si>
+    <t>title459</t>
+  </si>
+  <si>
+    <t>title460</t>
+  </si>
+  <si>
+    <t>title461</t>
+  </si>
+  <si>
+    <t>title462</t>
+  </si>
+  <si>
+    <t>title463</t>
+  </si>
+  <si>
+    <t>title464</t>
+  </si>
+  <si>
+    <t>title465</t>
+  </si>
+  <si>
+    <t>title466</t>
+  </si>
+  <si>
+    <t>title467</t>
+  </si>
+  <si>
+    <t>레벨 1310000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1320000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1330000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1340000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1350000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1360000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1370000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1380000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1390000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1400000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4633,11 +4715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M458"/>
+  <dimension ref="A1:M469"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A426" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I457" sqref="I457"/>
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F468" sqref="F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23429,6 +23511,457 @@
         <v>799</v>
       </c>
       <c r="M458" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>457</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D459">
+        <v>2</v>
+      </c>
+      <c r="E459">
+        <v>46</v>
+      </c>
+      <c r="F459">
+        <v>21000</v>
+      </c>
+      <c r="G459">
+        <v>27</v>
+      </c>
+      <c r="H459">
+        <v>130</v>
+      </c>
+      <c r="I459">
+        <v>10</v>
+      </c>
+      <c r="J459" s="1">
+        <v>0</v>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M459">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D460" s="1">
+        <v>0</v>
+      </c>
+      <c r="E460" s="1">
+        <v>1</v>
+      </c>
+      <c r="F460" s="1">
+        <v>2335000000</v>
+      </c>
+      <c r="G460" s="1">
+        <v>11</v>
+      </c>
+      <c r="H460" s="1">
+        <v>22200000</v>
+      </c>
+      <c r="I460" s="1">
+        <v>10</v>
+      </c>
+      <c r="J460" s="1">
+        <v>0</v>
+      </c>
+      <c r="K460" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="s">
+        <v>872</v>
+      </c>
+      <c r="M460" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D461" s="1">
+        <v>0</v>
+      </c>
+      <c r="E461" s="1">
+        <v>1</v>
+      </c>
+      <c r="F461" s="1">
+        <v>2355000000</v>
+      </c>
+      <c r="G461" s="1">
+        <v>11</v>
+      </c>
+      <c r="H461" s="1">
+        <v>22400000</v>
+      </c>
+      <c r="I461" s="1">
+        <v>10</v>
+      </c>
+      <c r="J461" s="1">
+        <v>0</v>
+      </c>
+      <c r="K461" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="s">
+        <v>899</v>
+      </c>
+      <c r="M461" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D462" s="1">
+        <v>0</v>
+      </c>
+      <c r="E462" s="1">
+        <v>1</v>
+      </c>
+      <c r="F462" s="1">
+        <v>2375000000</v>
+      </c>
+      <c r="G462" s="1">
+        <v>11</v>
+      </c>
+      <c r="H462" s="1">
+        <v>22600000</v>
+      </c>
+      <c r="I462" s="1">
+        <v>10</v>
+      </c>
+      <c r="J462" s="1">
+        <v>0</v>
+      </c>
+      <c r="K462" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="s">
+        <v>900</v>
+      </c>
+      <c r="M462" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D463" s="1">
+        <v>0</v>
+      </c>
+      <c r="E463" s="1">
+        <v>1</v>
+      </c>
+      <c r="F463" s="1">
+        <v>2395000000</v>
+      </c>
+      <c r="G463" s="1">
+        <v>11</v>
+      </c>
+      <c r="H463" s="1">
+        <v>22800000</v>
+      </c>
+      <c r="I463" s="1">
+        <v>10</v>
+      </c>
+      <c r="J463" s="1">
+        <v>0</v>
+      </c>
+      <c r="K463" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="s">
+        <v>909</v>
+      </c>
+      <c r="M463" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D464" s="1">
+        <v>0</v>
+      </c>
+      <c r="E464" s="1">
+        <v>1</v>
+      </c>
+      <c r="F464" s="1">
+        <v>2415000000</v>
+      </c>
+      <c r="G464" s="1">
+        <v>11</v>
+      </c>
+      <c r="H464" s="1">
+        <v>23000000</v>
+      </c>
+      <c r="I464" s="1">
+        <v>10</v>
+      </c>
+      <c r="J464" s="1">
+        <v>0</v>
+      </c>
+      <c r="K464" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L464" t="s">
+        <v>910</v>
+      </c>
+      <c r="M464" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D465" s="1">
+        <v>0</v>
+      </c>
+      <c r="E465" s="1">
+        <v>1</v>
+      </c>
+      <c r="F465" s="1">
+        <v>2435000000</v>
+      </c>
+      <c r="G465" s="1">
+        <v>11</v>
+      </c>
+      <c r="H465" s="1">
+        <v>23200000</v>
+      </c>
+      <c r="I465" s="1">
+        <v>10</v>
+      </c>
+      <c r="J465" s="1">
+        <v>0</v>
+      </c>
+      <c r="K465" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L465" t="s">
+        <v>911</v>
+      </c>
+      <c r="M465" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D466" s="1">
+        <v>0</v>
+      </c>
+      <c r="E466" s="1">
+        <v>1</v>
+      </c>
+      <c r="F466" s="1">
+        <v>2455000000</v>
+      </c>
+      <c r="G466" s="1">
+        <v>11</v>
+      </c>
+      <c r="H466" s="1">
+        <v>23400000</v>
+      </c>
+      <c r="I466" s="1">
+        <v>10</v>
+      </c>
+      <c r="J466" s="1">
+        <v>0</v>
+      </c>
+      <c r="K466" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L466" t="s">
+        <v>912</v>
+      </c>
+      <c r="M466" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>465</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D467" s="1">
+        <v>0</v>
+      </c>
+      <c r="E467" s="1">
+        <v>1</v>
+      </c>
+      <c r="F467" s="1">
+        <v>2475000000</v>
+      </c>
+      <c r="G467" s="1">
+        <v>11</v>
+      </c>
+      <c r="H467" s="1">
+        <v>23600000</v>
+      </c>
+      <c r="I467" s="1">
+        <v>10</v>
+      </c>
+      <c r="J467" s="1">
+        <v>0</v>
+      </c>
+      <c r="K467" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L467" t="s">
+        <v>867</v>
+      </c>
+      <c r="M467" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D468" s="1">
+        <v>0</v>
+      </c>
+      <c r="E468" s="1">
+        <v>1</v>
+      </c>
+      <c r="F468" s="1">
+        <v>2495000000</v>
+      </c>
+      <c r="G468" s="1">
+        <v>11</v>
+      </c>
+      <c r="H468" s="1">
+        <v>23800000</v>
+      </c>
+      <c r="I468" s="1">
+        <v>10</v>
+      </c>
+      <c r="J468" s="1">
+        <v>0</v>
+      </c>
+      <c r="K468" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="s">
+        <v>868</v>
+      </c>
+      <c r="M468" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D469" s="1">
+        <v>0</v>
+      </c>
+      <c r="E469" s="1">
+        <v>1</v>
+      </c>
+      <c r="F469" s="1">
+        <v>2515000000</v>
+      </c>
+      <c r="G469" s="1">
+        <v>11</v>
+      </c>
+      <c r="H469" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="I469" s="1">
+        <v>10</v>
+      </c>
+      <c r="J469" s="1">
+        <v>0</v>
+      </c>
+      <c r="K469" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="s">
+        <v>869</v>
+      </c>
+      <c r="M469" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A14554-ED82-4684-847A-2C6EF8DB8FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B35BC-36CF-49B4-B3C4-0B8239EC3C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="14040" yWindow="2610" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1248">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4282,6 +4282,13 @@
   <si>
     <t>레벨 1400000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1310000달성(보너스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title468</t>
   </si>
 </sst>
 </file>
@@ -4715,11 +4722,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M469"/>
+  <dimension ref="A1:M470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F468" sqref="F468"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I462" sqref="I462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23521,8 +23528,8 @@
       <c r="B459" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C459" t="s">
-        <v>1223</v>
+      <c r="C459" s="1" t="s">
+        <v>1246</v>
       </c>
       <c r="D459">
         <v>2</v>
@@ -23549,7 +23556,7 @@
         <v>1</v>
       </c>
       <c r="L459" t="s">
-        <v>1225</v>
+        <v>773</v>
       </c>
       <c r="M459">
         <v>11</v>
@@ -23962,6 +23969,47 @@
         <v>869</v>
       </c>
       <c r="M469" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D470">
+        <v>2</v>
+      </c>
+      <c r="E470">
+        <v>46</v>
+      </c>
+      <c r="F470">
+        <v>22000</v>
+      </c>
+      <c r="G470">
+        <v>27</v>
+      </c>
+      <c r="H470">
+        <v>140</v>
+      </c>
+      <c r="I470">
+        <v>10</v>
+      </c>
+      <c r="J470" s="1">
+        <v>0</v>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M470">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B35BC-36CF-49B4-B3C4-0B8239EC3C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F4176-0D96-44D0-832C-277315570680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="2610" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1272">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4289,6 +4289,90 @@
   </si>
   <si>
     <t>title468</t>
+  </si>
+  <si>
+    <t>title469</t>
+  </si>
+  <si>
+    <t>title470</t>
+  </si>
+  <si>
+    <t>스테이지 10500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title471</t>
+  </si>
+  <si>
+    <t>title472</t>
+  </si>
+  <si>
+    <t>title473</t>
+  </si>
+  <si>
+    <t>title474</t>
+  </si>
+  <si>
+    <t>title475</t>
+  </si>
+  <si>
+    <t>title476</t>
+  </si>
+  <si>
+    <t>title477</t>
+  </si>
+  <si>
+    <t>title478</t>
+  </si>
+  <si>
+    <t>title479</t>
+  </si>
+  <si>
+    <t>title480</t>
+  </si>
+  <si>
+    <t>레벨 1410000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1420000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1430000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1440000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1450000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1460000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1470000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1480000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1490000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1500000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4722,11 +4806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M470"/>
+  <dimension ref="A1:M482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I462" sqref="I462"/>
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G480" sqref="G480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24010,6 +24094,498 @@
         <v>1225</v>
       </c>
       <c r="M470">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D471" s="1">
+        <v>1</v>
+      </c>
+      <c r="E471" s="1">
+        <v>5</v>
+      </c>
+      <c r="F471" s="1">
+        <v>74000000</v>
+      </c>
+      <c r="G471" s="1">
+        <v>10</v>
+      </c>
+      <c r="H471" s="1">
+        <v>132</v>
+      </c>
+      <c r="I471" s="1">
+        <v>10</v>
+      </c>
+      <c r="J471" s="1">
+        <v>0</v>
+      </c>
+      <c r="K471" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="s">
+        <v>769</v>
+      </c>
+      <c r="M471" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D472" s="1">
+        <v>1</v>
+      </c>
+      <c r="E472" s="1">
+        <v>5</v>
+      </c>
+      <c r="F472" s="1">
+        <v>76000000</v>
+      </c>
+      <c r="G472" s="1">
+        <v>10</v>
+      </c>
+      <c r="H472" s="1">
+        <v>134</v>
+      </c>
+      <c r="I472" s="1">
+        <v>10</v>
+      </c>
+      <c r="J472" s="1">
+        <v>0</v>
+      </c>
+      <c r="K472" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="s">
+        <v>770</v>
+      </c>
+      <c r="M472" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D473" s="1">
+        <v>0</v>
+      </c>
+      <c r="E473" s="1">
+        <v>1</v>
+      </c>
+      <c r="F473" s="1">
+        <v>2535000000</v>
+      </c>
+      <c r="G473" s="1">
+        <v>11</v>
+      </c>
+      <c r="H473" s="1">
+        <v>24200000</v>
+      </c>
+      <c r="I473" s="1">
+        <v>10</v>
+      </c>
+      <c r="J473" s="1">
+        <v>0</v>
+      </c>
+      <c r="K473" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="s">
+        <v>872</v>
+      </c>
+      <c r="M473" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D474" s="1">
+        <v>0</v>
+      </c>
+      <c r="E474" s="1">
+        <v>1</v>
+      </c>
+      <c r="F474" s="1">
+        <v>2555000000</v>
+      </c>
+      <c r="G474" s="1">
+        <v>11</v>
+      </c>
+      <c r="H474" s="1">
+        <v>24400000</v>
+      </c>
+      <c r="I474" s="1">
+        <v>10</v>
+      </c>
+      <c r="J474" s="1">
+        <v>0</v>
+      </c>
+      <c r="K474" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="s">
+        <v>899</v>
+      </c>
+      <c r="M474" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>473</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D475" s="1">
+        <v>0</v>
+      </c>
+      <c r="E475" s="1">
+        <v>1</v>
+      </c>
+      <c r="F475" s="1">
+        <v>2575000000</v>
+      </c>
+      <c r="G475" s="1">
+        <v>11</v>
+      </c>
+      <c r="H475" s="1">
+        <v>24600000</v>
+      </c>
+      <c r="I475" s="1">
+        <v>10</v>
+      </c>
+      <c r="J475" s="1">
+        <v>0</v>
+      </c>
+      <c r="K475" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L475" t="s">
+        <v>900</v>
+      </c>
+      <c r="M475" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D476" s="1">
+        <v>0</v>
+      </c>
+      <c r="E476" s="1">
+        <v>1</v>
+      </c>
+      <c r="F476" s="1">
+        <v>2595000000</v>
+      </c>
+      <c r="G476" s="1">
+        <v>11</v>
+      </c>
+      <c r="H476" s="1">
+        <v>24800000</v>
+      </c>
+      <c r="I476" s="1">
+        <v>10</v>
+      </c>
+      <c r="J476" s="1">
+        <v>0</v>
+      </c>
+      <c r="K476" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L476" t="s">
+        <v>909</v>
+      </c>
+      <c r="M476" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D477" s="1">
+        <v>0</v>
+      </c>
+      <c r="E477" s="1">
+        <v>1</v>
+      </c>
+      <c r="F477" s="1">
+        <v>2615000000</v>
+      </c>
+      <c r="G477" s="1">
+        <v>11</v>
+      </c>
+      <c r="H477" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="I477" s="1">
+        <v>10</v>
+      </c>
+      <c r="J477" s="1">
+        <v>0</v>
+      </c>
+      <c r="K477" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L477" t="s">
+        <v>910</v>
+      </c>
+      <c r="M477" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D478" s="1">
+        <v>0</v>
+      </c>
+      <c r="E478" s="1">
+        <v>1</v>
+      </c>
+      <c r="F478" s="1">
+        <v>2635000000</v>
+      </c>
+      <c r="G478" s="1">
+        <v>11</v>
+      </c>
+      <c r="H478" s="1">
+        <v>25200000</v>
+      </c>
+      <c r="I478" s="1">
+        <v>10</v>
+      </c>
+      <c r="J478" s="1">
+        <v>0</v>
+      </c>
+      <c r="K478" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L478" t="s">
+        <v>911</v>
+      </c>
+      <c r="M478" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D479" s="1">
+        <v>0</v>
+      </c>
+      <c r="E479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F479" s="1">
+        <v>2655000000</v>
+      </c>
+      <c r="G479" s="1">
+        <v>11</v>
+      </c>
+      <c r="H479" s="1">
+        <v>25400000</v>
+      </c>
+      <c r="I479" s="1">
+        <v>10</v>
+      </c>
+      <c r="J479" s="1">
+        <v>0</v>
+      </c>
+      <c r="K479" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L479" t="s">
+        <v>912</v>
+      </c>
+      <c r="M479" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D480" s="1">
+        <v>0</v>
+      </c>
+      <c r="E480" s="1">
+        <v>1</v>
+      </c>
+      <c r="F480" s="1">
+        <v>2675000000</v>
+      </c>
+      <c r="G480" s="1">
+        <v>11</v>
+      </c>
+      <c r="H480" s="1">
+        <v>25600000</v>
+      </c>
+      <c r="I480" s="1">
+        <v>10</v>
+      </c>
+      <c r="J480" s="1">
+        <v>0</v>
+      </c>
+      <c r="K480" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L480" t="s">
+        <v>867</v>
+      </c>
+      <c r="M480" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>479</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D481" s="1">
+        <v>0</v>
+      </c>
+      <c r="E481" s="1">
+        <v>1</v>
+      </c>
+      <c r="F481" s="1">
+        <v>2695000000</v>
+      </c>
+      <c r="G481" s="1">
+        <v>11</v>
+      </c>
+      <c r="H481" s="1">
+        <v>25800000</v>
+      </c>
+      <c r="I481" s="1">
+        <v>10</v>
+      </c>
+      <c r="J481" s="1">
+        <v>0</v>
+      </c>
+      <c r="K481" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L481" t="s">
+        <v>868</v>
+      </c>
+      <c r="M481" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>480</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D482" s="1">
+        <v>0</v>
+      </c>
+      <c r="E482" s="1">
+        <v>1</v>
+      </c>
+      <c r="F482" s="1">
+        <v>2715000000</v>
+      </c>
+      <c r="G482" s="1">
+        <v>11</v>
+      </c>
+      <c r="H482" s="1">
+        <v>26000000</v>
+      </c>
+      <c r="I482" s="1">
+        <v>10</v>
+      </c>
+      <c r="J482" s="1">
+        <v>0</v>
+      </c>
+      <c r="K482" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L482" t="s">
+        <v>869</v>
+      </c>
+      <c r="M482" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7F4176-0D96-44D0-832C-277315570680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68A3D1-1FD8-4B57-B749-337C5F5750A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1279">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4372,6 +4372,31 @@
   </si>
   <si>
     <t>레벨 1500000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title481</t>
+  </si>
+  <si>
+    <t>title482</t>
+  </si>
+  <si>
+    <t>스테이지 10700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 10800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title483</t>
+  </si>
+  <si>
+    <t>차사검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지옥차사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4806,11 +4831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M482"/>
+  <dimension ref="A1:M485"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G480" sqref="G480"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L486" sqref="L486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24586,6 +24611,129 @@
         <v>869</v>
       </c>
       <c r="M482" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>481</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D483" s="1">
+        <v>1</v>
+      </c>
+      <c r="E483" s="1">
+        <v>5</v>
+      </c>
+      <c r="F483" s="1">
+        <v>78000000</v>
+      </c>
+      <c r="G483" s="1">
+        <v>10</v>
+      </c>
+      <c r="H483" s="1">
+        <v>136</v>
+      </c>
+      <c r="I483" s="1">
+        <v>10</v>
+      </c>
+      <c r="J483" s="1">
+        <v>0</v>
+      </c>
+      <c r="K483" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L483" t="s">
+        <v>798</v>
+      </c>
+      <c r="M483" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>482</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D484" s="1">
+        <v>1</v>
+      </c>
+      <c r="E484" s="1">
+        <v>5</v>
+      </c>
+      <c r="F484" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="G484" s="1">
+        <v>10</v>
+      </c>
+      <c r="H484" s="1">
+        <v>138</v>
+      </c>
+      <c r="I484" s="1">
+        <v>10</v>
+      </c>
+      <c r="J484" s="1">
+        <v>0</v>
+      </c>
+      <c r="K484" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L484" t="s">
+        <v>799</v>
+      </c>
+      <c r="M484" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>483</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C485" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D485">
+        <v>2</v>
+      </c>
+      <c r="E485">
+        <v>46</v>
+      </c>
+      <c r="F485">
+        <v>23000</v>
+      </c>
+      <c r="G485">
+        <v>27</v>
+      </c>
+      <c r="H485">
+        <v>150</v>
+      </c>
+      <c r="I485">
+        <v>10</v>
+      </c>
+      <c r="J485" s="1">
+        <v>0</v>
+      </c>
+      <c r="K485" t="b">
+        <v>1</v>
+      </c>
+      <c r="L485" t="s">
+        <v>1278</v>
+      </c>
+      <c r="M485">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C68A3D1-1FD8-4B57-B749-337C5F5750A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0714BD-73D9-40E8-996E-AF9BF17CD693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1283">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4397,6 +4397,20 @@
   </si>
   <si>
     <t>지옥차사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title484</t>
+  </si>
+  <si>
+    <t>title485</t>
+  </si>
+  <si>
+    <t>스테이지 10900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 11000 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4831,11 +4845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M485"/>
+  <dimension ref="A1:M487"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L486" sqref="L486"/>
+      <selection pane="bottomLeft" activeCell="L483" sqref="L483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24734,6 +24748,88 @@
         <v>1278</v>
       </c>
       <c r="M485">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>484</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D486" s="1">
+        <v>1</v>
+      </c>
+      <c r="E486" s="1">
+        <v>5</v>
+      </c>
+      <c r="F486" s="1">
+        <v>82000000</v>
+      </c>
+      <c r="G486" s="1">
+        <v>10</v>
+      </c>
+      <c r="H486" s="1">
+        <v>140</v>
+      </c>
+      <c r="I486" s="1">
+        <v>10</v>
+      </c>
+      <c r="J486" s="1">
+        <v>0</v>
+      </c>
+      <c r="K486" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L486" t="s">
+        <v>866</v>
+      </c>
+      <c r="M486" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>485</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D487" s="1">
+        <v>1</v>
+      </c>
+      <c r="E487" s="1">
+        <v>5</v>
+      </c>
+      <c r="F487" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="G487" s="1">
+        <v>10</v>
+      </c>
+      <c r="H487" s="1">
+        <v>142</v>
+      </c>
+      <c r="I487" s="1">
+        <v>10</v>
+      </c>
+      <c r="J487" s="1">
+        <v>0</v>
+      </c>
+      <c r="K487" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L487" t="s">
+        <v>797</v>
+      </c>
+      <c r="M487" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0714BD-73D9-40E8-996E-AF9BF17CD693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CFB92-EFB0-4CFE-9A21-87731141F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5910" yWindow="3540" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1313">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4411,6 +4411,110 @@
   </si>
   <si>
     <t>스테이지 11000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title486</t>
+  </si>
+  <si>
+    <t>스테이지 11100 돌파</t>
+  </si>
+  <si>
+    <t>title487</t>
+  </si>
+  <si>
+    <t>스테이지 11200 돌파</t>
+  </si>
+  <si>
+    <t>title488</t>
+  </si>
+  <si>
+    <t>title489</t>
+  </si>
+  <si>
+    <t>title490</t>
+  </si>
+  <si>
+    <t>title491</t>
+  </si>
+  <si>
+    <t>title492</t>
+  </si>
+  <si>
+    <t>title493</t>
+  </si>
+  <si>
+    <t>title494</t>
+  </si>
+  <si>
+    <t>title495</t>
+  </si>
+  <si>
+    <t>title496</t>
+  </si>
+  <si>
+    <t>title497</t>
+  </si>
+  <si>
+    <t>레벨 1510000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1520000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1530000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1540000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1550000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1560000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1570000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1580000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1590000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1600000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title498</t>
+  </si>
+  <si>
+    <t>title499</t>
+  </si>
+  <si>
+    <t>염라검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라대왕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4845,11 +4949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M487"/>
+  <dimension ref="A1:M501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L483" sqref="L483"/>
+      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24830,6 +24934,580 @@
         <v>797</v>
       </c>
       <c r="M487" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>486</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D488" s="1">
+        <v>1</v>
+      </c>
+      <c r="E488" s="1">
+        <v>5</v>
+      </c>
+      <c r="F488" s="1">
+        <v>86000000</v>
+      </c>
+      <c r="G488" s="1">
+        <v>10</v>
+      </c>
+      <c r="H488" s="1">
+        <v>144</v>
+      </c>
+      <c r="I488" s="1">
+        <v>10</v>
+      </c>
+      <c r="J488" s="1">
+        <v>0</v>
+      </c>
+      <c r="K488" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L488" t="s">
+        <v>909</v>
+      </c>
+      <c r="M488" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>487</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D489" s="1">
+        <v>1</v>
+      </c>
+      <c r="E489" s="1">
+        <v>5</v>
+      </c>
+      <c r="F489" s="1">
+        <v>88000000</v>
+      </c>
+      <c r="G489" s="1">
+        <v>10</v>
+      </c>
+      <c r="H489" s="1">
+        <v>146</v>
+      </c>
+      <c r="I489" s="1">
+        <v>10</v>
+      </c>
+      <c r="J489" s="1">
+        <v>0</v>
+      </c>
+      <c r="K489" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L489" t="s">
+        <v>910</v>
+      </c>
+      <c r="M489" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>488</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D490" s="1">
+        <v>0</v>
+      </c>
+      <c r="E490" s="1">
+        <v>1</v>
+      </c>
+      <c r="F490" s="1">
+        <v>2735000000</v>
+      </c>
+      <c r="G490" s="1">
+        <v>11</v>
+      </c>
+      <c r="H490" s="1">
+        <v>26200000</v>
+      </c>
+      <c r="I490" s="1">
+        <v>10</v>
+      </c>
+      <c r="J490" s="1">
+        <v>0</v>
+      </c>
+      <c r="K490" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="s">
+        <v>872</v>
+      </c>
+      <c r="M490" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>489</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D491" s="1">
+        <v>0</v>
+      </c>
+      <c r="E491" s="1">
+        <v>1</v>
+      </c>
+      <c r="F491" s="1">
+        <v>2755000000</v>
+      </c>
+      <c r="G491" s="1">
+        <v>11</v>
+      </c>
+      <c r="H491" s="1">
+        <v>26400000</v>
+      </c>
+      <c r="I491" s="1">
+        <v>10</v>
+      </c>
+      <c r="J491" s="1">
+        <v>0</v>
+      </c>
+      <c r="K491" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="s">
+        <v>899</v>
+      </c>
+      <c r="M491" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>490</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D492" s="1">
+        <v>0</v>
+      </c>
+      <c r="E492" s="1">
+        <v>1</v>
+      </c>
+      <c r="F492" s="1">
+        <v>2775000000</v>
+      </c>
+      <c r="G492" s="1">
+        <v>11</v>
+      </c>
+      <c r="H492" s="1">
+        <v>26600000</v>
+      </c>
+      <c r="I492" s="1">
+        <v>10</v>
+      </c>
+      <c r="J492" s="1">
+        <v>0</v>
+      </c>
+      <c r="K492" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="s">
+        <v>900</v>
+      </c>
+      <c r="M492" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>491</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D493" s="1">
+        <v>0</v>
+      </c>
+      <c r="E493" s="1">
+        <v>1</v>
+      </c>
+      <c r="F493" s="1">
+        <v>2795000000</v>
+      </c>
+      <c r="G493" s="1">
+        <v>11</v>
+      </c>
+      <c r="H493" s="1">
+        <v>26800000</v>
+      </c>
+      <c r="I493" s="1">
+        <v>10</v>
+      </c>
+      <c r="J493" s="1">
+        <v>0</v>
+      </c>
+      <c r="K493" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="s">
+        <v>909</v>
+      </c>
+      <c r="M493" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>492</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D494" s="1">
+        <v>0</v>
+      </c>
+      <c r="E494" s="1">
+        <v>1</v>
+      </c>
+      <c r="F494" s="1">
+        <v>2815000000</v>
+      </c>
+      <c r="G494" s="1">
+        <v>11</v>
+      </c>
+      <c r="H494" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="I494" s="1">
+        <v>10</v>
+      </c>
+      <c r="J494" s="1">
+        <v>0</v>
+      </c>
+      <c r="K494" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="s">
+        <v>910</v>
+      </c>
+      <c r="M494" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>493</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D495" s="1">
+        <v>0</v>
+      </c>
+      <c r="E495" s="1">
+        <v>1</v>
+      </c>
+      <c r="F495" s="1">
+        <v>2835000000</v>
+      </c>
+      <c r="G495" s="1">
+        <v>11</v>
+      </c>
+      <c r="H495" s="1">
+        <v>27200000</v>
+      </c>
+      <c r="I495" s="1">
+        <v>10</v>
+      </c>
+      <c r="J495" s="1">
+        <v>0</v>
+      </c>
+      <c r="K495" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="s">
+        <v>911</v>
+      </c>
+      <c r="M495" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>494</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D496" s="1">
+        <v>0</v>
+      </c>
+      <c r="E496" s="1">
+        <v>1</v>
+      </c>
+      <c r="F496" s="1">
+        <v>2855000000</v>
+      </c>
+      <c r="G496" s="1">
+        <v>11</v>
+      </c>
+      <c r="H496" s="1">
+        <v>27400000</v>
+      </c>
+      <c r="I496" s="1">
+        <v>10</v>
+      </c>
+      <c r="J496" s="1">
+        <v>0</v>
+      </c>
+      <c r="K496" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="s">
+        <v>912</v>
+      </c>
+      <c r="M496" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>495</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D497" s="1">
+        <v>0</v>
+      </c>
+      <c r="E497" s="1">
+        <v>1</v>
+      </c>
+      <c r="F497" s="1">
+        <v>2875000000</v>
+      </c>
+      <c r="G497" s="1">
+        <v>11</v>
+      </c>
+      <c r="H497" s="1">
+        <v>27600000</v>
+      </c>
+      <c r="I497" s="1">
+        <v>10</v>
+      </c>
+      <c r="J497" s="1">
+        <v>0</v>
+      </c>
+      <c r="K497" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L497" t="s">
+        <v>867</v>
+      </c>
+      <c r="M497" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>496</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D498" s="1">
+        <v>0</v>
+      </c>
+      <c r="E498" s="1">
+        <v>1</v>
+      </c>
+      <c r="F498" s="1">
+        <v>2895000000</v>
+      </c>
+      <c r="G498" s="1">
+        <v>11</v>
+      </c>
+      <c r="H498" s="1">
+        <v>27800000</v>
+      </c>
+      <c r="I498" s="1">
+        <v>10</v>
+      </c>
+      <c r="J498" s="1">
+        <v>0</v>
+      </c>
+      <c r="K498" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L498" t="s">
+        <v>868</v>
+      </c>
+      <c r="M498" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>497</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D499" s="1">
+        <v>0</v>
+      </c>
+      <c r="E499" s="1">
+        <v>1</v>
+      </c>
+      <c r="F499" s="1">
+        <v>2915000000</v>
+      </c>
+      <c r="G499" s="1">
+        <v>11</v>
+      </c>
+      <c r="H499" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="I499" s="1">
+        <v>10</v>
+      </c>
+      <c r="J499" s="1">
+        <v>0</v>
+      </c>
+      <c r="K499" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L499" t="s">
+        <v>869</v>
+      </c>
+      <c r="M499" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>498</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D500">
+        <v>2</v>
+      </c>
+      <c r="E500">
+        <v>46</v>
+      </c>
+      <c r="F500">
+        <v>25000</v>
+      </c>
+      <c r="G500">
+        <v>27</v>
+      </c>
+      <c r="H500">
+        <v>170</v>
+      </c>
+      <c r="I500">
+        <v>10</v>
+      </c>
+      <c r="J500" s="1">
+        <v>0</v>
+      </c>
+      <c r="K500" t="b">
+        <v>1</v>
+      </c>
+      <c r="L500" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M500">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>499</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D501">
+        <v>2</v>
+      </c>
+      <c r="E501">
+        <v>46</v>
+      </c>
+      <c r="F501">
+        <v>27000</v>
+      </c>
+      <c r="G501">
+        <v>27</v>
+      </c>
+      <c r="H501">
+        <v>200</v>
+      </c>
+      <c r="I501">
+        <v>10</v>
+      </c>
+      <c r="J501" s="1">
+        <v>0</v>
+      </c>
+      <c r="K501" t="b">
+        <v>1</v>
+      </c>
+      <c r="L501" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M501">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2CFB92-EFB0-4CFE-9A21-87731141F908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2878D-CAAE-4531-8C48-5EB7C5F9731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="3540" windowWidth="23595" windowHeight="10995" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1340">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4516,6 +4516,94 @@
   <si>
     <t>여래</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title501</t>
+  </si>
+  <si>
+    <t>title502</t>
+  </si>
+  <si>
+    <t>스테이지 11300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 11400 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title503</t>
+  </si>
+  <si>
+    <t>title504</t>
+  </si>
+  <si>
+    <t>title505</t>
+  </si>
+  <si>
+    <t>title506</t>
+  </si>
+  <si>
+    <t>title507</t>
+  </si>
+  <si>
+    <t>title508</t>
+  </si>
+  <si>
+    <t>title509</t>
+  </si>
+  <si>
+    <t>title510</t>
+  </si>
+  <si>
+    <t>title511</t>
+  </si>
+  <si>
+    <t>title512</t>
+  </si>
+  <si>
+    <t>레벨 1610000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1620000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1630000달성</t>
+  </si>
+  <si>
+    <t>레벨 1640000달성</t>
+  </si>
+  <si>
+    <t>레벨 1650000달성</t>
+  </si>
+  <si>
+    <t>레벨 1660000달성</t>
+  </si>
+  <si>
+    <t>레벨 1670000달성</t>
+  </si>
+  <si>
+    <t>레벨 1680000달성</t>
+  </si>
+  <si>
+    <t>레벨 1690000달성</t>
+  </si>
+  <si>
+    <t>레벨 1700000달성</t>
   </si>
 </sst>
 </file>
@@ -4949,11 +5037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M501"/>
+  <dimension ref="A1:M514"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C500" sqref="C500"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F508" sqref="F508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25508,6 +25596,539 @@
         <v>1312</v>
       </c>
       <c r="M501">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A502" s="3">
+        <v>500</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D502">
+        <v>2</v>
+      </c>
+      <c r="E502">
+        <v>46</v>
+      </c>
+      <c r="F502">
+        <v>30000</v>
+      </c>
+      <c r="G502">
+        <v>27</v>
+      </c>
+      <c r="H502">
+        <v>250</v>
+      </c>
+      <c r="I502">
+        <v>10</v>
+      </c>
+      <c r="J502" s="1">
+        <v>0</v>
+      </c>
+      <c r="K502" t="b">
+        <v>1</v>
+      </c>
+      <c r="L502" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M502">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>501</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D503" s="1">
+        <v>1</v>
+      </c>
+      <c r="E503" s="1">
+        <v>5</v>
+      </c>
+      <c r="F503" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="G503" s="1">
+        <v>10</v>
+      </c>
+      <c r="H503" s="1">
+        <v>148</v>
+      </c>
+      <c r="I503" s="1">
+        <v>10</v>
+      </c>
+      <c r="J503" s="1">
+        <v>0</v>
+      </c>
+      <c r="K503" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L503" t="s">
+        <v>872</v>
+      </c>
+      <c r="M503" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>502</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D504" s="1">
+        <v>1</v>
+      </c>
+      <c r="E504" s="1">
+        <v>5</v>
+      </c>
+      <c r="F504" s="1">
+        <v>92000000</v>
+      </c>
+      <c r="G504" s="1">
+        <v>10</v>
+      </c>
+      <c r="H504" s="1">
+        <v>150</v>
+      </c>
+      <c r="I504" s="1">
+        <v>10</v>
+      </c>
+      <c r="J504" s="1">
+        <v>0</v>
+      </c>
+      <c r="K504" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L504" t="s">
+        <v>899</v>
+      </c>
+      <c r="M504" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>503</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D505" s="1">
+        <v>0</v>
+      </c>
+      <c r="E505" s="1">
+        <v>1</v>
+      </c>
+      <c r="F505" s="1">
+        <v>2935000000</v>
+      </c>
+      <c r="G505" s="1">
+        <v>11</v>
+      </c>
+      <c r="H505" s="1">
+        <v>28200000</v>
+      </c>
+      <c r="I505" s="1">
+        <v>10</v>
+      </c>
+      <c r="J505" s="1">
+        <v>0</v>
+      </c>
+      <c r="K505" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L505" t="s">
+        <v>872</v>
+      </c>
+      <c r="M505" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>504</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D506" s="1">
+        <v>0</v>
+      </c>
+      <c r="E506" s="1">
+        <v>1</v>
+      </c>
+      <c r="F506" s="1">
+        <v>2955000000</v>
+      </c>
+      <c r="G506" s="1">
+        <v>11</v>
+      </c>
+      <c r="H506" s="1">
+        <v>28400000</v>
+      </c>
+      <c r="I506" s="1">
+        <v>10</v>
+      </c>
+      <c r="J506" s="1">
+        <v>0</v>
+      </c>
+      <c r="K506" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L506" t="s">
+        <v>899</v>
+      </c>
+      <c r="M506" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>505</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D507" s="1">
+        <v>0</v>
+      </c>
+      <c r="E507" s="1">
+        <v>1</v>
+      </c>
+      <c r="F507" s="1">
+        <v>2975000000</v>
+      </c>
+      <c r="G507" s="1">
+        <v>11</v>
+      </c>
+      <c r="H507" s="1">
+        <v>28600000</v>
+      </c>
+      <c r="I507" s="1">
+        <v>10</v>
+      </c>
+      <c r="J507" s="1">
+        <v>0</v>
+      </c>
+      <c r="K507" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L507" t="s">
+        <v>900</v>
+      </c>
+      <c r="M507" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>506</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D508" s="1">
+        <v>0</v>
+      </c>
+      <c r="E508" s="1">
+        <v>1</v>
+      </c>
+      <c r="F508" s="1">
+        <v>2995000000</v>
+      </c>
+      <c r="G508" s="1">
+        <v>11</v>
+      </c>
+      <c r="H508" s="1">
+        <v>28800000</v>
+      </c>
+      <c r="I508" s="1">
+        <v>10</v>
+      </c>
+      <c r="J508" s="1">
+        <v>0</v>
+      </c>
+      <c r="K508" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L508" t="s">
+        <v>909</v>
+      </c>
+      <c r="M508" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>507</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D509" s="1">
+        <v>0</v>
+      </c>
+      <c r="E509" s="1">
+        <v>1</v>
+      </c>
+      <c r="F509" s="1">
+        <v>3015000000</v>
+      </c>
+      <c r="G509" s="1">
+        <v>11</v>
+      </c>
+      <c r="H509" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="I509" s="1">
+        <v>10</v>
+      </c>
+      <c r="J509" s="1">
+        <v>0</v>
+      </c>
+      <c r="K509" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L509" t="s">
+        <v>910</v>
+      </c>
+      <c r="M509" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>508</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D510" s="1">
+        <v>0</v>
+      </c>
+      <c r="E510" s="1">
+        <v>1</v>
+      </c>
+      <c r="F510" s="1">
+        <v>3035000000</v>
+      </c>
+      <c r="G510" s="1">
+        <v>11</v>
+      </c>
+      <c r="H510" s="1">
+        <v>29200000</v>
+      </c>
+      <c r="I510" s="1">
+        <v>10</v>
+      </c>
+      <c r="J510" s="1">
+        <v>0</v>
+      </c>
+      <c r="K510" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L510" t="s">
+        <v>911</v>
+      </c>
+      <c r="M510" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>509</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D511" s="1">
+        <v>0</v>
+      </c>
+      <c r="E511" s="1">
+        <v>1</v>
+      </c>
+      <c r="F511" s="1">
+        <v>3055000000</v>
+      </c>
+      <c r="G511" s="1">
+        <v>11</v>
+      </c>
+      <c r="H511" s="1">
+        <v>29400000</v>
+      </c>
+      <c r="I511" s="1">
+        <v>10</v>
+      </c>
+      <c r="J511" s="1">
+        <v>0</v>
+      </c>
+      <c r="K511" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L511" t="s">
+        <v>912</v>
+      </c>
+      <c r="M511" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>510</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D512" s="1">
+        <v>0</v>
+      </c>
+      <c r="E512" s="1">
+        <v>1</v>
+      </c>
+      <c r="F512" s="1">
+        <v>3075000000</v>
+      </c>
+      <c r="G512" s="1">
+        <v>11</v>
+      </c>
+      <c r="H512" s="1">
+        <v>29600000</v>
+      </c>
+      <c r="I512" s="1">
+        <v>10</v>
+      </c>
+      <c r="J512" s="1">
+        <v>0</v>
+      </c>
+      <c r="K512" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L512" t="s">
+        <v>867</v>
+      </c>
+      <c r="M512" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>511</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D513" s="1">
+        <v>0</v>
+      </c>
+      <c r="E513" s="1">
+        <v>1</v>
+      </c>
+      <c r="F513" s="1">
+        <v>3095000000</v>
+      </c>
+      <c r="G513" s="1">
+        <v>11</v>
+      </c>
+      <c r="H513" s="1">
+        <v>29800000</v>
+      </c>
+      <c r="I513" s="1">
+        <v>10</v>
+      </c>
+      <c r="J513" s="1">
+        <v>0</v>
+      </c>
+      <c r="K513" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L513" t="s">
+        <v>868</v>
+      </c>
+      <c r="M513" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>512</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D514" s="1">
+        <v>0</v>
+      </c>
+      <c r="E514" s="1">
+        <v>1</v>
+      </c>
+      <c r="F514" s="1">
+        <v>3115000000</v>
+      </c>
+      <c r="G514" s="1">
+        <v>11</v>
+      </c>
+      <c r="H514" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="I514" s="1">
+        <v>10</v>
+      </c>
+      <c r="J514" s="1">
+        <v>0</v>
+      </c>
+      <c r="K514" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L514" t="s">
+        <v>869</v>
+      </c>
+      <c r="M514" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2878D-CAAE-4531-8C48-5EB7C5F9731F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD6A80-4C4A-4B1F-AAE8-D549F48367ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1367">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4604,6 +4604,102 @@
   </si>
   <si>
     <t>레벨 1700000달성</t>
+  </si>
+  <si>
+    <t>불멸검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title513</t>
+  </si>
+  <si>
+    <t>불멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title514</t>
+  </si>
+  <si>
+    <t>title515</t>
+  </si>
+  <si>
+    <t>title516</t>
+  </si>
+  <si>
+    <t>title517</t>
+  </si>
+  <si>
+    <t>title518</t>
+  </si>
+  <si>
+    <t>title519</t>
+  </si>
+  <si>
+    <t>title520</t>
+  </si>
+  <si>
+    <t>title521</t>
+  </si>
+  <si>
+    <t>title522</t>
+  </si>
+  <si>
+    <t>레벨 1710000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1720000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1730000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1740000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1750000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1760000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1770000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1780000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1790000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1800000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title524</t>
+  </si>
+  <si>
+    <t>title525</t>
+  </si>
+  <si>
+    <t>스테이지 11500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 11600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5037,11 +5133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M514"/>
+  <dimension ref="A1:M527"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F508" sqref="F508"/>
+      <selection pane="bottomLeft" activeCell="G525" sqref="G525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26129,6 +26225,539 @@
         <v>869</v>
       </c>
       <c r="M514" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C515" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D515">
+        <v>2</v>
+      </c>
+      <c r="E515">
+        <v>46</v>
+      </c>
+      <c r="F515">
+        <v>33000</v>
+      </c>
+      <c r="G515">
+        <v>27</v>
+      </c>
+      <c r="H515">
+        <v>300</v>
+      </c>
+      <c r="I515">
+        <v>10</v>
+      </c>
+      <c r="J515" s="1">
+        <v>0</v>
+      </c>
+      <c r="K515" t="b">
+        <v>1</v>
+      </c>
+      <c r="L515" t="s">
+        <v>1342</v>
+      </c>
+      <c r="M515">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D516" s="1">
+        <v>0</v>
+      </c>
+      <c r="E516" s="1">
+        <v>1</v>
+      </c>
+      <c r="F516" s="1">
+        <v>3135000000</v>
+      </c>
+      <c r="G516" s="1">
+        <v>11</v>
+      </c>
+      <c r="H516" s="1">
+        <v>30200000</v>
+      </c>
+      <c r="I516" s="1">
+        <v>10</v>
+      </c>
+      <c r="J516" s="1">
+        <v>0</v>
+      </c>
+      <c r="K516" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L516" t="s">
+        <v>775</v>
+      </c>
+      <c r="M516" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D517" s="1">
+        <v>0</v>
+      </c>
+      <c r="E517" s="1">
+        <v>1</v>
+      </c>
+      <c r="F517" s="1">
+        <v>3155000000</v>
+      </c>
+      <c r="G517" s="1">
+        <v>11</v>
+      </c>
+      <c r="H517" s="1">
+        <v>30400000</v>
+      </c>
+      <c r="I517" s="1">
+        <v>10</v>
+      </c>
+      <c r="J517" s="1">
+        <v>0</v>
+      </c>
+      <c r="K517" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L517" t="s">
+        <v>776</v>
+      </c>
+      <c r="M517" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>516</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D518" s="1">
+        <v>0</v>
+      </c>
+      <c r="E518" s="1">
+        <v>1</v>
+      </c>
+      <c r="F518" s="1">
+        <v>3175000000</v>
+      </c>
+      <c r="G518" s="1">
+        <v>11</v>
+      </c>
+      <c r="H518" s="1">
+        <v>30600000</v>
+      </c>
+      <c r="I518" s="1">
+        <v>10</v>
+      </c>
+      <c r="J518" s="1">
+        <v>0</v>
+      </c>
+      <c r="K518" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L518" t="s">
+        <v>865</v>
+      </c>
+      <c r="M518" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>517</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D519" s="1">
+        <v>0</v>
+      </c>
+      <c r="E519" s="1">
+        <v>1</v>
+      </c>
+      <c r="F519" s="1">
+        <v>3195000000</v>
+      </c>
+      <c r="G519" s="1">
+        <v>11</v>
+      </c>
+      <c r="H519" s="1">
+        <v>30800000</v>
+      </c>
+      <c r="I519" s="1">
+        <v>10</v>
+      </c>
+      <c r="J519" s="1">
+        <v>0</v>
+      </c>
+      <c r="K519" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L519" t="s">
+        <v>866</v>
+      </c>
+      <c r="M519" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>518</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D520" s="1">
+        <v>0</v>
+      </c>
+      <c r="E520" s="1">
+        <v>1</v>
+      </c>
+      <c r="F520" s="1">
+        <v>3215000000</v>
+      </c>
+      <c r="G520" s="1">
+        <v>11</v>
+      </c>
+      <c r="H520" s="1">
+        <v>31000000</v>
+      </c>
+      <c r="I520" s="1">
+        <v>10</v>
+      </c>
+      <c r="J520" s="1">
+        <v>0</v>
+      </c>
+      <c r="K520" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L520" t="s">
+        <v>797</v>
+      </c>
+      <c r="M520" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>519</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D521" s="1">
+        <v>0</v>
+      </c>
+      <c r="E521" s="1">
+        <v>1</v>
+      </c>
+      <c r="F521" s="1">
+        <v>3235000000</v>
+      </c>
+      <c r="G521" s="1">
+        <v>11</v>
+      </c>
+      <c r="H521" s="1">
+        <v>31200000</v>
+      </c>
+      <c r="I521" s="1">
+        <v>10</v>
+      </c>
+      <c r="J521" s="1">
+        <v>0</v>
+      </c>
+      <c r="K521" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L521" t="s">
+        <v>798</v>
+      </c>
+      <c r="M521" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>520</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D522" s="1">
+        <v>0</v>
+      </c>
+      <c r="E522" s="1">
+        <v>1</v>
+      </c>
+      <c r="F522" s="1">
+        <v>3255000000</v>
+      </c>
+      <c r="G522" s="1">
+        <v>11</v>
+      </c>
+      <c r="H522" s="1">
+        <v>31400000</v>
+      </c>
+      <c r="I522" s="1">
+        <v>10</v>
+      </c>
+      <c r="J522" s="1">
+        <v>0</v>
+      </c>
+      <c r="K522" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L522" t="s">
+        <v>799</v>
+      </c>
+      <c r="M522" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>521</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D523" s="1">
+        <v>0</v>
+      </c>
+      <c r="E523" s="1">
+        <v>1</v>
+      </c>
+      <c r="F523" s="1">
+        <v>3275000000</v>
+      </c>
+      <c r="G523" s="1">
+        <v>11</v>
+      </c>
+      <c r="H523" s="1">
+        <v>31600000</v>
+      </c>
+      <c r="I523" s="1">
+        <v>10</v>
+      </c>
+      <c r="J523" s="1">
+        <v>0</v>
+      </c>
+      <c r="K523" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L523" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M523" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>522</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D524" s="1">
+        <v>0</v>
+      </c>
+      <c r="E524" s="1">
+        <v>1</v>
+      </c>
+      <c r="F524" s="1">
+        <v>3295000000</v>
+      </c>
+      <c r="G524" s="1">
+        <v>11</v>
+      </c>
+      <c r="H524" s="1">
+        <v>31800000</v>
+      </c>
+      <c r="I524" s="1">
+        <v>10</v>
+      </c>
+      <c r="J524" s="1">
+        <v>0</v>
+      </c>
+      <c r="K524" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L524" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M524" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>523</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D525" s="1">
+        <v>0</v>
+      </c>
+      <c r="E525" s="1">
+        <v>1</v>
+      </c>
+      <c r="F525" s="1">
+        <v>3315000000</v>
+      </c>
+      <c r="G525" s="1">
+        <v>11</v>
+      </c>
+      <c r="H525" s="1">
+        <v>32000000</v>
+      </c>
+      <c r="I525" s="1">
+        <v>10</v>
+      </c>
+      <c r="J525" s="1">
+        <v>0</v>
+      </c>
+      <c r="K525" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L525" t="s">
+        <v>775</v>
+      </c>
+      <c r="M525" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>524</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D526" s="1">
+        <v>1</v>
+      </c>
+      <c r="E526" s="1">
+        <v>5</v>
+      </c>
+      <c r="F526" s="1">
+        <v>94000000</v>
+      </c>
+      <c r="G526" s="1">
+        <v>10</v>
+      </c>
+      <c r="H526" s="1">
+        <v>152</v>
+      </c>
+      <c r="I526" s="1">
+        <v>10</v>
+      </c>
+      <c r="J526" s="1">
+        <v>0</v>
+      </c>
+      <c r="K526" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L526" t="s">
+        <v>900</v>
+      </c>
+      <c r="M526" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>525</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D527" s="1">
+        <v>1</v>
+      </c>
+      <c r="E527" s="1">
+        <v>5</v>
+      </c>
+      <c r="F527" s="1">
+        <v>96000000</v>
+      </c>
+      <c r="G527" s="1">
+        <v>10</v>
+      </c>
+      <c r="H527" s="1">
+        <v>154</v>
+      </c>
+      <c r="I527" s="1">
+        <v>10</v>
+      </c>
+      <c r="J527" s="1">
+        <v>0</v>
+      </c>
+      <c r="K527" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L527" t="s">
+        <v>909</v>
+      </c>
+      <c r="M527" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCD6A80-4C4A-4B1F-AAE8-D549F48367ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1EC65-6A09-40AA-AE98-74F64596B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1395">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4699,6 +4699,100 @@
   </si>
   <si>
     <t>스테이지 11600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 11700 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 11800 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 11900 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 12000 돌파</t>
+  </si>
+  <si>
+    <t>title526</t>
+  </si>
+  <si>
+    <t>title527</t>
+  </si>
+  <si>
+    <t>title528</t>
+  </si>
+  <si>
+    <t>title529</t>
+  </si>
+  <si>
+    <t>title530</t>
+  </si>
+  <si>
+    <t>title531</t>
+  </si>
+  <si>
+    <t>title532</t>
+  </si>
+  <si>
+    <t>title533</t>
+  </si>
+  <si>
+    <t>title534</t>
+  </si>
+  <si>
+    <t>title535</t>
+  </si>
+  <si>
+    <t>title536</t>
+  </si>
+  <si>
+    <t>title537</t>
+  </si>
+  <si>
+    <t>title538</t>
+  </si>
+  <si>
+    <t>title539</t>
+  </si>
+  <si>
+    <t>레벨 1810000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1820000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1830000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1840000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1850000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1860000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1870000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1880000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1890000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 1900000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5133,11 +5227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M527"/>
+  <dimension ref="A1:M541"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G525" sqref="G525"/>
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E537" sqref="E537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26758,6 +26852,580 @@
         <v>909</v>
       </c>
       <c r="M527" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>526</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D528" s="1">
+        <v>1</v>
+      </c>
+      <c r="E528" s="1">
+        <v>5</v>
+      </c>
+      <c r="F528" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="G528" s="1">
+        <v>10</v>
+      </c>
+      <c r="H528" s="1">
+        <v>156</v>
+      </c>
+      <c r="I528" s="1">
+        <v>10</v>
+      </c>
+      <c r="J528" s="1">
+        <v>0</v>
+      </c>
+      <c r="K528" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L528" t="s">
+        <v>866</v>
+      </c>
+      <c r="M528" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>527</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D529" s="1">
+        <v>1</v>
+      </c>
+      <c r="E529" s="1">
+        <v>5</v>
+      </c>
+      <c r="F529" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="G529" s="1">
+        <v>10</v>
+      </c>
+      <c r="H529" s="1">
+        <v>158</v>
+      </c>
+      <c r="I529" s="1">
+        <v>10</v>
+      </c>
+      <c r="J529" s="1">
+        <v>0</v>
+      </c>
+      <c r="K529" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L529" t="s">
+        <v>797</v>
+      </c>
+      <c r="M529" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>528</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D530" s="1">
+        <v>1</v>
+      </c>
+      <c r="E530" s="1">
+        <v>5</v>
+      </c>
+      <c r="F530" s="1">
+        <v>102000000</v>
+      </c>
+      <c r="G530" s="1">
+        <v>10</v>
+      </c>
+      <c r="H530" s="1">
+        <v>160</v>
+      </c>
+      <c r="I530" s="1">
+        <v>10</v>
+      </c>
+      <c r="J530" s="1">
+        <v>0</v>
+      </c>
+      <c r="K530" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L530" t="s">
+        <v>798</v>
+      </c>
+      <c r="M530" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>529</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D531" s="1">
+        <v>1</v>
+      </c>
+      <c r="E531" s="1">
+        <v>5</v>
+      </c>
+      <c r="F531" s="1">
+        <v>104000000</v>
+      </c>
+      <c r="G531" s="1">
+        <v>10</v>
+      </c>
+      <c r="H531" s="1">
+        <v>162</v>
+      </c>
+      <c r="I531" s="1">
+        <v>10</v>
+      </c>
+      <c r="J531" s="1">
+        <v>0</v>
+      </c>
+      <c r="K531" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L531" t="s">
+        <v>799</v>
+      </c>
+      <c r="M531" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>530</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D532" s="1">
+        <v>0</v>
+      </c>
+      <c r="E532" s="1">
+        <v>1</v>
+      </c>
+      <c r="F532" s="1">
+        <v>3335000000</v>
+      </c>
+      <c r="G532" s="1">
+        <v>11</v>
+      </c>
+      <c r="H532" s="1">
+        <v>32200000</v>
+      </c>
+      <c r="I532" s="1">
+        <v>10</v>
+      </c>
+      <c r="J532" s="1">
+        <v>0</v>
+      </c>
+      <c r="K532" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L532" t="s">
+        <v>775</v>
+      </c>
+      <c r="M532" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>531</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D533" s="1">
+        <v>0</v>
+      </c>
+      <c r="E533" s="1">
+        <v>1</v>
+      </c>
+      <c r="F533" s="1">
+        <v>3355000000</v>
+      </c>
+      <c r="G533" s="1">
+        <v>11</v>
+      </c>
+      <c r="H533" s="1">
+        <v>32400000</v>
+      </c>
+      <c r="I533" s="1">
+        <v>10</v>
+      </c>
+      <c r="J533" s="1">
+        <v>0</v>
+      </c>
+      <c r="K533" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L533" t="s">
+        <v>776</v>
+      </c>
+      <c r="M533" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>532</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D534" s="1">
+        <v>0</v>
+      </c>
+      <c r="E534" s="1">
+        <v>1</v>
+      </c>
+      <c r="F534" s="1">
+        <v>3375000000</v>
+      </c>
+      <c r="G534" s="1">
+        <v>11</v>
+      </c>
+      <c r="H534" s="1">
+        <v>32600000</v>
+      </c>
+      <c r="I534" s="1">
+        <v>10</v>
+      </c>
+      <c r="J534" s="1">
+        <v>0</v>
+      </c>
+      <c r="K534" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L534" t="s">
+        <v>865</v>
+      </c>
+      <c r="M534" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>533</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D535" s="1">
+        <v>0</v>
+      </c>
+      <c r="E535" s="1">
+        <v>1</v>
+      </c>
+      <c r="F535" s="1">
+        <v>3395000000</v>
+      </c>
+      <c r="G535" s="1">
+        <v>11</v>
+      </c>
+      <c r="H535" s="1">
+        <v>32800000</v>
+      </c>
+      <c r="I535" s="1">
+        <v>10</v>
+      </c>
+      <c r="J535" s="1">
+        <v>0</v>
+      </c>
+      <c r="K535" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L535" t="s">
+        <v>866</v>
+      </c>
+      <c r="M535" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>534</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D536" s="1">
+        <v>0</v>
+      </c>
+      <c r="E536" s="1">
+        <v>1</v>
+      </c>
+      <c r="F536" s="1">
+        <v>3415000000</v>
+      </c>
+      <c r="G536" s="1">
+        <v>11</v>
+      </c>
+      <c r="H536" s="1">
+        <v>33000000</v>
+      </c>
+      <c r="I536" s="1">
+        <v>10</v>
+      </c>
+      <c r="J536" s="1">
+        <v>0</v>
+      </c>
+      <c r="K536" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L536" t="s">
+        <v>797</v>
+      </c>
+      <c r="M536" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D537" s="1">
+        <v>0</v>
+      </c>
+      <c r="E537" s="1">
+        <v>1</v>
+      </c>
+      <c r="F537" s="1">
+        <v>3435000000</v>
+      </c>
+      <c r="G537" s="1">
+        <v>11</v>
+      </c>
+      <c r="H537" s="1">
+        <v>33200000</v>
+      </c>
+      <c r="I537" s="1">
+        <v>10</v>
+      </c>
+      <c r="J537" s="1">
+        <v>0</v>
+      </c>
+      <c r="K537" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L537" t="s">
+        <v>798</v>
+      </c>
+      <c r="M537" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D538" s="1">
+        <v>0</v>
+      </c>
+      <c r="E538" s="1">
+        <v>1</v>
+      </c>
+      <c r="F538" s="1">
+        <v>3455000000</v>
+      </c>
+      <c r="G538" s="1">
+        <v>11</v>
+      </c>
+      <c r="H538" s="1">
+        <v>33400000</v>
+      </c>
+      <c r="I538" s="1">
+        <v>10</v>
+      </c>
+      <c r="J538" s="1">
+        <v>0</v>
+      </c>
+      <c r="K538" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L538" t="s">
+        <v>799</v>
+      </c>
+      <c r="M538" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D539" s="1">
+        <v>0</v>
+      </c>
+      <c r="E539" s="1">
+        <v>1</v>
+      </c>
+      <c r="F539" s="1">
+        <v>3475000000</v>
+      </c>
+      <c r="G539" s="1">
+        <v>11</v>
+      </c>
+      <c r="H539" s="1">
+        <v>33600000</v>
+      </c>
+      <c r="I539" s="1">
+        <v>10</v>
+      </c>
+      <c r="J539" s="1">
+        <v>0</v>
+      </c>
+      <c r="K539" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L539" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M539" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D540" s="1">
+        <v>0</v>
+      </c>
+      <c r="E540" s="1">
+        <v>1</v>
+      </c>
+      <c r="F540" s="1">
+        <v>3495000000</v>
+      </c>
+      <c r="G540" s="1">
+        <v>11</v>
+      </c>
+      <c r="H540" s="1">
+        <v>33800000</v>
+      </c>
+      <c r="I540" s="1">
+        <v>10</v>
+      </c>
+      <c r="J540" s="1">
+        <v>0</v>
+      </c>
+      <c r="K540" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M540" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D541" s="1">
+        <v>0</v>
+      </c>
+      <c r="E541" s="1">
+        <v>1</v>
+      </c>
+      <c r="F541" s="1">
+        <v>3515000000</v>
+      </c>
+      <c r="G541" s="1">
+        <v>11</v>
+      </c>
+      <c r="H541" s="1">
+        <v>34000000</v>
+      </c>
+      <c r="I541" s="1">
+        <v>10</v>
+      </c>
+      <c r="J541" s="1">
+        <v>0</v>
+      </c>
+      <c r="K541" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L541" t="s">
+        <v>775</v>
+      </c>
+      <c r="M541" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E1EC65-6A09-40AA-AE98-74F64596B50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00283E99-5640-443B-87CC-87FCE24E99F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="1395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1435">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4794,6 +4794,126 @@
   <si>
     <t>레벨 1900000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title540</t>
+  </si>
+  <si>
+    <t>레벨 1910000달성</t>
+  </si>
+  <si>
+    <t>title541</t>
+  </si>
+  <si>
+    <t>레벨 1920000달성</t>
+  </si>
+  <si>
+    <t>title542</t>
+  </si>
+  <si>
+    <t>레벨 1930000달성</t>
+  </si>
+  <si>
+    <t>title543</t>
+  </si>
+  <si>
+    <t>레벨 1940000달성</t>
+  </si>
+  <si>
+    <t>title544</t>
+  </si>
+  <si>
+    <t>레벨 1950000달성</t>
+  </si>
+  <si>
+    <t>title545</t>
+  </si>
+  <si>
+    <t>레벨 1960000달성</t>
+  </si>
+  <si>
+    <t>title546</t>
+  </si>
+  <si>
+    <t>레벨 1970000달성</t>
+  </si>
+  <si>
+    <t>title547</t>
+  </si>
+  <si>
+    <t>레벨 1980000달성</t>
+  </si>
+  <si>
+    <t>title548</t>
+  </si>
+  <si>
+    <t>레벨 1990000달성</t>
+  </si>
+  <si>
+    <t>title549</t>
+  </si>
+  <si>
+    <t>레벨 2000000달성</t>
+  </si>
+  <si>
+    <t>title550</t>
+  </si>
+  <si>
+    <t>레벨 2010000달성</t>
+  </si>
+  <si>
+    <t>title551</t>
+  </si>
+  <si>
+    <t>레벨 2020000달성</t>
+  </si>
+  <si>
+    <t>title552</t>
+  </si>
+  <si>
+    <t>레벨 2030000달성</t>
+  </si>
+  <si>
+    <t>레벨 2040000달성</t>
+  </si>
+  <si>
+    <t>레벨 2050000달성</t>
+  </si>
+  <si>
+    <t>레벨 2060000달성</t>
+  </si>
+  <si>
+    <t>레벨 2070000달성</t>
+  </si>
+  <si>
+    <t>레벨 2080000달성</t>
+  </si>
+  <si>
+    <t>레벨 2090000달성</t>
+  </si>
+  <si>
+    <t>레벨 2100000달성</t>
+  </si>
+  <si>
+    <t>title553</t>
+  </si>
+  <si>
+    <t>title554</t>
+  </si>
+  <si>
+    <t>title555</t>
+  </si>
+  <si>
+    <t>title556</t>
+  </si>
+  <si>
+    <t>title557</t>
+  </si>
+  <si>
+    <t>title558</t>
+  </si>
+  <si>
+    <t>title559</t>
   </si>
 </sst>
 </file>
@@ -5227,11 +5347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M541"/>
+  <dimension ref="A1:M561"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E537" sqref="E537"/>
+      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R542" sqref="R542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27426,6 +27546,826 @@
         <v>775</v>
       </c>
       <c r="M541" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D542" s="1">
+        <v>0</v>
+      </c>
+      <c r="E542" s="1">
+        <v>1</v>
+      </c>
+      <c r="F542" s="1">
+        <v>3535000000</v>
+      </c>
+      <c r="G542" s="1">
+        <v>11</v>
+      </c>
+      <c r="H542" s="1">
+        <v>34200000</v>
+      </c>
+      <c r="I542" s="1">
+        <v>10</v>
+      </c>
+      <c r="J542" s="1">
+        <v>0</v>
+      </c>
+      <c r="K542" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L542" t="s">
+        <v>799</v>
+      </c>
+      <c r="M542" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D543" s="1">
+        <v>0</v>
+      </c>
+      <c r="E543" s="1">
+        <v>1</v>
+      </c>
+      <c r="F543" s="1">
+        <v>3555000000</v>
+      </c>
+      <c r="G543" s="1">
+        <v>11</v>
+      </c>
+      <c r="H543" s="1">
+        <v>34400000</v>
+      </c>
+      <c r="I543" s="1">
+        <v>10</v>
+      </c>
+      <c r="J543" s="1">
+        <v>0</v>
+      </c>
+      <c r="K543" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L543" t="s">
+        <v>775</v>
+      </c>
+      <c r="M543" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D544" s="1">
+        <v>0</v>
+      </c>
+      <c r="E544" s="1">
+        <v>1</v>
+      </c>
+      <c r="F544" s="1">
+        <v>3575000000</v>
+      </c>
+      <c r="G544" s="1">
+        <v>11</v>
+      </c>
+      <c r="H544" s="1">
+        <v>34600000</v>
+      </c>
+      <c r="I544" s="1">
+        <v>10</v>
+      </c>
+      <c r="J544" s="1">
+        <v>0</v>
+      </c>
+      <c r="K544" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L544" t="s">
+        <v>776</v>
+      </c>
+      <c r="M544" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D545" s="1">
+        <v>0</v>
+      </c>
+      <c r="E545" s="1">
+        <v>1</v>
+      </c>
+      <c r="F545" s="1">
+        <v>3595000000</v>
+      </c>
+      <c r="G545" s="1">
+        <v>11</v>
+      </c>
+      <c r="H545" s="1">
+        <v>34800000</v>
+      </c>
+      <c r="I545" s="1">
+        <v>10</v>
+      </c>
+      <c r="J545" s="1">
+        <v>0</v>
+      </c>
+      <c r="K545" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L545" t="s">
+        <v>865</v>
+      </c>
+      <c r="M545" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D546" s="1">
+        <v>0</v>
+      </c>
+      <c r="E546" s="1">
+        <v>1</v>
+      </c>
+      <c r="F546" s="1">
+        <v>3615000000</v>
+      </c>
+      <c r="G546" s="1">
+        <v>11</v>
+      </c>
+      <c r="H546" s="1">
+        <v>35000000</v>
+      </c>
+      <c r="I546" s="1">
+        <v>10</v>
+      </c>
+      <c r="J546" s="1">
+        <v>0</v>
+      </c>
+      <c r="K546" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L546" t="s">
+        <v>866</v>
+      </c>
+      <c r="M546" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D547" s="1">
+        <v>0</v>
+      </c>
+      <c r="E547" s="1">
+        <v>1</v>
+      </c>
+      <c r="F547" s="1">
+        <v>3635000000</v>
+      </c>
+      <c r="G547" s="1">
+        <v>11</v>
+      </c>
+      <c r="H547" s="1">
+        <v>35200000</v>
+      </c>
+      <c r="I547" s="1">
+        <v>10</v>
+      </c>
+      <c r="J547" s="1">
+        <v>0</v>
+      </c>
+      <c r="K547" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L547" t="s">
+        <v>797</v>
+      </c>
+      <c r="M547" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D548" s="1">
+        <v>0</v>
+      </c>
+      <c r="E548" s="1">
+        <v>1</v>
+      </c>
+      <c r="F548" s="1">
+        <v>3655000000</v>
+      </c>
+      <c r="G548" s="1">
+        <v>11</v>
+      </c>
+      <c r="H548" s="1">
+        <v>35400000</v>
+      </c>
+      <c r="I548" s="1">
+        <v>10</v>
+      </c>
+      <c r="J548" s="1">
+        <v>0</v>
+      </c>
+      <c r="K548" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L548" t="s">
+        <v>798</v>
+      </c>
+      <c r="M548" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>547</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D549" s="1">
+        <v>0</v>
+      </c>
+      <c r="E549" s="1">
+        <v>1</v>
+      </c>
+      <c r="F549" s="1">
+        <v>3675000000</v>
+      </c>
+      <c r="G549" s="1">
+        <v>11</v>
+      </c>
+      <c r="H549" s="1">
+        <v>35600000</v>
+      </c>
+      <c r="I549" s="1">
+        <v>10</v>
+      </c>
+      <c r="J549" s="1">
+        <v>0</v>
+      </c>
+      <c r="K549" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L549" t="s">
+        <v>799</v>
+      </c>
+      <c r="M549" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>548</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D550" s="1">
+        <v>0</v>
+      </c>
+      <c r="E550" s="1">
+        <v>1</v>
+      </c>
+      <c r="F550" s="1">
+        <v>3695000000</v>
+      </c>
+      <c r="G550" s="1">
+        <v>11</v>
+      </c>
+      <c r="H550" s="1">
+        <v>35800000</v>
+      </c>
+      <c r="I550" s="1">
+        <v>10</v>
+      </c>
+      <c r="J550" s="1">
+        <v>0</v>
+      </c>
+      <c r="K550" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L550" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M550" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>549</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D551" s="1">
+        <v>0</v>
+      </c>
+      <c r="E551" s="1">
+        <v>1</v>
+      </c>
+      <c r="F551" s="1">
+        <v>3715000000</v>
+      </c>
+      <c r="G551" s="1">
+        <v>11</v>
+      </c>
+      <c r="H551" s="1">
+        <v>36000000</v>
+      </c>
+      <c r="I551" s="1">
+        <v>10</v>
+      </c>
+      <c r="J551" s="1">
+        <v>0</v>
+      </c>
+      <c r="K551" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L551" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M551" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>550</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D552" s="1">
+        <v>0</v>
+      </c>
+      <c r="E552" s="1">
+        <v>1</v>
+      </c>
+      <c r="F552" s="1">
+        <v>3735000000</v>
+      </c>
+      <c r="G552" s="1">
+        <v>11</v>
+      </c>
+      <c r="H552" s="1">
+        <v>36200000</v>
+      </c>
+      <c r="I552" s="1">
+        <v>10</v>
+      </c>
+      <c r="J552" s="1">
+        <v>0</v>
+      </c>
+      <c r="K552" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L552" t="s">
+        <v>775</v>
+      </c>
+      <c r="M552" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D553" s="1">
+        <v>0</v>
+      </c>
+      <c r="E553" s="1">
+        <v>1</v>
+      </c>
+      <c r="F553" s="1">
+        <v>3755000000</v>
+      </c>
+      <c r="G553" s="1">
+        <v>11</v>
+      </c>
+      <c r="H553" s="1">
+        <v>36400000</v>
+      </c>
+      <c r="I553" s="1">
+        <v>10</v>
+      </c>
+      <c r="J553" s="1">
+        <v>0</v>
+      </c>
+      <c r="K553" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L553" t="s">
+        <v>799</v>
+      </c>
+      <c r="M553" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D554" s="1">
+        <v>0</v>
+      </c>
+      <c r="E554" s="1">
+        <v>1</v>
+      </c>
+      <c r="F554" s="1">
+        <v>3775000000</v>
+      </c>
+      <c r="G554" s="1">
+        <v>11</v>
+      </c>
+      <c r="H554" s="1">
+        <v>36600000</v>
+      </c>
+      <c r="I554" s="1">
+        <v>10</v>
+      </c>
+      <c r="J554" s="1">
+        <v>0</v>
+      </c>
+      <c r="K554" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L554" t="s">
+        <v>775</v>
+      </c>
+      <c r="M554" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D555" s="1">
+        <v>0</v>
+      </c>
+      <c r="E555" s="1">
+        <v>1</v>
+      </c>
+      <c r="F555" s="1">
+        <v>3795000000</v>
+      </c>
+      <c r="G555" s="1">
+        <v>11</v>
+      </c>
+      <c r="H555" s="1">
+        <v>36800000</v>
+      </c>
+      <c r="I555" s="1">
+        <v>10</v>
+      </c>
+      <c r="J555" s="1">
+        <v>0</v>
+      </c>
+      <c r="K555" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L555" t="s">
+        <v>776</v>
+      </c>
+      <c r="M555" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D556" s="1">
+        <v>0</v>
+      </c>
+      <c r="E556" s="1">
+        <v>1</v>
+      </c>
+      <c r="F556" s="1">
+        <v>3815000000</v>
+      </c>
+      <c r="G556" s="1">
+        <v>11</v>
+      </c>
+      <c r="H556" s="1">
+        <v>37000000</v>
+      </c>
+      <c r="I556" s="1">
+        <v>10</v>
+      </c>
+      <c r="J556" s="1">
+        <v>0</v>
+      </c>
+      <c r="K556" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L556" t="s">
+        <v>865</v>
+      </c>
+      <c r="M556" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D557" s="1">
+        <v>0</v>
+      </c>
+      <c r="E557" s="1">
+        <v>1</v>
+      </c>
+      <c r="F557" s="1">
+        <v>3835000000</v>
+      </c>
+      <c r="G557" s="1">
+        <v>11</v>
+      </c>
+      <c r="H557" s="1">
+        <v>37200000</v>
+      </c>
+      <c r="I557" s="1">
+        <v>10</v>
+      </c>
+      <c r="J557" s="1">
+        <v>0</v>
+      </c>
+      <c r="K557" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L557" t="s">
+        <v>866</v>
+      </c>
+      <c r="M557" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D558" s="1">
+        <v>0</v>
+      </c>
+      <c r="E558" s="1">
+        <v>1</v>
+      </c>
+      <c r="F558" s="1">
+        <v>3855000000</v>
+      </c>
+      <c r="G558" s="1">
+        <v>11</v>
+      </c>
+      <c r="H558" s="1">
+        <v>37400000</v>
+      </c>
+      <c r="I558" s="1">
+        <v>10</v>
+      </c>
+      <c r="J558" s="1">
+        <v>0</v>
+      </c>
+      <c r="K558" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L558" t="s">
+        <v>797</v>
+      </c>
+      <c r="M558" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D559" s="1">
+        <v>0</v>
+      </c>
+      <c r="E559" s="1">
+        <v>1</v>
+      </c>
+      <c r="F559" s="1">
+        <v>3875000000</v>
+      </c>
+      <c r="G559" s="1">
+        <v>11</v>
+      </c>
+      <c r="H559" s="1">
+        <v>37600000</v>
+      </c>
+      <c r="I559" s="1">
+        <v>10</v>
+      </c>
+      <c r="J559" s="1">
+        <v>0</v>
+      </c>
+      <c r="K559" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L559" t="s">
+        <v>798</v>
+      </c>
+      <c r="M559" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D560" s="1">
+        <v>0</v>
+      </c>
+      <c r="E560" s="1">
+        <v>1</v>
+      </c>
+      <c r="F560" s="1">
+        <v>3895000000</v>
+      </c>
+      <c r="G560" s="1">
+        <v>11</v>
+      </c>
+      <c r="H560" s="1">
+        <v>37800000</v>
+      </c>
+      <c r="I560" s="1">
+        <v>10</v>
+      </c>
+      <c r="J560" s="1">
+        <v>0</v>
+      </c>
+      <c r="K560" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L560" t="s">
+        <v>799</v>
+      </c>
+      <c r="M560" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D561" s="1">
+        <v>0</v>
+      </c>
+      <c r="E561" s="1">
+        <v>1</v>
+      </c>
+      <c r="F561" s="1">
+        <v>3915000000</v>
+      </c>
+      <c r="G561" s="1">
+        <v>11</v>
+      </c>
+      <c r="H561" s="1">
+        <v>38000000</v>
+      </c>
+      <c r="I561" s="1">
+        <v>10</v>
+      </c>
+      <c r="J561" s="1">
+        <v>0</v>
+      </c>
+      <c r="K561" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L561" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M561" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00283E99-5640-443B-87CC-87FCE24E99F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C56CCC-1881-47A8-9D05-41A9A37E5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1439">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4914,6 +4914,21 @@
   </si>
   <si>
     <t>title559</t>
+  </si>
+  <si>
+    <t>title560</t>
+  </si>
+  <si>
+    <t>사인검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사인검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백세풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5347,11 +5362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M561"/>
+  <dimension ref="A1:M562"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A533" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R542" sqref="R542"/>
+      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L537" sqref="L537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27338,7 +27353,7 @@
         <v>1</v>
       </c>
       <c r="L536" t="s">
-        <v>797</v>
+        <v>1438</v>
       </c>
       <c r="M536" s="1">
         <v>11</v>
@@ -28366,6 +28381,47 @@
         <v>1048</v>
       </c>
       <c r="M561" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D562">
+        <v>2</v>
+      </c>
+      <c r="E562">
+        <v>46</v>
+      </c>
+      <c r="F562">
+        <v>35000</v>
+      </c>
+      <c r="G562">
+        <v>27</v>
+      </c>
+      <c r="H562">
+        <v>400</v>
+      </c>
+      <c r="I562">
+        <v>10</v>
+      </c>
+      <c r="J562" s="1">
+        <v>0</v>
+      </c>
+      <c r="K562" t="b">
+        <v>1</v>
+      </c>
+      <c r="L562" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M562">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C56CCC-1881-47A8-9D05-41A9A37E5E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B9FFFE-E603-431A-AFD9-0A98FF6FA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1447">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4928,6 +4928,34 @@
   </si>
   <si>
     <t>백세풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title561</t>
+  </si>
+  <si>
+    <t>title562</t>
+  </si>
+  <si>
+    <t>title563</t>
+  </si>
+  <si>
+    <t>title564</t>
+  </si>
+  <si>
+    <t>스테이지 12100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 12200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 12300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 12400 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5362,11 +5390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M562"/>
+  <dimension ref="A1:M566"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A515" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L537" sqref="L537"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F560" sqref="F560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28422,6 +28450,170 @@
         <v>1437</v>
       </c>
       <c r="M562">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D563" s="1">
+        <v>1</v>
+      </c>
+      <c r="E563" s="1">
+        <v>5</v>
+      </c>
+      <c r="F563" s="1">
+        <v>104000000</v>
+      </c>
+      <c r="G563" s="1">
+        <v>10</v>
+      </c>
+      <c r="H563" s="1">
+        <v>164</v>
+      </c>
+      <c r="I563" s="1">
+        <v>10</v>
+      </c>
+      <c r="J563" s="1">
+        <v>0</v>
+      </c>
+      <c r="K563" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L563" t="s">
+        <v>865</v>
+      </c>
+      <c r="M563" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D564" s="1">
+        <v>1</v>
+      </c>
+      <c r="E564" s="1">
+        <v>5</v>
+      </c>
+      <c r="F564" s="1">
+        <v>106000000</v>
+      </c>
+      <c r="G564" s="1">
+        <v>10</v>
+      </c>
+      <c r="H564" s="1">
+        <v>166</v>
+      </c>
+      <c r="I564" s="1">
+        <v>10</v>
+      </c>
+      <c r="J564" s="1">
+        <v>0</v>
+      </c>
+      <c r="K564" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L564" t="s">
+        <v>866</v>
+      </c>
+      <c r="M564" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D565" s="1">
+        <v>1</v>
+      </c>
+      <c r="E565" s="1">
+        <v>5</v>
+      </c>
+      <c r="F565" s="1">
+        <v>108000000</v>
+      </c>
+      <c r="G565" s="1">
+        <v>10</v>
+      </c>
+      <c r="H565" s="1">
+        <v>168</v>
+      </c>
+      <c r="I565" s="1">
+        <v>10</v>
+      </c>
+      <c r="J565" s="1">
+        <v>0</v>
+      </c>
+      <c r="K565" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L565" t="s">
+        <v>797</v>
+      </c>
+      <c r="M565" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D566" s="1">
+        <v>1</v>
+      </c>
+      <c r="E566" s="1">
+        <v>5</v>
+      </c>
+      <c r="F566" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="G566" s="1">
+        <v>10</v>
+      </c>
+      <c r="H566" s="1">
+        <v>170</v>
+      </c>
+      <c r="I566" s="1">
+        <v>10</v>
+      </c>
+      <c r="J566" s="1">
+        <v>0</v>
+      </c>
+      <c r="K566" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L566" t="s">
+        <v>798</v>
+      </c>
+      <c r="M566" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MH\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B9FFFE-E603-431A-AFD9-0A98FF6FA8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1821D3-D6D3-4E46-8F79-947B327059E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1451">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4957,6 +4957,18 @@
   <si>
     <t>스테이지 12400 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title565</t>
+  </si>
+  <si>
+    <t>스테이지 12500 돌파</t>
+  </si>
+  <si>
+    <t>title566</t>
+  </si>
+  <si>
+    <t>스테이지 12600 돌파</t>
   </si>
 </sst>
 </file>
@@ -5390,11 +5402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M566"/>
+  <dimension ref="A1:M568"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F560" sqref="F560"/>
+      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L562" sqref="L562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28614,6 +28626,88 @@
         <v>798</v>
       </c>
       <c r="M566" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D567" s="1">
+        <v>1</v>
+      </c>
+      <c r="E567" s="1">
+        <v>5</v>
+      </c>
+      <c r="F567" s="1">
+        <v>112000000</v>
+      </c>
+      <c r="G567" s="1">
+        <v>10</v>
+      </c>
+      <c r="H567" s="1">
+        <v>172</v>
+      </c>
+      <c r="I567" s="1">
+        <v>10</v>
+      </c>
+      <c r="J567" s="1">
+        <v>0</v>
+      </c>
+      <c r="K567" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L567" t="s">
+        <v>775</v>
+      </c>
+      <c r="M567" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D568" s="1">
+        <v>1</v>
+      </c>
+      <c r="E568" s="1">
+        <v>5</v>
+      </c>
+      <c r="F568" s="1">
+        <v>114000000</v>
+      </c>
+      <c r="G568" s="1">
+        <v>10</v>
+      </c>
+      <c r="H568" s="1">
+        <v>174</v>
+      </c>
+      <c r="I568" s="1">
+        <v>10</v>
+      </c>
+      <c r="J568" s="1">
+        <v>0</v>
+      </c>
+      <c r="K568" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L568" t="s">
+        <v>776</v>
+      </c>
+      <c r="M568" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MH\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1821D3-D6D3-4E46-8F79-947B327059E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51091F-9E8B-44BE-B6C1-384E01FE6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1457">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4969,6 +4969,24 @@
   </si>
   <si>
     <t>스테이지 12600 돌파</t>
+  </si>
+  <si>
+    <t>title567</t>
+  </si>
+  <si>
+    <t>스테이지 12700 돌파</t>
+  </si>
+  <si>
+    <t>title568</t>
+  </si>
+  <si>
+    <t>스테이지 12800 돌파</t>
+  </si>
+  <si>
+    <t>title569</t>
+  </si>
+  <si>
+    <t>title570</t>
   </si>
 </sst>
 </file>
@@ -5402,11 +5420,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M568"/>
+  <dimension ref="A1:M572"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A548" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L562" sqref="L562"/>
+      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M555" sqref="M555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28708,6 +28726,164 @@
         <v>776</v>
       </c>
       <c r="M568" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D569" s="1">
+        <v>1</v>
+      </c>
+      <c r="E569" s="1">
+        <v>5</v>
+      </c>
+      <c r="F569" s="1">
+        <v>116000000</v>
+      </c>
+      <c r="G569" s="1">
+        <v>10</v>
+      </c>
+      <c r="H569" s="1">
+        <v>176</v>
+      </c>
+      <c r="I569" s="1">
+        <v>10</v>
+      </c>
+      <c r="J569" s="1">
+        <v>0</v>
+      </c>
+      <c r="K569" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L569" t="s">
+        <v>865</v>
+      </c>
+      <c r="M569" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D570" s="1">
+        <v>1</v>
+      </c>
+      <c r="E570" s="1">
+        <v>5</v>
+      </c>
+      <c r="F570" s="1">
+        <v>118000000</v>
+      </c>
+      <c r="G570" s="1">
+        <v>10</v>
+      </c>
+      <c r="H570" s="1">
+        <v>178</v>
+      </c>
+      <c r="I570" s="1">
+        <v>10</v>
+      </c>
+      <c r="J570" s="1">
+        <v>0</v>
+      </c>
+      <c r="K570" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L570" t="s">
+        <v>866</v>
+      </c>
+      <c r="M570" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D571">
+        <v>2</v>
+      </c>
+      <c r="E571">
+        <v>46</v>
+      </c>
+      <c r="F571">
+        <v>37000</v>
+      </c>
+      <c r="G571">
+        <v>27</v>
+      </c>
+      <c r="H571">
+        <v>500</v>
+      </c>
+      <c r="I571">
+        <v>10</v>
+      </c>
+      <c r="J571" s="1">
+        <v>0</v>
+      </c>
+      <c r="K571" t="b">
+        <v>1</v>
+      </c>
+      <c r="L571" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M571">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D572">
+        <v>2</v>
+      </c>
+      <c r="E572">
+        <v>46</v>
+      </c>
+      <c r="F572">
+        <v>40000</v>
+      </c>
+      <c r="G572">
+        <v>27</v>
+      </c>
+      <c r="H572">
+        <v>700</v>
+      </c>
+      <c r="I572">
+        <v>10</v>
+      </c>
+      <c r="J572" s="1">
+        <v>0</v>
+      </c>
+      <c r="K572" t="b">
+        <v>1</v>
+      </c>
+      <c r="L572" t="s">
+        <v>1437</v>
+      </c>
+      <c r="M572">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51091F-9E8B-44BE-B6C1-384E01FE6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E71AFD-1654-465D-A6D3-149F12A5555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1461">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4987,6 +4987,22 @@
   </si>
   <si>
     <t>title570</t>
+  </si>
+  <si>
+    <t>태양검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5424,7 +5440,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M555" sqref="M555"/>
+      <selection pane="bottomLeft" activeCell="D571" sqref="D571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28818,6 +28834,9 @@
       <c r="B571" s="1" t="s">
         <v>1455</v>
       </c>
+      <c r="C571" t="s">
+        <v>1459</v>
+      </c>
       <c r="D571">
         <v>2</v>
       </c>
@@ -28843,7 +28862,7 @@
         <v>1</v>
       </c>
       <c r="L571" t="s">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="M571">
         <v>11</v>
@@ -28856,6 +28875,9 @@
       <c r="B572" s="1" t="s">
         <v>1456</v>
       </c>
+      <c r="C572" t="s">
+        <v>1460</v>
+      </c>
       <c r="D572">
         <v>2</v>
       </c>
@@ -28881,7 +28903,7 @@
         <v>1</v>
       </c>
       <c r="L572" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="M572">
         <v>11</v>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKiNew\YoKIWork\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E71AFD-1654-465D-A6D3-149F12A5555B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869DC7CF-9F42-4060-A901-D96AD2FEAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6315" yWindow="1200" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1485">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5002,6 +5002,90 @@
   </si>
   <si>
     <t>달의검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title571</t>
+  </si>
+  <si>
+    <t>title572</t>
+  </si>
+  <si>
+    <t>스테이지 12900 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 13000 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title573</t>
+  </si>
+  <si>
+    <t>title574</t>
+  </si>
+  <si>
+    <t>title575</t>
+  </si>
+  <si>
+    <t>title576</t>
+  </si>
+  <si>
+    <t>title577</t>
+  </si>
+  <si>
+    <t>title578</t>
+  </si>
+  <si>
+    <t>title579</t>
+  </si>
+  <si>
+    <t>title580</t>
+  </si>
+  <si>
+    <t>title581</t>
+  </si>
+  <si>
+    <t>title582</t>
+  </si>
+  <si>
+    <t>레벨 2110000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2120000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2130000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2140000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2150000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2160000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2170000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2180000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2190000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2200000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5436,11 +5520,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M572"/>
+  <dimension ref="A1:M584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D571" sqref="D571"/>
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F575" sqref="F575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28906,6 +28990,498 @@
         <v>1458</v>
       </c>
       <c r="M572">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D573" s="1">
+        <v>1</v>
+      </c>
+      <c r="E573" s="1">
+        <v>5</v>
+      </c>
+      <c r="F573" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="G573" s="1">
+        <v>10</v>
+      </c>
+      <c r="H573" s="1">
+        <v>176</v>
+      </c>
+      <c r="I573" s="1">
+        <v>10</v>
+      </c>
+      <c r="J573" s="1">
+        <v>0</v>
+      </c>
+      <c r="K573" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L573" t="s">
+        <v>798</v>
+      </c>
+      <c r="M573" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D574" s="1">
+        <v>1</v>
+      </c>
+      <c r="E574" s="1">
+        <v>5</v>
+      </c>
+      <c r="F574" s="1">
+        <v>122000000</v>
+      </c>
+      <c r="G574" s="1">
+        <v>10</v>
+      </c>
+      <c r="H574" s="1">
+        <v>178</v>
+      </c>
+      <c r="I574" s="1">
+        <v>10</v>
+      </c>
+      <c r="J574" s="1">
+        <v>0</v>
+      </c>
+      <c r="K574" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L574" t="s">
+        <v>799</v>
+      </c>
+      <c r="M574" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A575" s="1">
+        <v>573</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D575" s="1">
+        <v>0</v>
+      </c>
+      <c r="E575" s="1">
+        <v>1</v>
+      </c>
+      <c r="F575" s="1">
+        <v>3935000000</v>
+      </c>
+      <c r="G575" s="1">
+        <v>11</v>
+      </c>
+      <c r="H575" s="1">
+        <v>38200000</v>
+      </c>
+      <c r="I575" s="1">
+        <v>10</v>
+      </c>
+      <c r="J575" s="1">
+        <v>0</v>
+      </c>
+      <c r="K575" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L575" t="s">
+        <v>775</v>
+      </c>
+      <c r="M575" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A576" s="1">
+        <v>574</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D576" s="1">
+        <v>0</v>
+      </c>
+      <c r="E576" s="1">
+        <v>1</v>
+      </c>
+      <c r="F576" s="1">
+        <v>3955000000</v>
+      </c>
+      <c r="G576" s="1">
+        <v>11</v>
+      </c>
+      <c r="H576" s="1">
+        <v>38400000</v>
+      </c>
+      <c r="I576" s="1">
+        <v>10</v>
+      </c>
+      <c r="J576" s="1">
+        <v>0</v>
+      </c>
+      <c r="K576" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L576" t="s">
+        <v>799</v>
+      </c>
+      <c r="M576" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A577" s="1">
+        <v>575</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D577" s="1">
+        <v>0</v>
+      </c>
+      <c r="E577" s="1">
+        <v>1</v>
+      </c>
+      <c r="F577" s="1">
+        <v>3975000000</v>
+      </c>
+      <c r="G577" s="1">
+        <v>11</v>
+      </c>
+      <c r="H577" s="1">
+        <v>38600000</v>
+      </c>
+      <c r="I577" s="1">
+        <v>10</v>
+      </c>
+      <c r="J577" s="1">
+        <v>0</v>
+      </c>
+      <c r="K577" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L577" t="s">
+        <v>775</v>
+      </c>
+      <c r="M577" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A578" s="1">
+        <v>576</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D578" s="1">
+        <v>0</v>
+      </c>
+      <c r="E578" s="1">
+        <v>1</v>
+      </c>
+      <c r="F578" s="1">
+        <v>3995000000</v>
+      </c>
+      <c r="G578" s="1">
+        <v>11</v>
+      </c>
+      <c r="H578" s="1">
+        <v>38800000</v>
+      </c>
+      <c r="I578" s="1">
+        <v>10</v>
+      </c>
+      <c r="J578" s="1">
+        <v>0</v>
+      </c>
+      <c r="K578" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L578" t="s">
+        <v>776</v>
+      </c>
+      <c r="M578" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A579" s="1">
+        <v>577</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D579" s="1">
+        <v>0</v>
+      </c>
+      <c r="E579" s="1">
+        <v>1</v>
+      </c>
+      <c r="F579" s="1">
+        <v>4015000000</v>
+      </c>
+      <c r="G579" s="1">
+        <v>11</v>
+      </c>
+      <c r="H579" s="1">
+        <v>39000000</v>
+      </c>
+      <c r="I579" s="1">
+        <v>10</v>
+      </c>
+      <c r="J579" s="1">
+        <v>0</v>
+      </c>
+      <c r="K579" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L579" t="s">
+        <v>865</v>
+      </c>
+      <c r="M579" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A580" s="1">
+        <v>578</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D580" s="1">
+        <v>0</v>
+      </c>
+      <c r="E580" s="1">
+        <v>1</v>
+      </c>
+      <c r="F580" s="1">
+        <v>4035000000</v>
+      </c>
+      <c r="G580" s="1">
+        <v>11</v>
+      </c>
+      <c r="H580" s="1">
+        <v>39200000</v>
+      </c>
+      <c r="I580" s="1">
+        <v>10</v>
+      </c>
+      <c r="J580" s="1">
+        <v>0</v>
+      </c>
+      <c r="K580" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L580" t="s">
+        <v>866</v>
+      </c>
+      <c r="M580" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A581" s="1">
+        <v>579</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D581" s="1">
+        <v>0</v>
+      </c>
+      <c r="E581" s="1">
+        <v>1</v>
+      </c>
+      <c r="F581" s="1">
+        <v>4055000000</v>
+      </c>
+      <c r="G581" s="1">
+        <v>11</v>
+      </c>
+      <c r="H581" s="1">
+        <v>39400000</v>
+      </c>
+      <c r="I581" s="1">
+        <v>10</v>
+      </c>
+      <c r="J581" s="1">
+        <v>0</v>
+      </c>
+      <c r="K581" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L581" t="s">
+        <v>797</v>
+      </c>
+      <c r="M581" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A582" s="1">
+        <v>580</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D582" s="1">
+        <v>0</v>
+      </c>
+      <c r="E582" s="1">
+        <v>1</v>
+      </c>
+      <c r="F582" s="1">
+        <v>4075000000</v>
+      </c>
+      <c r="G582" s="1">
+        <v>11</v>
+      </c>
+      <c r="H582" s="1">
+        <v>39600000</v>
+      </c>
+      <c r="I582" s="1">
+        <v>10</v>
+      </c>
+      <c r="J582" s="1">
+        <v>0</v>
+      </c>
+      <c r="K582" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L582" t="s">
+        <v>798</v>
+      </c>
+      <c r="M582" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A583" s="1">
+        <v>581</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D583" s="1">
+        <v>0</v>
+      </c>
+      <c r="E583" s="1">
+        <v>1</v>
+      </c>
+      <c r="F583" s="1">
+        <v>4095000000</v>
+      </c>
+      <c r="G583" s="1">
+        <v>11</v>
+      </c>
+      <c r="H583" s="1">
+        <v>39800000</v>
+      </c>
+      <c r="I583" s="1">
+        <v>10</v>
+      </c>
+      <c r="J583" s="1">
+        <v>0</v>
+      </c>
+      <c r="K583" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L583" t="s">
+        <v>799</v>
+      </c>
+      <c r="M583" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A584" s="1">
+        <v>582</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D584" s="1">
+        <v>0</v>
+      </c>
+      <c r="E584" s="1">
+        <v>1</v>
+      </c>
+      <c r="F584" s="1">
+        <v>4115000000</v>
+      </c>
+      <c r="G584" s="1">
+        <v>11</v>
+      </c>
+      <c r="H584" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="I584" s="1">
+        <v>10</v>
+      </c>
+      <c r="J584" s="1">
+        <v>0</v>
+      </c>
+      <c r="K584" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M584" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKiNew\YoKIWork\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869DC7CF-9F42-4060-A901-D96AD2FEAFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE2772-B949-43B0-A4C5-2B5A29A11459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6315" yWindow="1200" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="1485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1505">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5087,6 +5087,66 @@
   <si>
     <t>레벨 2200000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title583</t>
+  </si>
+  <si>
+    <t>title584</t>
+  </si>
+  <si>
+    <t>title585</t>
+  </si>
+  <si>
+    <t>title586</t>
+  </si>
+  <si>
+    <t>title587</t>
+  </si>
+  <si>
+    <t>title588</t>
+  </si>
+  <si>
+    <t>title589</t>
+  </si>
+  <si>
+    <t>title590</t>
+  </si>
+  <si>
+    <t>title591</t>
+  </si>
+  <si>
+    <t>title592</t>
+  </si>
+  <si>
+    <t>레벨 2210000달성</t>
+  </si>
+  <si>
+    <t>레벨 2220000달성</t>
+  </si>
+  <si>
+    <t>레벨 2230000달성</t>
+  </si>
+  <si>
+    <t>레벨 2240000달성</t>
+  </si>
+  <si>
+    <t>레벨 2250000달성</t>
+  </si>
+  <si>
+    <t>레벨 2260000달성</t>
+  </si>
+  <si>
+    <t>레벨 2270000달성</t>
+  </si>
+  <si>
+    <t>레벨 2280000달성</t>
+  </si>
+  <si>
+    <t>레벨 2290000달성</t>
+  </si>
+  <si>
+    <t>레벨 2300000달성</t>
   </si>
 </sst>
 </file>
@@ -5520,11 +5580,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M584"/>
+  <dimension ref="A1:M594"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F575" sqref="F575"/>
+      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D589" sqref="D589"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29479,9 +29539,419 @@
         <v>1</v>
       </c>
       <c r="L584" t="s">
+        <v>775</v>
+      </c>
+      <c r="M584" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A585" s="1">
+        <v>583</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D585" s="1">
+        <v>0</v>
+      </c>
+      <c r="E585" s="1">
+        <v>1</v>
+      </c>
+      <c r="F585" s="1">
+        <v>4135000000</v>
+      </c>
+      <c r="G585" s="1">
+        <v>11</v>
+      </c>
+      <c r="H585" s="1">
+        <v>40200000</v>
+      </c>
+      <c r="I585" s="1">
+        <v>10</v>
+      </c>
+      <c r="J585" s="1">
+        <v>0</v>
+      </c>
+      <c r="K585" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L585" t="s">
+        <v>776</v>
+      </c>
+      <c r="M585" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A586" s="1">
+        <v>584</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D586" s="1">
+        <v>0</v>
+      </c>
+      <c r="E586" s="1">
+        <v>1</v>
+      </c>
+      <c r="F586" s="1">
+        <v>4155000000</v>
+      </c>
+      <c r="G586" s="1">
+        <v>11</v>
+      </c>
+      <c r="H586" s="1">
+        <v>40400000</v>
+      </c>
+      <c r="I586" s="1">
+        <v>10</v>
+      </c>
+      <c r="J586" s="1">
+        <v>0</v>
+      </c>
+      <c r="K586" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L586" t="s">
+        <v>865</v>
+      </c>
+      <c r="M586" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A587" s="1">
+        <v>585</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D587" s="1">
+        <v>0</v>
+      </c>
+      <c r="E587" s="1">
+        <v>1</v>
+      </c>
+      <c r="F587" s="1">
+        <v>4175000000</v>
+      </c>
+      <c r="G587" s="1">
+        <v>11</v>
+      </c>
+      <c r="H587" s="1">
+        <v>40600000</v>
+      </c>
+      <c r="I587" s="1">
+        <v>10</v>
+      </c>
+      <c r="J587" s="1">
+        <v>0</v>
+      </c>
+      <c r="K587" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L587" t="s">
+        <v>866</v>
+      </c>
+      <c r="M587" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A588" s="1">
+        <v>586</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D588" s="1">
+        <v>0</v>
+      </c>
+      <c r="E588" s="1">
+        <v>1</v>
+      </c>
+      <c r="F588" s="1">
+        <v>4195000000</v>
+      </c>
+      <c r="G588" s="1">
+        <v>11</v>
+      </c>
+      <c r="H588" s="1">
+        <v>40800000</v>
+      </c>
+      <c r="I588" s="1">
+        <v>10</v>
+      </c>
+      <c r="J588" s="1">
+        <v>0</v>
+      </c>
+      <c r="K588" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L588" t="s">
+        <v>797</v>
+      </c>
+      <c r="M588" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A589" s="1">
+        <v>587</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D589" s="1">
+        <v>0</v>
+      </c>
+      <c r="E589" s="1">
+        <v>1</v>
+      </c>
+      <c r="F589" s="1">
+        <v>4215000000</v>
+      </c>
+      <c r="G589" s="1">
+        <v>11</v>
+      </c>
+      <c r="H589" s="1">
+        <v>41000000</v>
+      </c>
+      <c r="I589" s="1">
+        <v>10</v>
+      </c>
+      <c r="J589" s="1">
+        <v>0</v>
+      </c>
+      <c r="K589" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L589" t="s">
+        <v>798</v>
+      </c>
+      <c r="M589" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A590" s="1">
+        <v>588</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D590" s="1">
+        <v>0</v>
+      </c>
+      <c r="E590" s="1">
+        <v>1</v>
+      </c>
+      <c r="F590" s="1">
+        <v>4235000000</v>
+      </c>
+      <c r="G590" s="1">
+        <v>11</v>
+      </c>
+      <c r="H590" s="1">
+        <v>41200000</v>
+      </c>
+      <c r="I590" s="1">
+        <v>10</v>
+      </c>
+      <c r="J590" s="1">
+        <v>0</v>
+      </c>
+      <c r="K590" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L590" t="s">
+        <v>799</v>
+      </c>
+      <c r="M590" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A591" s="1">
+        <v>589</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D591" s="1">
+        <v>0</v>
+      </c>
+      <c r="E591" s="1">
+        <v>1</v>
+      </c>
+      <c r="F591" s="1">
+        <v>4255000000</v>
+      </c>
+      <c r="G591" s="1">
+        <v>11</v>
+      </c>
+      <c r="H591" s="1">
+        <v>41400000</v>
+      </c>
+      <c r="I591" s="1">
+        <v>10</v>
+      </c>
+      <c r="J591" s="1">
+        <v>0</v>
+      </c>
+      <c r="K591" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L591" t="s">
         <v>1048</v>
       </c>
-      <c r="M584" s="1">
+      <c r="M591" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A592" s="1">
+        <v>590</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D592" s="1">
+        <v>0</v>
+      </c>
+      <c r="E592" s="1">
+        <v>1</v>
+      </c>
+      <c r="F592" s="1">
+        <v>4275000000</v>
+      </c>
+      <c r="G592" s="1">
+        <v>11</v>
+      </c>
+      <c r="H592" s="1">
+        <v>41600000</v>
+      </c>
+      <c r="I592" s="1">
+        <v>10</v>
+      </c>
+      <c r="J592" s="1">
+        <v>0</v>
+      </c>
+      <c r="K592" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L592" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M592" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A593" s="1">
+        <v>591</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D593" s="1">
+        <v>0</v>
+      </c>
+      <c r="E593" s="1">
+        <v>1</v>
+      </c>
+      <c r="F593" s="1">
+        <v>4295000000</v>
+      </c>
+      <c r="G593" s="1">
+        <v>11</v>
+      </c>
+      <c r="H593" s="1">
+        <v>41800000</v>
+      </c>
+      <c r="I593" s="1">
+        <v>10</v>
+      </c>
+      <c r="J593" s="1">
+        <v>0</v>
+      </c>
+      <c r="K593" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L593" t="s">
+        <v>799</v>
+      </c>
+      <c r="M593" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A594" s="1">
+        <v>592</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D594" s="1">
+        <v>0</v>
+      </c>
+      <c r="E594" s="1">
+        <v>1</v>
+      </c>
+      <c r="F594" s="1">
+        <v>4315000000</v>
+      </c>
+      <c r="G594" s="1">
+        <v>11</v>
+      </c>
+      <c r="H594" s="1">
+        <v>42000000</v>
+      </c>
+      <c r="I594" s="1">
+        <v>10</v>
+      </c>
+      <c r="J594" s="1">
+        <v>0</v>
+      </c>
+      <c r="K594" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L594" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M594" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKiNew\YoKIWork\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AE2772-B949-43B0-A4C5-2B5A29A11459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A1D61-2220-46C5-918C-F07A8C84E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="1200" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -5584,7 +5584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D589" sqref="D589"/>
+      <selection pane="bottomLeft" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955A1D61-2220-46C5-918C-F07A8C84E2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E9D56-D9C6-420A-ABED-A3AF17D05381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1515">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5147,6 +5147,42 @@
   </si>
   <si>
     <t>레벨 2300000달성</t>
+  </si>
+  <si>
+    <t>title593</t>
+  </si>
+  <si>
+    <t>title594</t>
+  </si>
+  <si>
+    <t>스테이지 13100 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 13200 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title595</t>
+  </si>
+  <si>
+    <t>title596</t>
+  </si>
+  <si>
+    <t>번개검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번개검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5580,11 +5616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M594"/>
+  <dimension ref="A1:M598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomLeft" activeCell="C597" sqref="C597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29952,6 +29988,170 @@
         <v>1048</v>
       </c>
       <c r="M594" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A595" s="1">
+        <v>593</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D595" s="1">
+        <v>1</v>
+      </c>
+      <c r="E595" s="1">
+        <v>5</v>
+      </c>
+      <c r="F595" s="1">
+        <v>124000000</v>
+      </c>
+      <c r="G595" s="1">
+        <v>10</v>
+      </c>
+      <c r="H595" s="1">
+        <v>180</v>
+      </c>
+      <c r="I595" s="1">
+        <v>10</v>
+      </c>
+      <c r="J595" s="1">
+        <v>0</v>
+      </c>
+      <c r="K595" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L595" t="s">
+        <v>798</v>
+      </c>
+      <c r="M595" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A596" s="1">
+        <v>594</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D596" s="1">
+        <v>1</v>
+      </c>
+      <c r="E596" s="1">
+        <v>5</v>
+      </c>
+      <c r="F596" s="1">
+        <v>126000000</v>
+      </c>
+      <c r="G596" s="1">
+        <v>10</v>
+      </c>
+      <c r="H596" s="1">
+        <v>182</v>
+      </c>
+      <c r="I596" s="1">
+        <v>10</v>
+      </c>
+      <c r="J596" s="1">
+        <v>0</v>
+      </c>
+      <c r="K596" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L596" t="s">
+        <v>799</v>
+      </c>
+      <c r="M596" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C597" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D597">
+        <v>2</v>
+      </c>
+      <c r="E597">
+        <v>46</v>
+      </c>
+      <c r="F597">
+        <v>43000</v>
+      </c>
+      <c r="G597">
+        <v>27</v>
+      </c>
+      <c r="H597">
+        <v>1000</v>
+      </c>
+      <c r="I597">
+        <v>10</v>
+      </c>
+      <c r="J597" s="1">
+        <v>0</v>
+      </c>
+      <c r="K597" t="b">
+        <v>1</v>
+      </c>
+      <c r="L597" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M597">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C598" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D598">
+        <v>2</v>
+      </c>
+      <c r="E598">
+        <v>46</v>
+      </c>
+      <c r="F598">
+        <v>46000</v>
+      </c>
+      <c r="G598">
+        <v>27</v>
+      </c>
+      <c r="H598">
+        <v>1300</v>
+      </c>
+      <c r="I598">
+        <v>10</v>
+      </c>
+      <c r="J598" s="1">
+        <v>0</v>
+      </c>
+      <c r="K598" t="b">
+        <v>1</v>
+      </c>
+      <c r="L598" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M598">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E9D56-D9C6-420A-ABED-A3AF17D05381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC22B5-EFFB-4F2E-A92E-E0D79AF9A417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1524">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5182,6 +5182,39 @@
   </si>
   <si>
     <t>구름검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title597</t>
+  </si>
+  <si>
+    <t>title598</t>
+  </si>
+  <si>
+    <t>title599</t>
+  </si>
+  <si>
+    <t>혈량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5616,11 +5649,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M598"/>
+  <dimension ref="A1:M601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A569" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C597" sqref="C597"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H599" sqref="H599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30152,6 +30185,129 @@
         <v>1514</v>
       </c>
       <c r="M598">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C599" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D599">
+        <v>2</v>
+      </c>
+      <c r="E599">
+        <v>46</v>
+      </c>
+      <c r="F599">
+        <v>49000</v>
+      </c>
+      <c r="G599">
+        <v>27</v>
+      </c>
+      <c r="H599">
+        <v>1600</v>
+      </c>
+      <c r="I599">
+        <v>10</v>
+      </c>
+      <c r="J599" s="1">
+        <v>0</v>
+      </c>
+      <c r="K599" t="b">
+        <v>1</v>
+      </c>
+      <c r="L599" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M599">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C600" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D600">
+        <v>2</v>
+      </c>
+      <c r="E600">
+        <v>46</v>
+      </c>
+      <c r="F600">
+        <v>52000</v>
+      </c>
+      <c r="G600">
+        <v>27</v>
+      </c>
+      <c r="H600">
+        <v>2000</v>
+      </c>
+      <c r="I600">
+        <v>10</v>
+      </c>
+      <c r="J600" s="1">
+        <v>0</v>
+      </c>
+      <c r="K600" t="b">
+        <v>1</v>
+      </c>
+      <c r="L600" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M600">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C601" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D601">
+        <v>2</v>
+      </c>
+      <c r="E601">
+        <v>46</v>
+      </c>
+      <c r="F601">
+        <v>55000</v>
+      </c>
+      <c r="G601">
+        <v>27</v>
+      </c>
+      <c r="H601">
+        <v>2400</v>
+      </c>
+      <c r="I601">
+        <v>10</v>
+      </c>
+      <c r="J601" s="1">
+        <v>0</v>
+      </c>
+      <c r="K601" t="b">
+        <v>1</v>
+      </c>
+      <c r="L601" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M601">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AC22B5-EFFB-4F2E-A92E-E0D79AF9A417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B845856-EEB6-4C5E-B99F-8DD20187FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1568">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5215,6 +5215,142 @@
   </si>
   <si>
     <t>암량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title600</t>
+  </si>
+  <si>
+    <t>title601</t>
+  </si>
+  <si>
+    <t>title602</t>
+  </si>
+  <si>
+    <t>title603</t>
+  </si>
+  <si>
+    <t>title604</t>
+  </si>
+  <si>
+    <t>title605</t>
+  </si>
+  <si>
+    <t>title606</t>
+  </si>
+  <si>
+    <t>title607</t>
+  </si>
+  <si>
+    <t>title608</t>
+  </si>
+  <si>
+    <t>title609</t>
+  </si>
+  <si>
+    <t>title610</t>
+  </si>
+  <si>
+    <t>title611</t>
+  </si>
+  <si>
+    <t>title612</t>
+  </si>
+  <si>
+    <t>title613</t>
+  </si>
+  <si>
+    <t>title614</t>
+  </si>
+  <si>
+    <t>title615</t>
+  </si>
+  <si>
+    <t>title616</t>
+  </si>
+  <si>
+    <t>title617</t>
+  </si>
+  <si>
+    <t>title618</t>
+  </si>
+  <si>
+    <t>title619</t>
+  </si>
+  <si>
+    <t>title620</t>
+  </si>
+  <si>
+    <t>title621</t>
+  </si>
+  <si>
+    <t>스테이지 13300 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 13400 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2310000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2320000달성</t>
+  </si>
+  <si>
+    <t>레벨 2330000달성</t>
+  </si>
+  <si>
+    <t>레벨 2340000달성</t>
+  </si>
+  <si>
+    <t>레벨 2350000달성</t>
+  </si>
+  <si>
+    <t>레벨 2360000달성</t>
+  </si>
+  <si>
+    <t>레벨 2370000달성</t>
+  </si>
+  <si>
+    <t>레벨 2380000달성</t>
+  </si>
+  <si>
+    <t>레벨 2390000달성</t>
+  </si>
+  <si>
+    <t>레벨 2400000달성</t>
+  </si>
+  <si>
+    <t>레벨 2410000달성</t>
+  </si>
+  <si>
+    <t>레벨 2420000달성</t>
+  </si>
+  <si>
+    <t>레벨 2430000달성</t>
+  </si>
+  <si>
+    <t>레벨 2440000달성</t>
+  </si>
+  <si>
+    <t>레벨 2450000달성</t>
+  </si>
+  <si>
+    <t>레벨 2460000달성</t>
+  </si>
+  <si>
+    <t>레벨 2470000달성</t>
+  </si>
+  <si>
+    <t>레벨 2480000달성</t>
+  </si>
+  <si>
+    <t>레벨 2490000달성</t>
+  </si>
+  <si>
+    <t>레벨 2500000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5649,11 +5785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M601"/>
+  <dimension ref="A1:M623"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H599" sqref="H599"/>
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30308,6 +30444,908 @@
         <v>1523</v>
       </c>
       <c r="M601">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D602" s="1">
+        <v>1</v>
+      </c>
+      <c r="E602" s="1">
+        <v>5</v>
+      </c>
+      <c r="F602" s="1">
+        <v>128000000</v>
+      </c>
+      <c r="G602" s="1">
+        <v>10</v>
+      </c>
+      <c r="H602" s="1">
+        <v>184</v>
+      </c>
+      <c r="I602" s="1">
+        <v>10</v>
+      </c>
+      <c r="J602" s="1">
+        <v>0</v>
+      </c>
+      <c r="K602" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L602" t="s">
+        <v>798</v>
+      </c>
+      <c r="M602" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D603" s="1">
+        <v>1</v>
+      </c>
+      <c r="E603" s="1">
+        <v>5</v>
+      </c>
+      <c r="F603" s="1">
+        <v>130000000</v>
+      </c>
+      <c r="G603" s="1">
+        <v>10</v>
+      </c>
+      <c r="H603" s="1">
+        <v>186</v>
+      </c>
+      <c r="I603" s="1">
+        <v>10</v>
+      </c>
+      <c r="J603" s="1">
+        <v>0</v>
+      </c>
+      <c r="K603" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L603" t="s">
+        <v>799</v>
+      </c>
+      <c r="M603" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D604" s="1">
+        <v>0</v>
+      </c>
+      <c r="E604" s="1">
+        <v>1</v>
+      </c>
+      <c r="F604" s="1">
+        <v>4335000000</v>
+      </c>
+      <c r="G604" s="1">
+        <v>11</v>
+      </c>
+      <c r="H604" s="1">
+        <v>42200000</v>
+      </c>
+      <c r="I604" s="1">
+        <v>10</v>
+      </c>
+      <c r="J604" s="1">
+        <v>0</v>
+      </c>
+      <c r="K604" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L604" t="s">
+        <v>775</v>
+      </c>
+      <c r="M604" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D605" s="1">
+        <v>0</v>
+      </c>
+      <c r="E605" s="1">
+        <v>1</v>
+      </c>
+      <c r="F605" s="1">
+        <v>4355000000</v>
+      </c>
+      <c r="G605" s="1">
+        <v>11</v>
+      </c>
+      <c r="H605" s="1">
+        <v>42400000</v>
+      </c>
+      <c r="I605" s="1">
+        <v>10</v>
+      </c>
+      <c r="J605" s="1">
+        <v>0</v>
+      </c>
+      <c r="K605" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L605" t="s">
+        <v>799</v>
+      </c>
+      <c r="M605" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D606" s="1">
+        <v>0</v>
+      </c>
+      <c r="E606" s="1">
+        <v>1</v>
+      </c>
+      <c r="F606" s="1">
+        <v>4375000000</v>
+      </c>
+      <c r="G606" s="1">
+        <v>11</v>
+      </c>
+      <c r="H606" s="1">
+        <v>42600000</v>
+      </c>
+      <c r="I606" s="1">
+        <v>10</v>
+      </c>
+      <c r="J606" s="1">
+        <v>0</v>
+      </c>
+      <c r="K606" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L606" t="s">
+        <v>775</v>
+      </c>
+      <c r="M606" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D607" s="1">
+        <v>0</v>
+      </c>
+      <c r="E607" s="1">
+        <v>1</v>
+      </c>
+      <c r="F607" s="1">
+        <v>4395000000</v>
+      </c>
+      <c r="G607" s="1">
+        <v>11</v>
+      </c>
+      <c r="H607" s="1">
+        <v>42800000</v>
+      </c>
+      <c r="I607" s="1">
+        <v>10</v>
+      </c>
+      <c r="J607" s="1">
+        <v>0</v>
+      </c>
+      <c r="K607" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L607" t="s">
+        <v>776</v>
+      </c>
+      <c r="M607" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D608" s="1">
+        <v>0</v>
+      </c>
+      <c r="E608" s="1">
+        <v>1</v>
+      </c>
+      <c r="F608" s="1">
+        <v>4415000000</v>
+      </c>
+      <c r="G608" s="1">
+        <v>11</v>
+      </c>
+      <c r="H608" s="1">
+        <v>43000000</v>
+      </c>
+      <c r="I608" s="1">
+        <v>10</v>
+      </c>
+      <c r="J608" s="1">
+        <v>0</v>
+      </c>
+      <c r="K608" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L608" t="s">
+        <v>865</v>
+      </c>
+      <c r="M608" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D609" s="1">
+        <v>0</v>
+      </c>
+      <c r="E609" s="1">
+        <v>1</v>
+      </c>
+      <c r="F609" s="1">
+        <v>4435000000</v>
+      </c>
+      <c r="G609" s="1">
+        <v>11</v>
+      </c>
+      <c r="H609" s="1">
+        <v>43200000</v>
+      </c>
+      <c r="I609" s="1">
+        <v>10</v>
+      </c>
+      <c r="J609" s="1">
+        <v>0</v>
+      </c>
+      <c r="K609" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L609" t="s">
+        <v>866</v>
+      </c>
+      <c r="M609" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D610" s="1">
+        <v>0</v>
+      </c>
+      <c r="E610" s="1">
+        <v>1</v>
+      </c>
+      <c r="F610" s="1">
+        <v>4455000000</v>
+      </c>
+      <c r="G610" s="1">
+        <v>11</v>
+      </c>
+      <c r="H610" s="1">
+        <v>43400000</v>
+      </c>
+      <c r="I610" s="1">
+        <v>10</v>
+      </c>
+      <c r="J610" s="1">
+        <v>0</v>
+      </c>
+      <c r="K610" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L610" t="s">
+        <v>797</v>
+      </c>
+      <c r="M610" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D611" s="1">
+        <v>0</v>
+      </c>
+      <c r="E611" s="1">
+        <v>1</v>
+      </c>
+      <c r="F611" s="1">
+        <v>4475000000</v>
+      </c>
+      <c r="G611" s="1">
+        <v>11</v>
+      </c>
+      <c r="H611" s="1">
+        <v>43600000</v>
+      </c>
+      <c r="I611" s="1">
+        <v>10</v>
+      </c>
+      <c r="J611" s="1">
+        <v>0</v>
+      </c>
+      <c r="K611" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L611" t="s">
+        <v>798</v>
+      </c>
+      <c r="M611" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D612" s="1">
+        <v>0</v>
+      </c>
+      <c r="E612" s="1">
+        <v>1</v>
+      </c>
+      <c r="F612" s="1">
+        <v>4495000000</v>
+      </c>
+      <c r="G612" s="1">
+        <v>11</v>
+      </c>
+      <c r="H612" s="1">
+        <v>43800000</v>
+      </c>
+      <c r="I612" s="1">
+        <v>10</v>
+      </c>
+      <c r="J612" s="1">
+        <v>0</v>
+      </c>
+      <c r="K612" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L612" t="s">
+        <v>799</v>
+      </c>
+      <c r="M612" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D613" s="1">
+        <v>0</v>
+      </c>
+      <c r="E613" s="1">
+        <v>1</v>
+      </c>
+      <c r="F613" s="1">
+        <v>4515000000</v>
+      </c>
+      <c r="G613" s="1">
+        <v>11</v>
+      </c>
+      <c r="H613" s="1">
+        <v>44000000</v>
+      </c>
+      <c r="I613" s="1">
+        <v>10</v>
+      </c>
+      <c r="J613" s="1">
+        <v>0</v>
+      </c>
+      <c r="K613" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L613" t="s">
+        <v>775</v>
+      </c>
+      <c r="M613" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D614" s="1">
+        <v>0</v>
+      </c>
+      <c r="E614" s="1">
+        <v>1</v>
+      </c>
+      <c r="F614" s="1">
+        <v>4535000000</v>
+      </c>
+      <c r="G614" s="1">
+        <v>11</v>
+      </c>
+      <c r="H614" s="1">
+        <v>44200000</v>
+      </c>
+      <c r="I614" s="1">
+        <v>10</v>
+      </c>
+      <c r="J614" s="1">
+        <v>0</v>
+      </c>
+      <c r="K614" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L614" t="s">
+        <v>776</v>
+      </c>
+      <c r="M614" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D615" s="1">
+        <v>0</v>
+      </c>
+      <c r="E615" s="1">
+        <v>1</v>
+      </c>
+      <c r="F615" s="1">
+        <v>4555000000</v>
+      </c>
+      <c r="G615" s="1">
+        <v>11</v>
+      </c>
+      <c r="H615" s="1">
+        <v>44400000</v>
+      </c>
+      <c r="I615" s="1">
+        <v>10</v>
+      </c>
+      <c r="J615" s="1">
+        <v>0</v>
+      </c>
+      <c r="K615" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L615" t="s">
+        <v>865</v>
+      </c>
+      <c r="M615" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D616" s="1">
+        <v>0</v>
+      </c>
+      <c r="E616" s="1">
+        <v>1</v>
+      </c>
+      <c r="F616" s="1">
+        <v>4575000000</v>
+      </c>
+      <c r="G616" s="1">
+        <v>11</v>
+      </c>
+      <c r="H616" s="1">
+        <v>44600000</v>
+      </c>
+      <c r="I616" s="1">
+        <v>10</v>
+      </c>
+      <c r="J616" s="1">
+        <v>0</v>
+      </c>
+      <c r="K616" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L616" t="s">
+        <v>866</v>
+      </c>
+      <c r="M616" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D617" s="1">
+        <v>0</v>
+      </c>
+      <c r="E617" s="1">
+        <v>1</v>
+      </c>
+      <c r="F617" s="1">
+        <v>4595000000</v>
+      </c>
+      <c r="G617" s="1">
+        <v>11</v>
+      </c>
+      <c r="H617" s="1">
+        <v>44800000</v>
+      </c>
+      <c r="I617" s="1">
+        <v>10</v>
+      </c>
+      <c r="J617" s="1">
+        <v>0</v>
+      </c>
+      <c r="K617" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L617" t="s">
+        <v>797</v>
+      </c>
+      <c r="M617" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D618" s="1">
+        <v>0</v>
+      </c>
+      <c r="E618" s="1">
+        <v>1</v>
+      </c>
+      <c r="F618" s="1">
+        <v>4615000000</v>
+      </c>
+      <c r="G618" s="1">
+        <v>11</v>
+      </c>
+      <c r="H618" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="I618" s="1">
+        <v>10</v>
+      </c>
+      <c r="J618" s="1">
+        <v>0</v>
+      </c>
+      <c r="K618" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L618" t="s">
+        <v>798</v>
+      </c>
+      <c r="M618" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A619" s="1">
+        <v>617</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D619" s="1">
+        <v>0</v>
+      </c>
+      <c r="E619" s="1">
+        <v>1</v>
+      </c>
+      <c r="F619" s="1">
+        <v>4635000000</v>
+      </c>
+      <c r="G619" s="1">
+        <v>11</v>
+      </c>
+      <c r="H619" s="1">
+        <v>45200000</v>
+      </c>
+      <c r="I619" s="1">
+        <v>10</v>
+      </c>
+      <c r="J619" s="1">
+        <v>0</v>
+      </c>
+      <c r="K619" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L619" t="s">
+        <v>799</v>
+      </c>
+      <c r="M619" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A620" s="1">
+        <v>618</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D620" s="1">
+        <v>0</v>
+      </c>
+      <c r="E620" s="1">
+        <v>1</v>
+      </c>
+      <c r="F620" s="1">
+        <v>4655000000</v>
+      </c>
+      <c r="G620" s="1">
+        <v>11</v>
+      </c>
+      <c r="H620" s="1">
+        <v>45400000</v>
+      </c>
+      <c r="I620" s="1">
+        <v>10</v>
+      </c>
+      <c r="J620" s="1">
+        <v>0</v>
+      </c>
+      <c r="K620" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L620" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M620" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A621" s="1">
+        <v>619</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D621" s="1">
+        <v>0</v>
+      </c>
+      <c r="E621" s="1">
+        <v>1</v>
+      </c>
+      <c r="F621" s="1">
+        <v>4675000000</v>
+      </c>
+      <c r="G621" s="1">
+        <v>11</v>
+      </c>
+      <c r="H621" s="1">
+        <v>45600000</v>
+      </c>
+      <c r="I621" s="1">
+        <v>10</v>
+      </c>
+      <c r="J621" s="1">
+        <v>0</v>
+      </c>
+      <c r="K621" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L621" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M621" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A622" s="1">
+        <v>620</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D622" s="1">
+        <v>0</v>
+      </c>
+      <c r="E622" s="1">
+        <v>1</v>
+      </c>
+      <c r="F622" s="1">
+        <v>4695000000</v>
+      </c>
+      <c r="G622" s="1">
+        <v>11</v>
+      </c>
+      <c r="H622" s="1">
+        <v>45800000</v>
+      </c>
+      <c r="I622" s="1">
+        <v>10</v>
+      </c>
+      <c r="J622" s="1">
+        <v>0</v>
+      </c>
+      <c r="K622" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L622" t="s">
+        <v>799</v>
+      </c>
+      <c r="M622" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A623" s="1">
+        <v>621</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D623" s="1">
+        <v>0</v>
+      </c>
+      <c r="E623" s="1">
+        <v>1</v>
+      </c>
+      <c r="F623" s="1">
+        <v>4715000000</v>
+      </c>
+      <c r="G623" s="1">
+        <v>11</v>
+      </c>
+      <c r="H623" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="I623" s="1">
+        <v>10</v>
+      </c>
+      <c r="J623" s="1">
+        <v>0</v>
+      </c>
+      <c r="K623" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L623" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M623" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B845856-EEB6-4C5E-B99F-8DD20187FDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E2D6E3-D0E2-4293-B427-ED36B1BDEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1572">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5351,6 +5351,20 @@
   </si>
   <si>
     <t>레벨 2500000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title622</t>
+  </si>
+  <si>
+    <t>title623</t>
+  </si>
+  <si>
+    <t>스테이지 13500 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 13600 돌파</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5785,11 +5799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M623"/>
+  <dimension ref="A1:M625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F604" sqref="F604"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H573" sqref="H573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -29281,7 +29295,7 @@
         <v>10</v>
       </c>
       <c r="H573" s="1">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I573" s="1">
         <v>10</v>
@@ -29322,7 +29336,7 @@
         <v>10</v>
       </c>
       <c r="H574" s="1">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I574" s="1">
         <v>10</v>
@@ -30183,7 +30197,7 @@
         <v>10</v>
       </c>
       <c r="H595" s="1">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I595" s="1">
         <v>10</v>
@@ -30224,7 +30238,7 @@
         <v>10</v>
       </c>
       <c r="H596" s="1">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I596" s="1">
         <v>10</v>
@@ -30470,7 +30484,7 @@
         <v>10</v>
       </c>
       <c r="H602" s="1">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I602" s="1">
         <v>10</v>
@@ -30511,7 +30525,7 @@
         <v>10</v>
       </c>
       <c r="H603" s="1">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I603" s="1">
         <v>10</v>
@@ -31346,6 +31360,88 @@
         <v>1048</v>
       </c>
       <c r="M623" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A624" s="1">
+        <v>622</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D624" s="1">
+        <v>1</v>
+      </c>
+      <c r="E624" s="1">
+        <v>5</v>
+      </c>
+      <c r="F624" s="1">
+        <v>132000000</v>
+      </c>
+      <c r="G624" s="1">
+        <v>10</v>
+      </c>
+      <c r="H624" s="1">
+        <v>192</v>
+      </c>
+      <c r="I624" s="1">
+        <v>10</v>
+      </c>
+      <c r="J624" s="1">
+        <v>0</v>
+      </c>
+      <c r="K624" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L624" t="s">
+        <v>900</v>
+      </c>
+      <c r="M624" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A625" s="1">
+        <v>623</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D625" s="1">
+        <v>1</v>
+      </c>
+      <c r="E625" s="1">
+        <v>5</v>
+      </c>
+      <c r="F625" s="1">
+        <v>134000000</v>
+      </c>
+      <c r="G625" s="1">
+        <v>10</v>
+      </c>
+      <c r="H625" s="1">
+        <v>194</v>
+      </c>
+      <c r="I625" s="1">
+        <v>10</v>
+      </c>
+      <c r="J625" s="1">
+        <v>0</v>
+      </c>
+      <c r="K625" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L625" t="s">
+        <v>909</v>
+      </c>
+      <c r="M625" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E2D6E3-D0E2-4293-B427-ED36B1BDEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66BC826-8CB7-4E8F-BFB0-727400077AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1578">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5365,6 +5365,28 @@
   </si>
   <si>
     <t>스테이지 13600 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title624</t>
+  </si>
+  <si>
+    <t>title625</t>
+  </si>
+  <si>
+    <t>도깨비검3 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검4 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5799,11 +5821,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M625"/>
+  <dimension ref="A1:M627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H573" sqref="H573"/>
+      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H628" sqref="H628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31442,6 +31464,88 @@
         <v>909</v>
       </c>
       <c r="M625" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A626" s="1">
+        <v>624</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D626">
+        <v>2</v>
+      </c>
+      <c r="E626">
+        <v>46</v>
+      </c>
+      <c r="F626">
+        <v>58000</v>
+      </c>
+      <c r="G626">
+        <v>27</v>
+      </c>
+      <c r="H626">
+        <v>2800</v>
+      </c>
+      <c r="I626">
+        <v>10</v>
+      </c>
+      <c r="J626" s="1">
+        <v>0</v>
+      </c>
+      <c r="K626" t="b">
+        <v>1</v>
+      </c>
+      <c r="L626" t="s">
+        <v>1576</v>
+      </c>
+      <c r="M626">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A627" s="1">
+        <v>625</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D627">
+        <v>2</v>
+      </c>
+      <c r="E627">
+        <v>46</v>
+      </c>
+      <c r="F627">
+        <v>61000</v>
+      </c>
+      <c r="G627">
+        <v>27</v>
+      </c>
+      <c r="H627">
+        <v>3200</v>
+      </c>
+      <c r="I627">
+        <v>10</v>
+      </c>
+      <c r="J627" s="1">
+        <v>0</v>
+      </c>
+      <c r="K627" t="b">
+        <v>1</v>
+      </c>
+      <c r="L627" t="s">
+        <v>1577</v>
+      </c>
+      <c r="M627">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66BC826-8CB7-4E8F-BFB0-727400077AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250257D-E253-4820-B1BF-4A499BDFE560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -5374,19 +5374,19 @@
     <t>title625</t>
   </si>
   <si>
-    <t>도깨비검3 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비검4 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비검3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비검4</t>
+    <t>화량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5824,8 +5824,8 @@
   <dimension ref="A1:M627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A597" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H628" sqref="H628"/>
+      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L628" sqref="L628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250257D-E253-4820-B1BF-4A499BDFE560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C321A19-C051-468E-8454-01DF0E804C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1598">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5387,6 +5387,68 @@
   </si>
   <si>
     <t>설량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title626</t>
+  </si>
+  <si>
+    <t>title627</t>
+  </si>
+  <si>
+    <t>title628</t>
+  </si>
+  <si>
+    <t>title629</t>
+  </si>
+  <si>
+    <t>title630</t>
+  </si>
+  <si>
+    <t>title631</t>
+  </si>
+  <si>
+    <t>title632</t>
+  </si>
+  <si>
+    <t>title633</t>
+  </si>
+  <si>
+    <t>title634</t>
+  </si>
+  <si>
+    <t>title635</t>
+  </si>
+  <si>
+    <t>레벨 2510000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2520000달성</t>
+  </si>
+  <si>
+    <t>레벨 2530000달성</t>
+  </si>
+  <si>
+    <t>레벨 2540000달성</t>
+  </si>
+  <si>
+    <t>레벨 2550000달성</t>
+  </si>
+  <si>
+    <t>레벨 2560000달성</t>
+  </si>
+  <si>
+    <t>레벨 2570000달성</t>
+  </si>
+  <si>
+    <t>레벨 2580000달성</t>
+  </si>
+  <si>
+    <t>레벨 2590000달성</t>
+  </si>
+  <si>
+    <t>레벨 2600000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5821,11 +5883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M627"/>
+  <dimension ref="A1:M637"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L628" sqref="L628"/>
+      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G636" sqref="G636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31546,6 +31608,416 @@
         <v>1577</v>
       </c>
       <c r="M627">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A628" s="1">
+        <v>626</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D628" s="1">
+        <v>0</v>
+      </c>
+      <c r="E628" s="1">
+        <v>1</v>
+      </c>
+      <c r="F628" s="1">
+        <v>4535000000</v>
+      </c>
+      <c r="G628" s="1">
+        <v>11</v>
+      </c>
+      <c r="H628" s="1">
+        <v>44200000</v>
+      </c>
+      <c r="I628" s="1">
+        <v>10</v>
+      </c>
+      <c r="J628" s="1">
+        <v>0</v>
+      </c>
+      <c r="K628" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L628" t="s">
+        <v>776</v>
+      </c>
+      <c r="M628" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A629" s="1">
+        <v>627</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D629" s="1">
+        <v>0</v>
+      </c>
+      <c r="E629" s="1">
+        <v>1</v>
+      </c>
+      <c r="F629" s="1">
+        <v>4555000000</v>
+      </c>
+      <c r="G629" s="1">
+        <v>11</v>
+      </c>
+      <c r="H629" s="1">
+        <v>44400000</v>
+      </c>
+      <c r="I629" s="1">
+        <v>10</v>
+      </c>
+      <c r="J629" s="1">
+        <v>0</v>
+      </c>
+      <c r="K629" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L629" t="s">
+        <v>865</v>
+      </c>
+      <c r="M629" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A630" s="1">
+        <v>628</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D630" s="1">
+        <v>0</v>
+      </c>
+      <c r="E630" s="1">
+        <v>1</v>
+      </c>
+      <c r="F630" s="1">
+        <v>4575000000</v>
+      </c>
+      <c r="G630" s="1">
+        <v>11</v>
+      </c>
+      <c r="H630" s="1">
+        <v>44600000</v>
+      </c>
+      <c r="I630" s="1">
+        <v>10</v>
+      </c>
+      <c r="J630" s="1">
+        <v>0</v>
+      </c>
+      <c r="K630" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L630" t="s">
+        <v>866</v>
+      </c>
+      <c r="M630" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A631" s="1">
+        <v>629</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D631" s="1">
+        <v>0</v>
+      </c>
+      <c r="E631" s="1">
+        <v>1</v>
+      </c>
+      <c r="F631" s="1">
+        <v>4595000000</v>
+      </c>
+      <c r="G631" s="1">
+        <v>11</v>
+      </c>
+      <c r="H631" s="1">
+        <v>44800000</v>
+      </c>
+      <c r="I631" s="1">
+        <v>10</v>
+      </c>
+      <c r="J631" s="1">
+        <v>0</v>
+      </c>
+      <c r="K631" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L631" t="s">
+        <v>797</v>
+      </c>
+      <c r="M631" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A632" s="1">
+        <v>630</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D632" s="1">
+        <v>0</v>
+      </c>
+      <c r="E632" s="1">
+        <v>1</v>
+      </c>
+      <c r="F632" s="1">
+        <v>4615000000</v>
+      </c>
+      <c r="G632" s="1">
+        <v>11</v>
+      </c>
+      <c r="H632" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="I632" s="1">
+        <v>10</v>
+      </c>
+      <c r="J632" s="1">
+        <v>0</v>
+      </c>
+      <c r="K632" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L632" t="s">
+        <v>798</v>
+      </c>
+      <c r="M632" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A633" s="1">
+        <v>631</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D633" s="1">
+        <v>0</v>
+      </c>
+      <c r="E633" s="1">
+        <v>1</v>
+      </c>
+      <c r="F633" s="1">
+        <v>4635000000</v>
+      </c>
+      <c r="G633" s="1">
+        <v>11</v>
+      </c>
+      <c r="H633" s="1">
+        <v>45200000</v>
+      </c>
+      <c r="I633" s="1">
+        <v>10</v>
+      </c>
+      <c r="J633" s="1">
+        <v>0</v>
+      </c>
+      <c r="K633" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L633" t="s">
+        <v>799</v>
+      </c>
+      <c r="M633" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A634" s="1">
+        <v>632</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D634" s="1">
+        <v>0</v>
+      </c>
+      <c r="E634" s="1">
+        <v>1</v>
+      </c>
+      <c r="F634" s="1">
+        <v>4655000000</v>
+      </c>
+      <c r="G634" s="1">
+        <v>11</v>
+      </c>
+      <c r="H634" s="1">
+        <v>45400000</v>
+      </c>
+      <c r="I634" s="1">
+        <v>10</v>
+      </c>
+      <c r="J634" s="1">
+        <v>0</v>
+      </c>
+      <c r="K634" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L634" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M634" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A635" s="1">
+        <v>633</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D635" s="1">
+        <v>0</v>
+      </c>
+      <c r="E635" s="1">
+        <v>1</v>
+      </c>
+      <c r="F635" s="1">
+        <v>4675000000</v>
+      </c>
+      <c r="G635" s="1">
+        <v>11</v>
+      </c>
+      <c r="H635" s="1">
+        <v>45600000</v>
+      </c>
+      <c r="I635" s="1">
+        <v>10</v>
+      </c>
+      <c r="J635" s="1">
+        <v>0</v>
+      </c>
+      <c r="K635" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L635" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M635" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A636" s="1">
+        <v>634</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D636" s="1">
+        <v>0</v>
+      </c>
+      <c r="E636" s="1">
+        <v>1</v>
+      </c>
+      <c r="F636" s="1">
+        <v>4695000000</v>
+      </c>
+      <c r="G636" s="1">
+        <v>11</v>
+      </c>
+      <c r="H636" s="1">
+        <v>45800000</v>
+      </c>
+      <c r="I636" s="1">
+        <v>10</v>
+      </c>
+      <c r="J636" s="1">
+        <v>0</v>
+      </c>
+      <c r="K636" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L636" t="s">
+        <v>799</v>
+      </c>
+      <c r="M636" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A637" s="1">
+        <v>635</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D637" s="1">
+        <v>0</v>
+      </c>
+      <c r="E637" s="1">
+        <v>1</v>
+      </c>
+      <c r="F637" s="1">
+        <v>4715000000</v>
+      </c>
+      <c r="G637" s="1">
+        <v>11</v>
+      </c>
+      <c r="H637" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="I637" s="1">
+        <v>10</v>
+      </c>
+      <c r="J637" s="1">
+        <v>0</v>
+      </c>
+      <c r="K637" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L637" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M637" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C321A19-C051-468E-8454-01DF0E804C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CA31D-6F40-46F7-AD43-CDBEF656821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="1598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1608">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5449,6 +5449,42 @@
   </si>
   <si>
     <t>레벨 2600000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title636</t>
+  </si>
+  <si>
+    <t>title637</t>
+  </si>
+  <si>
+    <t>미량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title638</t>
+  </si>
+  <si>
+    <t>title639</t>
+  </si>
+  <si>
+    <t>스테이지 13700 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 13800 돌파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5883,11 +5919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M637"/>
+  <dimension ref="A1:M641"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G636" sqref="G636"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32018,6 +32054,170 @@
         <v>1048</v>
       </c>
       <c r="M637" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A638" s="1">
+        <v>636</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C638" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D638">
+        <v>2</v>
+      </c>
+      <c r="E638">
+        <v>46</v>
+      </c>
+      <c r="F638">
+        <v>64000</v>
+      </c>
+      <c r="G638">
+        <v>27</v>
+      </c>
+      <c r="H638">
+        <v>3600</v>
+      </c>
+      <c r="I638">
+        <v>10</v>
+      </c>
+      <c r="J638" s="1">
+        <v>0</v>
+      </c>
+      <c r="K638" t="b">
+        <v>1</v>
+      </c>
+      <c r="L638" t="s">
+        <v>1606</v>
+      </c>
+      <c r="M638">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A639" s="1">
+        <v>637</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C639" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D639">
+        <v>2</v>
+      </c>
+      <c r="E639">
+        <v>46</v>
+      </c>
+      <c r="F639">
+        <v>67000</v>
+      </c>
+      <c r="G639">
+        <v>27</v>
+      </c>
+      <c r="H639">
+        <v>4000</v>
+      </c>
+      <c r="I639">
+        <v>10</v>
+      </c>
+      <c r="J639" s="1">
+        <v>0</v>
+      </c>
+      <c r="K639" t="b">
+        <v>1</v>
+      </c>
+      <c r="L639" t="s">
+        <v>1607</v>
+      </c>
+      <c r="M639">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A640" s="1">
+        <v>638</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D640" s="1">
+        <v>1</v>
+      </c>
+      <c r="E640" s="1">
+        <v>5</v>
+      </c>
+      <c r="F640" s="1">
+        <v>136000000</v>
+      </c>
+      <c r="G640" s="1">
+        <v>10</v>
+      </c>
+      <c r="H640" s="1">
+        <v>196</v>
+      </c>
+      <c r="I640" s="1">
+        <v>10</v>
+      </c>
+      <c r="J640" s="1">
+        <v>0</v>
+      </c>
+      <c r="K640" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L640" t="s">
+        <v>868</v>
+      </c>
+      <c r="M640" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A641" s="1">
+        <v>639</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D641" s="1">
+        <v>1</v>
+      </c>
+      <c r="E641" s="1">
+        <v>5</v>
+      </c>
+      <c r="F641" s="1">
+        <v>138000000</v>
+      </c>
+      <c r="G641" s="1">
+        <v>10</v>
+      </c>
+      <c r="H641" s="1">
+        <v>198</v>
+      </c>
+      <c r="I641" s="1">
+        <v>10</v>
+      </c>
+      <c r="J641" s="1">
+        <v>0</v>
+      </c>
+      <c r="K641" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L641" t="s">
+        <v>869</v>
+      </c>
+      <c r="M641" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CA31D-6F40-46F7-AD43-CDBEF656821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8A7F7-E66C-45B6-AD56-57D2B1A7AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1628">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5485,6 +5485,67 @@
   </si>
   <si>
     <t>흑량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 2610000달성</t>
+  </si>
+  <si>
+    <t>레벨 2620000달성</t>
+  </si>
+  <si>
+    <t>레벨 2630000달성</t>
+  </si>
+  <si>
+    <t>레벨 2640000달성</t>
+  </si>
+  <si>
+    <t>레벨 2650000달성</t>
+  </si>
+  <si>
+    <t>레벨 2660000달성</t>
+  </si>
+  <si>
+    <t>레벨 2670000달성</t>
+  </si>
+  <si>
+    <t>레벨 2680000달성</t>
+  </si>
+  <si>
+    <t>레벨 2690000달성</t>
+  </si>
+  <si>
+    <t>title640</t>
+  </si>
+  <si>
+    <t>title641</t>
+  </si>
+  <si>
+    <t>title642</t>
+  </si>
+  <si>
+    <t>title643</t>
+  </si>
+  <si>
+    <t>title644</t>
+  </si>
+  <si>
+    <t>title645</t>
+  </si>
+  <si>
+    <t>title646</t>
+  </si>
+  <si>
+    <t>title647</t>
+  </si>
+  <si>
+    <t>title648</t>
+  </si>
+  <si>
+    <t>title649</t>
+  </si>
+  <si>
+    <t>레벨 2700000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5919,11 +5980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M641"/>
+  <dimension ref="A1:M651"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K636" sqref="K636"/>
+      <selection pane="bottomLeft" activeCell="C649" sqref="C649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32218,6 +32279,416 @@
         <v>869</v>
       </c>
       <c r="M641" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A642" s="1">
+        <v>640</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D642" s="1">
+        <v>0</v>
+      </c>
+      <c r="E642" s="1">
+        <v>1</v>
+      </c>
+      <c r="F642" s="1">
+        <v>4735000000</v>
+      </c>
+      <c r="G642" s="1">
+        <v>11</v>
+      </c>
+      <c r="H642" s="1">
+        <v>46200000</v>
+      </c>
+      <c r="I642" s="1">
+        <v>10</v>
+      </c>
+      <c r="J642" s="1">
+        <v>0</v>
+      </c>
+      <c r="K642" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L642" t="s">
+        <v>776</v>
+      </c>
+      <c r="M642" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A643" s="1">
+        <v>641</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D643" s="1">
+        <v>0</v>
+      </c>
+      <c r="E643" s="1">
+        <v>1</v>
+      </c>
+      <c r="F643" s="1">
+        <v>4755000000</v>
+      </c>
+      <c r="G643" s="1">
+        <v>11</v>
+      </c>
+      <c r="H643" s="1">
+        <v>46400000</v>
+      </c>
+      <c r="I643" s="1">
+        <v>10</v>
+      </c>
+      <c r="J643" s="1">
+        <v>0</v>
+      </c>
+      <c r="K643" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L643" t="s">
+        <v>865</v>
+      </c>
+      <c r="M643" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A644" s="1">
+        <v>642</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D644" s="1">
+        <v>0</v>
+      </c>
+      <c r="E644" s="1">
+        <v>1</v>
+      </c>
+      <c r="F644" s="1">
+        <v>4775000000</v>
+      </c>
+      <c r="G644" s="1">
+        <v>11</v>
+      </c>
+      <c r="H644" s="1">
+        <v>46600000</v>
+      </c>
+      <c r="I644" s="1">
+        <v>10</v>
+      </c>
+      <c r="J644" s="1">
+        <v>0</v>
+      </c>
+      <c r="K644" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L644" t="s">
+        <v>866</v>
+      </c>
+      <c r="M644" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A645" s="1">
+        <v>643</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D645" s="1">
+        <v>0</v>
+      </c>
+      <c r="E645" s="1">
+        <v>1</v>
+      </c>
+      <c r="F645" s="1">
+        <v>4795000000</v>
+      </c>
+      <c r="G645" s="1">
+        <v>11</v>
+      </c>
+      <c r="H645" s="1">
+        <v>46800000</v>
+      </c>
+      <c r="I645" s="1">
+        <v>10</v>
+      </c>
+      <c r="J645" s="1">
+        <v>0</v>
+      </c>
+      <c r="K645" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L645" t="s">
+        <v>797</v>
+      </c>
+      <c r="M645" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A646" s="1">
+        <v>644</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D646" s="1">
+        <v>0</v>
+      </c>
+      <c r="E646" s="1">
+        <v>1</v>
+      </c>
+      <c r="F646" s="1">
+        <v>4815000000</v>
+      </c>
+      <c r="G646" s="1">
+        <v>11</v>
+      </c>
+      <c r="H646" s="1">
+        <v>47000000</v>
+      </c>
+      <c r="I646" s="1">
+        <v>10</v>
+      </c>
+      <c r="J646" s="1">
+        <v>0</v>
+      </c>
+      <c r="K646" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L646" t="s">
+        <v>798</v>
+      </c>
+      <c r="M646" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A647" s="1">
+        <v>645</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D647" s="1">
+        <v>0</v>
+      </c>
+      <c r="E647" s="1">
+        <v>1</v>
+      </c>
+      <c r="F647" s="1">
+        <v>4835000000</v>
+      </c>
+      <c r="G647" s="1">
+        <v>11</v>
+      </c>
+      <c r="H647" s="1">
+        <v>47200000</v>
+      </c>
+      <c r="I647" s="1">
+        <v>10</v>
+      </c>
+      <c r="J647" s="1">
+        <v>0</v>
+      </c>
+      <c r="K647" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L647" t="s">
+        <v>799</v>
+      </c>
+      <c r="M647" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A648" s="1">
+        <v>646</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D648" s="1">
+        <v>0</v>
+      </c>
+      <c r="E648" s="1">
+        <v>1</v>
+      </c>
+      <c r="F648" s="1">
+        <v>4855000000</v>
+      </c>
+      <c r="G648" s="1">
+        <v>11</v>
+      </c>
+      <c r="H648" s="1">
+        <v>47400000</v>
+      </c>
+      <c r="I648" s="1">
+        <v>10</v>
+      </c>
+      <c r="J648" s="1">
+        <v>0</v>
+      </c>
+      <c r="K648" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L648" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M648" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A649" s="1">
+        <v>647</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D649" s="1">
+        <v>0</v>
+      </c>
+      <c r="E649" s="1">
+        <v>1</v>
+      </c>
+      <c r="F649" s="1">
+        <v>4875000000</v>
+      </c>
+      <c r="G649" s="1">
+        <v>11</v>
+      </c>
+      <c r="H649" s="1">
+        <v>47600000</v>
+      </c>
+      <c r="I649" s="1">
+        <v>10</v>
+      </c>
+      <c r="J649" s="1">
+        <v>0</v>
+      </c>
+      <c r="K649" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L649" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M649" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A650" s="1">
+        <v>648</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D650" s="1">
+        <v>0</v>
+      </c>
+      <c r="E650" s="1">
+        <v>1</v>
+      </c>
+      <c r="F650" s="1">
+        <v>4895000000</v>
+      </c>
+      <c r="G650" s="1">
+        <v>11</v>
+      </c>
+      <c r="H650" s="1">
+        <v>47800000</v>
+      </c>
+      <c r="I650" s="1">
+        <v>10</v>
+      </c>
+      <c r="J650" s="1">
+        <v>0</v>
+      </c>
+      <c r="K650" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L650" t="s">
+        <v>799</v>
+      </c>
+      <c r="M650" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A651" s="1">
+        <v>649</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D651" s="1">
+        <v>0</v>
+      </c>
+      <c r="E651" s="1">
+        <v>1</v>
+      </c>
+      <c r="F651" s="1">
+        <v>4915000000</v>
+      </c>
+      <c r="G651" s="1">
+        <v>11</v>
+      </c>
+      <c r="H651" s="1">
+        <v>48000000</v>
+      </c>
+      <c r="I651" s="1">
+        <v>10</v>
+      </c>
+      <c r="J651" s="1">
+        <v>0</v>
+      </c>
+      <c r="K651" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L651" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M651" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E8A7F7-E66C-45B6-AD56-57D2B1A7AFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E63CC-B99C-4F93-9779-498BF6444CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1632">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5547,6 +5547,18 @@
   <si>
     <t>레벨 2700000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title650</t>
+  </si>
+  <si>
+    <t>title651</t>
+  </si>
+  <si>
+    <t>스테이지 13900 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 14000 돌파</t>
   </si>
 </sst>
 </file>
@@ -5980,11 +5992,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M651"/>
+  <dimension ref="A1:M653"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C649" sqref="C649"/>
+      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L648" sqref="L648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32689,6 +32701,88 @@
         <v>1048</v>
       </c>
       <c r="M651" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A652" s="1">
+        <v>650</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D652" s="1">
+        <v>1</v>
+      </c>
+      <c r="E652" s="1">
+        <v>5</v>
+      </c>
+      <c r="F652" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="G652" s="1">
+        <v>10</v>
+      </c>
+      <c r="H652" s="1">
+        <v>200</v>
+      </c>
+      <c r="I652" s="1">
+        <v>10</v>
+      </c>
+      <c r="J652" s="1">
+        <v>0</v>
+      </c>
+      <c r="K652" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L652" t="s">
+        <v>617</v>
+      </c>
+      <c r="M652" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A653" s="1">
+        <v>651</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D653" s="1">
+        <v>1</v>
+      </c>
+      <c r="E653" s="1">
+        <v>5</v>
+      </c>
+      <c r="F653" s="1">
+        <v>142000000</v>
+      </c>
+      <c r="G653" s="1">
+        <v>10</v>
+      </c>
+      <c r="H653" s="1">
+        <v>202</v>
+      </c>
+      <c r="I653" s="1">
+        <v>10</v>
+      </c>
+      <c r="J653" s="1">
+        <v>0</v>
+      </c>
+      <c r="K653" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L653" t="s">
+        <v>618</v>
+      </c>
+      <c r="M653" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01E63CC-B99C-4F93-9779-498BF6444CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC90D360-BA14-43F3-A532-70FE50BD6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1667">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5559,6 +5559,119 @@
   </si>
   <si>
     <t>스테이지 14000 돌파</t>
+  </si>
+  <si>
+    <t>title652</t>
+  </si>
+  <si>
+    <t>title653</t>
+  </si>
+  <si>
+    <t>title654</t>
+  </si>
+  <si>
+    <t>title655</t>
+  </si>
+  <si>
+    <t>title656</t>
+  </si>
+  <si>
+    <t>스테이지 14100 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 14200 돌파</t>
+  </si>
+  <si>
+    <t>title657</t>
+  </si>
+  <si>
+    <t>title658</t>
+  </si>
+  <si>
+    <t>title659</t>
+  </si>
+  <si>
+    <t>title660</t>
+  </si>
+  <si>
+    <t>title661</t>
+  </si>
+  <si>
+    <t>title662</t>
+  </si>
+  <si>
+    <t>title663</t>
+  </si>
+  <si>
+    <t>title664</t>
+  </si>
+  <si>
+    <t>title665</t>
+  </si>
+  <si>
+    <t>title666</t>
+  </si>
+  <si>
+    <t>레벨 2710000달성</t>
+  </si>
+  <si>
+    <t>레벨 2720000달성</t>
+  </si>
+  <si>
+    <t>레벨 2730000달성</t>
+  </si>
+  <si>
+    <t>레벨 2740000달성</t>
+  </si>
+  <si>
+    <t>레벨 2750000달성</t>
+  </si>
+  <si>
+    <t>레벨 2760000달성</t>
+  </si>
+  <si>
+    <t>레벨 2770000달성</t>
+  </si>
+  <si>
+    <t>레벨 2780000달성</t>
+  </si>
+  <si>
+    <t>레벨 2790000달성</t>
+  </si>
+  <si>
+    <t>레벨 2800000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title667</t>
+  </si>
+  <si>
+    <t>여량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5992,11 +6105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M653"/>
+  <dimension ref="A1:M669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A639" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L648" sqref="L648"/>
+      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C655" sqref="C655"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32783,6 +32896,662 @@
         <v>618</v>
       </c>
       <c r="M653" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A654" s="1">
+        <v>652</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D654">
+        <v>2</v>
+      </c>
+      <c r="E654">
+        <v>46</v>
+      </c>
+      <c r="F654">
+        <v>70000</v>
+      </c>
+      <c r="G654">
+        <v>27</v>
+      </c>
+      <c r="H654">
+        <v>4400</v>
+      </c>
+      <c r="I654">
+        <v>10</v>
+      </c>
+      <c r="J654" s="1">
+        <v>0</v>
+      </c>
+      <c r="K654" t="b">
+        <v>1</v>
+      </c>
+      <c r="L654" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M654">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A655" s="1">
+        <v>653</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D655">
+        <v>2</v>
+      </c>
+      <c r="E655">
+        <v>46</v>
+      </c>
+      <c r="F655">
+        <v>73000</v>
+      </c>
+      <c r="G655">
+        <v>27</v>
+      </c>
+      <c r="H655">
+        <v>4800</v>
+      </c>
+      <c r="I655">
+        <v>10</v>
+      </c>
+      <c r="J655" s="1">
+        <v>0</v>
+      </c>
+      <c r="K655" t="b">
+        <v>1</v>
+      </c>
+      <c r="L655" t="s">
+        <v>1663</v>
+      </c>
+      <c r="M655">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A656" s="1">
+        <v>654</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D656">
+        <v>2</v>
+      </c>
+      <c r="E656">
+        <v>46</v>
+      </c>
+      <c r="F656">
+        <v>76000</v>
+      </c>
+      <c r="G656">
+        <v>27</v>
+      </c>
+      <c r="H656">
+        <v>5200</v>
+      </c>
+      <c r="I656">
+        <v>10</v>
+      </c>
+      <c r="J656" s="1">
+        <v>0</v>
+      </c>
+      <c r="K656" t="b">
+        <v>1</v>
+      </c>
+      <c r="L656" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M656">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A657" s="1">
+        <v>655</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D657" s="1">
+        <v>1</v>
+      </c>
+      <c r="E657" s="1">
+        <v>5</v>
+      </c>
+      <c r="F657" s="1">
+        <v>144000000</v>
+      </c>
+      <c r="G657" s="1">
+        <v>10</v>
+      </c>
+      <c r="H657" s="1">
+        <v>204</v>
+      </c>
+      <c r="I657" s="1">
+        <v>10</v>
+      </c>
+      <c r="J657" s="1">
+        <v>0</v>
+      </c>
+      <c r="K657" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L657" t="s">
+        <v>797</v>
+      </c>
+      <c r="M657" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A658" s="1">
+        <v>656</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D658" s="1">
+        <v>1</v>
+      </c>
+      <c r="E658" s="1">
+        <v>5</v>
+      </c>
+      <c r="F658" s="1">
+        <v>146000000</v>
+      </c>
+      <c r="G658" s="1">
+        <v>10</v>
+      </c>
+      <c r="H658" s="1">
+        <v>206</v>
+      </c>
+      <c r="I658" s="1">
+        <v>10</v>
+      </c>
+      <c r="J658" s="1">
+        <v>0</v>
+      </c>
+      <c r="K658" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L658" t="s">
+        <v>798</v>
+      </c>
+      <c r="M658" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A659" s="1">
+        <v>657</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D659" s="1">
+        <v>0</v>
+      </c>
+      <c r="E659" s="1">
+        <v>1</v>
+      </c>
+      <c r="F659" s="1">
+        <v>4935000000</v>
+      </c>
+      <c r="G659" s="1">
+        <v>11</v>
+      </c>
+      <c r="H659" s="1">
+        <v>48200000</v>
+      </c>
+      <c r="I659" s="1">
+        <v>10</v>
+      </c>
+      <c r="J659" s="1">
+        <v>0</v>
+      </c>
+      <c r="K659" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L659" t="s">
+        <v>775</v>
+      </c>
+      <c r="M659">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A660" s="1">
+        <v>658</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D660" s="1">
+        <v>0</v>
+      </c>
+      <c r="E660" s="1">
+        <v>1</v>
+      </c>
+      <c r="F660" s="1">
+        <v>4955000000</v>
+      </c>
+      <c r="G660" s="1">
+        <v>11</v>
+      </c>
+      <c r="H660" s="1">
+        <v>48400000</v>
+      </c>
+      <c r="I660" s="1">
+        <v>10</v>
+      </c>
+      <c r="J660" s="1">
+        <v>0</v>
+      </c>
+      <c r="K660" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L660" t="s">
+        <v>799</v>
+      </c>
+      <c r="M660">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A661" s="1">
+        <v>659</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D661" s="1">
+        <v>0</v>
+      </c>
+      <c r="E661" s="1">
+        <v>1</v>
+      </c>
+      <c r="F661" s="1">
+        <v>4975000000</v>
+      </c>
+      <c r="G661" s="1">
+        <v>11</v>
+      </c>
+      <c r="H661" s="1">
+        <v>48600000</v>
+      </c>
+      <c r="I661" s="1">
+        <v>10</v>
+      </c>
+      <c r="J661" s="1">
+        <v>0</v>
+      </c>
+      <c r="K661" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L661" t="s">
+        <v>775</v>
+      </c>
+      <c r="M661">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A662" s="1">
+        <v>660</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D662" s="1">
+        <v>0</v>
+      </c>
+      <c r="E662" s="1">
+        <v>1</v>
+      </c>
+      <c r="F662" s="1">
+        <v>4995000000</v>
+      </c>
+      <c r="G662" s="1">
+        <v>11</v>
+      </c>
+      <c r="H662" s="1">
+        <v>48800000</v>
+      </c>
+      <c r="I662" s="1">
+        <v>10</v>
+      </c>
+      <c r="J662" s="1">
+        <v>0</v>
+      </c>
+      <c r="K662" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L662" t="s">
+        <v>776</v>
+      </c>
+      <c r="M662" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A663" s="1">
+        <v>661</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D663" s="1">
+        <v>0</v>
+      </c>
+      <c r="E663" s="1">
+        <v>1</v>
+      </c>
+      <c r="F663" s="1">
+        <v>5015000000</v>
+      </c>
+      <c r="G663" s="1">
+        <v>11</v>
+      </c>
+      <c r="H663" s="1">
+        <v>49000000</v>
+      </c>
+      <c r="I663" s="1">
+        <v>10</v>
+      </c>
+      <c r="J663" s="1">
+        <v>0</v>
+      </c>
+      <c r="K663" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L663" t="s">
+        <v>865</v>
+      </c>
+      <c r="M663" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A664" s="1">
+        <v>662</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D664" s="1">
+        <v>0</v>
+      </c>
+      <c r="E664" s="1">
+        <v>1</v>
+      </c>
+      <c r="F664" s="1">
+        <v>5035000000</v>
+      </c>
+      <c r="G664" s="1">
+        <v>11</v>
+      </c>
+      <c r="H664" s="1">
+        <v>49200000</v>
+      </c>
+      <c r="I664" s="1">
+        <v>10</v>
+      </c>
+      <c r="J664" s="1">
+        <v>0</v>
+      </c>
+      <c r="K664" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L664" t="s">
+        <v>866</v>
+      </c>
+      <c r="M664">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A665" s="1">
+        <v>663</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D665" s="1">
+        <v>0</v>
+      </c>
+      <c r="E665" s="1">
+        <v>1</v>
+      </c>
+      <c r="F665" s="1">
+        <v>5055000000</v>
+      </c>
+      <c r="G665" s="1">
+        <v>11</v>
+      </c>
+      <c r="H665" s="1">
+        <v>49400000</v>
+      </c>
+      <c r="I665" s="1">
+        <v>10</v>
+      </c>
+      <c r="J665" s="1">
+        <v>0</v>
+      </c>
+      <c r="K665" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L665" t="s">
+        <v>797</v>
+      </c>
+      <c r="M665">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A666" s="1">
+        <v>664</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C666" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D666" s="1">
+        <v>0</v>
+      </c>
+      <c r="E666" s="1">
+        <v>1</v>
+      </c>
+      <c r="F666" s="1">
+        <v>5075000000</v>
+      </c>
+      <c r="G666" s="1">
+        <v>11</v>
+      </c>
+      <c r="H666" s="1">
+        <v>49600000</v>
+      </c>
+      <c r="I666" s="1">
+        <v>10</v>
+      </c>
+      <c r="J666" s="1">
+        <v>0</v>
+      </c>
+      <c r="K666" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L666" t="s">
+        <v>798</v>
+      </c>
+      <c r="M666">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A667" s="1">
+        <v>665</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C667" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D667" s="1">
+        <v>0</v>
+      </c>
+      <c r="E667" s="1">
+        <v>1</v>
+      </c>
+      <c r="F667" s="1">
+        <v>5095000000</v>
+      </c>
+      <c r="G667" s="1">
+        <v>11</v>
+      </c>
+      <c r="H667" s="1">
+        <v>49800000</v>
+      </c>
+      <c r="I667" s="1">
+        <v>10</v>
+      </c>
+      <c r="J667" s="1">
+        <v>0</v>
+      </c>
+      <c r="K667" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L667" t="s">
+        <v>799</v>
+      </c>
+      <c r="M667" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>666</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C668" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D668" s="1">
+        <v>0</v>
+      </c>
+      <c r="E668" s="1">
+        <v>1</v>
+      </c>
+      <c r="F668" s="1">
+        <v>5115000000</v>
+      </c>
+      <c r="G668" s="1">
+        <v>11</v>
+      </c>
+      <c r="H668" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="I668" s="1">
+        <v>10</v>
+      </c>
+      <c r="J668" s="1">
+        <v>0</v>
+      </c>
+      <c r="K668" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L668" t="s">
+        <v>775</v>
+      </c>
+      <c r="M668" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>667</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C669" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D669">
+        <v>2</v>
+      </c>
+      <c r="E669">
+        <v>46</v>
+      </c>
+      <c r="F669">
+        <v>79000</v>
+      </c>
+      <c r="G669">
+        <v>27</v>
+      </c>
+      <c r="H669">
+        <v>5600</v>
+      </c>
+      <c r="I669">
+        <v>10</v>
+      </c>
+      <c r="J669" s="1">
+        <v>0</v>
+      </c>
+      <c r="K669" t="b">
+        <v>1</v>
+      </c>
+      <c r="L669" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="M669">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC90D360-BA14-43F3-A532-70FE50BD6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC30C66-A40D-4BBB-9DFD-784CC621901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1691">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5672,6 +5672,78 @@
   <si>
     <t>남량검</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title668</t>
+  </si>
+  <si>
+    <t>title669</t>
+  </si>
+  <si>
+    <t>스테이지 14300 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 14400 돌파</t>
+  </si>
+  <si>
+    <t>title670</t>
+  </si>
+  <si>
+    <t>title671</t>
+  </si>
+  <si>
+    <t>title672</t>
+  </si>
+  <si>
+    <t>title673</t>
+  </si>
+  <si>
+    <t>title674</t>
+  </si>
+  <si>
+    <t>title675</t>
+  </si>
+  <si>
+    <t>title676</t>
+  </si>
+  <si>
+    <t>title677</t>
+  </si>
+  <si>
+    <t>title678</t>
+  </si>
+  <si>
+    <t>title679</t>
+  </si>
+  <si>
+    <t>레벨 2810000달성</t>
+  </si>
+  <si>
+    <t>레벨 2820000달성</t>
+  </si>
+  <si>
+    <t>레벨 2830000달성</t>
+  </si>
+  <si>
+    <t>레벨 2840000달성</t>
+  </si>
+  <si>
+    <t>레벨 2850000달성</t>
+  </si>
+  <si>
+    <t>레벨 2860000달성</t>
+  </si>
+  <si>
+    <t>레벨 2870000달성</t>
+  </si>
+  <si>
+    <t>레벨 2880000달성</t>
+  </si>
+  <si>
+    <t>레벨 2890000달성</t>
+  </si>
+  <si>
+    <t>레벨 2900000달성</t>
   </si>
 </sst>
 </file>
@@ -6097,7 +6169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6105,11 +6177,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M669"/>
+  <dimension ref="A1:M681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A650" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C655" sqref="C655"/>
+      <pane ySplit="1" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L670" sqref="L670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33552,6 +33624,498 @@
         <v>1659</v>
       </c>
       <c r="M669">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>668</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D670" s="1">
+        <v>1</v>
+      </c>
+      <c r="E670" s="1">
+        <v>5</v>
+      </c>
+      <c r="F670" s="1">
+        <v>148000000</v>
+      </c>
+      <c r="G670" s="1">
+        <v>10</v>
+      </c>
+      <c r="H670" s="1">
+        <v>208</v>
+      </c>
+      <c r="I670" s="1">
+        <v>10</v>
+      </c>
+      <c r="J670" s="1">
+        <v>0</v>
+      </c>
+      <c r="K670" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L670" t="s">
+        <v>867</v>
+      </c>
+      <c r="M670" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>669</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C671" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D671" s="1">
+        <v>1</v>
+      </c>
+      <c r="E671" s="1">
+        <v>5</v>
+      </c>
+      <c r="F671" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="G671" s="1">
+        <v>10</v>
+      </c>
+      <c r="H671" s="1">
+        <v>210</v>
+      </c>
+      <c r="I671" s="1">
+        <v>10</v>
+      </c>
+      <c r="J671" s="1">
+        <v>0</v>
+      </c>
+      <c r="K671" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L671" t="s">
+        <v>868</v>
+      </c>
+      <c r="M671" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>670</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C672" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D672" s="1">
+        <v>0</v>
+      </c>
+      <c r="E672" s="1">
+        <v>1</v>
+      </c>
+      <c r="F672" s="1">
+        <v>5135000000</v>
+      </c>
+      <c r="G672" s="1">
+        <v>11</v>
+      </c>
+      <c r="H672" s="1">
+        <v>50200000</v>
+      </c>
+      <c r="I672" s="1">
+        <v>10</v>
+      </c>
+      <c r="J672" s="1">
+        <v>0</v>
+      </c>
+      <c r="K672" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L672" t="s">
+        <v>671</v>
+      </c>
+      <c r="M672" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>671</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C673" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D673" s="1">
+        <v>0</v>
+      </c>
+      <c r="E673" s="1">
+        <v>1</v>
+      </c>
+      <c r="F673" s="1">
+        <v>5155000000</v>
+      </c>
+      <c r="G673" s="1">
+        <v>11</v>
+      </c>
+      <c r="H673" s="1">
+        <v>50400000</v>
+      </c>
+      <c r="I673" s="1">
+        <v>10</v>
+      </c>
+      <c r="J673" s="1">
+        <v>0</v>
+      </c>
+      <c r="K673" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L673" t="s">
+        <v>672</v>
+      </c>
+      <c r="M673" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>672</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D674" s="1">
+        <v>0</v>
+      </c>
+      <c r="E674" s="1">
+        <v>1</v>
+      </c>
+      <c r="F674" s="1">
+        <v>5175000000</v>
+      </c>
+      <c r="G674" s="1">
+        <v>11</v>
+      </c>
+      <c r="H674" s="1">
+        <v>50600000</v>
+      </c>
+      <c r="I674" s="1">
+        <v>10</v>
+      </c>
+      <c r="J674" s="1">
+        <v>0</v>
+      </c>
+      <c r="K674" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L674" t="s">
+        <v>673</v>
+      </c>
+      <c r="M674" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>673</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D675" s="1">
+        <v>0</v>
+      </c>
+      <c r="E675" s="1">
+        <v>1</v>
+      </c>
+      <c r="F675" s="1">
+        <v>5195000000</v>
+      </c>
+      <c r="G675" s="1">
+        <v>11</v>
+      </c>
+      <c r="H675" s="1">
+        <v>50800000</v>
+      </c>
+      <c r="I675" s="1">
+        <v>10</v>
+      </c>
+      <c r="J675" s="1">
+        <v>0</v>
+      </c>
+      <c r="K675" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L675" t="s">
+        <v>674</v>
+      </c>
+      <c r="M675" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>674</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D676" s="1">
+        <v>0</v>
+      </c>
+      <c r="E676" s="1">
+        <v>1</v>
+      </c>
+      <c r="F676" s="1">
+        <v>5215000000</v>
+      </c>
+      <c r="G676" s="1">
+        <v>11</v>
+      </c>
+      <c r="H676" s="1">
+        <v>51000000</v>
+      </c>
+      <c r="I676" s="1">
+        <v>10</v>
+      </c>
+      <c r="J676" s="1">
+        <v>0</v>
+      </c>
+      <c r="K676" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L676" t="s">
+        <v>675</v>
+      </c>
+      <c r="M676" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>675</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D677" s="1">
+        <v>0</v>
+      </c>
+      <c r="E677" s="1">
+        <v>1</v>
+      </c>
+      <c r="F677" s="1">
+        <v>5235000000</v>
+      </c>
+      <c r="G677" s="1">
+        <v>11</v>
+      </c>
+      <c r="H677" s="1">
+        <v>51200000</v>
+      </c>
+      <c r="I677" s="1">
+        <v>10</v>
+      </c>
+      <c r="J677" s="1">
+        <v>0</v>
+      </c>
+      <c r="K677" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L677" t="s">
+        <v>676</v>
+      </c>
+      <c r="M677" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>676</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D678" s="1">
+        <v>0</v>
+      </c>
+      <c r="E678" s="1">
+        <v>1</v>
+      </c>
+      <c r="F678" s="1">
+        <v>5255000000</v>
+      </c>
+      <c r="G678" s="1">
+        <v>11</v>
+      </c>
+      <c r="H678" s="1">
+        <v>51400000</v>
+      </c>
+      <c r="I678" s="1">
+        <v>10</v>
+      </c>
+      <c r="J678" s="1">
+        <v>0</v>
+      </c>
+      <c r="K678" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L678" t="s">
+        <v>677</v>
+      </c>
+      <c r="M678" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>677</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D679" s="1">
+        <v>0</v>
+      </c>
+      <c r="E679" s="1">
+        <v>1</v>
+      </c>
+      <c r="F679" s="1">
+        <v>5275000000</v>
+      </c>
+      <c r="G679" s="1">
+        <v>11</v>
+      </c>
+      <c r="H679" s="1">
+        <v>51600000</v>
+      </c>
+      <c r="I679" s="1">
+        <v>10</v>
+      </c>
+      <c r="J679" s="1">
+        <v>0</v>
+      </c>
+      <c r="K679" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L679" t="s">
+        <v>678</v>
+      </c>
+      <c r="M679" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>678</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D680" s="1">
+        <v>0</v>
+      </c>
+      <c r="E680" s="1">
+        <v>1</v>
+      </c>
+      <c r="F680" s="1">
+        <v>5295000000</v>
+      </c>
+      <c r="G680" s="1">
+        <v>11</v>
+      </c>
+      <c r="H680" s="1">
+        <v>51800000</v>
+      </c>
+      <c r="I680" s="1">
+        <v>10</v>
+      </c>
+      <c r="J680" s="1">
+        <v>0</v>
+      </c>
+      <c r="K680" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L680" t="s">
+        <v>650</v>
+      </c>
+      <c r="M680" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>679</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D681" s="1">
+        <v>0</v>
+      </c>
+      <c r="E681" s="1">
+        <v>1</v>
+      </c>
+      <c r="F681" s="1">
+        <v>5315000000</v>
+      </c>
+      <c r="G681" s="1">
+        <v>11</v>
+      </c>
+      <c r="H681" s="1">
+        <v>52000000</v>
+      </c>
+      <c r="I681" s="1">
+        <v>10</v>
+      </c>
+      <c r="J681" s="1">
+        <v>0</v>
+      </c>
+      <c r="K681" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L681" t="s">
+        <v>679</v>
+      </c>
+      <c r="M681" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC30C66-A40D-4BBB-9DFD-784CC621901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3032AC-FADD-4DA6-82E5-51880B17431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1739">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5744,6 +5744,154 @@
   </si>
   <si>
     <t>레벨 2900000달성</t>
+  </si>
+  <si>
+    <t>title680</t>
+  </si>
+  <si>
+    <t>광목천왕검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광목천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title681</t>
+  </si>
+  <si>
+    <t>title682</t>
+  </si>
+  <si>
+    <t>title683</t>
+  </si>
+  <si>
+    <t>title684</t>
+  </si>
+  <si>
+    <t>title685</t>
+  </si>
+  <si>
+    <t>title686</t>
+  </si>
+  <si>
+    <t>title687</t>
+  </si>
+  <si>
+    <t>title688</t>
+  </si>
+  <si>
+    <t>title689</t>
+  </si>
+  <si>
+    <t>title690</t>
+  </si>
+  <si>
+    <t>레벨 2910000달성</t>
+  </si>
+  <si>
+    <t>레벨 2920000달성</t>
+  </si>
+  <si>
+    <t>레벨 2930000달성</t>
+  </si>
+  <si>
+    <t>레벨 2940000달성</t>
+  </si>
+  <si>
+    <t>레벨 2950000달성</t>
+  </si>
+  <si>
+    <t>레벨 2960000달성</t>
+  </si>
+  <si>
+    <t>레벨 2970000달성</t>
+  </si>
+  <si>
+    <t>레벨 2980000달성</t>
+  </si>
+  <si>
+    <t>레벨 2990000달성</t>
+  </si>
+  <si>
+    <t>레벨 3000000달성</t>
+  </si>
+  <si>
+    <t>title691</t>
+  </si>
+  <si>
+    <t>title692</t>
+  </si>
+  <si>
+    <t>스테이지 14500 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 14600 돌파</t>
+  </si>
+  <si>
+    <t>title693</t>
+  </si>
+  <si>
+    <t>title694</t>
+  </si>
+  <si>
+    <t>title695</t>
+  </si>
+  <si>
+    <t>title696</t>
+  </si>
+  <si>
+    <t>title697</t>
+  </si>
+  <si>
+    <t>title698</t>
+  </si>
+  <si>
+    <t>title699</t>
+  </si>
+  <si>
+    <t>title700</t>
+  </si>
+  <si>
+    <t>title701</t>
+  </si>
+  <si>
+    <t>title702</t>
+  </si>
+  <si>
+    <t>레벨 3010000달성</t>
+  </si>
+  <si>
+    <t>레벨 3020000달성</t>
+  </si>
+  <si>
+    <t>레벨 3030000달성</t>
+  </si>
+  <si>
+    <t>레벨 3040000달성</t>
+  </si>
+  <si>
+    <t>레벨 3050000달성</t>
+  </si>
+  <si>
+    <t>레벨 3060000달성</t>
+  </si>
+  <si>
+    <t>레벨 3070000달성</t>
+  </si>
+  <si>
+    <t>레벨 3080000달성</t>
+  </si>
+  <si>
+    <t>레벨 3090000달성</t>
+  </si>
+  <si>
+    <t>레벨 3100000달성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6177,11 +6325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M681"/>
+  <dimension ref="A1:M704"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A660" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L670" sqref="L670"/>
+      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C704" sqref="C704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33621,7 +33769,7 @@
         <v>1</v>
       </c>
       <c r="L669" s="1" t="s">
-        <v>1659</v>
+        <v>1694</v>
       </c>
       <c r="M669">
         <v>11</v>
@@ -34116,6 +34264,949 @@
         <v>679</v>
       </c>
       <c r="M681" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>680</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D682">
+        <v>2</v>
+      </c>
+      <c r="E682">
+        <v>46</v>
+      </c>
+      <c r="F682">
+        <v>82000</v>
+      </c>
+      <c r="G682">
+        <v>27</v>
+      </c>
+      <c r="H682">
+        <v>6000</v>
+      </c>
+      <c r="I682">
+        <v>10</v>
+      </c>
+      <c r="J682" s="1">
+        <v>0</v>
+      </c>
+      <c r="K682" t="b">
+        <v>1</v>
+      </c>
+      <c r="L682" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="M682">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>681</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D683" s="1">
+        <v>0</v>
+      </c>
+      <c r="E683" s="1">
+        <v>1</v>
+      </c>
+      <c r="F683" s="1">
+        <v>5335000000</v>
+      </c>
+      <c r="G683" s="1">
+        <v>11</v>
+      </c>
+      <c r="H683" s="1">
+        <v>52200000</v>
+      </c>
+      <c r="I683" s="1">
+        <v>10</v>
+      </c>
+      <c r="J683" s="1">
+        <v>0</v>
+      </c>
+      <c r="K683" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L683" t="s">
+        <v>592</v>
+      </c>
+      <c r="M683" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>682</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D684" s="1">
+        <v>0</v>
+      </c>
+      <c r="E684" s="1">
+        <v>1</v>
+      </c>
+      <c r="F684" s="1">
+        <v>5355000000</v>
+      </c>
+      <c r="G684" s="1">
+        <v>11</v>
+      </c>
+      <c r="H684" s="1">
+        <v>52400000</v>
+      </c>
+      <c r="I684" s="1">
+        <v>10</v>
+      </c>
+      <c r="J684" s="1">
+        <v>0</v>
+      </c>
+      <c r="K684" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L684" t="s">
+        <v>501</v>
+      </c>
+      <c r="M684" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>683</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D685" s="1">
+        <v>0</v>
+      </c>
+      <c r="E685" s="1">
+        <v>1</v>
+      </c>
+      <c r="F685" s="1">
+        <v>5375000000</v>
+      </c>
+      <c r="G685" s="1">
+        <v>11</v>
+      </c>
+      <c r="H685" s="1">
+        <v>52600000</v>
+      </c>
+      <c r="I685" s="1">
+        <v>10</v>
+      </c>
+      <c r="J685" s="1">
+        <v>0</v>
+      </c>
+      <c r="K685" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L685" t="s">
+        <v>593</v>
+      </c>
+      <c r="M685" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>684</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D686" s="1">
+        <v>0</v>
+      </c>
+      <c r="E686" s="1">
+        <v>1</v>
+      </c>
+      <c r="F686" s="1">
+        <v>5395000000</v>
+      </c>
+      <c r="G686" s="1">
+        <v>11</v>
+      </c>
+      <c r="H686" s="1">
+        <v>52800000</v>
+      </c>
+      <c r="I686" s="1">
+        <v>10</v>
+      </c>
+      <c r="J686" s="1">
+        <v>0</v>
+      </c>
+      <c r="K686" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L686" t="s">
+        <v>500</v>
+      </c>
+      <c r="M686" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>685</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="D687" s="1">
+        <v>0</v>
+      </c>
+      <c r="E687" s="1">
+        <v>1</v>
+      </c>
+      <c r="F687" s="1">
+        <v>5415000000</v>
+      </c>
+      <c r="G687" s="1">
+        <v>11</v>
+      </c>
+      <c r="H687" s="1">
+        <v>53000000</v>
+      </c>
+      <c r="I687" s="1">
+        <v>10</v>
+      </c>
+      <c r="J687" s="1">
+        <v>0</v>
+      </c>
+      <c r="K687" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L687" t="s">
+        <v>435</v>
+      </c>
+      <c r="M687" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A688" s="1">
+        <v>686</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D688" s="1">
+        <v>0</v>
+      </c>
+      <c r="E688" s="1">
+        <v>1</v>
+      </c>
+      <c r="F688" s="1">
+        <v>5435000000</v>
+      </c>
+      <c r="G688" s="1">
+        <v>11</v>
+      </c>
+      <c r="H688" s="1">
+        <v>53200000</v>
+      </c>
+      <c r="I688" s="1">
+        <v>10</v>
+      </c>
+      <c r="J688" s="1">
+        <v>0</v>
+      </c>
+      <c r="K688" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L688" t="s">
+        <v>594</v>
+      </c>
+      <c r="M688" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A689" s="1">
+        <v>687</v>
+      </c>
+      <c r="B689" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D689" s="1">
+        <v>0</v>
+      </c>
+      <c r="E689" s="1">
+        <v>1</v>
+      </c>
+      <c r="F689" s="1">
+        <v>5455000000</v>
+      </c>
+      <c r="G689" s="1">
+        <v>11</v>
+      </c>
+      <c r="H689" s="1">
+        <v>53400000</v>
+      </c>
+      <c r="I689" s="1">
+        <v>10</v>
+      </c>
+      <c r="J689" s="1">
+        <v>0</v>
+      </c>
+      <c r="K689" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L689" t="s">
+        <v>432</v>
+      </c>
+      <c r="M689" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A690" s="1">
+        <v>688</v>
+      </c>
+      <c r="B690" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C690" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D690" s="1">
+        <v>0</v>
+      </c>
+      <c r="E690" s="1">
+        <v>1</v>
+      </c>
+      <c r="F690" s="1">
+        <v>5475000000</v>
+      </c>
+      <c r="G690" s="1">
+        <v>11</v>
+      </c>
+      <c r="H690" s="1">
+        <v>53600000</v>
+      </c>
+      <c r="I690" s="1">
+        <v>10</v>
+      </c>
+      <c r="J690" s="1">
+        <v>0</v>
+      </c>
+      <c r="K690" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L690" t="s">
+        <v>595</v>
+      </c>
+      <c r="M690" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A691" s="1">
+        <v>689</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D691" s="1">
+        <v>0</v>
+      </c>
+      <c r="E691" s="1">
+        <v>1</v>
+      </c>
+      <c r="F691" s="1">
+        <v>5495000000</v>
+      </c>
+      <c r="G691" s="1">
+        <v>11</v>
+      </c>
+      <c r="H691" s="1">
+        <v>53800000</v>
+      </c>
+      <c r="I691" s="1">
+        <v>10</v>
+      </c>
+      <c r="J691" s="1">
+        <v>0</v>
+      </c>
+      <c r="K691" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L691" t="s">
+        <v>616</v>
+      </c>
+      <c r="M691" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A692" s="1">
+        <v>690</v>
+      </c>
+      <c r="B692" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C692" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D692" s="1">
+        <v>0</v>
+      </c>
+      <c r="E692" s="1">
+        <v>1</v>
+      </c>
+      <c r="F692" s="1">
+        <v>5515000000</v>
+      </c>
+      <c r="G692" s="1">
+        <v>11</v>
+      </c>
+      <c r="H692" s="1">
+        <v>54000000</v>
+      </c>
+      <c r="I692" s="1">
+        <v>10</v>
+      </c>
+      <c r="J692" s="1">
+        <v>0</v>
+      </c>
+      <c r="K692" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L692" t="s">
+        <v>617</v>
+      </c>
+      <c r="M692" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A693" s="1">
+        <v>691</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D693" s="1">
+        <v>1</v>
+      </c>
+      <c r="E693" s="1">
+        <v>5</v>
+      </c>
+      <c r="F693" s="1">
+        <v>152000000</v>
+      </c>
+      <c r="G693" s="1">
+        <v>10</v>
+      </c>
+      <c r="H693" s="1">
+        <v>212</v>
+      </c>
+      <c r="I693" s="1">
+        <v>10</v>
+      </c>
+      <c r="J693" s="1">
+        <v>0</v>
+      </c>
+      <c r="K693" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L693" t="s">
+        <v>768</v>
+      </c>
+      <c r="M693" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A694" s="1">
+        <v>692</v>
+      </c>
+      <c r="B694" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C694" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D694" s="1">
+        <v>1</v>
+      </c>
+      <c r="E694" s="1">
+        <v>5</v>
+      </c>
+      <c r="F694" s="1">
+        <v>154000000</v>
+      </c>
+      <c r="G694" s="1">
+        <v>10</v>
+      </c>
+      <c r="H694" s="1">
+        <v>214</v>
+      </c>
+      <c r="I694" s="1">
+        <v>10</v>
+      </c>
+      <c r="J694" s="1">
+        <v>0</v>
+      </c>
+      <c r="K694" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L694" t="s">
+        <v>769</v>
+      </c>
+      <c r="M694" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A695" s="1">
+        <v>693</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D695" s="1">
+        <v>0</v>
+      </c>
+      <c r="E695" s="1">
+        <v>1</v>
+      </c>
+      <c r="F695" s="1">
+        <v>5535000000</v>
+      </c>
+      <c r="G695" s="1">
+        <v>11</v>
+      </c>
+      <c r="H695" s="1">
+        <v>54200000</v>
+      </c>
+      <c r="I695" s="1">
+        <v>10</v>
+      </c>
+      <c r="J695" s="1">
+        <v>0</v>
+      </c>
+      <c r="K695" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L695" t="s">
+        <v>592</v>
+      </c>
+      <c r="M695" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A696" s="1">
+        <v>694</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D696" s="1">
+        <v>0</v>
+      </c>
+      <c r="E696" s="1">
+        <v>1</v>
+      </c>
+      <c r="F696" s="1">
+        <v>5555000000</v>
+      </c>
+      <c r="G696" s="1">
+        <v>11</v>
+      </c>
+      <c r="H696" s="1">
+        <v>54400000</v>
+      </c>
+      <c r="I696" s="1">
+        <v>10</v>
+      </c>
+      <c r="J696" s="1">
+        <v>0</v>
+      </c>
+      <c r="K696" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L696" t="s">
+        <v>501</v>
+      </c>
+      <c r="M696" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A697" s="1">
+        <v>695</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D697" s="1">
+        <v>0</v>
+      </c>
+      <c r="E697" s="1">
+        <v>1</v>
+      </c>
+      <c r="F697" s="1">
+        <v>5575000000</v>
+      </c>
+      <c r="G697" s="1">
+        <v>11</v>
+      </c>
+      <c r="H697" s="1">
+        <v>54600000</v>
+      </c>
+      <c r="I697" s="1">
+        <v>10</v>
+      </c>
+      <c r="J697" s="1">
+        <v>0</v>
+      </c>
+      <c r="K697" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L697" t="s">
+        <v>593</v>
+      </c>
+      <c r="M697" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A698" s="1">
+        <v>696</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D698" s="1">
+        <v>0</v>
+      </c>
+      <c r="E698" s="1">
+        <v>1</v>
+      </c>
+      <c r="F698" s="1">
+        <v>5595000000</v>
+      </c>
+      <c r="G698" s="1">
+        <v>11</v>
+      </c>
+      <c r="H698" s="1">
+        <v>54800000</v>
+      </c>
+      <c r="I698" s="1">
+        <v>10</v>
+      </c>
+      <c r="J698" s="1">
+        <v>0</v>
+      </c>
+      <c r="K698" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L698" t="s">
+        <v>500</v>
+      </c>
+      <c r="M698" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A699" s="1">
+        <v>697</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D699" s="1">
+        <v>0</v>
+      </c>
+      <c r="E699" s="1">
+        <v>1</v>
+      </c>
+      <c r="F699" s="1">
+        <v>5615000000</v>
+      </c>
+      <c r="G699" s="1">
+        <v>11</v>
+      </c>
+      <c r="H699" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="I699" s="1">
+        <v>10</v>
+      </c>
+      <c r="J699" s="1">
+        <v>0</v>
+      </c>
+      <c r="K699" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L699" t="s">
+        <v>435</v>
+      </c>
+      <c r="M699" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A700" s="1">
+        <v>698</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D700" s="1">
+        <v>0</v>
+      </c>
+      <c r="E700" s="1">
+        <v>1</v>
+      </c>
+      <c r="F700" s="1">
+        <v>5635000000</v>
+      </c>
+      <c r="G700" s="1">
+        <v>11</v>
+      </c>
+      <c r="H700" s="1">
+        <v>55200000</v>
+      </c>
+      <c r="I700" s="1">
+        <v>10</v>
+      </c>
+      <c r="J700" s="1">
+        <v>0</v>
+      </c>
+      <c r="K700" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L700" t="s">
+        <v>594</v>
+      </c>
+      <c r="M700" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A701" s="1">
+        <v>699</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D701" s="1">
+        <v>0</v>
+      </c>
+      <c r="E701" s="1">
+        <v>1</v>
+      </c>
+      <c r="F701" s="1">
+        <v>5655000000</v>
+      </c>
+      <c r="G701" s="1">
+        <v>11</v>
+      </c>
+      <c r="H701" s="1">
+        <v>55400000</v>
+      </c>
+      <c r="I701" s="1">
+        <v>10</v>
+      </c>
+      <c r="J701" s="1">
+        <v>0</v>
+      </c>
+      <c r="K701" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L701" t="s">
+        <v>432</v>
+      </c>
+      <c r="M701" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A702" s="1">
+        <v>700</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D702" s="1">
+        <v>0</v>
+      </c>
+      <c r="E702" s="1">
+        <v>1</v>
+      </c>
+      <c r="F702" s="1">
+        <v>5675000000</v>
+      </c>
+      <c r="G702" s="1">
+        <v>11</v>
+      </c>
+      <c r="H702" s="1">
+        <v>55600000</v>
+      </c>
+      <c r="I702" s="1">
+        <v>10</v>
+      </c>
+      <c r="J702" s="1">
+        <v>0</v>
+      </c>
+      <c r="K702" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L702" t="s">
+        <v>595</v>
+      </c>
+      <c r="M702" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A703" s="1">
+        <v>701</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D703" s="1">
+        <v>0</v>
+      </c>
+      <c r="E703" s="1">
+        <v>1</v>
+      </c>
+      <c r="F703" s="1">
+        <v>5695000000</v>
+      </c>
+      <c r="G703" s="1">
+        <v>11</v>
+      </c>
+      <c r="H703" s="1">
+        <v>55800000</v>
+      </c>
+      <c r="I703" s="1">
+        <v>10</v>
+      </c>
+      <c r="J703" s="1">
+        <v>0</v>
+      </c>
+      <c r="K703" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L703" t="s">
+        <v>616</v>
+      </c>
+      <c r="M703" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A704" s="1">
+        <v>702</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D704" s="1">
+        <v>0</v>
+      </c>
+      <c r="E704" s="1">
+        <v>1</v>
+      </c>
+      <c r="F704" s="1">
+        <v>5715000000</v>
+      </c>
+      <c r="G704" s="1">
+        <v>11</v>
+      </c>
+      <c r="H704" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="I704" s="1">
+        <v>10</v>
+      </c>
+      <c r="J704" s="1">
+        <v>0</v>
+      </c>
+      <c r="K704" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L704" t="s">
+        <v>617</v>
+      </c>
+      <c r="M704" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3032AC-FADD-4DA6-82E5-51880B17431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7924FB-74AB-441A-AC16-5D87F042CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1743">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5892,6 +5892,18 @@
   <si>
     <t>레벨 3100000달성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title703</t>
+  </si>
+  <si>
+    <t>title704</t>
+  </si>
+  <si>
+    <t>스테이지 14700 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 14800 돌파</t>
   </si>
 </sst>
 </file>
@@ -6325,11 +6337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M704"/>
+  <dimension ref="A1:M706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C704" sqref="C704"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I698" sqref="I698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35207,6 +35219,88 @@
         <v>617</v>
       </c>
       <c r="M704" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A705" s="1">
+        <v>703</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D705" s="1">
+        <v>1</v>
+      </c>
+      <c r="E705" s="1">
+        <v>5</v>
+      </c>
+      <c r="F705" s="1">
+        <v>156000000</v>
+      </c>
+      <c r="G705" s="1">
+        <v>10</v>
+      </c>
+      <c r="H705" s="1">
+        <v>216</v>
+      </c>
+      <c r="I705" s="1">
+        <v>10</v>
+      </c>
+      <c r="J705" s="1">
+        <v>0</v>
+      </c>
+      <c r="K705" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L705" t="s">
+        <v>675</v>
+      </c>
+      <c r="M705" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A706" s="1">
+        <v>704</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D706" s="1">
+        <v>1</v>
+      </c>
+      <c r="E706" s="1">
+        <v>5</v>
+      </c>
+      <c r="F706" s="1">
+        <v>158000000</v>
+      </c>
+      <c r="G706" s="1">
+        <v>10</v>
+      </c>
+      <c r="H706" s="1">
+        <v>218</v>
+      </c>
+      <c r="I706" s="1">
+        <v>10</v>
+      </c>
+      <c r="J706" s="1">
+        <v>0</v>
+      </c>
+      <c r="K706" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L706" t="s">
+        <v>676</v>
+      </c>
+      <c r="M706" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7924FB-74AB-441A-AC16-5D87F042CA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19399420-78E9-4869-89D6-074BDCA65454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1749">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5904,6 +5904,28 @@
   </si>
   <si>
     <t>스테이지 14800 돌파</t>
+  </si>
+  <si>
+    <t>title705</t>
+  </si>
+  <si>
+    <t>title706</t>
+  </si>
+  <si>
+    <t>증장천왕검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다문천왕검 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증장천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다문천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6337,11 +6359,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M706"/>
+  <dimension ref="A1:M708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I698" sqref="I698"/>
+      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I707" sqref="I707"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35301,6 +35323,88 @@
         <v>676</v>
       </c>
       <c r="M706" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A707" s="1">
+        <v>705</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D707">
+        <v>2</v>
+      </c>
+      <c r="E707">
+        <v>46</v>
+      </c>
+      <c r="F707">
+        <v>85000</v>
+      </c>
+      <c r="G707">
+        <v>27</v>
+      </c>
+      <c r="H707">
+        <v>6400</v>
+      </c>
+      <c r="I707">
+        <v>10</v>
+      </c>
+      <c r="J707" s="1">
+        <v>0</v>
+      </c>
+      <c r="K707" t="b">
+        <v>1</v>
+      </c>
+      <c r="L707" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="M707">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A708" s="1">
+        <v>706</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D708">
+        <v>2</v>
+      </c>
+      <c r="E708">
+        <v>46</v>
+      </c>
+      <c r="F708">
+        <v>88000</v>
+      </c>
+      <c r="G708">
+        <v>27</v>
+      </c>
+      <c r="H708">
+        <v>6800</v>
+      </c>
+      <c r="I708">
+        <v>10</v>
+      </c>
+      <c r="J708" s="1">
+        <v>0</v>
+      </c>
+      <c r="K708" t="b">
+        <v>1</v>
+      </c>
+      <c r="L708" s="1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M708">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19399420-78E9-4869-89D6-074BDCA65454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CC042-5A43-470D-867F-20A5D125D886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TitleTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="1749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1753">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5926,6 +5926,18 @@
   <si>
     <t>다문천왕검</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 14900 돌파</t>
+  </si>
+  <si>
+    <t>스테이지 15000 돌파</t>
+  </si>
+  <si>
+    <t>title707</t>
+  </si>
+  <si>
+    <t>title708</t>
   </si>
 </sst>
 </file>
@@ -6351,7 +6363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6359,11 +6371,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M708"/>
+  <dimension ref="A1:M710"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I707" sqref="I707"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L712" sqref="L712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35405,6 +35417,88 @@
         <v>1748</v>
       </c>
       <c r="M708">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A709" s="1">
+        <v>707</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D709" s="1">
+        <v>1</v>
+      </c>
+      <c r="E709" s="1">
+        <v>5</v>
+      </c>
+      <c r="F709" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="G709" s="1">
+        <v>10</v>
+      </c>
+      <c r="H709" s="1">
+        <v>220</v>
+      </c>
+      <c r="I709" s="1">
+        <v>10</v>
+      </c>
+      <c r="J709" s="1">
+        <v>0</v>
+      </c>
+      <c r="K709" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L709" t="s">
+        <v>433</v>
+      </c>
+      <c r="M709" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A710" s="1">
+        <v>708</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D710" s="1">
+        <v>1</v>
+      </c>
+      <c r="E710" s="1">
+        <v>5</v>
+      </c>
+      <c r="F710" s="1">
+        <v>162000000</v>
+      </c>
+      <c r="G710" s="1">
+        <v>10</v>
+      </c>
+      <c r="H710" s="1">
+        <v>222</v>
+      </c>
+      <c r="I710" s="1">
+        <v>10</v>
+      </c>
+      <c r="J710" s="1">
+        <v>0</v>
+      </c>
+      <c r="K710" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L710" t="s">
+        <v>434</v>
+      </c>
+      <c r="M710" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/TitleTable.xlsx
+++ b/Assets/06.Table/TitleTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819CC042-5A43-470D-867F-20A5D125D886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0BB711-A263-4C03-9666-CC54BBF09099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="1773">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5938,6 +5938,66 @@
   </si>
   <si>
     <t>title708</t>
+  </si>
+  <si>
+    <t>레벨 3110000달성</t>
+  </si>
+  <si>
+    <t>레벨 3120000달성</t>
+  </si>
+  <si>
+    <t>레벨 3130000달성</t>
+  </si>
+  <si>
+    <t>레벨 3140000달성</t>
+  </si>
+  <si>
+    <t>레벨 3150000달성</t>
+  </si>
+  <si>
+    <t>레벨 3160000달성</t>
+  </si>
+  <si>
+    <t>레벨 3170000달성</t>
+  </si>
+  <si>
+    <t>레벨 3180000달성</t>
+  </si>
+  <si>
+    <t>레벨 3190000달성</t>
+  </si>
+  <si>
+    <t>레벨 3200000달성</t>
+  </si>
+  <si>
+    <t>title709</t>
+  </si>
+  <si>
+    <t>title710</t>
+  </si>
+  <si>
+    <t>title711</t>
+  </si>
+  <si>
+    <t>title712</t>
+  </si>
+  <si>
+    <t>title713</t>
+  </si>
+  <si>
+    <t>title714</t>
+  </si>
+  <si>
+    <t>title715</t>
+  </si>
+  <si>
+    <t>title716</t>
+  </si>
+  <si>
+    <t>title717</t>
+  </si>
+  <si>
+    <t>title718</t>
   </si>
 </sst>
 </file>
@@ -6371,11 +6431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:M710"/>
+  <dimension ref="A1:M720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L712" sqref="L712"/>
+      <selection pane="bottomLeft" activeCell="L710" sqref="L710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32122,7 +32182,7 @@
         <v>11</v>
       </c>
       <c r="H628" s="1">
-        <v>44200000</v>
+        <v>46200000</v>
       </c>
       <c r="I628" s="1">
         <v>10</v>
@@ -32163,7 +32223,7 @@
         <v>11</v>
       </c>
       <c r="H629" s="1">
-        <v>44400000</v>
+        <v>46400000</v>
       </c>
       <c r="I629" s="1">
         <v>10</v>
@@ -32204,7 +32264,7 @@
         <v>11</v>
       </c>
       <c r="H630" s="1">
-        <v>44600000</v>
+        <v>46600000</v>
       </c>
       <c r="I630" s="1">
         <v>10</v>
@@ -32245,7 +32305,7 @@
         <v>11</v>
       </c>
       <c r="H631" s="1">
-        <v>44800000</v>
+        <v>46800000</v>
       </c>
       <c r="I631" s="1">
         <v>10</v>
@@ -32286,7 +32346,7 @@
         <v>11</v>
       </c>
       <c r="H632" s="1">
-        <v>45000000</v>
+        <v>47000000</v>
       </c>
       <c r="I632" s="1">
         <v>10</v>
@@ -32327,7 +32387,7 @@
         <v>11</v>
       </c>
       <c r="H633" s="1">
-        <v>45200000</v>
+        <v>47200000</v>
       </c>
       <c r="I633" s="1">
         <v>10</v>
@@ -32368,7 +32428,7 @@
         <v>11</v>
       </c>
       <c r="H634" s="1">
-        <v>45400000</v>
+        <v>47400000</v>
       </c>
       <c r="I634" s="1">
         <v>10</v>
@@ -32409,7 +32469,7 @@
         <v>11</v>
       </c>
       <c r="H635" s="1">
-        <v>45600000</v>
+        <v>47600000</v>
       </c>
       <c r="I635" s="1">
         <v>10</v>
@@ -32450,7 +32510,7 @@
         <v>11</v>
       </c>
       <c r="H636" s="1">
-        <v>45800000</v>
+        <v>47800000</v>
       </c>
       <c r="I636" s="1">
         <v>10</v>
@@ -32491,7 +32551,7 @@
         <v>11</v>
       </c>
       <c r="H637" s="1">
-        <v>46000000</v>
+        <v>48000000</v>
       </c>
       <c r="I637" s="1">
         <v>10</v>
@@ -32696,7 +32756,7 @@
         <v>11</v>
       </c>
       <c r="H642" s="1">
-        <v>46200000</v>
+        <v>48200000</v>
       </c>
       <c r="I642" s="1">
         <v>10</v>
@@ -32737,7 +32797,7 @@
         <v>11</v>
       </c>
       <c r="H643" s="1">
-        <v>46400000</v>
+        <v>48400000</v>
       </c>
       <c r="I643" s="1">
         <v>10</v>
@@ -32778,7 +32838,7 @@
         <v>11</v>
       </c>
       <c r="H644" s="1">
-        <v>46600000</v>
+        <v>48600000</v>
       </c>
       <c r="I644" s="1">
         <v>10</v>
@@ -32819,7 +32879,7 @@
         <v>11</v>
       </c>
       <c r="H645" s="1">
-        <v>46800000</v>
+        <v>48800000</v>
       </c>
       <c r="I645" s="1">
         <v>10</v>
@@ -32860,7 +32920,7 @@
         <v>11</v>
       </c>
       <c r="H646" s="1">
-        <v>47000000</v>
+        <v>49000000</v>
       </c>
       <c r="I646" s="1">
         <v>10</v>
@@ -32901,7 +32961,7 @@
         <v>11</v>
       </c>
       <c r="H647" s="1">
-        <v>47200000</v>
+        <v>49200000</v>
       </c>
       <c r="I647" s="1">
         <v>10</v>
@@ -32942,7 +33002,7 @@
         <v>11</v>
       </c>
       <c r="H648" s="1">
-        <v>47400000</v>
+        <v>49400000</v>
       </c>
       <c r="I648" s="1">
         <v>10</v>
@@ -32983,7 +33043,7 @@
         <v>11</v>
       </c>
       <c r="H649" s="1">
-        <v>47600000</v>
+        <v>49600000</v>
       </c>
       <c r="I649" s="1">
         <v>10</v>
@@ -33024,7 +33084,7 @@
         <v>11</v>
       </c>
       <c r="H650" s="1">
-        <v>47800000</v>
+        <v>49800000</v>
       </c>
       <c r="I650" s="1">
         <v>10</v>
@@ -33065,7 +33125,7 @@
         <v>11</v>
       </c>
       <c r="H651" s="1">
-        <v>48000000</v>
+        <v>50000000</v>
       </c>
       <c r="I651" s="1">
         <v>10</v>
@@ -33393,7 +33453,7 @@
         <v>11</v>
       </c>
       <c r="H659" s="1">
-        <v>48200000</v>
+        <v>50200000</v>
       </c>
       <c r="I659" s="1">
         <v>10</v>
@@ -33434,7 +33494,7 @@
         <v>11</v>
       </c>
       <c r="H660" s="1">
-        <v>48400000</v>
+        <v>50400000</v>
       </c>
       <c r="I660" s="1">
         <v>10</v>
@@ -33475,7 +33535,7 @@
         <v>11</v>
       </c>
       <c r="H661" s="1">
-        <v>48600000</v>
+        <v>50600000</v>
       </c>
       <c r="I661" s="1">
         <v>10</v>
@@ -33516,7 +33576,7 @@
         <v>11</v>
       </c>
       <c r="H662" s="1">
-        <v>48800000</v>
+        <v>50800000</v>
       </c>
       <c r="I662" s="1">
         <v>10</v>
@@ -33557,7 +33617,7 @@
         <v>11</v>
       </c>
       <c r="H663" s="1">
-        <v>49000000</v>
+        <v>51000000</v>
       </c>
       <c r="I663" s="1">
         <v>10</v>
@@ -33598,7 +33658,7 @@
         <v>11</v>
       </c>
       <c r="H664" s="1">
-        <v>49200000</v>
+        <v>51200000</v>
       </c>
       <c r="I664" s="1">
         <v>10</v>
@@ -33639,7 +33699,7 @@
         <v>11</v>
       </c>
       <c r="H665" s="1">
-        <v>49400000</v>
+        <v>51400000</v>
       </c>
       <c r="I665" s="1">
         <v>10</v>
@@ -33680,7 +33740,7 @@
         <v>11</v>
       </c>
       <c r="H666" s="1">
-        <v>49600000</v>
+        <v>51600000</v>
       </c>
       <c r="I666" s="1">
         <v>10</v>
@@ -33721,7 +33781,7 @@
         <v>11</v>
       </c>
       <c r="H667" s="1">
-        <v>49800000</v>
+        <v>51800000</v>
       </c>
       <c r="I667" s="1">
         <v>10</v>
@@ -33762,7 +33822,7 @@
         <v>11</v>
       </c>
       <c r="H668" s="1">
-        <v>50000000</v>
+        <v>52000000</v>
       </c>
       <c r="I668" s="1">
         <v>10</v>
@@ -33926,7 +33986,7 @@
         <v>11</v>
       </c>
       <c r="H672" s="1">
-        <v>50200000</v>
+        <v>52200000</v>
       </c>
       <c r="I672" s="1">
         <v>10</v>
@@ -33967,7 +34027,7 @@
         <v>11</v>
       </c>
       <c r="H673" s="1">
-        <v>50400000</v>
+        <v>52400000</v>
       </c>
       <c r="I673" s="1">
         <v>10</v>
@@ -34008,7 +34068,7 @@
         <v>11</v>
       </c>
       <c r="H674" s="1">
-        <v>50600000</v>
+        <v>52600000</v>
       </c>
       <c r="I674" s="1">
         <v>10</v>
@@ -34049,7 +34109,7 @@
         <v>11</v>
       </c>
       <c r="H675" s="1">
-        <v>50800000</v>
+        <v>52800000</v>
       </c>
       <c r="I675" s="1">
         <v>10</v>
@@ -34090,7 +34150,7 @@
         <v>11</v>
       </c>
       <c r="H676" s="1">
-        <v>51000000</v>
+        <v>53000000</v>
       </c>
       <c r="I676" s="1">
         <v>10</v>
@@ -34131,7 +34191,7 @@
         <v>11</v>
       </c>
       <c r="H677" s="1">
-        <v>51200000</v>
+        <v>53200000</v>
       </c>
       <c r="I677" s="1">
         <v>10</v>
@@ -34172,7 +34232,7 @@
         <v>11</v>
       </c>
       <c r="H678" s="1">
-        <v>51400000</v>
+        <v>53400000</v>
       </c>
       <c r="I678" s="1">
         <v>10</v>
@@ -34213,7 +34273,7 @@
         <v>11</v>
       </c>
       <c r="H679" s="1">
-        <v>51600000</v>
+        <v>53600000</v>
       </c>
       <c r="I679" s="1">
         <v>10</v>
@@ -34254,7 +34314,7 @@
         <v>11</v>
       </c>
       <c r="H680" s="1">
-        <v>51800000</v>
+        <v>53800000</v>
       </c>
       <c r="I680" s="1">
         <v>10</v>
@@ -34295,7 +34355,7 @@
         <v>11</v>
       </c>
       <c r="H681" s="1">
-        <v>52000000</v>
+        <v>54000000</v>
       </c>
       <c r="I681" s="1">
         <v>10</v>
@@ -34377,7 +34437,7 @@
         <v>11</v>
       </c>
       <c r="H683" s="1">
-        <v>52200000</v>
+        <v>54200000</v>
       </c>
       <c r="I683" s="1">
         <v>10</v>
@@ -34418,7 +34478,7 @@
         <v>11</v>
       </c>
       <c r="H684" s="1">
-        <v>52400000</v>
+        <v>54400000</v>
       </c>
       <c r="I684" s="1">
         <v>10</v>
@@ -34459,7 +34519,7 @@
         <v>11</v>
       </c>
       <c r="H685" s="1">
-        <v>52600000</v>
+        <v>54600000</v>
       </c>
       <c r="I685" s="1">
         <v>10</v>
@@ -34500,7 +34560,7 @@
         <v>11</v>
       </c>
       <c r="H686" s="1">
-        <v>52800000</v>
+        <v>54800000</v>
       </c>
       <c r="I686" s="1">
         <v>10</v>
@@ -34541,7 +34601,7 @@
         <v>11</v>
       </c>
       <c r="H687" s="1">
-        <v>53000000</v>
+        <v>55000000</v>
       </c>
       <c r="I687" s="1">
         <v>10</v>
@@ -34582,7 +34642,7 @@
         <v>11</v>
       </c>
       <c r="H688" s="1">
-        <v>53200000</v>
+        <v>55200000</v>
       </c>
       <c r="I688" s="1">
         <v>10</v>
@@ -34623,7 +34683,7 @@
         <v>11</v>
       </c>
       <c r="H689" s="1">
-        <v>53400000</v>
+        <v>55400000</v>
       </c>
       <c r="I689" s="1">
         <v>10</v>
@@ -34664,7 +34724,7 @@
         <v>11</v>
       </c>
       <c r="H690" s="1">
-        <v>53600000</v>
+        <v>55600000</v>
       </c>
       <c r="I690" s="1">
         <v>10</v>
@@ -34705,7 +34765,7 @@
         <v>11</v>
       </c>
       <c r="H691" s="1">
-        <v>53800000</v>
+        <v>55800000</v>
       </c>
       <c r="I691" s="1">
         <v>10</v>
@@ -34746,7 +34806,7 @@
         <v>11</v>
       </c>
       <c r="H692" s="1">
-        <v>54000000</v>
+        <v>56000000</v>
       </c>
       <c r="I692" s="1">
         <v>10</v>
@@ -34869,7 +34929,7 @@
         <v>11</v>
       </c>
       <c r="H695" s="1">
-        <v>54200000</v>
+        <v>56200000</v>
       </c>
       <c r="I695" s="1">
         <v>10</v>
@@ -34910,7 +34970,7 @@
         <v>11</v>
       </c>
       <c r="H696" s="1">
-        <v>54400000</v>
+        <v>56400000</v>
       </c>
       <c r="I696" s="1">
         <v>10</v>
@@ -34951,7 +35011,7 @@
         <v>11</v>
       </c>
       <c r="H697" s="1">
-        <v>54600000</v>
+        <v>56600000</v>
       </c>
       <c r="I697" s="1">
         <v>10</v>
@@ -34992,7 +35052,7 @@
         <v>11</v>
       </c>
       <c r="H698" s="1">
-        <v>54800000</v>
+        <v>56800000</v>
       </c>
       <c r="I698" s="1">
         <v>10</v>
@@ -35033,7 +35093,7 @@
         <v>11</v>
       </c>
       <c r="H699" s="1">
-        <v>55000000</v>
+        <v>57000000</v>
       </c>
       <c r="I699" s="1">
         <v>10</v>
@@ -35074,7 +35134,7 @@
         <v>11</v>
       </c>
       <c r="H700" s="1">
-        <v>55200000</v>
+        <v>57200000</v>
       </c>
       <c r="I700" s="1">
         <v>10</v>
@@ -35115,7 +35175,7 @@
         <v>11</v>
       </c>
       <c r="H701" s="1">
-        <v>55400000</v>
+        <v>57400000</v>
       </c>
       <c r="I701" s="1">
         <v>10</v>
@@ -35156,7 +35216,7 @@
         <v>11</v>
       </c>
       <c r="H702" s="1">
-        <v>55600000</v>
+        <v>57600000</v>
       </c>
       <c r="I702" s="1">
         <v>10</v>
@@ -35197,7 +35257,7 @@
         <v>11</v>
       </c>
       <c r="H703" s="1">
-        <v>55800000</v>
+        <v>57800000</v>
       </c>
       <c r="I703" s="1">
         <v>10</v>
@@ -35238,7 +35298,7 @@
         <v>11</v>
       </c>
       <c r="H704" s="1">
-        <v>56000000</v>
+        <v>58000000</v>
       </c>
       <c r="I704" s="1">
         <v>10</v>
@@ -35499,6 +35559,416 @@
         <v>434</v>
       </c>
       <c r="M710" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A711" s="1">
+        <v>709</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D711" s="1">
+        <v>0</v>
+      </c>
+      <c r="E711" s="1">
+        <v>1</v>
+      </c>
+      <c r="F711" s="1">
+        <v>5735000000</v>
+      </c>
+      <c r="G711" s="1">
+        <v>11</v>
+      </c>
+      <c r="H711" s="1">
+        <v>58200000</v>
+      </c>
+      <c r="I711" s="1">
+        <v>10</v>
+      </c>
+      <c r="J711" s="1">
+        <v>0</v>
+      </c>
+      <c r="K711" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L711" t="s">
+        <v>671</v>
+      </c>
+      <c r="M711" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A712" s="1">
+        <v>710</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D712" s="1">
+        <v>0</v>
+      </c>
+      <c r="E712" s="1">
+        <v>1</v>
+      </c>
+      <c r="F712" s="1">
+        <v>5755000000</v>
+      </c>
+      <c r="G712" s="1">
+        <v>11</v>
+      </c>
+      <c r="H712" s="1">
+        <v>58400000</v>
+      </c>
+      <c r="I712" s="1">
+        <v>10</v>
+      </c>
+      <c r="J712" s="1">
+        <v>0</v>
+      </c>
+      <c r="K712" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L712" t="s">
+        <v>672</v>
+      </c>
+      <c r="M712" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A713" s="1">
+        <v>711</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D713" s="1">
+        <v>0</v>
+      </c>
+      <c r="E713" s="1">
+        <v>1</v>
+      </c>
+      <c r="F713" s="1">
+        <v>5775000000</v>
+      </c>
+      <c r="G713" s="1">
+        <v>11</v>
+      </c>
+      <c r="H713" s="1">
+        <v>58600000</v>
+      </c>
+      <c r="I713" s="1">
+        <v>10</v>
+      </c>
+      <c r="J713" s="1">
+        <v>0</v>
+      </c>
+      <c r="K713" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L713" t="s">
+        <v>673</v>
+      </c>
+      <c r="M713" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A714" s="1">
+        <v>712</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D714" s="1">
+        <v>0</v>
+      </c>
+      <c r="E714" s="1">
+        <v>1</v>
+      </c>
+      <c r="F714" s="1">
+        <v>5795000000</v>
+      </c>
+      <c r="G714" s="1">
+        <v>11</v>
+      </c>
+      <c r="H714" s="1">
+        <v>58800000</v>
+      </c>
+      <c r="I714" s="1">
+        <v>10</v>
+      </c>
+      <c r="J714" s="1">
+        <v>0</v>
+      </c>
+      <c r="K714" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L714" t="s">
+        <v>674</v>
+      </c>
+      <c r="M714" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A715" s="1">
+        <v>713</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D715" s="1">
+        <v>0</v>
+      </c>
+      <c r="E715" s="1">
+        <v>1</v>
+      </c>
+      <c r="F715" s="1">
+        <v>5815000000</v>
+      </c>
+      <c r="G715" s="1">
+        <v>11</v>
+      </c>
+      <c r="H715" s="1">
+        <v>59000000</v>
+      </c>
+      <c r="I715" s="1">
+        <v>10</v>
+      </c>
+      <c r="J715" s="1">
+        <v>0</v>
+      </c>
+      <c r="K715" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L715" t="s">
+        <v>675</v>
+      </c>
+      <c r="M715" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A716" s="1">
+        <v>714</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D716" s="1">
+        <v>0</v>
+      </c>
+      <c r="E716" s="1">
+        <v>1</v>
+      </c>
+      <c r="F716" s="1">
+        <v>5835000000</v>
+      </c>
+      <c r="G716" s="1">
+        <v>11</v>
+      </c>
+      <c r="H716" s="1">
+        <v>59200000</v>
+      </c>
+      <c r="I716" s="1">
+        <v>10</v>
+      </c>
+      <c r="J716" s="1">
+        <v>0</v>
+      </c>
+      <c r="K716" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L716" t="s">
+        <v>676</v>
+      </c>
+      <c r="M716" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A717" s="1">
+        <v>715</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D717" s="1">
+        <v>0</v>
+      </c>
+      <c r="E717" s="1">
+        <v>1</v>
+      </c>
+      <c r="F717" s="1">
+        <v>5855000000</v>
+      </c>
+      <c r="G717" s="1">
+        <v>11</v>
+      </c>
+      <c r="H717" s="1">
+        <v>59400000</v>
+      </c>
+      <c r="I717" s="1">
+        <v>10</v>
+      </c>
+      <c r="J717" s="1">
+        <v>0</v>
+      </c>
+      <c r="K717" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L717" t="s">
+        <v>677</v>
+      </c>
+      <c r="M717" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A718" s="1">
+        <v>716</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D718" s="1">
+        <v>0</v>
+      </c>
+      <c r="E718" s="1">
+        <v>1</v>
+      </c>
+      <c r="F718" s="1">
+        <v>5875000000</v>
+      </c>
+      <c r="G718" s="1">
+        <v>11</v>
+      </c>
+      <c r="H718" s="1">
+        <v>59600000</v>
+      </c>
+      <c r="I718" s="1">
+        <v>10</v>
+      </c>
+      <c r="J718" s="1">
+        <v>0</v>
+      </c>
+      <c r="K718" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L718" t="s">
+        <v>678</v>
+      </c>
+      <c r="M718" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A719" s="1">
+        <v>717</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D719" s="1">
+        <v>0</v>
+      </c>
+      <c r="E719" s="1">
+        <v>1</v>
+      </c>
+      <c r="F719" s="1">
+        <v>5895000000</v>
+      </c>
+      <c r="G719" s="1">
+        <v>11</v>
+      </c>
+      <c r="H719" s="1">
+        <v>59800000</v>
+      </c>
+      <c r="I719" s="1">
+        <v>10</v>
+      </c>
+      <c r="J719" s="1">
+        <v>0</v>
+      </c>
+      <c r="K719" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L719" t="s">
+        <v>650</v>
+      </c>
+      <c r="M719" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A720" s="1">
+        <v>718</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D720" s="1">
+        <v>0</v>
+      </c>
+      <c r="E720" s="1">
+        <v>1</v>
+      </c>
+      <c r="F720" s="1">
+        <v>5915000000</v>
+      </c>
+      <c r="G720" s="1">
+        <v>11</v>
+      </c>
+      <c r="H720" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="I720" s="1">
+        <v>10</v>
+      </c>
+      <c r="J720" s="1">
+        <v>0</v>
+      </c>
+      <c r="K720" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L720" t="s">
+        <v>679</v>
+      </c>
+      <c r="M720" s="1">
         <v>11</v>
       </c>
     </row>
